--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\dev\contract\document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="8610"/>
   </bookViews>
@@ -1015,7 +1010,7 @@
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="43">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1437,579 +1432,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3567,11 +2992,11 @@
       <c r="G60" s="8"/>
       <c r="H60" s="9"/>
       <c r="I60" s="27" t="str">
-        <f>"," &amp; IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; IF(A60="",""," */")</f>
+        <f t="shared" ref="I60:I66" si="16">"," &amp; IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; IF(A60="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J60" s="29" t="str">
-        <f>"," &amp; IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; IF(A60="",""," */")</f>
+        <f t="shared" ref="J60:J66" si="17">"," &amp; IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; IF(A60="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
@@ -3591,11 +3016,11 @@
       <c r="G61" s="8"/>
       <c r="H61" s="9"/>
       <c r="I61" s="27" t="str">
-        <f>"," &amp; IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; IF(A61="",""," */")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">,`issued` DATE </v>
       </c>
       <c r="J61" s="29" t="str">
-        <f>"," &amp; IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; IF(A61="",""," */")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
@@ -3615,11 +3040,11 @@
       <c r="G62" s="8"/>
       <c r="H62" s="9"/>
       <c r="I62" s="27" t="str">
-        <f>"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J62" s="29" t="str">
-        <f>"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
@@ -3639,11 +3064,11 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
       <c r="I63" s="27" t="str">
-        <f>"," &amp; IF(A63="","","/* ") &amp; "`" &amp; C63 &amp; "` " &amp; D63 &amp; IF(E63&gt;0,"(" &amp; E63 &amp; ") "," ") &amp; IF(F63&lt;&gt;"","NOT NULL ","") &amp; IF(G63="","","DEFAULT '" &amp; G63 &amp; "' ") &amp; IF(A63="",""," */")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J63" s="29" t="str">
-        <f>"," &amp; IF(A63="","","/* ") &amp; "`" &amp; C63 &amp; "` " &amp; D63 &amp; IF(E63&gt;0,"(" &amp; E63 &amp; ") "," ") &amp; IF(F63&lt;&gt;"","NOT NULL ","") &amp; IF(G63="","","DEFAULT '" &amp; G63 &amp; "' ") &amp; IF(A63="",""," */")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
@@ -3663,11 +3088,11 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
       <c r="I64" s="27" t="str">
-        <f>"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J64" s="29" t="str">
-        <f>"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
@@ -3689,11 +3114,11 @@
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
       <c r="I65" s="27" t="str">
-        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J65" s="29" t="str">
-        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
@@ -3713,11 +3138,11 @@
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
       <c r="I66" s="27" t="str">
-        <f>"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J66" s="29" t="str">
-        <f>"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
@@ -3737,11 +3162,11 @@
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
       <c r="I67" s="27" t="str">
-        <f t="shared" ref="I67" si="16">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <f t="shared" ref="I67" si="18">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
         <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J67" s="29" t="str">
-        <f t="shared" ref="J67" si="17">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <f t="shared" ref="J67" si="19">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
         <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
@@ -3785,11 +3210,11 @@
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
       <c r="I69" s="27" t="str">
-        <f t="shared" ref="I69:I75" si="18">"," &amp; IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; IF(A69="",""," */")</f>
+        <f t="shared" ref="I69:I75" si="20">"," &amp; IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; IF(A69="",""," */")</f>
         <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J69" s="29" t="str">
-        <f t="shared" ref="J69:J75" si="19">"," &amp; IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; IF(A69="",""," */")</f>
+        <f t="shared" ref="J69:J75" si="21">"," &amp; IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; IF(A69="",""," */")</f>
         <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
@@ -3811,11 +3236,11 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
       <c r="I70" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`application` VARCHAR(256) </v>
       </c>
       <c r="J70" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`application` VARCHAR(256) </v>
       </c>
     </row>
@@ -3837,11 +3262,11 @@
       <c r="G71" s="8"/>
       <c r="H71" s="9"/>
       <c r="I71" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J71" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
@@ -3861,11 +3286,11 @@
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
       <c r="I72" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J72" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
@@ -3887,11 +3312,11 @@
       <c r="G73" s="8"/>
       <c r="H73" s="9"/>
       <c r="I73" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J73" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
@@ -3911,11 +3336,11 @@
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
       <c r="I74" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J74" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
@@ -3935,11 +3360,11 @@
       <c r="G75" s="8"/>
       <c r="H75" s="9"/>
       <c r="I75" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J75" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
@@ -4036,11 +3461,11 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
       <c r="I80" s="27" t="str">
-        <f>"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
+        <f t="shared" ref="I80:I86" si="22">"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J80" s="29" t="str">
-        <f>"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
+        <f t="shared" ref="J80:J86" si="23">"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
@@ -4060,11 +3485,11 @@
       <c r="G81" s="8"/>
       <c r="H81" s="9"/>
       <c r="I81" s="27" t="str">
-        <f>"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`issued` DATE </v>
       </c>
       <c r="J81" s="29" t="str">
-        <f>"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
@@ -4084,11 +3509,11 @@
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
       <c r="I82" s="27" t="str">
-        <f>"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J82" s="29" t="str">
-        <f>"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
@@ -4108,11 +3533,11 @@
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
       <c r="I83" s="27" t="str">
-        <f>"," &amp; IF(A83="","","/* ") &amp; "`" &amp; C83 &amp; "` " &amp; D83 &amp; IF(E83&gt;0,"(" &amp; E83 &amp; ") "," ") &amp; IF(F83&lt;&gt;"","NOT NULL ","") &amp; IF(G83="","","DEFAULT '" &amp; G83 &amp; "' ") &amp; IF(A83="",""," */")</f>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J83" s="29" t="str">
-        <f>"," &amp; IF(A83="","","/* ") &amp; "`" &amp; C83 &amp; "` " &amp; D83 &amp; IF(E83&gt;0,"(" &amp; E83 &amp; ") "," ") &amp; IF(F83&lt;&gt;"","NOT NULL ","") &amp; IF(G83="","","DEFAULT '" &amp; G83 &amp; "' ") &amp; IF(A83="",""," */")</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
@@ -4132,11 +3557,11 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
       <c r="I84" s="27" t="str">
-        <f>"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J84" s="29" t="str">
-        <f>"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
@@ -4158,11 +3583,11 @@
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
       <c r="I85" s="27" t="str">
-        <f>"," &amp; IF(A85="","","/* ") &amp; "`" &amp; C85 &amp; "` " &amp; D85 &amp; IF(E85&gt;0,"(" &amp; E85 &amp; ") "," ") &amp; IF(F85&lt;&gt;"","NOT NULL ","") &amp; IF(G85="","","DEFAULT '" &amp; G85 &amp; "' ") &amp; IF(A85="",""," */")</f>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J85" s="29" t="str">
-        <f>"," &amp; IF(A85="","","/* ") &amp; "`" &amp; C85 &amp; "` " &amp; D85 &amp; IF(E85&gt;0,"(" &amp; E85 &amp; ") "," ") &amp; IF(F85&lt;&gt;"","NOT NULL ","") &amp; IF(G85="","","DEFAULT '" &amp; G85 &amp; "' ") &amp; IF(A85="",""," */")</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
@@ -4182,11 +3607,11 @@
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
       <c r="I86" s="27" t="str">
-        <f>"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J86" s="29" t="str">
-        <f>"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
@@ -4206,11 +3631,11 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
       <c r="I87" s="27" t="str">
-        <f t="shared" ref="I87" si="20">"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
+        <f t="shared" ref="I87" si="24">"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
         <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J87" s="29" t="str">
-        <f t="shared" ref="J87" si="21">"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
+        <f t="shared" ref="J87" si="25">"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
         <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
@@ -4254,11 +3679,11 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
       <c r="I89" s="27" t="str">
-        <f t="shared" ref="I89:I95" si="22">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
+        <f t="shared" ref="I89:I95" si="26">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
         <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J89" s="29" t="str">
-        <f t="shared" ref="J89:J95" si="23">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
+        <f t="shared" ref="J89:J95" si="27">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
         <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
@@ -4280,11 +3705,11 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
       <c r="I90" s="27" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">,`application` VARCHAR(256) </v>
       </c>
       <c r="J90" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">,`application` VARCHAR(256) </v>
       </c>
     </row>
@@ -4306,11 +3731,11 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
       <c r="I91" s="27" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J91" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
@@ -4330,11 +3755,11 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
       <c r="I92" s="27" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J92" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
@@ -4356,11 +3781,11 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
       <c r="I93" s="27" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J93" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
@@ -4380,11 +3805,11 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
       <c r="I94" s="27" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J94" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
@@ -4404,11 +3829,11 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
       <c r="I95" s="27" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J95" s="29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
@@ -4431,217 +3856,217 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="expression" dxfId="65" priority="90">
+    <cfRule type="expression" dxfId="42" priority="90">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7 A27:A28 A76:A77 A49 A51 A42:A43 A67:A68 A13:A14 A56:A60 A21:A23">
-    <cfRule type="cellIs" dxfId="64" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="89" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A11:A12">
-    <cfRule type="cellIs" dxfId="63" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="88" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="62" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="87" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="61" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="86" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="60" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="82" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45 A52:A55">
-    <cfRule type="cellIs" dxfId="59" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="80" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="58" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="79" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="57" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="78" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="56" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="76" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="55" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="73" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="54" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="71" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A41 A29:A30 A32">
-    <cfRule type="cellIs" dxfId="53" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="72" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34 A36">
-    <cfRule type="cellIs" dxfId="52" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="66" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 A39">
-    <cfRule type="cellIs" dxfId="51" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="65" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="50" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="64" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="49" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="63" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="48" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="62" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="47" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="61" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="46" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="60" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="58" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="44" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="57" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A73">
-    <cfRule type="cellIs" dxfId="43" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="56" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A75">
-    <cfRule type="cellIs" dxfId="42" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="55" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96 A78">
-    <cfRule type="cellIs" dxfId="41" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="54" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="48" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="40" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="39" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="38" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="37" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A20 A15:A17">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:A88 A79:A80">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A93">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:A95">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4721,5 +4146,6 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="TYPE">Data!$A$1:$A$10</definedName>
+    <definedName name="TYPE">Data!$A$1:$A$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="161">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -153,19 +153,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>契約書番号</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>特記事項</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -269,21 +256,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>取引日</t>
-    <rPh sb="0" eb="3">
-      <t>トリヒキビ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>proof</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>エビデンス</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>格納場所</t>
     <rPh sb="0" eb="2">
       <t>カクノウ</t>
@@ -329,10 +301,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>amount_money</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>notice</t>
   </si>
   <si>
@@ -469,7 +437,203 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>order_date</t>
+    <t>受注</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>license_no</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>product_code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>申込書</t>
+    <rPh sb="0" eb="3">
+      <t>モウシコミショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ライセンス履歴</t>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>licensehistories</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ライセンス数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>license_qty</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>発行日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>client_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>customer_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>license_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>customers</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>statuses</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>status_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>client_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注日</t>
+    <rPh sb="0" eb="3">
+      <t>ジュチュウビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>納品予定日</t>
+    <rPh sb="0" eb="5">
+      <t>ノウヒンヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>売上予定日</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ステータスMsg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>商品小分類</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>売上先1</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>売上先2</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>取引先CD</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注明細番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>メイサイバンゴウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -477,147 +641,229 @@
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>商品説明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>order_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>delivery_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sales_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>product_detail</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>order_no</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>order_detail_no</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>発注番号</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>purchase_no</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>status_msg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>product_category</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>company_code</t>
+  </si>
+  <si>
+    <t>company_code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>company_name1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>company_name2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>相手先</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ホスト</t>
+  </si>
+  <si>
+    <t>ホスト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>identity1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>identity2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>識別コード1</t>
+    <rPh sb="0" eb="2">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>識別コード2</t>
+    <rPh sb="0" eb="2">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>証書番号</t>
+    <rPh sb="0" eb="2">
+      <t>ショウショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>relate_no</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>関連番号</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ライセンス名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>受注</t>
+    <t>言語</t>
     <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ライセンス対象</t>
-    <rPh sb="5" eb="7">
-      <t>タイショウ</t>
+      <t>ゲンゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>license_no</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>製品名</t>
-    <rPh sb="0" eb="3">
-      <t>セイヒンメイ</t>
-    </rPh>
+    <t>language</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>キー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>product_code</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>申込書</t>
-    <rPh sb="0" eb="3">
-      <t>モウシコミショ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>application</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ライセンス履歴</t>
-    <rPh sb="5" eb="7">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>licensehistories</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ライセンス数</t>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>license_qty</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>発行日</t>
-    <rPh sb="0" eb="2">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>issued</t>
-  </si>
-  <si>
-    <t>client_id</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>顧客</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>customer_id</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>license_name</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>customers</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ステータス</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>statuses</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>状態</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>status_id</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>orders</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>order_name</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>client_name</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>customer_name</t>
+    <t>license_key</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パートナー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>partner_flag</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>BOOL</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -625,7 +871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,8 +968,16 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +1033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1263,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - アクセント 3" xfId="3" builtinId="38"/>
@@ -1010,7 +1306,637 @@
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="155">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1435,6 +2361,496 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1654,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1670,7 +3086,7 @@
     <col min="6" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="24.44140625" style="25" customWidth="1"/>
+    <col min="9" max="10" width="20.33203125" style="25" customWidth="1"/>
     <col min="11" max="13" width="7.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
@@ -1681,7 +3097,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -1707,11 +3123,11 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>0</v>
@@ -1739,7 +3155,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1763,11 +3179,11 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="20" t="s">
-        <v>44</v>
+      <c r="B7" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1789,11 +3205,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="20" t="s">
-        <v>39</v>
+      <c r="B8" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
@@ -1815,11 +3231,11 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
-      <c r="B9" s="20" t="s">
-        <v>45</v>
+      <c r="B9" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -1841,11 +3257,11 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
-      <c r="B10" s="20" t="s">
-        <v>46</v>
+      <c r="B10" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
@@ -1867,11 +3283,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
-      <c r="B11" s="20" t="s">
-        <v>47</v>
+      <c r="B11" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -1891,11 +3307,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
-      <c r="B12" s="20" t="s">
-        <v>48</v>
+      <c r="B12" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
@@ -1926,7 +3342,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1934,11 +3350,11 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
-      <c r="B15" s="13" t="s">
-        <v>109</v>
+      <c r="B15" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>0</v>
@@ -1966,7 +3382,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1990,11 +3406,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
-      <c r="B17" s="20" t="s">
-        <v>111</v>
+      <c r="B17" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
@@ -2016,11 +3432,11 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
-      <c r="B18" s="20" t="s">
-        <v>39</v>
+      <c r="B18" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>7</v>
@@ -2053,7 +3469,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -2062,10 +3478,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>0</v>
@@ -2118,10 +3534,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -2129,328 +3545,336 @@
       <c r="E23" s="7">
         <v>128</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="27" t="str">
         <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
-        <v xml:space="preserve">,`client_name` VARCHAR(128) </v>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
       </c>
       <c r="J23" s="29" t="str">
         <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
-        <v xml:space="preserve">,`client_name` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="6" t="s">
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="34"/>
+      <c r="B24" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="7">
-        <v>128</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="27" t="str">
+      <c r="E24" s="36">
+        <v>20</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="40" t="str">
         <f>"," &amp; IF(A24="","","/* ") &amp; "`" &amp; C24 &amp; "` " &amp; D24 &amp; IF(E24&gt;0,"(" &amp; E24 &amp; ") "," ") &amp; IF(F24&lt;&gt;"","NOT NULL ","") &amp; IF(G24="","","DEFAULT '" &amp; G24 &amp; "' ") &amp; IF(A24="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(128) </v>
-      </c>
-      <c r="J24" s="29" t="str">
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+      <c r="J24" s="41" t="str">
         <f>"," &amp; IF(A24="","","/* ") &amp; "`" &amp; C24 &amp; "` " &amp; D24 &amp; IF(E24&gt;0,"(" &amp; E24 &amp; ") "," ") &amp; IF(F24&lt;&gt;"","NOT NULL ","") &amp; IF(G24="","","DEFAULT '" &amp; G24 &amp; "' ") &amp; IF(A24="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="6" t="s">
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="34"/>
+      <c r="B25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="7">
-        <v>64</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="27" t="str">
+      <c r="E25" s="36">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="40" t="str">
         <f>"," &amp; IF(A25="","","/* ") &amp; "`" &amp; C25 &amp; "` " &amp; D25 &amp; IF(E25&gt;0,"(" &amp; E25 &amp; ") "," ") &amp; IF(F25&lt;&gt;"","NOT NULL ","") &amp; IF(G25="","","DEFAULT '" &amp; G25 &amp; "' ") &amp; IF(A25="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(64) </v>
-      </c>
-      <c r="J25" s="29" t="str">
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+      <c r="J25" s="41" t="str">
         <f>"," &amp; IF(A25="","","/* ") &amp; "`" &amp; C25 &amp; "` " &amp; D25 &amp; IF(E25&gt;0,"(" &amp; E25 &amp; ") "," ") &amp; IF(F25&lt;&gt;"","NOT NULL ","") &amp; IF(G25="","","DEFAULT '" &amp; G25 &amp; "' ") &amp; IF(A25="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="27" t="str">
-        <f t="shared" ref="I26" si="2">"," &amp; IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; IF(A26="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J26" s="29" t="str">
-        <f t="shared" ref="J26" si="3">"," &amp; IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; IF(A26="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="34"/>
+      <c r="B26" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="40" t="str">
+        <f>"," &amp; IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; IF(A26="",""," */")</f>
+        <v xml:space="preserve">,`partner_flag` INT </v>
+      </c>
+      <c r="J26" s="41" t="str">
+        <f>"," &amp; IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; IF(A26="",""," */")</f>
+        <v xml:space="preserve">,`partner_flag` INT </v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>34</v>
+      <c r="B27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="27" t="str">
+        <f t="shared" ref="I27" si="2">"," &amp; IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; IF(A27="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J27" s="29" t="str">
+        <f t="shared" ref="J27" si="3">"," &amp; IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; IF(A27="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
-      <c r="B29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C29 &amp; "` ("</f>
-        <v>CREATE TABLE `customers` (</v>
-      </c>
-      <c r="J29" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C29 &amp; "` ("</f>
-        <v>CREATE TABLE `customers` (</v>
-      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
-      <c r="B30" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>20</v>
+      <c r="B30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C30 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
+      </c>
+      <c r="J30" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C30 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="20" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="27" t="str">
-        <f>"," &amp; IF(A31="","","/* ") &amp; "`" &amp; C31 &amp; "` " &amp; D31 &amp; IF(E31&gt;0,"(" &amp; E31 &amp; ") "," ") &amp; IF(F31&lt;&gt;"","NOT NULL ","") &amp; IF(G31="","","DEFAULT '" &amp; G31 &amp; "' ") &amp; IF(A31="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-      <c r="J31" s="29" t="str">
-        <f>"," &amp; IF(A31="","","/* ") &amp; "`" &amp; C31 &amp; "` " &amp; D31 &amp; IF(E31&gt;0,"(" &amp; E31 &amp; ") "," ") &amp; IF(F31&lt;&gt;"","NOT NULL ","") &amp; IF(G31="","","DEFAULT '" &amp; G31 &amp; "' ") &amp; IF(A31="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+      <c r="I31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="7">
-        <v>128</v>
-      </c>
-      <c r="F32" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="I32" s="27" t="str">
         <f>"," &amp; IF(A32="","","/* ") &amp; "`" &amp; C32 &amp; "` " &amp; D32 &amp; IF(E32&gt;0,"(" &amp; E32 &amp; ") "," ") &amp; IF(F32&lt;&gt;"","NOT NULL ","") &amp; IF(G32="","","DEFAULT '" &amp; G32 &amp; "' ") &amp; IF(A32="",""," */")</f>
-        <v xml:space="preserve">,`customer_name` VARCHAR(128) </v>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
       <c r="J32" s="29" t="str">
         <f>"," &amp; IF(A32="","","/* ") &amp; "`" &amp; C32 &amp; "` " &amp; D32 &amp; IF(E32&gt;0,"(" &amp; E32 &amp; ") "," ") &amp; IF(F32&lt;&gt;"","NOT NULL ","") &amp; IF(G32="","","DEFAULT '" &amp; G32 &amp; "' ") &amp; IF(A32="",""," */")</f>
-        <v xml:space="preserve">,`customer_name` VARCHAR(128) </v>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="20" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E33" s="7">
+        <v>128</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
       <c r="I33" s="27" t="str">
-        <f t="shared" ref="I33" si="4">"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
       </c>
       <c r="J33" s="29" t="str">
-        <f t="shared" ref="J33" si="5">"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="2"/>
-      <c r="B34" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="34"/>
+      <c r="B34" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="7">
-        <v>128</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="27" t="str">
-        <f t="shared" ref="I34:I36" si="6">"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
-        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
-      </c>
-      <c r="J34" s="29" t="str">
-        <f t="shared" ref="J34:J36" si="7">"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
-        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="2"/>
-      <c r="B35" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="E34" s="36">
+        <v>512</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="40" t="str">
+        <f>"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+      <c r="J34" s="41" t="str">
+        <f>"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="34"/>
+      <c r="B35" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="7">
-        <v>128</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="27" t="str">
+      <c r="E35" s="36">
+        <v>4</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="40" t="str">
         <f>"," &amp; IF(A35="","","/* ") &amp; "`" &amp; C35 &amp; "` " &amp; D35 &amp; IF(E35&gt;0,"(" &amp; E35 &amp; ") "," ") &amp; IF(F35&lt;&gt;"","NOT NULL ","") &amp; IF(G35="","","DEFAULT '" &amp; G35 &amp; "' ") &amp; IF(A35="",""," */")</f>
-        <v xml:space="preserve">,`div1` VARCHAR(128) </v>
-      </c>
-      <c r="J35" s="29" t="str">
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      </c>
+      <c r="J35" s="41" t="str">
         <f>"," &amp; IF(A35="","","/* ") &amp; "`" &amp; C35 &amp; "` " &amp; D35 &amp; IF(E35&gt;0,"(" &amp; E35 &amp; ") "," ") &amp; IF(F35&lt;&gt;"","NOT NULL ","") &amp; IF(G35="","","DEFAULT '" &amp; G35 &amp; "' ") &amp; IF(A35="",""," */")</f>
-        <v xml:space="preserve">,`div1` VARCHAR(128) </v>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="7">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
       <c r="I36" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,`mail1` VARCHAR(128) </v>
+        <f>"," &amp; IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; IF(A36="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J36" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">,`mail1` VARCHAR(128) </v>
+        <f>"," &amp; IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; IF(A36="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="20" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>7</v>
@@ -2462,47 +3886,45 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
       <c r="I37" s="27" t="str">
-        <f t="shared" ref="I37:I39" si="8">"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
-        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+        <f>"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
       <c r="J37" s="29" t="str">
-        <f t="shared" ref="J37:J39" si="9">"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
-        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+        <f>"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="20" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="7">
-        <v>128</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="6"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
       <c r="I38" s="27" t="str">
         <f>"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
-        <v xml:space="preserve">,`div2` VARCHAR(128) </v>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J38" s="29" t="str">
         <f>"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
-        <v xml:space="preserve">,`div2` VARCHAR(128) </v>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="20" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>7</v>
@@ -2514,942 +3936,979 @@
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
       <c r="I39" s="27" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`mail2` VARCHAR(128) </v>
+        <f t="shared" ref="I39:I41" si="4">"," &amp; IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; IF(A39="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
       </c>
       <c r="J39" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`mail2` VARCHAR(128) </v>
+        <f t="shared" ref="J39:J41" si="5">"," &amp; IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; IF(A39="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="29" t="s">
-        <v>34</v>
+      <c r="B40" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="7">
+        <v>256</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="27" t="str">
+        <f>"," &amp; IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; IF(A40="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+      <c r="J40" s="29" t="str">
+        <f>"," &amp; IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; IF(A40="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
+      <c r="B41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="7">
+        <v>256</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+      <c r="J41" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
-      <c r="B42" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="B42" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="7">
+        <v>128</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C42 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
+        <f t="shared" ref="I42:I44" si="6">"," &amp; IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; IF(A42="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
       </c>
       <c r="J42" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C42 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
+        <f t="shared" ref="J42:J44" si="7">"," &amp; IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; IF(A42="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="20" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E43" s="7">
+        <v>256</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="30" t="s">
-        <v>20</v>
+      <c r="I43" s="27" t="str">
+        <f>"," &amp; IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; IF(A43="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+      <c r="J43" s="29" t="str">
+        <f>"," &amp; IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; IF(A43="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E44" s="7">
+        <v>256</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
       <c r="I44" s="27" t="str">
-        <f>"," &amp; IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; IF(A44="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
       </c>
       <c r="J44" s="29" t="str">
-        <f>"," &amp; IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; IF(A44="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
-      <c r="B45" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="27" t="str">
-        <f t="shared" ref="I45" si="10">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
-        <v xml:space="preserve">,`order_date` DATE </v>
-      </c>
-      <c r="J45" s="29" t="str">
-        <f t="shared" ref="J45" si="11">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
-        <v xml:space="preserve">,`order_date` DATE </v>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
-      <c r="B46" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="7">
-        <v>64</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="27" t="str">
-        <f t="shared" ref="I46:I51" si="12">"," &amp; IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; IF(A46="",""," */")</f>
-        <v xml:space="preserve">,`product_code` VARCHAR(64) </v>
-      </c>
-      <c r="J46" s="29" t="str">
-        <f t="shared" ref="J46:J51" si="13">"," &amp; IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; IF(A46="",""," */")</f>
-        <v xml:space="preserve">,`product_code` VARCHAR(64) </v>
-      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
-      <c r="B47" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="7">
-        <v>128</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
+      <c r="B47" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I47" s="27" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`order_name` VARCHAR(128) </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C47 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
       </c>
       <c r="J47" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`order_name` VARCHAR(128) </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C47 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="20" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="27" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`quantity` INT </v>
-      </c>
-      <c r="J48" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`quantity` INT </v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="27" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`amount_money` INT </v>
-      </c>
-      <c r="J49" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`amount_money` INT </v>
+      <c r="I48" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="34"/>
+      <c r="B49" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="36">
+        <v>20</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I49" s="40" t="str">
+        <f t="shared" ref="I49:I61" si="8">"," &amp; IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; IF(A49="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+      <c r="J49" s="41" t="str">
+        <f t="shared" ref="J49:J61" si="9">"," &amp; IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; IF(A49="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="36">
+        <v>256</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+      </c>
+      <c r="J50" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="34"/>
+      <c r="B51" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="36">
+        <v>256</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+      <c r="J51" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="34"/>
+      <c r="B52" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+      <c r="J52" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="34"/>
+      <c r="B53" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="36">
+        <v>20</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+      </c>
+      <c r="J53" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="34"/>
+      <c r="B54" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="36">
+        <v>20</v>
+      </c>
+      <c r="F54" s="35"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+      </c>
+      <c r="J54" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="34"/>
+      <c r="B55" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="36">
+        <v>20</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+      </c>
+      <c r="J55" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="34"/>
+      <c r="B56" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
+      </c>
+      <c r="J56" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="34"/>
+      <c r="B57" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
+      </c>
+      <c r="J57" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="34"/>
+      <c r="B58" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="36">
+        <v>64</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+      <c r="J58" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="34"/>
+      <c r="B59" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="27" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(128) </v>
-      </c>
-      <c r="J50" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="D59" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="36">
+        <v>256</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+      <c r="J59" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="34"/>
+      <c r="B60" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D60" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="7">
-        <v>64</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="27" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(64) </v>
-      </c>
-      <c r="J51" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
-      <c r="B52" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="E60" s="36">
+        <v>20</v>
+      </c>
+      <c r="F60" s="35"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+      <c r="J60" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="34"/>
+      <c r="B61" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E61" s="36">
         <v>256</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="27" t="str">
-        <f t="shared" ref="I52:I55" si="14">"," &amp; IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; IF(A52="",""," */")</f>
-        <v xml:space="preserve">,`proof` VARCHAR(256) </v>
-      </c>
-      <c r="J52" s="29" t="str">
-        <f t="shared" ref="J52:J55" si="15">"," &amp; IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; IF(A52="",""," */")</f>
-        <v xml:space="preserve">,`proof` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="F61" s="35"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J61" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="34"/>
+      <c r="B62" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="7">
-        <v>256</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="27" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
-      </c>
-      <c r="J53" s="29" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54" s="2"/>
-      <c r="B54" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="C62" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D62" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="27" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-      <c r="J54" s="29" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="2"/>
-      <c r="B55" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="7">
-        <v>64</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="27" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-      <c r="J55" s="29" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56" s="2"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58" s="2"/>
-      <c r="B58" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C58 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-      <c r="J58" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C58 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59" s="2"/>
-      <c r="B59" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="E62" s="36"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="40" t="str">
+        <f t="shared" ref="I62:I63" si="10">"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+      <c r="J62" s="41" t="str">
+        <f t="shared" ref="J62:J63" si="11">"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="34"/>
+      <c r="B63" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="2"/>
-      <c r="B60" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="7">
-        <v>20</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="27" t="str">
-        <f t="shared" ref="I60:I66" si="16">"," &amp; IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; IF(A60="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-      <c r="J60" s="29" t="str">
-        <f t="shared" ref="J60:J66" si="17">"," &amp; IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; IF(A60="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="2"/>
-      <c r="B61" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-      <c r="J61" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A62" s="2"/>
-      <c r="B62" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`status_id` INT </v>
-      </c>
-      <c r="J62" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`status_id` INT </v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A63" s="2"/>
-      <c r="B63" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J63" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`customer_id` INT </v>
+      <c r="E63" s="36"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J63" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`price` INT </v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E64" s="7">
+        <v>256</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
       <c r="I64" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <f>"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J64" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <f>"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="20" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="7">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
       <c r="I65" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
       <c r="J65" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A66" s="2"/>
-      <c r="B66" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-      <c r="J66" s="29" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
+        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="34"/>
+      <c r="B66" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="20" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E67" s="7">
+        <v>256</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="8"/>
       <c r="H67" s="9"/>
       <c r="I67" s="27" t="str">
-        <f t="shared" ref="I67" si="18">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" ref="I67:I70" si="12">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J67" s="29" t="str">
-        <f t="shared" ref="J67" si="19">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" ref="J67:J70" si="13">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="20" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E68" s="7">
+        <v>256</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
       <c r="I68" s="27" t="str">
-        <f>"," &amp; IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; IF(A68="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J68" s="29" t="str">
-        <f>"," &amp; IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; IF(A68="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="20" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="6"/>
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
       <c r="I69" s="27" t="str">
-        <f t="shared" ref="I69:I75" si="20">"," &amp; IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; IF(A69="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J69" s="29" t="str">
-        <f t="shared" ref="J69:J75" si="21">"," &amp; IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; IF(A69="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="20" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="7">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
       <c r="I70" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`application` VARCHAR(256) </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J70" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`application` VARCHAR(256) </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
-      <c r="B71" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="7">
-        <v>256</v>
-      </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
-      </c>
-      <c r="J71" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
-      <c r="B72" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-      <c r="J72" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="7">
-        <v>64</v>
-      </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
+      <c r="D73" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I73" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C73 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
       </c>
       <c r="J73" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C73 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="20" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G74" s="8"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-      <c r="J74" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A75" s="2"/>
-      <c r="B75" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-      <c r="J75" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+      <c r="I74" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="34"/>
+      <c r="B75" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="40" t="str">
+        <f>"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J75" s="41" t="str">
+        <f>"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" s="29" t="s">
-        <v>34</v>
+      <c r="B76" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="27" t="str">
+        <f>"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J76" s="29" t="str">
+        <f>"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
+      <c r="B77" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="27" t="str">
+        <f>"," &amp; IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; IF(A77="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J77" s="29" t="str">
+        <f>"," &amp; IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; IF(A77="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="C78" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
+        <f>"," &amp; IF(A78="","","/* ") &amp; "`" &amp; C78 &amp; "` " &amp; D78 &amp; IF(E78&gt;0,"(" &amp; E78 &amp; ") "," ") &amp; IF(F78&lt;&gt;"","NOT NULL ","") &amp; IF(G78="","","DEFAULT '" &amp; G78 &amp; "' ") &amp; IF(A78="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J78" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
+        <f>"," &amp; IF(A78="","","/* ") &amp; "`" &amp; C78 &amp; "` " &amp; D78 &amp; IF(E78&gt;0,"(" &amp; E78 &amp; ") "," ") &amp; IF(F78&lt;&gt;"","NOT NULL ","") &amp; IF(G78="","","DEFAULT '" &amp; G78 &amp; "' ") &amp; IF(A78="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="20" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E79" s="7"/>
-      <c r="F79" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="30" t="s">
-        <v>20</v>
+      <c r="I79" s="27" t="str">
+        <f t="shared" ref="I79:I85" si="14">"," &amp; IF(A79="","","/* ") &amp; "`" &amp; C79 &amp; "` " &amp; D79 &amp; IF(E79&gt;0,"(" &amp; E79 &amp; ") "," ") &amp; IF(F79&lt;&gt;"","NOT NULL ","") &amp; IF(G79="","","DEFAULT '" &amp; G79 &amp; "' ") &amp; IF(A79="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J79" s="29" t="str">
+        <f t="shared" ref="J79:J85" si="15">"," &amp; IF(A79="","","/* ") &amp; "`" &amp; C79 &amp; "` " &amp; D79 &amp; IF(E79&gt;0,"(" &amp; E79 &amp; ") "," ") &amp; IF(F79&lt;&gt;"","NOT NULL ","") &amp; IF(G79="","","DEFAULT '" &amp; G79 &amp; "' ") &amp; IF(A79="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="20" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>7</v>
@@ -3461,167 +4920,173 @@
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
       <c r="I80" s="27" t="str">
-        <f t="shared" ref="I80:I86" si="22">"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
+        <f>"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J80" s="29" t="str">
-        <f t="shared" ref="J80:J86" si="23">"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
+        <f>"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81" s="2"/>
-      <c r="B81" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-      <c r="J81" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82" s="2"/>
-      <c r="B82" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`status_id` INT </v>
-      </c>
-      <c r="J82" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`status_id` INT </v>
+    <row r="81" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="34"/>
+      <c r="B81" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="36">
+        <v>20</v>
+      </c>
+      <c r="F81" s="35"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="40" t="str">
+        <f>"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J81" s="41" t="str">
+        <f>"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="34"/>
+      <c r="B82" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="36">
+        <v>256</v>
+      </c>
+      <c r="F82" s="35"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J82" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="20" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E83" s="7">
+        <v>256</v>
+      </c>
       <c r="F83" s="6"/>
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
       <c r="I83" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J83" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A84" s="2"/>
-      <c r="B84" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-      <c r="J84" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="34"/>
+      <c r="B84" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="36">
+        <v>64</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="40" t="str">
+        <f t="shared" ref="I84" si="16">"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
+        <v xml:space="preserve">,`language` VARCHAR(64) </v>
+      </c>
+      <c r="J84" s="41" t="str">
+        <f t="shared" ref="J84" si="17">"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
+        <v xml:space="preserve">,`language` VARCHAR(64) </v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="7">
-        <v>256</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E85" s="7"/>
       <c r="F85" s="6"/>
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
       <c r="I85" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J85" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="20" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="6"/>
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
       <c r="I86" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f t="shared" ref="I86" si="18">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J86" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f t="shared" ref="J86" si="19">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>9</v>
@@ -3631,45 +5096,47 @@
       <c r="G87" s="8"/>
       <c r="H87" s="9"/>
       <c r="I87" s="27" t="str">
-        <f t="shared" ref="I87" si="24">"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f>"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J87" s="29" t="str">
-        <f t="shared" ref="J87" si="25">"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A88" s="2"/>
-      <c r="B88" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="27" t="str">
-        <f>"," &amp; IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; IF(A88="",""," */")</f>
+        <f>"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
-      <c r="J88" s="29" t="str">
-        <f>"," &amp; IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; IF(A88="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+    </row>
+    <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="34"/>
+      <c r="B88" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="36">
+        <v>256</v>
+      </c>
+      <c r="F88" s="35"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="40" t="str">
+        <f t="shared" ref="I88" si="20">"," &amp; IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; IF(A88="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J88" s="41" t="str">
+        <f t="shared" ref="J88" si="21">"," &amp; IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; IF(A88="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>11</v>
@@ -3679,21 +5146,21 @@
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
       <c r="I89" s="27" t="str">
-        <f t="shared" ref="I89:I95" si="26">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
+        <f t="shared" ref="I89:I95" si="22">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
         <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J89" s="29" t="str">
-        <f t="shared" ref="J89:J95" si="27">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
+        <f t="shared" ref="J89:J95" si="23">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
         <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>7</v>
@@ -3705,21 +5172,21 @@
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
       <c r="I90" s="27" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,`application` VARCHAR(256) </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J90" s="29" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">,`application` VARCHAR(256) </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>7</v>
@@ -3731,21 +5198,21 @@
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
       <c r="I91" s="27" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J91" s="29" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>5</v>
@@ -3755,21 +5222,21 @@
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
       <c r="I92" s="27" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J92" s="29" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>7</v>
@@ -3781,21 +5248,21 @@
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
       <c r="I93" s="27" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J93" s="29" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>8</v>
@@ -3805,21 +5272,21 @@
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
       <c r="I94" s="27" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J94" s="29" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>8</v>
@@ -3829,11 +5296,11 @@
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
       <c r="I95" s="27" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J95" s="29" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
@@ -3850,228 +5317,885 @@
         <v>21</v>
       </c>
       <c r="J96" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A98" s="2"/>
+      <c r="B98" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I98" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C98 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J98" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C98 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A99" s="2"/>
+      <c r="B99" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="34"/>
+      <c r="B100" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="40" t="str">
+        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J100" s="41" t="str">
+        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="34"/>
+      <c r="B101" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="40" t="str">
+        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J101" s="41" t="str">
+        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="34"/>
+      <c r="B102" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="40" t="str">
+        <f>"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J102" s="41" t="str">
+        <f>"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="34"/>
+      <c r="B103" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="36"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="40" t="str">
+        <f>"," &amp; IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; IF(A103="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J103" s="41" t="str">
+        <f>"," &amp; IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; IF(A103="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="34"/>
+      <c r="B104" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="36"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="40" t="str">
+        <f t="shared" ref="I104:I110" si="24">"," &amp; IF(A104="","","/* ") &amp; "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ") &amp; IF(A104="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J104" s="41" t="str">
+        <f t="shared" ref="J104:J110" si="25">"," &amp; IF(A104="","","/* ") &amp; "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ") &amp; IF(A104="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="34"/>
+      <c r="B105" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="36">
+        <v>20</v>
+      </c>
+      <c r="F105" s="35"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="40" t="str">
+        <f>"," &amp; IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; IF(A105="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J105" s="41" t="str">
+        <f>"," &amp; IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; IF(A105="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="34"/>
+      <c r="B106" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="36">
+        <v>20</v>
+      </c>
+      <c r="F106" s="35"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="40" t="str">
+        <f>"," &amp; IF(A106="","","/* ") &amp; "`" &amp; C106 &amp; "` " &amp; D106 &amp; IF(E106&gt;0,"(" &amp; E106 &amp; ") "," ") &amp; IF(F106&lt;&gt;"","NOT NULL ","") &amp; IF(G106="","","DEFAULT '" &amp; G106 &amp; "' ") &amp; IF(A106="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J106" s="41" t="str">
+        <f>"," &amp; IF(A106="","","/* ") &amp; "`" &amp; C106 &amp; "` " &amp; D106 &amp; IF(E106&gt;0,"(" &amp; E106 &amp; ") "," ") &amp; IF(F106&lt;&gt;"","NOT NULL ","") &amp; IF(G106="","","DEFAULT '" &amp; G106 &amp; "' ") &amp; IF(A106="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="34"/>
+      <c r="B107" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="36">
+        <v>256</v>
+      </c>
+      <c r="F107" s="35"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="40" t="str">
+        <f t="shared" ref="I107:I113" si="26">"," &amp; IF(A107="","","/* ") &amp; "`" &amp; C107 &amp; "` " &amp; D107 &amp; IF(E107&gt;0,"(" &amp; E107 &amp; ") "," ") &amp; IF(F107&lt;&gt;"","NOT NULL ","") &amp; IF(G107="","","DEFAULT '" &amp; G107 &amp; "' ") &amp; IF(A107="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J107" s="41" t="str">
+        <f t="shared" ref="J107:J113" si="27">"," &amp; IF(A107="","","/* ") &amp; "`" &amp; C107 &amp; "` " &amp; D107 &amp; IF(E107&gt;0,"(" &amp; E107 &amp; ") "," ") &amp; IF(F107&lt;&gt;"","NOT NULL ","") &amp; IF(G107="","","DEFAULT '" &amp; G107 &amp; "' ") &amp; IF(A107="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="34"/>
+      <c r="B108" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="36">
+        <v>256</v>
+      </c>
+      <c r="F108" s="35"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="40" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J108" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="34"/>
+      <c r="B109" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="36">
+        <v>64</v>
+      </c>
+      <c r="F109" s="35"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="40" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">,`language` VARCHAR(64) </v>
+      </c>
+      <c r="J109" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,`language` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="34"/>
+      <c r="B110" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="36"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="40" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J110" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="34"/>
+      <c r="B111" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="36"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="40" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J111" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="34"/>
+      <c r="B112" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="36"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="40" t="str">
+        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J112" s="41" t="str">
+        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="34"/>
+      <c r="B113" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="36">
+        <v>256</v>
+      </c>
+      <c r="F113" s="35"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="40" t="str">
+        <f t="shared" ref="I113:I120" si="28">"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J113" s="41" t="str">
+        <f t="shared" ref="J113:J120" si="29">"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="34"/>
+      <c r="B114" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="36"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J114" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="34"/>
+      <c r="B115" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="36">
+        <v>256</v>
+      </c>
+      <c r="F115" s="35"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J115" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="34"/>
+      <c r="B116" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="36">
+        <v>256</v>
+      </c>
+      <c r="F116" s="35"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J116" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="34"/>
+      <c r="B117" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="36"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J117" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="34"/>
+      <c r="B118" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="36">
+        <v>64</v>
+      </c>
+      <c r="F118" s="35"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J118" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="34"/>
+      <c r="B119" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="36"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J119" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="34"/>
+      <c r="B120" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="36"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J120" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A121" s="2"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J121" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="expression" dxfId="42" priority="90">
+    <cfRule type="expression" dxfId="105" priority="143">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7 A27:A28 A76:A77 A49 A51 A42:A43 A67:A68 A13:A14 A56:A60 A21:A23">
-    <cfRule type="cellIs" dxfId="41" priority="89" operator="greaterThan">
+  <conditionalFormatting sqref="A5:A7 A28:A29 A96:A97 A47:A49 A86:A87 A13:A14 A51:A61 A65:A66 A21:A23 A25 A71:A74 A80:A81">
+    <cfRule type="cellIs" dxfId="104" priority="142" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A11:A12">
-    <cfRule type="cellIs" dxfId="40" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="141" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="39" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="140" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="38" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="139" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="cellIs" dxfId="100" priority="135" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A70">
+    <cfRule type="cellIs" dxfId="99" priority="133" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="cellIs" dxfId="98" priority="132" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="cellIs" dxfId="97" priority="126" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="cellIs" dxfId="96" priority="124" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:A46 A30:A31 A33">
+    <cfRule type="cellIs" dxfId="95" priority="125" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39 A41">
+    <cfRule type="cellIs" dxfId="94" priority="119" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42 A44">
+    <cfRule type="cellIs" dxfId="93" priority="118" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="cellIs" dxfId="92" priority="117" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" dxfId="91" priority="116" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="cellIs" dxfId="90" priority="115" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="89" priority="114" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="88" priority="111" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="87" priority="110" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:A93">
+    <cfRule type="cellIs" dxfId="86" priority="109" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:A95">
+    <cfRule type="cellIs" dxfId="85" priority="108" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121 A98">
+    <cfRule type="cellIs" dxfId="84" priority="107" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="cellIs" dxfId="83" priority="101" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="cellIs" dxfId="82" priority="93" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="81" priority="92" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="cellIs" dxfId="80" priority="91" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="cellIs" dxfId="79" priority="90" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A15:A17">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="77" priority="75" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="cellIs" dxfId="76" priority="53" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" dxfId="75" priority="74" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="cellIs" dxfId="72" priority="63" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="37" priority="82" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45 A52:A55">
-    <cfRule type="cellIs" dxfId="36" priority="80" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="35" priority="79" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="34" priority="78" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="33" priority="76" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="32" priority="73" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="31" priority="71" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:A41 A29:A30 A32">
-    <cfRule type="cellIs" dxfId="30" priority="72" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34 A36">
-    <cfRule type="cellIs" dxfId="29" priority="66" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A39">
-    <cfRule type="cellIs" dxfId="28" priority="65" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="27" priority="64" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="26" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="45" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="25" priority="62" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="24" priority="61" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="23" priority="60" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="22" priority="58" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="21" priority="57" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A73">
-    <cfRule type="cellIs" dxfId="20" priority="56" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A75">
-    <cfRule type="cellIs" dxfId="19" priority="55" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96 A78">
-    <cfRule type="cellIs" dxfId="18" priority="54" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="17" priority="48" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="16" priority="40" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="15" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="52" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="14" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="51" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="13" priority="37" operator="greaterThan">
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 A15:A17">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="greaterThan">
+  <conditionalFormatting sqref="A34">
+    <cfRule type="cellIs" dxfId="61" priority="49" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="greaterThan">
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="47" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="9" priority="21" operator="greaterThan">
+  <conditionalFormatting sqref="A88">
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" dxfId="57" priority="31" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="A100">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:A88 A79:A80">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="A111:A112 A105:A106">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="A110">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="A108">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90:A93">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="A115:A118">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:A95">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="A119:A120">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="A104">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D26 D30:D39 D6:D12 D43:D55 D16:D18 D79:D95 D59:D75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D48:D70 D16:D18 D22:D27 D31:D44 D74:D95 D99:D120">
       <formula1>TYPE</formula1>
     </dataValidation>
   </dataValidations>
@@ -4082,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -4140,6 +6264,11 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>

--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -716,9 +716,6 @@
   </si>
   <si>
     <t>company_code</t>
-  </si>
-  <si>
-    <t>company_code</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -839,10 +836,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>language</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>キー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -864,6 +857,87 @@
   </si>
   <si>
     <t>BOOL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>契約情報</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>contracts</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>更新ユーザ</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>契約書名</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>契約書</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>contractnames</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>contractname_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>languages</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>language_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>language_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>contract_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>company_code</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1166,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,6 +1373,9 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - アクセント 3" xfId="3" builtinId="38"/>
@@ -1306,327 +1383,7 @@
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="155">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2361,496 +2118,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3070,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -3475,13 +2742,13 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="13" t="s">
-        <v>62</v>
+    <row r="21" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="34"/>
+      <c r="B21" s="42" t="s">
+        <v>164</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>0</v>
@@ -3498,32 +2765,32 @@
       <c r="H21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="27" t="str">
+      <c r="I21" s="40" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C21 &amp; "` ("</f>
-        <v>CREATE TABLE `clients` (</v>
-      </c>
-      <c r="J21" s="29" t="str">
+        <v>CREATE TABLE `contractnames` (</v>
+      </c>
+      <c r="J21" s="41" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C21 &amp; "` ("</f>
-        <v>CREATE TABLE `clients` (</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="20" t="s">
+        <v>CREATE TABLE `contractnames` (</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="34"/>
+      <c r="B22" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="28" t="s">
         <v>19</v>
       </c>
@@ -3531,244 +2798,223 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="6" t="s">
+    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="34"/>
+      <c r="B23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="7">
-        <v>128</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="27" t="str">
+      <c r="E23" s="36">
+        <v>256</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40" t="str">
         <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
-        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
-      </c>
-      <c r="J23" s="29" t="str">
+        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
+      </c>
+      <c r="J23" s="41" t="str">
         <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
-        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
+        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="24" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="34"/>
-      <c r="B24" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="36">
-        <v>20</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="40" t="str">
-        <f>"," &amp; IF(A24="","","/* ") &amp; "`" &amp; C24 &amp; "` " &amp; D24 &amp; IF(E24&gt;0,"(" &amp; E24 &amp; ") "," ") &amp; IF(F24&lt;&gt;"","NOT NULL ","") &amp; IF(G24="","","DEFAULT '" &amp; G24 &amp; "' ") &amp; IF(A24="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
-      </c>
-      <c r="J24" s="41" t="str">
-        <f>"," &amp; IF(A24="","","/* ") &amp; "`" &amp; C24 &amp; "` " &amp; D24 &amp; IF(E24&gt;0,"(" &amp; E24 &amp; ") "," ") &amp; IF(F24&lt;&gt;"","NOT NULL ","") &amp; IF(G24="","","DEFAULT '" &amp; G24 &amp; "' ") &amp; IF(A24="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="34"/>
-      <c r="B25" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="36">
-        <v>4</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="40" t="str">
-        <f>"," &amp; IF(A25="","","/* ") &amp; "`" &amp; C25 &amp; "` " &amp; D25 &amp; IF(E25&gt;0,"(" &amp; E25 &amp; ") "," ") &amp; IF(F25&lt;&gt;"","NOT NULL ","") &amp; IF(G25="","","DEFAULT '" &amp; G25 &amp; "' ") &amp; IF(A25="",""," */")</f>
-        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
-      </c>
-      <c r="J25" s="41" t="str">
-        <f>"," &amp; IF(A25="","","/* ") &amp; "`" &amp; C25 &amp; "` " &amp; D25 &amp; IF(E25&gt;0,"(" &amp; E25 &amp; ") "," ") &amp; IF(F25&lt;&gt;"","NOT NULL ","") &amp; IF(G25="","","DEFAULT '" &amp; G25 &amp; "' ") &amp; IF(A25="",""," */")</f>
-        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
-      </c>
+      <c r="E25" s="34"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="34"/>
-      <c r="B26" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="35" t="s">
+      <c r="B26" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
+        <v>CREATE TABLE `languages` (</v>
+      </c>
+      <c r="J26" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
+        <v>CREATE TABLE `languages` (</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="34"/>
+      <c r="B27" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="40" t="str">
-        <f>"," &amp; IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; IF(A26="",""," */")</f>
-        <v xml:space="preserve">,`partner_flag` INT </v>
-      </c>
-      <c r="J26" s="41" t="str">
-        <f>"," &amp; IF(A26="","","/* ") &amp; "`" &amp; C26 &amp; "` " &amp; D26 &amp; IF(E26&gt;0,"(" &amp; E26 &amp; ") "," ") &amp; IF(F26&lt;&gt;"","NOT NULL ","") &amp; IF(G26="","","DEFAULT '" &amp; G26 &amp; "' ") &amp; IF(A26="",""," */")</f>
-        <v xml:space="preserve">,`partner_flag` INT </v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="27" t="str">
-        <f t="shared" ref="I27" si="2">"," &amp; IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; IF(A27="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
-      </c>
-      <c r="J27" s="29" t="str">
-        <f t="shared" ref="J27" si="3">"," &amp; IF(A27="","","/* ") &amp; "`" &amp; C27 &amp; "` " &amp; D27 &amp; IF(E27&gt;0,"(" &amp; E27 &amp; ") "," ") &amp; IF(F27&lt;&gt;"","NOT NULL ","") &amp; IF(G27="","","DEFAULT '" &amp; G27 &amp; "' ") &amp; IF(A27="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="28" t="s">
+      <c r="E27" s="36"/>
+      <c r="F27" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="34"/>
+      <c r="B28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="36">
+        <v>256</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="40" t="str">
+        <f>"," &amp; IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; IF(A28="",""," */")</f>
+        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
+      </c>
+      <c r="J28" s="41" t="str">
+        <f>"," &amp; IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; IF(A28="",""," */")</f>
+        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="34"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J29" s="41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C30 &amp; "` ("</f>
-        <v>CREATE TABLE `customers` (</v>
-      </c>
-      <c r="J30" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C30 &amp; "` ("</f>
-        <v>CREATE TABLE `customers` (</v>
-      </c>
+    <row r="30" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
-      <c r="B31" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>20</v>
+      <c r="B31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
+        <v>CREATE TABLE `clients` (</v>
+      </c>
+      <c r="J31" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
+        <v>CREATE TABLE `clients` (</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="20" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="6" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="27" t="str">
-        <f>"," &amp; IF(A32="","","/* ") &amp; "`" &amp; C32 &amp; "` " &amp; D32 &amp; IF(E32&gt;0,"(" &amp; E32 &amp; ") "," ") &amp; IF(F32&lt;&gt;"","NOT NULL ","") &amp; IF(G32="","","DEFAULT '" &amp; G32 &amp; "' ") &amp; IF(A32="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
-      </c>
-      <c r="J32" s="29" t="str">
-        <f>"," &amp; IF(A32="","","/* ") &amp; "`" &amp; C32 &amp; "` " &amp; D32 &amp; IF(E32&gt;0,"(" &amp; E32 &amp; ") "," ") &amp; IF(F32&lt;&gt;"","NOT NULL ","") &amp; IF(G32="","","DEFAULT '" &amp; G32 &amp; "' ") &amp; IF(A32="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      <c r="I32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>7</v>
@@ -3783,46 +3029,48 @@
       <c r="H33" s="9"/>
       <c r="I33" s="27" t="str">
         <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
-        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
       </c>
       <c r="J33" s="29" t="str">
         <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
-        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
       </c>
     </row>
     <row r="34" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="34"/>
-      <c r="B34" s="39" t="s">
-        <v>147</v>
+      <c r="B34" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="36">
-        <v>512</v>
+        <v>20</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="38" t="s">
+        <v>139</v>
+      </c>
       <c r="I34" s="40" t="str">
         <f>"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
-        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
       </c>
       <c r="J34" s="41" t="str">
         <f>"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
-        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="35" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="34"/>
       <c r="B35" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>7</v>
@@ -3835,1132 +3083,1107 @@
       <c r="H35" s="38"/>
       <c r="I35" s="40" t="str">
         <f>"," &amp; IF(A35="","","/* ") &amp; "`" &amp; C35 &amp; "` " &amp; D35 &amp; IF(E35&gt;0,"(" &amp; E35 &amp; ") "," ") &amp; IF(F35&lt;&gt;"","NOT NULL ","") &amp; IF(G35="","","DEFAULT '" &amp; G35 &amp; "' ") &amp; IF(A35="",""," */")</f>
-        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
       </c>
       <c r="J35" s="41" t="str">
         <f>"," &amp; IF(A35="","","/* ") &amp; "`" &amp; C35 &amp; "` " &amp; D35 &amp; IF(E35&gt;0,"(" &amp; E35 &amp; ") "," ") &amp; IF(F35&lt;&gt;"","NOT NULL ","") &amp; IF(G35="","","DEFAULT '" &amp; G35 &amp; "' ") &amp; IF(A35="",""," */")</f>
-        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="2"/>
-      <c r="B36" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="7">
-        <v>256</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="27" t="str">
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="34"/>
+      <c r="B36" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="40" t="str">
         <f>"," &amp; IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; IF(A36="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-      <c r="J36" s="29" t="str">
+        <v xml:space="preserve">,`partner_flag` INT </v>
+      </c>
+      <c r="J36" s="41" t="str">
         <f>"," &amp; IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; IF(A36="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+        <v xml:space="preserve">,`partner_flag` INT </v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="7">
-        <v>128</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E37" s="7"/>
       <c r="F37" s="6"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
       <c r="I37" s="27" t="str">
-        <f>"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <f t="shared" ref="I37:I40" si="2">"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J37" s="29" t="str">
-        <f>"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="2"/>
-      <c r="B38" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="27" t="str">
-        <f>"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
+        <f t="shared" ref="J37:J40" si="3">"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
         <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
-      <c r="J38" s="29" t="str">
-        <f>"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="2"/>
-      <c r="B39" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="7">
-        <v>128</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="27" t="str">
-        <f t="shared" ref="I39:I41" si="4">"," &amp; IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; IF(A39="",""," */")</f>
-        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
-      </c>
-      <c r="J39" s="29" t="str">
-        <f t="shared" ref="J39:J41" si="5">"," &amp; IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; IF(A39="",""," */")</f>
-        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="2"/>
-      <c r="B40" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="7">
-        <v>256</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="27" t="str">
-        <f>"," &amp; IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; IF(A40="",""," */")</f>
-        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
-      </c>
-      <c r="J40" s="29" t="str">
-        <f>"," &amp; IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; IF(A40="",""," */")</f>
-        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+    </row>
+    <row r="38" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="34"/>
+      <c r="B38" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J38" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="34"/>
+      <c r="B39" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J39" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="34"/>
+      <c r="B40" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J40" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
-      <c r="B41" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="7">
-        <v>256</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
-      </c>
-      <c r="J41" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
-      <c r="B42" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="7">
-        <v>128</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="27" t="str">
-        <f t="shared" ref="I42:I44" si="6">"," &amp; IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; IF(A42="",""," */")</f>
-        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
-      </c>
-      <c r="J42" s="29" t="str">
-        <f t="shared" ref="J42:J44" si="7">"," &amp; IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; IF(A42="",""," */")</f>
-        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
-      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
-      <c r="B43" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="7">
-        <v>256</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="B43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I43" s="27" t="str">
-        <f>"," &amp; IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; IF(A43="",""," */")</f>
-        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
       </c>
       <c r="J43" s="29" t="str">
-        <f>"," &amp; IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; IF(A43="",""," */")</f>
-        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="20" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="7">
-        <v>256</v>
-      </c>
-      <c r="F44" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
-      </c>
-      <c r="J44" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
+      <c r="I44" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>33</v>
+      <c r="B45" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="27" t="str">
+        <f t="shared" ref="I45:I51" si="4">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+      <c r="J45" s="29" t="str">
+        <f t="shared" ref="J45:J51" si="5">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="2"/>
-      <c r="B47" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I47" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C47 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
-      <c r="J47" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C47 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B46" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7">
+        <v>128</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+      </c>
+      <c r="J46" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="34"/>
+      <c r="B47" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="36">
+        <v>512</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+      <c r="J47" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="34"/>
+      <c r="B48" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="36">
         <v>4</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="34"/>
-      <c r="B49" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="35" t="s">
+      <c r="F48" s="35"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      </c>
+      <c r="J48" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="36">
-        <v>20</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="I49" s="40" t="str">
-        <f t="shared" ref="I49:I61" si="8">"," &amp; IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; IF(A49="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
-      </c>
-      <c r="J49" s="41" t="str">
-        <f t="shared" ref="J49:J61" si="9">"," &amp; IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; IF(A49="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      <c r="E49" s="7">
+        <v>256</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+      <c r="J49" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="7">
+        <v>128</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J50" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J51" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="7">
+        <v>128</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="27" t="str">
+        <f t="shared" ref="I52:I54" si="6">"," &amp; IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; IF(A52="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+      </c>
+      <c r="J52" s="29" t="str">
+        <f t="shared" ref="J52:J54" si="7">"," &amp; IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; IF(A52="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="7">
         <v>256</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="40" t="str">
+      <c r="F53" s="6"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="27" t="str">
+        <f>"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+      <c r="J53" s="29" t="str">
+        <f>"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7">
+        <v>256</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+      <c r="J54" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="7">
+        <v>128</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="27" t="str">
+        <f t="shared" ref="I55:I60" si="8">"," &amp; IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; IF(A55="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+      </c>
+      <c r="J55" s="29" t="str">
+        <f t="shared" ref="J55:J60" si="9">"," &amp; IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; IF(A55="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="7">
+        <v>256</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="27" t="str">
+        <f>"," &amp; IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; IF(A56="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+      <c r="J56" s="29" t="str">
+        <f>"," &amp; IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; IF(A56="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7">
+        <v>256</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="27" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-      <c r="J50" s="41" t="str">
+        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
+      </c>
+      <c r="J57" s="29" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="34"/>
-      <c r="B51" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="36">
-        <v>256</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
-      </c>
-      <c r="J51" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="34"/>
-      <c r="B52" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
-      </c>
-      <c r="J52" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="34"/>
-      <c r="B53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="36">
-        <v>20</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
-      </c>
-      <c r="J53" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="34"/>
-      <c r="B54" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="36">
-        <v>20</v>
-      </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
-      </c>
-      <c r="J54" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="34"/>
-      <c r="B55" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="36">
-        <v>20</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I55" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
-      </c>
-      <c r="J55" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="34"/>
-      <c r="B56" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
-      </c>
-      <c r="J56" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="34"/>
-      <c r="B57" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
-      </c>
-      <c r="J57" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
       </c>
     </row>
     <row r="58" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="34"/>
-      <c r="B58" s="39" t="s">
-        <v>109</v>
+      <c r="B58" s="43" t="s">
+        <v>161</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="36">
-        <v>64</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E58" s="36"/>
       <c r="F58" s="35"/>
       <c r="G58" s="37"/>
       <c r="H58" s="38"/>
       <c r="I58" s="40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J58" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="59" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="34"/>
-      <c r="B59" s="39" t="s">
-        <v>110</v>
+      <c r="B59" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="36">
-        <v>256</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E59" s="36"/>
       <c r="F59" s="35"/>
       <c r="G59" s="37"/>
       <c r="H59" s="38"/>
       <c r="I59" s="40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J59" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="60" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="34"/>
-      <c r="B60" s="39" t="s">
-        <v>116</v>
+      <c r="B60" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="36">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E60" s="36"/>
       <c r="F60" s="35"/>
       <c r="G60" s="37"/>
       <c r="H60" s="38"/>
       <c r="I60" s="40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J60" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="34"/>
-      <c r="B61" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="36">
-        <v>256</v>
-      </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-      <c r="J61" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="34"/>
-      <c r="B62" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="40" t="str">
-        <f t="shared" ref="I62:I63" si="10">"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
-      </c>
-      <c r="J62" s="41" t="str">
-        <f t="shared" ref="J62:J63" si="11">"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
-      </c>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="34"/>
-      <c r="B63" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="35" t="s">
+      <c r="B63" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C63 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
+      </c>
+      <c r="J63" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C63 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="34"/>
+      <c r="B64" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="40" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,`price` INT </v>
-      </c>
-      <c r="J63" s="41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">,`price` INT </v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64" s="2"/>
-      <c r="B64" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="7">
-        <v>256</v>
-      </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="27" t="str">
-        <f>"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-      <c r="J64" s="29" t="str">
-        <f>"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A65" s="2"/>
-      <c r="B65" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="7">
-        <v>128</v>
-      </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="27" t="str">
-        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
-      </c>
-      <c r="J65" s="29" t="str">
-        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      <c r="E64" s="36"/>
+      <c r="F64" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="34"/>
+      <c r="B65" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="40" t="str">
+        <f t="shared" ref="I65:I72" si="10">"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+      <c r="J65" s="41" t="str">
+        <f t="shared" ref="J65:J72" si="11">"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
     </row>
     <row r="66" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="34"/>
       <c r="B66" s="39" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E66" s="36"/>
       <c r="F66" s="35"/>
       <c r="G66" s="37"/>
       <c r="H66" s="38"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="41"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A67" s="2"/>
-      <c r="B67" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="I66" s="40" t="str">
+        <f>"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J66" s="41" t="str">
+        <f>"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="34"/>
+      <c r="B67" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`contractname_id` INT </v>
+      </c>
+      <c r="J67" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`contractname_id` INT </v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="34"/>
+      <c r="B68" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J68" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="34"/>
+      <c r="B69" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E69" s="36">
         <v>256</v>
       </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="27" t="str">
-        <f t="shared" ref="I67:I70" si="12">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+      <c r="F69" s="35"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="40" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
-      <c r="J67" s="29" t="str">
-        <f t="shared" ref="J67:J70" si="13">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+      <c r="J69" s="41" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A68" s="2"/>
-      <c r="B68" s="20" t="s">
+    <row r="70" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="34"/>
+      <c r="B70" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C70" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D70" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E70" s="36">
         <v>256</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="27" t="str">
+      <c r="F70" s="35"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J70" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="34"/>
+      <c r="B71" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J71" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="34"/>
+      <c r="B72" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="36">
+        <v>64</v>
+      </c>
+      <c r="F72" s="35"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J72" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="34"/>
+      <c r="B73" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="40" t="str">
+        <f t="shared" ref="I73:I75" si="12">"," &amp; IF(A73="","","/* ") &amp; "`" &amp; C73 &amp; "` " &amp; D73 &amp; IF(E73&gt;0,"(" &amp; E73 &amp; ") "," ") &amp; IF(F73&lt;&gt;"","NOT NULL ","") &amp; IF(G73="","","DEFAULT '" &amp; G73 &amp; "' ") &amp; IF(A73="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J73" s="41" t="str">
+        <f t="shared" ref="J73:J75" si="13">"," &amp; IF(A73="","","/* ") &amp; "`" &amp; C73 &amp; "` " &amp; D73 &amp; IF(E73&gt;0,"(" &amp; E73 &amp; ") "," ") &amp; IF(F73&lt;&gt;"","NOT NULL ","") &amp; IF(G73="","","DEFAULT '" &amp; G73 &amp; "' ") &amp; IF(A73="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="34"/>
+      <c r="B74" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="40" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
-      </c>
-      <c r="J68" s="29" t="str">
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J74" s="41" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A69" s="2"/>
-      <c r="B69" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="27" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-      <c r="J69" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A70" s="2"/>
-      <c r="B70" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="7">
-        <v>64</v>
-      </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="27" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-      <c r="J70" s="29" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71" s="2"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A73" s="2"/>
-      <c r="B73" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I73" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C73 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-      <c r="J73" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C73 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A74" s="2"/>
-      <c r="B74" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" s="30" t="s">
-        <v>20</v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="75" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="34"/>
-      <c r="B75" s="39" t="s">
-        <v>62</v>
+      <c r="B75" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="35"/>
       <c r="G75" s="37"/>
       <c r="H75" s="38"/>
       <c r="I75" s="40" t="str">
-        <f>"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J75" s="41" t="str">
-        <f>"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A76" s="2"/>
-      <c r="B76" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="27" t="str">
-        <f>"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J76" s="29" t="str">
-        <f>"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A77" s="2"/>
-      <c r="B77" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="27" t="str">
-        <f>"," &amp; IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; IF(A77="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-      <c r="J77" s="29" t="str">
-        <f>"," &amp; IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; IF(A77="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="34"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="G77" s="3"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
-      <c r="B78" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
+      <c r="B78" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I78" s="27" t="str">
-        <f>"," &amp; IF(A78="","","/* ") &amp; "`" &amp; C78 &amp; "` " &amp; D78 &amp; IF(E78&gt;0,"(" &amp; E78 &amp; ") "," ") &amp; IF(F78&lt;&gt;"","NOT NULL ","") &amp; IF(G78="","","DEFAULT '" &amp; G78 &amp; "' ") &amp; IF(A78="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
       </c>
       <c r="J78" s="29" t="str">
-        <f>"," &amp; IF(A78="","","/* ") &amp; "`" &amp; C78 &amp; "` " &amp; D78 &amp; IF(E78&gt;0,"(" &amp; E78 &amp; ") "," ") &amp; IF(F78&lt;&gt;"","NOT NULL ","") &amp; IF(G78="","","DEFAULT '" &amp; G78 &amp; "' ") &amp; IF(A78="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="20" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E79" s="7"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="27" t="str">
-        <f t="shared" ref="I79:I85" si="14">"," &amp; IF(A79="","","/* ") &amp; "`" &amp; C79 &amp; "` " &amp; D79 &amp; IF(E79&gt;0,"(" &amp; E79 &amp; ") "," ") &amp; IF(F79&lt;&gt;"","NOT NULL ","") &amp; IF(G79="","","DEFAULT '" &amp; G79 &amp; "' ") &amp; IF(A79="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-      <c r="J79" s="29" t="str">
-        <f t="shared" ref="J79:J85" si="15">"," &amp; IF(A79="","","/* ") &amp; "`" &amp; C79 &amp; "` " &amp; D79 &amp; IF(E79&gt;0,"(" &amp; E79 &amp; ") "," ") &amp; IF(F79&lt;&gt;"","NOT NULL ","") &amp; IF(G79="","","DEFAULT '" &amp; G79 &amp; "' ") &amp; IF(A79="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A80" s="2"/>
-      <c r="B80" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="I79" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="34"/>
+      <c r="B80" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="36">
         <v>20</v>
       </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="27" t="str">
-        <f>"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-      <c r="J80" s="29" t="str">
-        <f>"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="34"/>
-      <c r="B81" s="39" t="s">
-        <v>151</v>
+      <c r="F80" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="37"/>
+      <c r="H80" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" s="40" t="str">
+        <f t="shared" ref="I80:I92" si="14">"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+      <c r="J80" s="41" t="str">
+        <f t="shared" ref="J80:J92" si="15">"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D81" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="37"/>
       <c r="H81" s="38"/>
       <c r="I81" s="40" t="str">
-        <f>"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
       <c r="J81" s="41" t="str">
-        <f>"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
     </row>
     <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="34"/>
       <c r="B82" s="39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D82" s="35" t="s">
         <v>7</v>
@@ -4973,1229 +4196,2219 @@
       <c r="H82" s="38"/>
       <c r="I82" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
       <c r="J82" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A83" s="2"/>
-      <c r="B83" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="7">
-        <v>256</v>
-      </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="27" t="str">
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="34"/>
+      <c r="B83" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="36"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
-      </c>
-      <c r="J83" s="29" t="str">
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+      <c r="J83" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
     </row>
     <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="34"/>
       <c r="B84" s="39" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D84" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="36">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="37"/>
       <c r="H84" s="38"/>
       <c r="I84" s="40" t="str">
-        <f t="shared" ref="I84" si="16">"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
-        <v xml:space="preserve">,`language` VARCHAR(64) </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
       <c r="J84" s="41" t="str">
-        <f t="shared" ref="J84" si="17">"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
-        <v xml:space="preserve">,`language` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A85" s="2"/>
-      <c r="B85" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="34"/>
+      <c r="B85" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="36">
+        <v>20</v>
+      </c>
+      <c r="F85" s="35"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-      <c r="J85" s="29" t="str">
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+      </c>
+      <c r="J85" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A86" s="2"/>
-      <c r="B86" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="6" t="s">
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="34"/>
+      <c r="B86" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="36">
+        <v>20</v>
+      </c>
+      <c r="F86" s="35"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I86" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+      </c>
+      <c r="J86" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="34"/>
+      <c r="B87" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="27" t="str">
-        <f t="shared" ref="I86" si="18">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-      <c r="J86" s="29" t="str">
-        <f t="shared" ref="J86" si="19">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A87" s="2"/>
-      <c r="B87" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="27" t="str">
-        <f>"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
-      </c>
-      <c r="J87" s="29" t="str">
-        <f>"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+      <c r="E87" s="36"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
+      </c>
+      <c r="J87" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
     </row>
     <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="36">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E88" s="36"/>
       <c r="F88" s="35"/>
       <c r="G88" s="37"/>
       <c r="H88" s="38"/>
       <c r="I88" s="40" t="str">
-        <f t="shared" ref="I88" si="20">"," &amp; IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; IF(A88="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
       <c r="J88" s="41" t="str">
-        <f t="shared" ref="J88" si="21">"," &amp; IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; IF(A88="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A89" s="2"/>
-      <c r="B89" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="27" t="str">
-        <f t="shared" ref="I89:I95" si="22">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J89" s="29" t="str">
-        <f t="shared" ref="J89:J95" si="23">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A90" s="2"/>
-      <c r="B90" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" s="6" t="s">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="34"/>
+      <c r="B89" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E89" s="36">
+        <v>64</v>
+      </c>
+      <c r="F89" s="35"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+      <c r="J89" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="34"/>
+      <c r="B90" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="36">
         <v>256</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J90" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A91" s="2"/>
-      <c r="B91" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="6" t="s">
+      <c r="F90" s="35"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+      <c r="J90" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="34"/>
+      <c r="B91" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="36">
+        <v>20</v>
+      </c>
+      <c r="F91" s="35"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+      <c r="J91" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="34"/>
+      <c r="B92" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="36">
         <v>256</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
-      </c>
-      <c r="J91" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A92" s="2"/>
-      <c r="B92" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D92" s="6" t="s">
+      <c r="F92" s="35"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J92" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="34"/>
+      <c r="B93" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-      <c r="J92" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A93" s="2"/>
-      <c r="B93" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="7">
-        <v>64</v>
-      </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-      <c r="J93" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A94" s="2"/>
-      <c r="B94" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-      <c r="J94" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+      <c r="E93" s="36"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="40" t="str">
+        <f t="shared" ref="I93:I94" si="16">"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+      <c r="J93" s="41" t="str">
+        <f t="shared" ref="J93:J94" si="17">"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="34"/>
+      <c r="B94" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="36"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J94" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`price` INT </v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="20" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E95" s="7">
+        <v>256</v>
+      </c>
       <c r="F95" s="6"/>
       <c r="G95" s="8"/>
       <c r="H95" s="9"/>
       <c r="I95" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f>"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J95" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f>"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J96" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A98" s="2"/>
-      <c r="B98" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I98" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C98 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
-      <c r="J98" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C98 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
+      <c r="B96" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="7">
+        <v>128</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="27" t="str">
+        <f>"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J96" s="29" t="str">
+        <f>"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="34"/>
+      <c r="B97" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="40" t="str">
+        <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+      <c r="J97" s="41" t="str">
+        <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="34"/>
+      <c r="B98" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="36"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="40" t="str">
+        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J98" s="41" t="str">
+        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
-      <c r="B99" s="20" t="s">
-        <v>3</v>
+      <c r="B99" s="43" t="s">
+        <v>135</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E99" s="7">
+        <v>256</v>
+      </c>
+      <c r="F99" s="6"/>
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J99" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="34"/>
-      <c r="B100" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="35" t="s">
+      <c r="I99" s="27" t="str">
+        <f t="shared" ref="I99:I105" si="18">"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J99" s="29" t="str">
+        <f t="shared" ref="J99:J105" si="19">"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A100" s="2"/>
+      <c r="B100" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="7">
+        <v>256</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J100" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A101" s="2"/>
+      <c r="B101" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="40" t="str">
-        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-      <c r="J100" s="41" t="str">
-        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="34"/>
-      <c r="B101" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="40" t="str">
-        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J101" s="41" t="str">
-        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="34"/>
-      <c r="B102" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="40" t="str">
-        <f>"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-      <c r="J102" s="41" t="str">
-        <f>"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+      <c r="E101" s="7"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J101" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A102" s="2"/>
+      <c r="B102" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="7">
+        <v>64</v>
+      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J102" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="103" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="34"/>
-      <c r="B103" s="39" t="s">
-        <v>98</v>
+      <c r="B103" s="43" t="s">
+        <v>161</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="E103" s="36"/>
       <c r="F103" s="35"/>
       <c r="G103" s="37"/>
       <c r="H103" s="38"/>
       <c r="I103" s="40" t="str">
-        <f>"," &amp; IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; IF(A103="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J103" s="41" t="str">
-        <f>"," &amp; IF(A103="","","/* ") &amp; "`" &amp; C103 &amp; "` " &amp; D103 &amp; IF(E103&gt;0,"(" &amp; E103 &amp; ") "," ") &amp; IF(F103&lt;&gt;"","NOT NULL ","") &amp; IF(G103="","","DEFAULT '" &amp; G103 &amp; "' ") &amp; IF(A103="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="104" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="34"/>
-      <c r="B104" s="39" t="s">
-        <v>92</v>
+      <c r="B104" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E104" s="36"/>
       <c r="F104" s="35"/>
       <c r="G104" s="37"/>
       <c r="H104" s="38"/>
       <c r="I104" s="40" t="str">
-        <f t="shared" ref="I104:I110" si="24">"," &amp; IF(A104="","","/* ") &amp; "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ") &amp; IF(A104="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J104" s="41" t="str">
-        <f t="shared" ref="J104:J110" si="25">"," &amp; IF(A104="","","/* ") &amp; "`" &amp; C104 &amp; "` " &amp; D104 &amp; IF(E104&gt;0,"(" &amp; E104 &amp; ") "," ") &amp; IF(F104&lt;&gt;"","NOT NULL ","") &amp; IF(G104="","","DEFAULT '" &amp; G104 &amp; "' ") &amp; IF(A104="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="105" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="34"/>
-      <c r="B105" s="39" t="s">
-        <v>149</v>
+      <c r="B105" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="36">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E105" s="36"/>
       <c r="F105" s="35"/>
       <c r="G105" s="37"/>
       <c r="H105" s="38"/>
       <c r="I105" s="40" t="str">
-        <f>"," &amp; IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; IF(A105="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J105" s="41" t="str">
-        <f>"," &amp; IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; IF(A105="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="34"/>
-      <c r="B106" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D106" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="36">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A106" s="2"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A108" s="2"/>
+      <c r="B108" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C108 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+      <c r="J108" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C108 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A109" s="2"/>
+      <c r="B109" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="8"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="F106" s="35"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="40" t="str">
-        <f>"," &amp; IF(A106="","","/* ") &amp; "`" &amp; C106 &amp; "` " &amp; D106 &amp; IF(E106&gt;0,"(" &amp; E106 &amp; ") "," ") &amp; IF(F106&lt;&gt;"","NOT NULL ","") &amp; IF(G106="","","DEFAULT '" &amp; G106 &amp; "' ") &amp; IF(A106="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
-      </c>
-      <c r="J106" s="41" t="str">
-        <f>"," &amp; IF(A106="","","/* ") &amp; "`" &amp; C106 &amp; "` " &amp; D106 &amp; IF(E106&gt;0,"(" &amp; E106 &amp; ") "," ") &amp; IF(F106&lt;&gt;"","NOT NULL ","") &amp; IF(G106="","","DEFAULT '" &amp; G106 &amp; "' ") &amp; IF(A106="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="34"/>
-      <c r="B107" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D107" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="36">
-        <v>256</v>
-      </c>
-      <c r="F107" s="35"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="40" t="str">
-        <f t="shared" ref="I107:I113" si="26">"," &amp; IF(A107="","","/* ") &amp; "`" &amp; C107 &amp; "` " &amp; D107 &amp; IF(E107&gt;0,"(" &amp; E107 &amp; ") "," ") &amp; IF(F107&lt;&gt;"","NOT NULL ","") &amp; IF(G107="","","DEFAULT '" &amp; G107 &amp; "' ") &amp; IF(A107="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-      <c r="J107" s="41" t="str">
-        <f t="shared" ref="J107:J113" si="27">"," &amp; IF(A107="","","/* ") &amp; "`" &amp; C107 &amp; "` " &amp; D107 &amp; IF(E107&gt;0,"(" &amp; E107 &amp; ") "," ") &amp; IF(F107&lt;&gt;"","NOT NULL ","") &amp; IF(G107="","","DEFAULT '" &amp; G107 &amp; "' ") &amp; IF(A107="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="34"/>
-      <c r="B108" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D108" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="36">
-        <v>256</v>
-      </c>
-      <c r="F108" s="35"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="40" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
-      </c>
-      <c r="J108" s="41" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="34"/>
-      <c r="B109" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D109" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="36">
-        <v>64</v>
-      </c>
-      <c r="F109" s="35"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="40" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,`language` VARCHAR(64) </v>
-      </c>
-      <c r="J109" s="41" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">,`language` VARCHAR(64) </v>
       </c>
     </row>
     <row r="110" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="34"/>
       <c r="B110" s="39" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D110" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" s="36"/>
       <c r="F110" s="35"/>
       <c r="G110" s="37"/>
       <c r="H110" s="38"/>
       <c r="I110" s="40" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J110" s="41" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="34"/>
-      <c r="B111" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" s="35" t="s">
+        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A111" s="2"/>
+      <c r="B111" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="27" t="str">
+        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J111" s="29" t="str">
+        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A112" s="2"/>
+      <c r="B112" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="27" t="str">
+        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J112" s="29" t="str">
+        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A113" s="2"/>
+      <c r="B113" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="27" t="str">
+        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J113" s="29" t="str">
+        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A114" s="2"/>
+      <c r="B114" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="36"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="40" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-      <c r="J111" s="41" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="34"/>
-      <c r="B112" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="36"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="40" t="str">
-        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
-      </c>
-      <c r="J112" s="41" t="str">
-        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="34"/>
-      <c r="B113" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C113" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D113" s="35" t="s">
+      <c r="E114" s="7"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="27" t="str">
+        <f t="shared" ref="I114:I120" si="20">"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J114" s="29" t="str">
+        <f t="shared" ref="J114:J120" si="21">"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A115" s="2"/>
+      <c r="B115" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="36">
-        <v>256</v>
-      </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="40" t="str">
-        <f t="shared" ref="I113:I120" si="28">"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-      <c r="J113" s="41" t="str">
-        <f t="shared" ref="J113:J120" si="29">"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="34"/>
-      <c r="B114" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="36"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="40" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J114" s="41" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="34"/>
-      <c r="B115" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="36">
-        <v>256</v>
-      </c>
-      <c r="F115" s="35"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="40" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J115" s="41" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      <c r="E115" s="7">
+        <v>20</v>
+      </c>
+      <c r="F115" s="6"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="27" t="str">
+        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J115" s="29" t="str">
+        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="116" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="34"/>
       <c r="B116" s="39" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="D116" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E116" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="37"/>
       <c r="H116" s="38"/>
       <c r="I116" s="40" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
       <c r="J116" s="41" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="117" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="34"/>
       <c r="B117" s="39" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E117" s="36">
+        <v>256</v>
+      </c>
       <c r="F117" s="35"/>
       <c r="G117" s="37"/>
       <c r="H117" s="38"/>
       <c r="I117" s="40" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J117" s="41" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="34"/>
-      <c r="B118" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D118" s="35" t="s">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" s="2"/>
+      <c r="B118" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="36">
-        <v>64</v>
-      </c>
-      <c r="F118" s="35"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="40" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-      <c r="J118" s="41" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      <c r="E118" s="7">
+        <v>256</v>
+      </c>
+      <c r="F118" s="6"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="27" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J118" s="29" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="119" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="34"/>
       <c r="B119" s="39" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E119" s="36"/>
       <c r="F119" s="35"/>
       <c r="G119" s="37"/>
       <c r="H119" s="38"/>
       <c r="I119" s="40" t="str">
+        <f t="shared" ref="I119" si="22">"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J119" s="41" t="str">
+        <f t="shared" ref="J119" si="23">"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A120" s="2"/>
+      <c r="B120" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="27" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J120" s="29" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A121" s="2"/>
+      <c r="B121" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="27" t="str">
+        <f t="shared" ref="I121" si="24">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J121" s="29" t="str">
+        <f t="shared" ref="J121" si="25">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A122" s="2"/>
+      <c r="B122" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="27" t="str">
+        <f>"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J122" s="29" t="str">
+        <f>"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="34"/>
+      <c r="B123" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="36">
+        <v>256</v>
+      </c>
+      <c r="F123" s="35"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="40" t="str">
+        <f t="shared" ref="I123" si="26">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J123" s="41" t="str">
+        <f t="shared" ref="J123" si="27">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A124" s="2"/>
+      <c r="B124" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="27" t="str">
+        <f t="shared" ref="I124:I131" si="28">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J124" s="29" t="str">
+        <f t="shared" ref="J124:J131" si="29">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A125" s="2"/>
+      <c r="B125" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="7">
+        <v>256</v>
+      </c>
+      <c r="F125" s="6"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="27" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J125" s="29" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A126" s="2"/>
+      <c r="B126" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="7">
+        <v>256</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="27" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J126" s="29" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A127" s="2"/>
+      <c r="B127" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="27" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J127" s="29" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A128" s="2"/>
+      <c r="B128" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="7">
+        <v>64</v>
+      </c>
+      <c r="F128" s="6"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="27" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J128" s="29" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="34"/>
+      <c r="B129" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E129" s="36"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J129" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A130" s="2"/>
+      <c r="B130" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="27" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
-      <c r="J119" s="41" t="str">
+      <c r="J130" s="29" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="34"/>
-      <c r="B120" s="39" t="s">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A131" s="2"/>
+      <c r="B131" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C131" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D131" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="36"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="40" t="str">
+      <c r="E131" s="7"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="27" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-      <c r="J120" s="41" t="str">
+      <c r="J131" s="29" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A121" s="2"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="28" t="s">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A132" s="2"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J121" s="29" t="s">
+      <c r="J132" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A134" s="2"/>
+      <c r="B134" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I134" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C134 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J134" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C134 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A135" s="2"/>
+      <c r="B135" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="8"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="34"/>
+      <c r="B136" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="36"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="40" t="str">
+        <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J136" s="41" t="str">
+        <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="34"/>
+      <c r="B137" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="36"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="40" t="str">
+        <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J137" s="41" t="str">
+        <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="34"/>
+      <c r="B138" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="36"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="40" t="str">
+        <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J138" s="41" t="str">
+        <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="34"/>
+      <c r="B139" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="36"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="40" t="str">
+        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J139" s="41" t="str">
+        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="34"/>
+      <c r="B140" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="36"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="40" t="str">
+        <f t="shared" ref="I140" si="30">"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J140" s="41" t="str">
+        <f t="shared" ref="J140" si="31">"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="34"/>
+      <c r="B141" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="36">
+        <v>20</v>
+      </c>
+      <c r="F141" s="35"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="40" t="str">
+        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J141" s="41" t="str">
+        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="34"/>
+      <c r="B142" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="36">
+        <v>20</v>
+      </c>
+      <c r="F142" s="35"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="40" t="str">
+        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J142" s="41" t="str">
+        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="34"/>
+      <c r="B143" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="36">
+        <v>256</v>
+      </c>
+      <c r="F143" s="35"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="40" t="str">
+        <f t="shared" ref="I143:I147" si="32">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J143" s="41" t="str">
+        <f t="shared" ref="J143:J147" si="33">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="34"/>
+      <c r="B144" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="36">
+        <v>256</v>
+      </c>
+      <c r="F144" s="35"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J144" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="34"/>
+      <c r="B145" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="36"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J145" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="34"/>
+      <c r="B146" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="36"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J146" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="34"/>
+      <c r="B147" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="36"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J147" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="34"/>
+      <c r="B148" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="36"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="40" t="str">
+        <f>"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J148" s="41" t="str">
+        <f>"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="34"/>
+      <c r="B149" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="36">
+        <v>256</v>
+      </c>
+      <c r="F149" s="35"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="40" t="str">
+        <f t="shared" ref="I149:I157" si="34">"," &amp; IF(A149="","","/* ") &amp; "`" &amp; C149 &amp; "` " &amp; D149 &amp; IF(E149&gt;0,"(" &amp; E149 &amp; ") "," ") &amp; IF(F149&lt;&gt;"","NOT NULL ","") &amp; IF(G149="","","DEFAULT '" &amp; G149 &amp; "' ") &amp; IF(A149="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J149" s="41" t="str">
+        <f t="shared" ref="J149:J157" si="35">"," &amp; IF(A149="","","/* ") &amp; "`" &amp; C149 &amp; "` " &amp; D149 &amp; IF(E149&gt;0,"(" &amp; E149 &amp; ") "," ") &amp; IF(F149&lt;&gt;"","NOT NULL ","") &amp; IF(G149="","","DEFAULT '" &amp; G149 &amp; "' ") &amp; IF(A149="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="34"/>
+      <c r="B150" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="36"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J150" s="41" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="34"/>
+      <c r="B151" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D151" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="36">
+        <v>256</v>
+      </c>
+      <c r="F151" s="35"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J151" s="41" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="34"/>
+      <c r="B152" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="36">
+        <v>256</v>
+      </c>
+      <c r="F152" s="35"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J152" s="41" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="34"/>
+      <c r="B153" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="36"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J153" s="41" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="34"/>
+      <c r="B154" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="36">
+        <v>64</v>
+      </c>
+      <c r="F154" s="35"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J154" s="41" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="34"/>
+      <c r="B155" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D155" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" s="36"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J155" s="41" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="34"/>
+      <c r="B156" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="36"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J156" s="41" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="34"/>
+      <c r="B157" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="36"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J157" s="41" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A158" s="2"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" s="29" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="expression" dxfId="105" priority="143">
+    <cfRule type="expression" dxfId="73" priority="186">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7 A28:A29 A96:A97 A47:A49 A86:A87 A13:A14 A51:A61 A65:A66 A21:A23 A25 A71:A74 A80:A81">
-    <cfRule type="cellIs" dxfId="104" priority="142" operator="greaterThan">
+  <conditionalFormatting sqref="A5:A7 A41:A42 A132:A133 A78:A80 A121:A122 A13:A14 A82:A92 A96:A97 A31:A33 A35 A106:A109 A115:A116">
+    <cfRule type="cellIs" dxfId="72" priority="185" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A11:A12">
-    <cfRule type="cellIs" dxfId="103" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="184" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="102" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="183" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="101" priority="139" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="100" priority="135" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:A70">
-    <cfRule type="cellIs" dxfId="99" priority="133" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="cellIs" dxfId="98" priority="132" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="cellIs" dxfId="97" priority="126" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="96" priority="124" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A46 A30:A31 A33">
-    <cfRule type="cellIs" dxfId="95" priority="125" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39 A41">
-    <cfRule type="cellIs" dxfId="94" priority="119" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42 A44">
-    <cfRule type="cellIs" dxfId="93" priority="118" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="92" priority="117" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="91" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="182" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:A38">
+    <cfRule type="cellIs" dxfId="68" priority="178" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A102">
+    <cfRule type="cellIs" dxfId="67" priority="176" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="cellIs" dxfId="66" priority="175" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="cellIs" dxfId="65" priority="169" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" dxfId="64" priority="167" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A62 A43:A44 A46">
+    <cfRule type="cellIs" dxfId="63" priority="168" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52 A54">
+    <cfRule type="cellIs" dxfId="62" priority="162" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55 A57">
+    <cfRule type="cellIs" dxfId="61" priority="161" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="60" priority="160" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" dxfId="59" priority="159" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="58" priority="158" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="57" priority="157" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="cellIs" dxfId="56" priority="154" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="cellIs" dxfId="55" priority="153" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125:A128">
+    <cfRule type="cellIs" dxfId="54" priority="152" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130:A131">
+    <cfRule type="cellIs" dxfId="53" priority="151" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158 A134">
+    <cfRule type="cellIs" dxfId="52" priority="150" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="51" priority="144" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" dxfId="50" priority="136" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" dxfId="49" priority="135" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="cellIs" dxfId="48" priority="134" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="cellIs" dxfId="47" priority="133" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A15:A17">
+    <cfRule type="cellIs" dxfId="46" priority="122" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="45" priority="118" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="44" priority="96" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="43" priority="117" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="cellIs" dxfId="42" priority="106" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="90" priority="115" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="89" priority="114" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="88" priority="111" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="87" priority="110" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:A93">
-    <cfRule type="cellIs" dxfId="86" priority="109" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:A95">
-    <cfRule type="cellIs" dxfId="85" priority="108" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121 A98">
-    <cfRule type="cellIs" dxfId="84" priority="107" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="cellIs" dxfId="83" priority="101" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="82" priority="93" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="81" priority="92" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="80" priority="91" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="79" priority="90" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 A15:A17">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="76" priority="53" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="75" priority="74" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="cellIs" dxfId="72" priority="63" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="71" priority="45" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="65" priority="52" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="63" priority="51" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="88" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="61" priority="49" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="59" priority="47" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" dxfId="58" priority="46" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111:A112 A105:A106">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="95" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="cellIs" dxfId="39" priority="94" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="cellIs" dxfId="38" priority="93" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="cellIs" dxfId="37" priority="92" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="cellIs" dxfId="36" priority="91" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="cellIs" dxfId="35" priority="90" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="cellIs" dxfId="34" priority="89" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115:A118">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119:A120">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="74" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:A148 A141:A142">
+    <cfRule type="cellIs" dxfId="31" priority="57" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150">
+    <cfRule type="cellIs" dxfId="30" priority="56" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="cellIs" dxfId="28" priority="54" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A154">
+    <cfRule type="cellIs" dxfId="27" priority="53" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156:A157">
+    <cfRule type="cellIs" dxfId="26" priority="52" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="cellIs" dxfId="25" priority="51" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="cellIs" dxfId="24" priority="50" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="cellIs" dxfId="22" priority="48" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="cellIs" dxfId="20" priority="46" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="cellIs" dxfId="19" priority="45" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A77 A63:A64 A67">
+    <cfRule type="cellIs" dxfId="17" priority="43" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A25 A21:A22">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" dxfId="14" priority="35" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A72">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="11" priority="32" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A105">
+    <cfRule type="cellIs" dxfId="10" priority="31" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:A75">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:A60">
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A40">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" dxfId="6" priority="27" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="cellIs" dxfId="5" priority="26" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155">
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A30 A26:A27">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
+  <conditionalFormatting sqref="A28">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D48:D70 D16:D18 D22:D27 D31:D44 D74:D95 D99:D120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D32:D40 D44:D60 D135:D157 D109:D131 D22:D23 D64:D75 D27:D28 D79:D105">
       <formula1>TYPE</formula1>
     </dataValidation>
   </dataValidations>
@@ -6264,7 +6477,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">

--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="176">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -938,6 +938,17 @@
   </si>
   <si>
     <t>company_code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>契約日</t>
+    <rPh sb="0" eb="3">
+      <t>ケイヤクビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>contract_date</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1383,7 +1394,27 @@
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2337,10 +2368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -3788,11 +3819,11 @@
       <c r="G65" s="37"/>
       <c r="H65" s="38"/>
       <c r="I65" s="40" t="str">
-        <f t="shared" ref="I65:I72" si="10">"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <f t="shared" ref="I65:I73" si="10">"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
       <c r="J65" s="41" t="str">
-        <f t="shared" ref="J65:J72" si="11">"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <f t="shared" ref="J65:J73" si="11">"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
     </row>
@@ -3823,37 +3854,37 @@
     <row r="67" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="34"/>
       <c r="B67" s="39" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E67" s="36"/>
       <c r="F67" s="35"/>
       <c r="G67" s="37"/>
       <c r="H67" s="38"/>
       <c r="I67" s="40" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,`contractname_id` INT </v>
+        <f t="shared" ref="I67" si="12">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
       <c r="J67" s="41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">,`contractname_id` INT </v>
+        <f t="shared" ref="J67" si="13">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
     </row>
     <row r="68" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="34"/>
       <c r="B68" s="39" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E68" s="36"/>
       <c r="F68" s="35"/>
@@ -3861,46 +3892,44 @@
       <c r="H68" s="38"/>
       <c r="I68" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`contractname_id` INT </v>
       </c>
       <c r="J68" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`contractname_id` INT </v>
       </c>
     </row>
     <row r="69" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="34"/>
-      <c r="B69" s="43" t="s">
-        <v>135</v>
+      <c r="B69" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="36">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E69" s="36"/>
       <c r="F69" s="35"/>
       <c r="G69" s="37"/>
       <c r="H69" s="38"/>
       <c r="I69" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J69" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="70" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="34"/>
       <c r="B70" s="43" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D70" s="35" t="s">
         <v>7</v>
@@ -3913,118 +3942,120 @@
       <c r="H70" s="38"/>
       <c r="I70" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J70" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="71" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="34"/>
       <c r="B71" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E71" s="36">
+        <v>256</v>
+      </c>
       <c r="F71" s="35"/>
       <c r="G71" s="37"/>
       <c r="H71" s="38"/>
       <c r="I71" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J71" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="72" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="34"/>
       <c r="B72" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="36">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E72" s="36"/>
       <c r="F72" s="35"/>
       <c r="G72" s="37"/>
       <c r="H72" s="38"/>
       <c r="I72" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J72" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="73" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="34"/>
       <c r="B73" s="43" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E73" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E73" s="36">
+        <v>64</v>
+      </c>
       <c r="F73" s="35"/>
       <c r="G73" s="37"/>
       <c r="H73" s="38"/>
       <c r="I73" s="40" t="str">
-        <f t="shared" ref="I73:I75" si="12">"," &amp; IF(A73="","","/* ") &amp; "`" &amp; C73 &amp; "` " &amp; D73 &amp; IF(E73&gt;0,"(" &amp; E73 &amp; ") "," ") &amp; IF(F73&lt;&gt;"","NOT NULL ","") &amp; IF(G73="","","DEFAULT '" &amp; G73 &amp; "' ") &amp; IF(A73="",""," */")</f>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J73" s="41" t="str">
-        <f t="shared" ref="J73:J75" si="13">"," &amp; IF(A73="","","/* ") &amp; "`" &amp; C73 &amp; "` " &amp; D73 &amp; IF(E73&gt;0,"(" &amp; E73 &amp; ") "," ") &amp; IF(F73&lt;&gt;"","NOT NULL ","") &amp; IF(G73="","","DEFAULT '" &amp; G73 &amp; "' ") &amp; IF(A73="",""," */")</f>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="74" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="34"/>
       <c r="B74" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="35"/>
       <c r="G74" s="37"/>
       <c r="H74" s="38"/>
       <c r="I74" s="40" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" ref="I74:I76" si="14">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J74" s="41" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" ref="J74:J76" si="15">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="75" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="34"/>
       <c r="B75" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D75" s="35" t="s">
         <v>8</v>
@@ -4034,156 +4065,154 @@
       <c r="G75" s="37"/>
       <c r="H75" s="38"/>
       <c r="I75" s="40" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J75" s="41" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="76" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="34"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" s="41" t="s">
-        <v>33</v>
+      <c r="B76" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="36"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J76" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="77" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="G77" s="3"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A78" s="2"/>
-      <c r="B78" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I78" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
-      <c r="J78" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C78 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="G78" s="3"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I79" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C79 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+      <c r="J79" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C79 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" s="2"/>
+      <c r="B80" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="6" t="s">
+      <c r="E80" s="7"/>
+      <c r="F80" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="28" t="s">
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J79" s="30" t="s">
+      <c r="J80" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="34"/>
-      <c r="B80" s="32" t="s">
+    <row r="81" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="34"/>
+      <c r="B81" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C81" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="36">
-        <v>20</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="I80" s="40" t="str">
-        <f t="shared" ref="I80:I92" si="14">"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
-      </c>
-      <c r="J80" s="41" t="str">
-        <f t="shared" ref="J80:J92" si="15">"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A81" s="2"/>
-      <c r="B81" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>132</v>
       </c>
       <c r="D81" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="36">
-        <v>256</v>
-      </c>
-      <c r="F81" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G81" s="37"/>
-      <c r="H81" s="38"/>
+      <c r="H81" s="38" t="s">
+        <v>138</v>
+      </c>
       <c r="I81" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+        <f t="shared" ref="I81:I93" si="16">"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
       </c>
       <c r="J81" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="34"/>
-      <c r="B82" s="39" t="s">
-        <v>113</v>
+        <f t="shared" ref="J81:J93" si="17">"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A82" s="2"/>
+      <c r="B82" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D82" s="35" t="s">
         <v>7</v>
@@ -4195,71 +4224,71 @@
       <c r="G82" s="37"/>
       <c r="H82" s="38"/>
       <c r="I82" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
       <c r="J82" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
     </row>
     <row r="83" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="34"/>
       <c r="B83" s="39" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E83" s="36">
+        <v>256</v>
+      </c>
       <c r="F83" s="35"/>
       <c r="G83" s="37"/>
       <c r="H83" s="38"/>
       <c r="I83" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
       <c r="J83" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
     </row>
     <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="34"/>
       <c r="B84" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="36">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E84" s="36"/>
       <c r="F84" s="35"/>
       <c r="G84" s="37"/>
       <c r="H84" s="38"/>
       <c r="I84" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
       <c r="J84" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
     </row>
     <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="34"/>
       <c r="B85" s="39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D85" s="35" t="s">
         <v>7</v>
@@ -4271,21 +4300,21 @@
       <c r="G85" s="37"/>
       <c r="H85" s="38"/>
       <c r="I85" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
       <c r="J85" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="34"/>
       <c r="B86" s="39" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D86" s="35" t="s">
         <v>7</v>
@@ -4295,49 +4324,51 @@
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="37"/>
-      <c r="H86" s="38" t="s">
-        <v>134</v>
-      </c>
+      <c r="H86" s="38"/>
       <c r="I86" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
       <c r="J86" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="34"/>
       <c r="B87" s="39" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E87" s="36">
+        <v>20</v>
+      </c>
       <c r="F87" s="35"/>
       <c r="G87" s="37"/>
-      <c r="H87" s="38"/>
+      <c r="H87" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="I87" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
       <c r="J87" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D88" s="35" t="s">
         <v>9</v>
@@ -4347,149 +4378,149 @@
       <c r="G88" s="37"/>
       <c r="H88" s="38"/>
       <c r="I88" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
       <c r="J88" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
     </row>
     <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="34"/>
       <c r="B89" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="36">
-        <v>64</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E89" s="36"/>
       <c r="F89" s="35"/>
       <c r="G89" s="37"/>
       <c r="H89" s="38"/>
       <c r="I89" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
       <c r="J89" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
     </row>
     <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="34"/>
       <c r="B90" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D90" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E90" s="36">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="37"/>
       <c r="H90" s="38"/>
       <c r="I90" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
       <c r="J90" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
     </row>
     <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D91" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
       <c r="J91" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
     </row>
     <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="34"/>
       <c r="B92" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D92" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="37"/>
       <c r="H92" s="38"/>
       <c r="I92" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
       <c r="J92" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="34"/>
       <c r="B93" s="39" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E93" s="36">
+        <v>256</v>
+      </c>
       <c r="F93" s="35"/>
       <c r="G93" s="37"/>
       <c r="H93" s="38"/>
       <c r="I93" s="40" t="str">
-        <f t="shared" ref="I93:I94" si="16">"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J93" s="41" t="str">
-        <f t="shared" ref="J93:J94" si="17">"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="34"/>
       <c r="B94" s="39" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D94" s="35" t="s">
         <v>5</v>
@@ -4499,100 +4530,100 @@
       <c r="G94" s="37"/>
       <c r="H94" s="38"/>
       <c r="I94" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I94:I95" si="18">"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+      <c r="J94" s="41" t="str">
+        <f t="shared" ref="J94:J95" si="19">"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="34"/>
+      <c r="B95" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="36"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="40" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">,`price` INT </v>
       </c>
-      <c r="J94" s="41" t="str">
-        <f t="shared" si="17"/>
+      <c r="J95" s="41" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">,`price` INT </v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A95" s="2"/>
-      <c r="B95" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="7">
-        <v>256</v>
-      </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="27" t="str">
-        <f>"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-      <c r="J95" s="29" t="str">
-        <f>"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="20" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="7">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
       <c r="I96" s="27" t="str">
         <f>"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J96" s="29" t="str">
         <f>"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A97" s="2"/>
+      <c r="B97" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="7">
+        <v>128</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="27" t="str">
+        <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
         <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
-    </row>
-    <row r="97" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="34"/>
-      <c r="B97" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="40" t="str">
+      <c r="J97" s="29" t="str">
         <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
-      </c>
-      <c r="J97" s="41" t="str">
-        <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="98" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="34"/>
       <c r="B98" s="39" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E98" s="36"/>
       <c r="F98" s="35"/>
@@ -4600,46 +4631,44 @@
       <c r="H98" s="38"/>
       <c r="I98" s="40" t="str">
         <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
       </c>
       <c r="J98" s="41" t="str">
         <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="34"/>
+      <c r="B99" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="36"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="40" t="str">
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
         <v xml:space="preserve">,`status_id` INT </v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A99" s="2"/>
-      <c r="B99" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="7">
-        <v>256</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="27" t="str">
-        <f t="shared" ref="I99:I105" si="18">"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J99" s="29" t="str">
-        <f t="shared" ref="J99:J105" si="19">"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      <c r="J99" s="41" t="str">
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="43" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>7</v>
@@ -4651,119 +4680,121 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
       <c r="I100" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="I100:I106" si="20">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J100" s="29" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="J100:J106" si="21">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E101" s="7">
+        <v>256</v>
+      </c>
       <c r="F101" s="6"/>
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
       <c r="I101" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J101" s="29" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="7">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E102" s="7"/>
       <c r="F102" s="6"/>
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
       <c r="I102" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J102" s="29" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A103" s="2"/>
+      <c r="B103" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="7">
+        <v>64</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="27" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-      <c r="J102" s="29" t="str">
-        <f t="shared" si="19"/>
+      <c r="J103" s="29" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="34"/>
-      <c r="B103" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D103" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E103" s="36"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="40" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J103" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="104" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="34"/>
       <c r="B104" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E104" s="36"/>
       <c r="F104" s="35"/>
       <c r="G104" s="37"/>
       <c r="H104" s="38"/>
       <c r="I104" s="40" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J104" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="105" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="34"/>
       <c r="B105" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D105" s="35" t="s">
         <v>8</v>
@@ -4773,144 +4804,144 @@
       <c r="G105" s="37"/>
       <c r="H105" s="38"/>
       <c r="I105" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J105" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="34"/>
+      <c r="B106" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="36"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="40" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-      <c r="J105" s="41" t="str">
-        <f t="shared" si="19"/>
+      <c r="J106" s="41" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A106" s="2"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J106" s="29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
-      <c r="B108" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H108" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I108" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C108 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-      <c r="J108" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C108 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I109" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C109 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+      <c r="J109" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C109 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A110" s="2"/>
+      <c r="B110" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="6" t="s">
+      <c r="E110" s="7"/>
+      <c r="F110" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="28" t="s">
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J109" s="30" t="s">
+      <c r="J110" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="34"/>
-      <c r="B110" s="39" t="s">
+    <row r="111" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="34"/>
+      <c r="B111" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C111" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="35" t="s">
+      <c r="D111" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="40" t="str">
-        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
+      <c r="E111" s="36"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="40" t="str">
+        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT </v>
       </c>
-      <c r="J110" s="41" t="str">
-        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
+      <c r="J111" s="41" t="str">
+        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A111" s="2"/>
-      <c r="B111" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="27" t="str">
-        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J111" s="29" t="str">
-        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>5</v>
@@ -4921,20 +4952,20 @@
       <c r="H112" s="9"/>
       <c r="I112" s="27" t="str">
         <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J112" s="29" t="str">
         <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>5</v>
@@ -4945,220 +4976,220 @@
       <c r="H113" s="9"/>
       <c r="I113" s="27" t="str">
         <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J113" s="29" t="str">
         <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="6"/>
       <c r="G114" s="8"/>
       <c r="H114" s="9"/>
       <c r="I114" s="27" t="str">
-        <f t="shared" ref="I114:I120" si="20">"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J114" s="29" t="str">
-        <f t="shared" ref="J114:J120" si="21">"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="20" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="7">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E115" s="7"/>
       <c r="F115" s="6"/>
       <c r="G115" s="8"/>
       <c r="H115" s="9"/>
       <c r="I115" s="27" t="str">
-        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <f t="shared" ref="I115:I121" si="22">"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J115" s="29" t="str">
+        <f t="shared" ref="J115:J121" si="23">"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A116" s="2"/>
+      <c r="B116" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="7">
+        <v>20</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="27" t="str">
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
-      <c r="J115" s="29" t="str">
-        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+      <c r="J116" s="29" t="str">
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="34"/>
-      <c r="B116" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="36">
-        <v>20</v>
-      </c>
-      <c r="F116" s="35"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="40" t="str">
-        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
-      </c>
-      <c r="J116" s="41" t="str">
-        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="117" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="34"/>
       <c r="B117" s="39" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D117" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E117" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="37"/>
       <c r="H117" s="38"/>
       <c r="I117" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J117" s="41" t="str">
+        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="34"/>
+      <c r="B118" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="36">
+        <v>256</v>
+      </c>
+      <c r="F118" s="35"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="40" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
-      <c r="J117" s="41" t="str">
-        <f t="shared" si="21"/>
+      <c r="J118" s="41" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A118" s="2"/>
-      <c r="B118" s="20" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A119" s="2"/>
+      <c r="B119" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D119" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E119" s="7">
         <v>256</v>
       </c>
-      <c r="F118" s="6"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="27" t="str">
-        <f t="shared" si="20"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="27" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
-      <c r="J118" s="29" t="str">
-        <f t="shared" si="21"/>
+      <c r="J119" s="29" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="34"/>
-      <c r="B119" s="39" t="s">
+    <row r="120" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="34"/>
+      <c r="B120" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C120" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D120" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="36"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="40" t="str">
-        <f t="shared" ref="I119" si="22">"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+      <c r="E120" s="36"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="40" t="str">
+        <f t="shared" ref="I120" si="24">"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
         <v xml:space="preserve">,`language_id` INT </v>
       </c>
-      <c r="J119" s="41" t="str">
-        <f t="shared" ref="J119" si="23">"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+      <c r="J120" s="41" t="str">
+        <f t="shared" ref="J120" si="25">"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
         <v xml:space="preserve">,`language_id` INT </v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A120" s="2"/>
-      <c r="B120" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-      <c r="J120" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="20" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="6"/>
       <c r="G121" s="8"/>
       <c r="H121" s="9"/>
       <c r="I121" s="27" t="str">
-        <f t="shared" ref="I121" si="24">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J121" s="29" t="str">
-        <f t="shared" ref="J121" si="25">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>9</v>
@@ -5168,97 +5199,95 @@
       <c r="G122" s="8"/>
       <c r="H122" s="9"/>
       <c r="I122" s="27" t="str">
-        <f>"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <f t="shared" ref="I122" si="26">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J122" s="29" t="str">
+        <f t="shared" ref="J122" si="27">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A123" s="2"/>
+      <c r="B123" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="27" t="str">
+        <f>"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
-      <c r="J122" s="29" t="str">
-        <f>"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+      <c r="J123" s="29" t="str">
+        <f>"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="34"/>
-      <c r="B123" s="39" t="s">
+    <row r="124" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="34"/>
+      <c r="B124" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C124" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D123" s="35" t="s">
+      <c r="D124" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="36">
+      <c r="E124" s="36">
         <v>256</v>
       </c>
-      <c r="F123" s="35"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="40" t="str">
-        <f t="shared" ref="I123" si="26">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+      <c r="F124" s="35"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="40" t="str">
+        <f t="shared" ref="I124" si="28">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
         <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
-      <c r="J123" s="41" t="str">
-        <f t="shared" ref="J123" si="27">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+      <c r="J124" s="41" t="str">
+        <f t="shared" ref="J124" si="29">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
         <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A124" s="2"/>
-      <c r="B124" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="27" t="str">
-        <f t="shared" ref="I124:I131" si="28">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J124" s="29" t="str">
-        <f t="shared" ref="J124:J131" si="29">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
-      <c r="B125" s="43" t="s">
-        <v>87</v>
+      <c r="B125" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="7">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E125" s="7"/>
       <c r="F125" s="6"/>
       <c r="G125" s="8"/>
       <c r="H125" s="9"/>
       <c r="I125" s="27" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="I125:I132" si="30">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J125" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="J125:J132" si="31">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="43" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>7</v>
@@ -5270,119 +5299,121 @@
       <c r="G126" s="8"/>
       <c r="H126" s="9"/>
       <c r="I126" s="27" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J126" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E127" s="7">
+        <v>256</v>
+      </c>
       <c r="F127" s="6"/>
       <c r="G127" s="8"/>
       <c r="H127" s="9"/>
       <c r="I127" s="27" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J127" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="7">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E128" s="7"/>
       <c r="F128" s="6"/>
       <c r="G128" s="8"/>
       <c r="H128" s="9"/>
       <c r="I128" s="27" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J128" s="29" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A129" s="2"/>
+      <c r="B129" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="7">
+        <v>64</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="27" t="str">
+        <f t="shared" si="30"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-      <c r="J128" s="29" t="str">
-        <f t="shared" si="29"/>
+      <c r="J129" s="29" t="str">
+        <f t="shared" si="31"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="34"/>
-      <c r="B129" s="43" t="s">
+    <row r="130" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="34"/>
+      <c r="B130" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C130" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D129" s="35" t="s">
+      <c r="D130" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E129" s="36"/>
-      <c r="F129" s="35"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="40" t="str">
-        <f t="shared" si="28"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="40" t="str">
+        <f t="shared" si="30"/>
         <v xml:space="preserve">,`user_id` INT </v>
       </c>
-      <c r="J129" s="41" t="str">
-        <f t="shared" si="29"/>
+      <c r="J130" s="41" t="str">
+        <f t="shared" si="31"/>
         <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A130" s="2"/>
-      <c r="B130" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="27" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-      <c r="J130" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>8</v>
@@ -5392,120 +5423,120 @@
       <c r="G131" s="8"/>
       <c r="H131" s="9"/>
       <c r="I131" s="27" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J131" s="29" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="21"/>
-      <c r="I132" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J132" s="29" t="s">
-        <v>33</v>
+      <c r="B132" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="27" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J132" s="29" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J133" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
-      <c r="B134" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F134" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H134" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I134" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C134 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
-      <c r="J134" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C134 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I135" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C135 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J135" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C135 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A136" s="2"/>
+      <c r="B136" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="6" t="s">
+      <c r="E136" s="7"/>
+      <c r="F136" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G135" s="8"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="28" t="s">
+      <c r="G136" s="8"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J135" s="30" t="s">
+      <c r="J136" s="30" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="34"/>
-      <c r="B136" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C136" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" s="36"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="40" t="str">
-        <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-      <c r="J136" s="41" t="str">
-        <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="137" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="34"/>
       <c r="B137" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D137" s="35" t="s">
         <v>5</v>
@@ -5516,20 +5547,20 @@
       <c r="H137" s="38"/>
       <c r="I137" s="40" t="str">
         <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J137" s="41" t="str">
         <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="138" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="34"/>
       <c r="B138" s="39" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D138" s="35" t="s">
         <v>5</v>
@@ -5540,20 +5571,20 @@
       <c r="H138" s="38"/>
       <c r="I138" s="40" t="str">
         <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J138" s="41" t="str">
         <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="34"/>
       <c r="B139" s="39" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D139" s="35" t="s">
         <v>5</v>
@@ -5564,70 +5595,68 @@
       <c r="H139" s="38"/>
       <c r="I139" s="40" t="str">
         <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J139" s="41" t="str">
         <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="34"/>
       <c r="B140" s="39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E140" s="36"/>
       <c r="F140" s="35"/>
       <c r="G140" s="37"/>
       <c r="H140" s="38"/>
       <c r="I140" s="40" t="str">
-        <f t="shared" ref="I140" si="30">"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J140" s="41" t="str">
-        <f t="shared" ref="J140" si="31">"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="34"/>
       <c r="B141" s="39" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="36">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E141" s="36"/>
       <c r="F141" s="35"/>
       <c r="G141" s="37"/>
       <c r="H141" s="38"/>
       <c r="I141" s="40" t="str">
-        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" ref="I141" si="32">"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
       <c r="J141" s="41" t="str">
-        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" ref="J141" si="33">"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="34"/>
       <c r="B142" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="D142" s="35" t="s">
         <v>7</v>
@@ -5640,46 +5669,46 @@
       <c r="H142" s="38"/>
       <c r="I142" s="40" t="str">
         <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J142" s="41" t="str">
         <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="34"/>
       <c r="B143" s="39" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D143" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E143" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F143" s="35"/>
       <c r="G143" s="37"/>
       <c r="H143" s="38"/>
       <c r="I143" s="40" t="str">
-        <f t="shared" ref="I143:I147" si="32">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
       <c r="J143" s="41" t="str">
-        <f t="shared" ref="J143:J147" si="33">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="34"/>
       <c r="B144" s="39" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D144" s="35" t="s">
         <v>7</v>
@@ -5691,93 +5720,95 @@
       <c r="G144" s="37"/>
       <c r="H144" s="38"/>
       <c r="I144" s="40" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="I144:I148" si="34">"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J144" s="41" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="J144:J148" si="35">"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="34"/>
       <c r="B145" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E145" s="36">
+        <v>256</v>
+      </c>
       <c r="F145" s="35"/>
       <c r="G145" s="37"/>
       <c r="H145" s="38"/>
       <c r="I145" s="40" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J145" s="41" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="34"/>
       <c r="B146" s="39" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E146" s="36"/>
       <c r="F146" s="35"/>
       <c r="G146" s="37"/>
       <c r="H146" s="38"/>
       <c r="I146" s="40" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
       <c r="J146" s="41" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
     </row>
     <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="34"/>
       <c r="B147" s="39" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E147" s="36"/>
       <c r="F147" s="35"/>
       <c r="G147" s="37"/>
       <c r="H147" s="38"/>
       <c r="I147" s="40" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J147" s="41" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="34"/>
       <c r="B148" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D148" s="35" t="s">
         <v>9</v>
@@ -5787,97 +5818,95 @@
       <c r="G148" s="37"/>
       <c r="H148" s="38"/>
       <c r="I148" s="40" t="str">
-        <f>"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J148" s="41" t="str">
-        <f>"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
     <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="34"/>
       <c r="B149" s="39" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="36">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E149" s="36"/>
       <c r="F149" s="35"/>
       <c r="G149" s="37"/>
       <c r="H149" s="38"/>
       <c r="I149" s="40" t="str">
-        <f t="shared" ref="I149:I157" si="34">"," &amp; IF(A149="","","/* ") &amp; "`" &amp; C149 &amp; "` " &amp; D149 &amp; IF(E149&gt;0,"(" &amp; E149 &amp; ") "," ") &amp; IF(F149&lt;&gt;"","NOT NULL ","") &amp; IF(G149="","","DEFAULT '" &amp; G149 &amp; "' ") &amp; IF(A149="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A149="","","/* ") &amp; "`" &amp; C149 &amp; "` " &amp; D149 &amp; IF(E149&gt;0,"(" &amp; E149 &amp; ") "," ") &amp; IF(F149&lt;&gt;"","NOT NULL ","") &amp; IF(G149="","","DEFAULT '" &amp; G149 &amp; "' ") &amp; IF(A149="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J149" s="41" t="str">
-        <f t="shared" ref="J149:J157" si="35">"," &amp; IF(A149="","","/* ") &amp; "`" &amp; C149 &amp; "` " &amp; D149 &amp; IF(E149&gt;0,"(" &amp; E149 &amp; ") "," ") &amp; IF(F149&lt;&gt;"","NOT NULL ","") &amp; IF(G149="","","DEFAULT '" &amp; G149 &amp; "' ") &amp; IF(A149="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A149="","","/* ") &amp; "`" &amp; C149 &amp; "` " &amp; D149 &amp; IF(E149&gt;0,"(" &amp; E149 &amp; ") "," ") &amp; IF(F149&lt;&gt;"","NOT NULL ","") &amp; IF(G149="","","DEFAULT '" &amp; G149 &amp; "' ") &amp; IF(A149="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
     <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="34"/>
       <c r="B150" s="39" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E150" s="36">
+        <v>256</v>
+      </c>
       <c r="F150" s="35"/>
       <c r="G150" s="37"/>
       <c r="H150" s="38"/>
       <c r="I150" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" ref="I150:I158" si="36">"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
       <c r="J150" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" ref="J150:J158" si="37">"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
     </row>
     <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="34"/>
-      <c r="B151" s="43" t="s">
-        <v>87</v>
+      <c r="B151" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="36">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E151" s="36"/>
       <c r="F151" s="35"/>
       <c r="G151" s="37"/>
       <c r="H151" s="38"/>
       <c r="I151" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J151" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="34"/>
       <c r="B152" s="43" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D152" s="35" t="s">
         <v>7</v>
@@ -5889,119 +5918,121 @@
       <c r="G152" s="37"/>
       <c r="H152" s="38"/>
       <c r="I152" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J152" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="34"/>
       <c r="B153" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E153" s="36">
+        <v>256</v>
+      </c>
       <c r="F153" s="35"/>
       <c r="G153" s="37"/>
       <c r="H153" s="38"/>
       <c r="I153" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J153" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="34"/>
       <c r="B154" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="36">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E154" s="36"/>
       <c r="F154" s="35"/>
       <c r="G154" s="37"/>
       <c r="H154" s="38"/>
       <c r="I154" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J154" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="34"/>
       <c r="B155" s="43" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E155" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E155" s="36">
+        <v>64</v>
+      </c>
       <c r="F155" s="35"/>
       <c r="G155" s="37"/>
       <c r="H155" s="38"/>
       <c r="I155" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J155" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="156" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="34"/>
       <c r="B156" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E156" s="36"/>
       <c r="F156" s="35"/>
       <c r="G156" s="37"/>
       <c r="H156" s="38"/>
       <c r="I156" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J156" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="157" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A157" s="34"/>
       <c r="B157" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D157" s="35" t="s">
         <v>8</v>
@@ -6011,404 +6042,433 @@
       <c r="G157" s="37"/>
       <c r="H157" s="38"/>
       <c r="I157" s="40" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J157" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="34"/>
+      <c r="B158" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="36"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="40" t="str">
+        <f t="shared" si="36"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-      <c r="J157" s="41" t="str">
-        <f t="shared" si="35"/>
+      <c r="J158" s="41" t="str">
+        <f t="shared" si="37"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A158" s="2"/>
-      <c r="B158" s="21"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="22"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="28" t="s">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A159" s="2"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J158" s="29" t="s">
+      <c r="J159" s="29" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="expression" dxfId="73" priority="186">
+    <cfRule type="expression" dxfId="75" priority="187">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7 A41:A42 A132:A133 A78:A80 A121:A122 A13:A14 A82:A92 A96:A97 A31:A33 A35 A106:A109 A115:A116">
-    <cfRule type="cellIs" dxfId="72" priority="185" operator="greaterThan">
+  <conditionalFormatting sqref="A5:A7 A41:A42 A133:A134 A79:A81 A122:A123 A13:A14 A83:A93 A97:A98 A31:A33 A35 A107:A110 A116:A117">
+    <cfRule type="cellIs" dxfId="74" priority="186" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A11:A12">
-    <cfRule type="cellIs" dxfId="71" priority="184" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="185" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="70" priority="183" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="184" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="69" priority="182" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="183" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="cellIs" dxfId="68" priority="178" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:A102">
-    <cfRule type="cellIs" dxfId="67" priority="176" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="179" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:A103">
+    <cfRule type="cellIs" dxfId="69" priority="177" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="cellIs" dxfId="68" priority="176" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" dxfId="67" priority="170" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" dxfId="66" priority="168" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A62 A43:A44 A46">
+    <cfRule type="cellIs" dxfId="65" priority="169" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52 A54">
+    <cfRule type="cellIs" dxfId="64" priority="163" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55 A57">
+    <cfRule type="cellIs" dxfId="63" priority="162" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="62" priority="161" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" dxfId="61" priority="160" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="60" priority="159" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="59" priority="158" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="cellIs" dxfId="58" priority="155" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="cellIs" dxfId="57" priority="154" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A129">
+    <cfRule type="cellIs" dxfId="56" priority="153" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131:A132">
+    <cfRule type="cellIs" dxfId="55" priority="152" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159 A135">
+    <cfRule type="cellIs" dxfId="54" priority="151" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" dxfId="53" priority="145" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="cellIs" dxfId="52" priority="137" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="51" priority="136" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="cellIs" dxfId="50" priority="135" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="49" priority="134" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A15:A17">
+    <cfRule type="cellIs" dxfId="48" priority="123" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="47" priority="119" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="46" priority="97" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="45" priority="118" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="cellIs" dxfId="44" priority="107" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="cellIs" dxfId="43" priority="89" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="cellIs" dxfId="42" priority="96" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="cellIs" dxfId="41" priority="95" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="cellIs" dxfId="40" priority="94" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="cellIs" dxfId="39" priority="93" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="cellIs" dxfId="38" priority="92" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="cellIs" dxfId="37" priority="91" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="cellIs" dxfId="66" priority="175" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="cellIs" dxfId="65" priority="169" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="64" priority="167" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62 A43:A44 A46">
-    <cfRule type="cellIs" dxfId="63" priority="168" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A54">
-    <cfRule type="cellIs" dxfId="62" priority="162" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55 A57">
-    <cfRule type="cellIs" dxfId="61" priority="161" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="60" priority="160" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="59" priority="159" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="58" priority="158" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="57" priority="157" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="cellIs" dxfId="56" priority="154" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="55" priority="153" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125:A128">
-    <cfRule type="cellIs" dxfId="54" priority="152" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130:A131">
-    <cfRule type="cellIs" dxfId="53" priority="151" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158 A134">
-    <cfRule type="cellIs" dxfId="52" priority="150" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="cellIs" dxfId="51" priority="144" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="50" priority="136" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" dxfId="49" priority="135" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="90" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="cellIs" dxfId="48" priority="134" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" dxfId="47" priority="133" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 A15:A17">
-    <cfRule type="cellIs" dxfId="46" priority="122" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="45" priority="118" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="44" priority="96" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="43" priority="117" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
-    <cfRule type="cellIs" dxfId="42" priority="106" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="41" priority="88" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="40" priority="95" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="cellIs" dxfId="39" priority="94" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="cellIs" dxfId="38" priority="93" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="37" priority="92" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
-    <cfRule type="cellIs" dxfId="36" priority="91" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="35" priority="90" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="cellIs" dxfId="34" priority="89" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="cellIs" dxfId="33" priority="74" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:A148 A141:A142">
-    <cfRule type="cellIs" dxfId="31" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="75" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148:A149 A142:A143">
+    <cfRule type="cellIs" dxfId="33" priority="58" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151">
+    <cfRule type="cellIs" dxfId="32" priority="57" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="cellIs" dxfId="31" priority="56" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="cellIs" dxfId="30" priority="55" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:A155">
+    <cfRule type="cellIs" dxfId="29" priority="54" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:A158">
+    <cfRule type="cellIs" dxfId="28" priority="53" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="cellIs" dxfId="27" priority="52" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="cellIs" dxfId="26" priority="51" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="cellIs" dxfId="25" priority="50" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="cellIs" dxfId="24" priority="49" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="cellIs" dxfId="23" priority="48" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="cellIs" dxfId="30" priority="56" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
-    <cfRule type="cellIs" dxfId="28" priority="54" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A154">
-    <cfRule type="cellIs" dxfId="27" priority="53" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A156:A157">
-    <cfRule type="cellIs" dxfId="26" priority="52" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="cellIs" dxfId="24" priority="50" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="cellIs" dxfId="22" priority="48" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A143">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="20" priority="46" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A77 A63:A64 A67">
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A78 A63:A64 A68">
+    <cfRule type="cellIs" dxfId="19" priority="44" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A25 A21:A22">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:A73">
     <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A72">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThan">
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A105">
-    <cfRule type="cellIs" dxfId="10" priority="31" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A75">
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:A106">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:A76">
+    <cfRule type="cellIs" dxfId="11" priority="31" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="30" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="29" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="6" priority="27" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155">
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156">
+    <cfRule type="cellIs" dxfId="6" priority="24" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A130">
+    <cfRule type="cellIs" dxfId="5" priority="25" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30 A26:A27">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D32:D40 D44:D60 D135:D157 D109:D131 D22:D23 D64:D75 D27:D28 D79:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D32:D40 D44:D60 D136:D158 D110:D132 D22:D23 D80:D106 D27:D28 D64:D76">
       <formula1>TYPE</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="178">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -949,6 +949,17 @@
   </si>
   <si>
     <t>contract_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>partner_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パートナー区分</t>
+    <rPh sb="5" eb="7">
+      <t>クブン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2368,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -3124,7 +3135,7 @@
     <row r="36" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="34"/>
       <c r="B36" s="39" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>157</v>
@@ -3134,75 +3145,77 @@
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="35"/>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>0</v>
+      </c>
       <c r="H36" s="38"/>
       <c r="I36" s="40" t="str">
         <f>"," &amp; IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; IF(A36="",""," */")</f>
-        <v xml:space="preserve">,`partner_flag` INT </v>
+        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
       </c>
       <c r="J36" s="41" t="str">
         <f>"," &amp; IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; IF(A36="",""," */")</f>
-        <v xml:space="preserve">,`partner_flag` INT </v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="2"/>
-      <c r="B37" s="20" t="s">
+        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="34"/>
+      <c r="B37" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="40" t="str">
+        <f>"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+        <v xml:space="preserve">,`partner_id` INT </v>
+      </c>
+      <c r="J37" s="41" t="str">
+        <f>"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+        <v xml:space="preserve">,`partner_id` INT </v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="27" t="str">
-        <f t="shared" ref="I37:I40" si="2">"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="27" t="str">
+        <f t="shared" ref="I38:I41" si="2">"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
         <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
-      <c r="J37" s="29" t="str">
-        <f t="shared" ref="J37:J40" si="3">"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+      <c r="J38" s="29" t="str">
+        <f t="shared" ref="J38:J41" si="3">"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
         <v xml:space="preserve">,`remarks` TEXT </v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="34"/>
-      <c r="B38" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J38" s="41" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="39" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="34"/>
       <c r="B39" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="35"/>
@@ -3210,20 +3223,20 @@
       <c r="H39" s="38"/>
       <c r="I39" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J39" s="41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="40" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="34"/>
       <c r="B40" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>8</v>
@@ -3234,329 +3247,327 @@
       <c r="H40" s="38"/>
       <c r="I40" s="40" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J40" s="41" t="str">
         <f t="shared" si="3"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="34"/>
+      <c r="B41" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="40" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="2"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="29" t="s">
-        <v>33</v>
+      <c r="J41" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
-      <c r="B43" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
-        <v>CREATE TABLE `customers` (</v>
-      </c>
-      <c r="J43" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
-        <v>CREATE TABLE `customers` (</v>
-      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
-      <c r="B44" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="30" t="s">
-        <v>20</v>
+      <c r="B44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C44 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
+      </c>
+      <c r="J44" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C44 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="20" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="6" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="27" t="str">
-        <f t="shared" ref="I45:I51" si="4">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
-      </c>
-      <c r="J45" s="29" t="str">
-        <f t="shared" ref="J45:J51" si="5">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      <c r="I45" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="7">
-        <v>128</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
       <c r="I46" s="27" t="str">
+        <f t="shared" ref="I46:I52" si="4">"," &amp; IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; IF(A46="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+      <c r="J46" s="29" t="str">
+        <f t="shared" ref="J46:J52" si="5">"," &amp; IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; IF(A46="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="7">
+        <v>128</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="27" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
       </c>
-      <c r="J46" s="29" t="str">
+      <c r="J47" s="29" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="34"/>
-      <c r="B47" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="36">
-        <v>512</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">,`address` VARCHAR(512) </v>
-      </c>
-      <c r="J47" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,`address` VARCHAR(512) </v>
       </c>
     </row>
     <row r="48" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="34"/>
       <c r="B48" s="39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="36">
-        <v>4</v>
+        <v>512</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="37"/>
       <c r="H48" s="38"/>
       <c r="I48" s="40" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
       </c>
       <c r="J48" s="41" t="str">
         <f t="shared" si="5"/>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="34"/>
+      <c r="B49" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="36">
+        <v>4</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="40" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="7">
-        <v>256</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="27" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-      <c r="J49" s="29" t="str">
+      <c r="J49" s="41" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="20" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="7">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
       <c r="I50" s="27" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J50" s="29" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E51" s="7">
+        <v>128</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="8"/>
       <c r="H51" s="9"/>
       <c r="I51" s="27" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
       <c r="J51" s="29" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="20" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="7">
-        <v>128</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="6"/>
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
       <c r="I52" s="27" t="str">
-        <f t="shared" ref="I52:I54" si="6">"," &amp; IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; IF(A52="",""," */")</f>
-        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J52" s="29" t="str">
-        <f t="shared" ref="J52:J54" si="7">"," &amp; IF(A52="","","/* ") &amp; "`" &amp; C52 &amp; "` " &amp; D52 &amp; IF(E52&gt;0,"(" &amp; E52 &amp; ") "," ") &amp; IF(F52&lt;&gt;"","NOT NULL ","") &amp; IF(G52="","","DEFAULT '" &amp; G52 &amp; "' ") &amp; IF(A52="",""," */")</f>
-        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="7">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
       <c r="I53" s="27" t="str">
-        <f>"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
-        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+        <f t="shared" ref="I53:I55" si="6">"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
       </c>
       <c r="J53" s="29" t="str">
-        <f>"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
-        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+        <f t="shared" ref="J53:J55" si="7">"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>7</v>
@@ -3568,73 +3579,73 @@
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
       <c r="I54" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+        <f>"," &amp; IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; IF(A54="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
       </c>
       <c r="J54" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+        <f>"," &amp; IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; IF(A54="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="7">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="8"/>
       <c r="H55" s="9"/>
       <c r="I55" s="27" t="str">
-        <f t="shared" ref="I55:I60" si="8">"," &amp; IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; IF(A55="",""," */")</f>
-        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
       </c>
       <c r="J55" s="29" t="str">
-        <f t="shared" ref="J55:J60" si="9">"," &amp; IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; IF(A55="",""," */")</f>
-        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="7">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="8"/>
       <c r="H56" s="9"/>
       <c r="I56" s="27" t="str">
-        <f>"," &amp; IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; IF(A56="",""," */")</f>
-        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+        <f t="shared" ref="I56:I61" si="8">"," &amp; IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; IF(A56="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
       </c>
       <c r="J56" s="29" t="str">
-        <f>"," &amp; IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; IF(A56="",""," */")</f>
-        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+        <f t="shared" ref="J56:J61" si="9">"," &amp; IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; IF(A56="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>7</v>
@@ -3646,48 +3657,50 @@
       <c r="G57" s="8"/>
       <c r="H57" s="9"/>
       <c r="I57" s="27" t="str">
+        <f>"," &amp; IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; IF(A57="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+      <c r="J57" s="29" t="str">
+        <f>"," &amp; IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; IF(A57="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="7">
+        <v>256</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="27" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
       </c>
-      <c r="J57" s="29" t="str">
+      <c r="J58" s="29" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="34"/>
-      <c r="B58" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J58" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="59" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="34"/>
       <c r="B59" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E59" s="36"/>
       <c r="F59" s="35"/>
@@ -3695,20 +3708,20 @@
       <c r="H59" s="38"/>
       <c r="I59" s="40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J59" s="41" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="60" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="34"/>
       <c r="B60" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" s="35" t="s">
         <v>8</v>
@@ -3719,196 +3732,196 @@
       <c r="H60" s="38"/>
       <c r="I60" s="40" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J60" s="41" t="str">
         <f t="shared" si="9"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="34"/>
+      <c r="B61" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="40" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="2"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="29" t="s">
-        <v>33</v>
+      <c r="J61" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="34"/>
-      <c r="B63" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I63" s="40" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C63 &amp; "` ("</f>
-        <v>CREATE TABLE `contracts` (</v>
-      </c>
-      <c r="J63" s="41" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C63 &amp; "` ("</f>
-        <v>CREATE TABLE `contracts` (</v>
-      </c>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="34"/>
-      <c r="B64" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="37"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="30" t="s">
-        <v>20</v>
+      <c r="B64" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
+      </c>
+      <c r="J64" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="34"/>
       <c r="B65" s="39" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="D65" s="35" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="36"/>
       <c r="F65" s="35" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="G65" s="37"/>
       <c r="H65" s="38"/>
-      <c r="I65" s="40" t="str">
-        <f t="shared" ref="I65:I73" si="10">"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
-      </c>
-      <c r="J65" s="41" t="str">
-        <f t="shared" ref="J65:J73" si="11">"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      <c r="I65" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="34"/>
       <c r="B66" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D66" s="35" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="36"/>
-      <c r="F66" s="35"/>
+      <c r="F66" s="35" t="s">
+        <v>136</v>
+      </c>
       <c r="G66" s="37"/>
       <c r="H66" s="38"/>
       <c r="I66" s="40" t="str">
-        <f>"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <f t="shared" ref="I66:I74" si="10">"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
       <c r="J66" s="41" t="str">
-        <f>"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <f t="shared" ref="J66:J74" si="11">"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
     </row>
     <row r="67" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="34"/>
       <c r="B67" s="39" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E67" s="36"/>
       <c r="F67" s="35"/>
       <c r="G67" s="37"/>
       <c r="H67" s="38"/>
       <c r="I67" s="40" t="str">
-        <f t="shared" ref="I67" si="12">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
-        <v xml:space="preserve">,`contract_date` DATE </v>
+        <f>"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J67" s="41" t="str">
-        <f t="shared" ref="J67" si="13">"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
-        <v xml:space="preserve">,`contract_date` DATE </v>
+        <f>"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="68" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="34"/>
       <c r="B68" s="39" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E68" s="36"/>
       <c r="F68" s="35"/>
       <c r="G68" s="37"/>
       <c r="H68" s="38"/>
       <c r="I68" s="40" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,`contractname_id` INT </v>
+        <f t="shared" ref="I68" si="12">"," &amp; IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; IF(A68="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
       <c r="J68" s="41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">,`contractname_id` INT </v>
+        <f t="shared" ref="J68" si="13">"," &amp; IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; IF(A68="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
     </row>
     <row r="69" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="34"/>
       <c r="B69" s="39" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E69" s="36"/>
       <c r="F69" s="35"/>
@@ -3916,46 +3929,44 @@
       <c r="H69" s="38"/>
       <c r="I69" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`contractname_id` INT </v>
       </c>
       <c r="J69" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`contractname_id` INT </v>
       </c>
     </row>
     <row r="70" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="34"/>
-      <c r="B70" s="43" t="s">
-        <v>135</v>
+      <c r="B70" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="36">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E70" s="36"/>
       <c r="F70" s="35"/>
       <c r="G70" s="37"/>
       <c r="H70" s="38"/>
       <c r="I70" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J70" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="71" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="34"/>
       <c r="B71" s="43" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D71" s="35" t="s">
         <v>7</v>
@@ -3968,118 +3979,120 @@
       <c r="H71" s="38"/>
       <c r="I71" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J71" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="72" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="34"/>
       <c r="B72" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E72" s="36">
+        <v>256</v>
+      </c>
       <c r="F72" s="35"/>
       <c r="G72" s="37"/>
       <c r="H72" s="38"/>
       <c r="I72" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J72" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="73" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="34"/>
       <c r="B73" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="36">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E73" s="36"/>
       <c r="F73" s="35"/>
       <c r="G73" s="37"/>
       <c r="H73" s="38"/>
       <c r="I73" s="40" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J73" s="41" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="74" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="34"/>
       <c r="B74" s="43" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E74" s="36">
+        <v>64</v>
+      </c>
       <c r="F74" s="35"/>
       <c r="G74" s="37"/>
       <c r="H74" s="38"/>
       <c r="I74" s="40" t="str">
-        <f t="shared" ref="I74:I76" si="14">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J74" s="41" t="str">
-        <f t="shared" ref="J74:J76" si="15">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="75" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="34"/>
       <c r="B75" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E75" s="36"/>
       <c r="F75" s="35"/>
       <c r="G75" s="37"/>
       <c r="H75" s="38"/>
       <c r="I75" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" ref="I75:I77" si="14">"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J75" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" ref="J75:J77" si="15">"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="76" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="34"/>
       <c r="B76" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>8</v>
@@ -4090,155 +4103,153 @@
       <c r="H76" s="38"/>
       <c r="I76" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J76" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="77" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="34"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" s="41" t="s">
-        <v>33</v>
+      <c r="B77" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J77" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="78" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="G78" s="3"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A79" s="2"/>
-      <c r="B79" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I79" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C79 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
-      <c r="J79" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C79 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="G79" s="3"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C80 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+      <c r="J80" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C80 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="6" t="s">
+      <c r="E81" s="7"/>
+      <c r="F81" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="28" t="s">
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J80" s="30" t="s">
+      <c r="J81" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="34"/>
-      <c r="B81" s="32" t="s">
+    <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="34"/>
+      <c r="B82" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C82" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="36">
-        <v>20</v>
-      </c>
-      <c r="F81" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="I81" s="40" t="str">
-        <f t="shared" ref="I81:I93" si="16">"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
-      </c>
-      <c r="J81" s="41" t="str">
-        <f t="shared" ref="J81:J93" si="17">"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A82" s="2"/>
-      <c r="B82" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>132</v>
       </c>
       <c r="D82" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="36">
-        <v>256</v>
-      </c>
-      <c r="F82" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G82" s="37"/>
-      <c r="H82" s="38"/>
+      <c r="H82" s="38" t="s">
+        <v>138</v>
+      </c>
       <c r="I82" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+        <f t="shared" ref="I82:I94" si="16">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
       </c>
       <c r="J82" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="34"/>
-      <c r="B83" s="39" t="s">
-        <v>113</v>
+        <f t="shared" ref="J82:J94" si="17">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A83" s="2"/>
+      <c r="B83" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" s="35" t="s">
         <v>7</v>
@@ -4251,70 +4262,70 @@
       <c r="H83" s="38"/>
       <c r="I83" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
       <c r="J83" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
     </row>
     <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="34"/>
       <c r="B84" s="39" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E84" s="36">
+        <v>256</v>
+      </c>
       <c r="F84" s="35"/>
       <c r="G84" s="37"/>
       <c r="H84" s="38"/>
       <c r="I84" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
       <c r="J84" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
     </row>
     <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="34"/>
       <c r="B85" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="36">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E85" s="36"/>
       <c r="F85" s="35"/>
       <c r="G85" s="37"/>
       <c r="H85" s="38"/>
       <c r="I85" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
       <c r="J85" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
     </row>
     <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="34"/>
       <c r="B86" s="39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D86" s="35" t="s">
         <v>7</v>
@@ -4327,20 +4338,20 @@
       <c r="H86" s="38"/>
       <c r="I86" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
       <c r="J86" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="34"/>
       <c r="B87" s="39" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D87" s="35" t="s">
         <v>7</v>
@@ -4350,49 +4361,51 @@
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="37"/>
-      <c r="H87" s="38" t="s">
-        <v>134</v>
-      </c>
+      <c r="H87" s="38"/>
       <c r="I87" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
       <c r="J87" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E88" s="36">
+        <v>20</v>
+      </c>
       <c r="F88" s="35"/>
       <c r="G88" s="37"/>
-      <c r="H88" s="38"/>
+      <c r="H88" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="I88" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
       <c r="J88" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="34"/>
       <c r="B89" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D89" s="35" t="s">
         <v>9</v>
@@ -4403,148 +4416,148 @@
       <c r="H89" s="38"/>
       <c r="I89" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
       <c r="J89" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
     </row>
     <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="34"/>
       <c r="B90" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="36">
-        <v>64</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E90" s="36"/>
       <c r="F90" s="35"/>
       <c r="G90" s="37"/>
       <c r="H90" s="38"/>
       <c r="I90" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
       <c r="J90" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
     </row>
     <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D91" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="36">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
       <c r="J91" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
     </row>
     <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="34"/>
       <c r="B92" s="39" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D92" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="37"/>
       <c r="H92" s="38"/>
       <c r="I92" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
       <c r="J92" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
     </row>
     <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="34"/>
       <c r="B93" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D93" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="37"/>
       <c r="H93" s="38"/>
       <c r="I93" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
       <c r="J93" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="34"/>
       <c r="B94" s="39" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E94" s="36">
+        <v>256</v>
+      </c>
       <c r="F94" s="35"/>
       <c r="G94" s="37"/>
       <c r="H94" s="38"/>
       <c r="I94" s="40" t="str">
-        <f t="shared" ref="I94:I95" si="18">"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J94" s="41" t="str">
-        <f t="shared" ref="J94:J95" si="19">"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="95" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="34"/>
       <c r="B95" s="39" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D95" s="35" t="s">
         <v>5</v>
@@ -4554,100 +4567,100 @@
       <c r="G95" s="37"/>
       <c r="H95" s="38"/>
       <c r="I95" s="40" t="str">
+        <f t="shared" ref="I95:I96" si="18">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+      <c r="J95" s="41" t="str">
+        <f t="shared" ref="J95:J96" si="19">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="34"/>
+      <c r="B96" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="36"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="40" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">,`price` INT </v>
       </c>
-      <c r="J95" s="41" t="str">
+      <c r="J96" s="41" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">,`price` INT </v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A96" s="2"/>
-      <c r="B96" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="7">
-        <v>256</v>
-      </c>
-      <c r="F96" s="6"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="27" t="str">
-        <f>"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-      <c r="J96" s="29" t="str">
-        <f>"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="20" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="7">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
       <c r="I97" s="27" t="str">
         <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J97" s="29" t="str">
         <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A98" s="2"/>
+      <c r="B98" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="7">
+        <v>128</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="27" t="str">
+        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
         <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
-    </row>
-    <row r="98" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="34"/>
-      <c r="B98" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="36"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="40" t="str">
+      <c r="J98" s="29" t="str">
         <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
-      </c>
-      <c r="J98" s="41" t="str">
-        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="99" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="34"/>
       <c r="B99" s="39" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E99" s="36"/>
       <c r="F99" s="35"/>
@@ -4655,46 +4668,44 @@
       <c r="H99" s="38"/>
       <c r="I99" s="40" t="str">
         <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
       </c>
       <c r="J99" s="41" t="str">
         <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="34"/>
+      <c r="B100" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="40" t="str">
+        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
         <v xml:space="preserve">,`status_id` INT </v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A100" s="2"/>
-      <c r="B100" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="7">
-        <v>256</v>
-      </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="27" t="str">
-        <f t="shared" ref="I100:I106" si="20">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J100" s="29" t="str">
-        <f t="shared" ref="J100:J106" si="21">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      <c r="J100" s="41" t="str">
+        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="43" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>7</v>
@@ -4706,98 +4717,100 @@
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
       <c r="I101" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="I101:I107" si="20">"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J101" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="J101:J107" si="21">"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E102" s="7">
+        <v>256</v>
+      </c>
       <c r="F102" s="6"/>
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
       <c r="I102" s="27" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J102" s="29" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="7">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E103" s="7"/>
       <c r="F103" s="6"/>
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
       <c r="I103" s="27" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J103" s="29" t="str">
         <f t="shared" si="21"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A104" s="2"/>
+      <c r="B104" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="7">
+        <v>64</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="27" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-    </row>
-    <row r="104" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="34"/>
-      <c r="B104" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D104" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E104" s="36"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J104" s="41" t="str">
+      <c r="J104" s="29" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="105" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="34"/>
       <c r="B105" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E105" s="36"/>
       <c r="F105" s="35"/>
@@ -4805,20 +4818,20 @@
       <c r="H105" s="38"/>
       <c r="I105" s="40" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J105" s="41" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="34"/>
       <c r="B106" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D106" s="35" t="s">
         <v>8</v>
@@ -4829,143 +4842,143 @@
       <c r="H106" s="38"/>
       <c r="I106" s="40" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J106" s="41" t="str">
         <f t="shared" si="21"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="34"/>
+      <c r="B107" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="36"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="40" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A107" s="2"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J107" s="29" t="s">
-        <v>33</v>
+      <c r="J107" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
-      <c r="B109" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H109" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I109" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C109 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-      <c r="J109" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C109 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I110" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C110 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+      <c r="J110" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C110 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A111" s="2"/>
+      <c r="B111" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C111" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="6" t="s">
+      <c r="E111" s="7"/>
+      <c r="F111" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="28" t="s">
+      <c r="G111" s="8"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J110" s="30" t="s">
+      <c r="J111" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="34"/>
-      <c r="B111" s="39" t="s">
+    <row r="112" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="34"/>
+      <c r="B112" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C112" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="35" t="s">
+      <c r="D112" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="36"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="40" t="str">
-        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
+      <c r="E112" s="36"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="40" t="str">
+        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT </v>
       </c>
-      <c r="J111" s="41" t="str">
-        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
+      <c r="J112" s="41" t="str">
+        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A112" s="2"/>
-      <c r="B112" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="27" t="str">
-        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J112" s="29" t="str">
-        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>5</v>
@@ -4976,20 +4989,20 @@
       <c r="H113" s="9"/>
       <c r="I113" s="27" t="str">
         <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J113" s="29" t="str">
         <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>5</v>
@@ -5000,220 +5013,220 @@
       <c r="H114" s="9"/>
       <c r="I114" s="27" t="str">
         <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J114" s="29" t="str">
         <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="6"/>
       <c r="G115" s="8"/>
       <c r="H115" s="9"/>
       <c r="I115" s="27" t="str">
-        <f t="shared" ref="I115:I121" si="22">"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J115" s="29" t="str">
-        <f t="shared" ref="J115:J121" si="23">"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="20" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="7">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E116" s="7"/>
       <c r="F116" s="6"/>
       <c r="G116" s="8"/>
       <c r="H116" s="9"/>
       <c r="I116" s="27" t="str">
-        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <f t="shared" ref="I116:I122" si="22">"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J116" s="29" t="str">
+        <f t="shared" ref="J116:J122" si="23">"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A117" s="2"/>
+      <c r="B117" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="7">
+        <v>20</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="27" t="str">
+        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
-      <c r="J116" s="29" t="str">
-        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+      <c r="J117" s="29" t="str">
+        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="34"/>
-      <c r="B117" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="36">
-        <v>20</v>
-      </c>
-      <c r="F117" s="35"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="40" t="str">
-        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
-      </c>
-      <c r="J117" s="41" t="str">
-        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="118" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="34"/>
       <c r="B118" s="39" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D118" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="37"/>
       <c r="H118" s="38"/>
       <c r="I118" s="40" t="str">
+        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J118" s="41" t="str">
+        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="34"/>
+      <c r="B119" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="36">
+        <v>256</v>
+      </c>
+      <c r="F119" s="35"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="40" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
-      <c r="J118" s="41" t="str">
+      <c r="J119" s="41" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A119" s="2"/>
-      <c r="B119" s="20" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A120" s="2"/>
+      <c r="B120" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D120" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E120" s="7">
         <v>256</v>
       </c>
-      <c r="F119" s="6"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="27" t="str">
+      <c r="F120" s="6"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="27" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
-      <c r="J119" s="29" t="str">
+      <c r="J120" s="29" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="34"/>
-      <c r="B120" s="39" t="s">
+    <row r="121" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="34"/>
+      <c r="B121" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C121" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D121" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="36"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="40" t="str">
-        <f t="shared" ref="I120" si="24">"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+      <c r="E121" s="36"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="40" t="str">
+        <f t="shared" ref="I121" si="24">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
         <v xml:space="preserve">,`language_id` INT </v>
       </c>
-      <c r="J120" s="41" t="str">
-        <f t="shared" ref="J120" si="25">"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+      <c r="J121" s="41" t="str">
+        <f t="shared" ref="J121" si="25">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
         <v xml:space="preserve">,`language_id` INT </v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A121" s="2"/>
-      <c r="B121" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-      <c r="J121" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="20" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="6"/>
       <c r="G122" s="8"/>
       <c r="H122" s="9"/>
       <c r="I122" s="27" t="str">
-        <f t="shared" ref="I122" si="26">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J122" s="29" t="str">
-        <f t="shared" ref="J122" si="27">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>9</v>
@@ -5223,97 +5236,95 @@
       <c r="G123" s="8"/>
       <c r="H123" s="9"/>
       <c r="I123" s="27" t="str">
-        <f>"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <f t="shared" ref="I123" si="26">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J123" s="29" t="str">
+        <f t="shared" ref="J123" si="27">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A124" s="2"/>
+      <c r="B124" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="27" t="str">
+        <f>"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
-      <c r="J123" s="29" t="str">
-        <f>"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+      <c r="J124" s="29" t="str">
+        <f>"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="34"/>
-      <c r="B124" s="39" t="s">
+    <row r="125" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="34"/>
+      <c r="B125" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C125" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D124" s="35" t="s">
+      <c r="D125" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E124" s="36">
+      <c r="E125" s="36">
         <v>256</v>
       </c>
-      <c r="F124" s="35"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="40" t="str">
-        <f t="shared" ref="I124" si="28">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+      <c r="F125" s="35"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="40" t="str">
+        <f t="shared" ref="I125" si="28">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
         <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
-      <c r="J124" s="41" t="str">
-        <f t="shared" ref="J124" si="29">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+      <c r="J125" s="41" t="str">
+        <f t="shared" ref="J125" si="29">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
         <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A125" s="2"/>
-      <c r="B125" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="27" t="str">
-        <f t="shared" ref="I125:I132" si="30">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J125" s="29" t="str">
-        <f t="shared" ref="J125:J132" si="31">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
-      <c r="B126" s="43" t="s">
-        <v>87</v>
+      <c r="B126" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="7">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E126" s="7"/>
       <c r="F126" s="6"/>
       <c r="G126" s="8"/>
       <c r="H126" s="9"/>
       <c r="I126" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="I126:I133" si="30">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J126" s="29" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="J126:J133" si="31">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="43" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>7</v>
@@ -5326,118 +5337,120 @@
       <c r="H127" s="9"/>
       <c r="I127" s="27" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J127" s="29" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E128" s="7">
+        <v>256</v>
+      </c>
       <c r="F128" s="6"/>
       <c r="G128" s="8"/>
       <c r="H128" s="9"/>
       <c r="I128" s="27" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J128" s="29" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="7">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E129" s="7"/>
       <c r="F129" s="6"/>
       <c r="G129" s="8"/>
       <c r="H129" s="9"/>
       <c r="I129" s="27" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J129" s="29" t="str">
         <f t="shared" si="31"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A130" s="2"/>
+      <c r="B130" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="7">
+        <v>64</v>
+      </c>
+      <c r="F130" s="6"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="27" t="str">
+        <f t="shared" si="30"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-    </row>
-    <row r="130" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="34"/>
-      <c r="B130" s="43" t="s">
+      <c r="J130" s="29" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="34"/>
+      <c r="B131" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C130" s="35" t="s">
+      <c r="C131" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="35" t="s">
+      <c r="D131" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E130" s="36"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="40" t="str">
+      <c r="E131" s="36"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="40" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">,`user_id` INT </v>
       </c>
-      <c r="J130" s="41" t="str">
+      <c r="J131" s="41" t="str">
         <f t="shared" si="31"/>
         <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A131" s="2"/>
-      <c r="B131" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-      <c r="J131" s="29" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>8</v>
@@ -5448,119 +5461,119 @@
       <c r="H132" s="9"/>
       <c r="I132" s="27" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J132" s="29" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J133" s="29" t="s">
-        <v>33</v>
+      <c r="B133" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="27" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J133" s="29" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
-      <c r="B135" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F135" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H135" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I135" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C135 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
-      <c r="J135" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C135 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I136" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C136 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J136" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C136 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A137" s="2"/>
+      <c r="B137" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="6" t="s">
+      <c r="E137" s="7"/>
+      <c r="F137" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G136" s="8"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="28" t="s">
+      <c r="G137" s="8"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J136" s="30" t="s">
+      <c r="J137" s="30" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="34"/>
-      <c r="B137" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C137" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D137" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="36"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="40" t="str">
-        <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-      <c r="J137" s="41" t="str">
-        <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="138" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="34"/>
       <c r="B138" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D138" s="35" t="s">
         <v>5</v>
@@ -5571,20 +5584,20 @@
       <c r="H138" s="38"/>
       <c r="I138" s="40" t="str">
         <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J138" s="41" t="str">
         <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="34"/>
       <c r="B139" s="39" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D139" s="35" t="s">
         <v>5</v>
@@ -5595,20 +5608,20 @@
       <c r="H139" s="38"/>
       <c r="I139" s="40" t="str">
         <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J139" s="41" t="str">
         <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="34"/>
       <c r="B140" s="39" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D140" s="35" t="s">
         <v>5</v>
@@ -5619,70 +5632,68 @@
       <c r="H140" s="38"/>
       <c r="I140" s="40" t="str">
         <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J140" s="41" t="str">
         <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="34"/>
       <c r="B141" s="39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E141" s="36"/>
       <c r="F141" s="35"/>
       <c r="G141" s="37"/>
       <c r="H141" s="38"/>
       <c r="I141" s="40" t="str">
-        <f t="shared" ref="I141" si="32">"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J141" s="41" t="str">
-        <f t="shared" ref="J141" si="33">"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="34"/>
       <c r="B142" s="39" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="36">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E142" s="36"/>
       <c r="F142" s="35"/>
       <c r="G142" s="37"/>
       <c r="H142" s="38"/>
       <c r="I142" s="40" t="str">
-        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" ref="I142" si="32">"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
       <c r="J142" s="41" t="str">
-        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" ref="J142" si="33">"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="34"/>
       <c r="B143" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="D143" s="35" t="s">
         <v>7</v>
@@ -5695,46 +5706,46 @@
       <c r="H143" s="38"/>
       <c r="I143" s="40" t="str">
         <f>"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J143" s="41" t="str">
         <f>"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="34"/>
       <c r="B144" s="39" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D144" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E144" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="37"/>
       <c r="H144" s="38"/>
       <c r="I144" s="40" t="str">
-        <f t="shared" ref="I144:I148" si="34">"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
       <c r="J144" s="41" t="str">
-        <f t="shared" ref="J144:J148" si="35">"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="34"/>
       <c r="B145" s="39" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D145" s="35" t="s">
         <v>7</v>
@@ -5746,48 +5757,50 @@
       <c r="G145" s="37"/>
       <c r="H145" s="38"/>
       <c r="I145" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="I145:I149" si="34">"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J145" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="J145:J149" si="35">"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="34"/>
       <c r="B146" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E146" s="36">
+        <v>256</v>
+      </c>
       <c r="F146" s="35"/>
       <c r="G146" s="37"/>
       <c r="H146" s="38"/>
       <c r="I146" s="40" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J146" s="41" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="34"/>
       <c r="B147" s="39" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E147" s="36"/>
       <c r="F147" s="35"/>
@@ -5795,23 +5808,23 @@
       <c r="H147" s="38"/>
       <c r="I147" s="40" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
       <c r="J147" s="41" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
     </row>
     <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="34"/>
       <c r="B148" s="39" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E148" s="36"/>
       <c r="F148" s="35"/>
@@ -5819,20 +5832,20 @@
       <c r="H148" s="38"/>
       <c r="I148" s="40" t="str">
         <f t="shared" si="34"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J148" s="41" t="str">
         <f t="shared" si="35"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="34"/>
       <c r="B149" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D149" s="35" t="s">
         <v>9</v>
@@ -5842,97 +5855,95 @@
       <c r="G149" s="37"/>
       <c r="H149" s="38"/>
       <c r="I149" s="40" t="str">
-        <f>"," &amp; IF(A149="","","/* ") &amp; "`" &amp; C149 &amp; "` " &amp; D149 &amp; IF(E149&gt;0,"(" &amp; E149 &amp; ") "," ") &amp; IF(F149&lt;&gt;"","NOT NULL ","") &amp; IF(G149="","","DEFAULT '" &amp; G149 &amp; "' ") &amp; IF(A149="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J149" s="41" t="str">
-        <f>"," &amp; IF(A149="","","/* ") &amp; "`" &amp; C149 &amp; "` " &amp; D149 &amp; IF(E149&gt;0,"(" &amp; E149 &amp; ") "," ") &amp; IF(F149&lt;&gt;"","NOT NULL ","") &amp; IF(G149="","","DEFAULT '" &amp; G149 &amp; "' ") &amp; IF(A149="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
     <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="34"/>
       <c r="B150" s="39" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="36">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E150" s="36"/>
       <c r="F150" s="35"/>
       <c r="G150" s="37"/>
       <c r="H150" s="38"/>
       <c r="I150" s="40" t="str">
-        <f t="shared" ref="I150:I158" si="36">"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J150" s="41" t="str">
-        <f t="shared" ref="J150:J158" si="37">"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
     <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="34"/>
       <c r="B151" s="39" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E151" s="36">
+        <v>256</v>
+      </c>
       <c r="F151" s="35"/>
       <c r="G151" s="37"/>
       <c r="H151" s="38"/>
       <c r="I151" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" ref="I151:I159" si="36">"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
       <c r="J151" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" ref="J151:J159" si="37">"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
     </row>
     <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="34"/>
-      <c r="B152" s="43" t="s">
-        <v>87</v>
+      <c r="B152" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="36">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E152" s="36"/>
       <c r="F152" s="35"/>
       <c r="G152" s="37"/>
       <c r="H152" s="38"/>
       <c r="I152" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J152" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="34"/>
       <c r="B153" s="43" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D153" s="35" t="s">
         <v>7</v>
@@ -5945,97 +5956,99 @@
       <c r="H153" s="38"/>
       <c r="I153" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J153" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="34"/>
       <c r="B154" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E154" s="36">
+        <v>256</v>
+      </c>
       <c r="F154" s="35"/>
       <c r="G154" s="37"/>
       <c r="H154" s="38"/>
       <c r="I154" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J154" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="34"/>
       <c r="B155" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="36">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E155" s="36"/>
       <c r="F155" s="35"/>
       <c r="G155" s="37"/>
       <c r="H155" s="38"/>
       <c r="I155" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J155" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="156" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="34"/>
       <c r="B156" s="43" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E156" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E156" s="36">
+        <v>64</v>
+      </c>
       <c r="F156" s="35"/>
       <c r="G156" s="37"/>
       <c r="H156" s="38"/>
       <c r="I156" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J156" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="157" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A157" s="34"/>
       <c r="B157" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E157" s="36"/>
       <c r="F157" s="35"/>
@@ -6043,20 +6056,20 @@
       <c r="H157" s="38"/>
       <c r="I157" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J157" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="158" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="34"/>
       <c r="B158" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D158" s="35" t="s">
         <v>8</v>
@@ -6067,408 +6080,437 @@
       <c r="H158" s="38"/>
       <c r="I158" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J158" s="41" t="str">
         <f t="shared" si="37"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="34"/>
+      <c r="B159" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="36"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="40" t="str">
+        <f t="shared" si="36"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A159" s="2"/>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="28" t="s">
+      <c r="J159" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A160" s="2"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J159" s="29" t="s">
+      <c r="J160" s="29" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="expression" dxfId="75" priority="187">
+    <cfRule type="expression" dxfId="75" priority="188">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7 A41:A42 A133:A134 A79:A81 A122:A123 A13:A14 A83:A93 A97:A98 A31:A33 A35 A107:A110 A116:A117">
-    <cfRule type="cellIs" dxfId="74" priority="186" operator="greaterThan">
+  <conditionalFormatting sqref="A5:A7 A42:A43 A134:A135 A80:A82 A123:A124 A13:A14 A84:A94 A98:A99 A31:A33 A35 A108:A111 A117:A118">
+    <cfRule type="cellIs" dxfId="74" priority="187" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A11:A12">
-    <cfRule type="cellIs" dxfId="73" priority="185" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="186" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="72" priority="184" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="185" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="71" priority="183" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38">
-    <cfRule type="cellIs" dxfId="70" priority="179" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100:A103">
-    <cfRule type="cellIs" dxfId="69" priority="177" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="184" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:A39">
+    <cfRule type="cellIs" dxfId="70" priority="180" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:A104">
+    <cfRule type="cellIs" dxfId="69" priority="178" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="cellIs" dxfId="68" priority="177" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="cellIs" dxfId="67" priority="171" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" dxfId="66" priority="169" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A63 A44:A45 A47">
+    <cfRule type="cellIs" dxfId="65" priority="170" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53 A55">
+    <cfRule type="cellIs" dxfId="64" priority="164" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56 A58">
+    <cfRule type="cellIs" dxfId="63" priority="163" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="62" priority="162" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="61" priority="161" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="60" priority="160" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" dxfId="59" priority="159" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="cellIs" dxfId="58" priority="156" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="cellIs" dxfId="57" priority="155" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:A130">
+    <cfRule type="cellIs" dxfId="56" priority="154" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132:A133">
+    <cfRule type="cellIs" dxfId="55" priority="153" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160 A136">
+    <cfRule type="cellIs" dxfId="54" priority="152" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="cellIs" dxfId="53" priority="146" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="cellIs" dxfId="52" priority="138" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="51" priority="137" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="50" priority="136" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="49" priority="135" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A15:A17">
+    <cfRule type="cellIs" dxfId="48" priority="124" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="47" priority="120" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="46" priority="98" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" dxfId="45" priority="119" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="cellIs" dxfId="44" priority="108" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="43" priority="90" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="cellIs" dxfId="42" priority="97" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" dxfId="41" priority="96" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="cellIs" dxfId="40" priority="95" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="39" priority="94" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="cellIs" dxfId="38" priority="93" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="cellIs" dxfId="37" priority="92" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="cellIs" dxfId="68" priority="176" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="cellIs" dxfId="67" priority="170" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="66" priority="168" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A62 A43:A44 A46">
-    <cfRule type="cellIs" dxfId="65" priority="169" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52 A54">
-    <cfRule type="cellIs" dxfId="64" priority="163" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55 A57">
-    <cfRule type="cellIs" dxfId="63" priority="162" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="62" priority="161" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="cellIs" dxfId="61" priority="160" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="60" priority="159" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="59" priority="158" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="cellIs" dxfId="58" priority="155" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="57" priority="154" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126:A129">
-    <cfRule type="cellIs" dxfId="56" priority="153" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131:A132">
-    <cfRule type="cellIs" dxfId="55" priority="152" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159 A135">
-    <cfRule type="cellIs" dxfId="54" priority="151" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="cellIs" dxfId="53" priority="145" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" dxfId="52" priority="137" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="51" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="91" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" dxfId="50" priority="135" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="49" priority="134" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 A15:A17">
-    <cfRule type="cellIs" dxfId="48" priority="123" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="47" priority="119" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="46" priority="97" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="cellIs" dxfId="45" priority="118" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
-    <cfRule type="cellIs" dxfId="44" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="76" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:A150 A143:A144">
+    <cfRule type="cellIs" dxfId="33" priority="59" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148">
+    <cfRule type="cellIs" dxfId="31" priority="57" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="cellIs" dxfId="30" priority="56" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153:A156">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:A159">
+    <cfRule type="cellIs" dxfId="28" priority="54" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="cellIs" dxfId="27" priority="53" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="cellIs" dxfId="26" priority="52" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="cellIs" dxfId="25" priority="51" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="cellIs" dxfId="24" priority="50" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="cellIs" dxfId="22" priority="48" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A79 A64:A65 A69">
+    <cfRule type="cellIs" dxfId="19" priority="45" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A25 A21:A22">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="16" priority="37" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A74">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" dxfId="13" priority="34" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:A107">
+    <cfRule type="cellIs" dxfId="12" priority="33" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A77">
+    <cfRule type="cellIs" dxfId="11" priority="32" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A61">
+    <cfRule type="cellIs" dxfId="10" priority="31" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A41">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
+    <cfRule type="cellIs" dxfId="6" priority="25" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="cellIs" dxfId="5" priority="26" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A30 A26:A27">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="43" priority="89" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="42" priority="96" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="cellIs" dxfId="41" priority="95" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="cellIs" dxfId="40" priority="94" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="cellIs" dxfId="39" priority="93" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="38" priority="92" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="cellIs" dxfId="37" priority="91" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="cellIs" dxfId="36" priority="90" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="cellIs" dxfId="35" priority="75" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="cellIs" dxfId="34" priority="45" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A148:A149 A142:A143">
-    <cfRule type="cellIs" dxfId="33" priority="58" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="cellIs" dxfId="32" priority="57" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147">
-    <cfRule type="cellIs" dxfId="31" priority="56" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="30" priority="55" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:A155">
-    <cfRule type="cellIs" dxfId="29" priority="54" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:A158">
-    <cfRule type="cellIs" dxfId="28" priority="53" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
-    <cfRule type="cellIs" dxfId="27" priority="52" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="26" priority="51" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="cellIs" dxfId="25" priority="50" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="cellIs" dxfId="24" priority="49" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
-    <cfRule type="cellIs" dxfId="23" priority="48" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="cellIs" dxfId="22" priority="47" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150">
-    <cfRule type="cellIs" dxfId="21" priority="46" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A78 A63:A64 A68">
-    <cfRule type="cellIs" dxfId="19" priority="44" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A25 A21:A22">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A73">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105:A106">
-    <cfRule type="cellIs" dxfId="12" priority="32" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A76">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A60">
-    <cfRule type="cellIs" dxfId="10" priority="30" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A40">
-    <cfRule type="cellIs" dxfId="9" priority="29" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A156">
-    <cfRule type="cellIs" dxfId="6" priority="24" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
-    <cfRule type="cellIs" dxfId="5" priority="25" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30 A26:A27">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D32:D40 D44:D60 D136:D158 D110:D132 D22:D23 D80:D106 D27:D28 D64:D76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D65:D77 D45:D61 D137:D159 D111:D133 D22:D23 D81:D107 D27:D28 D32:D35 D36:D41">
       <formula1>TYPE</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="180">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -960,6 +960,20 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受注年月</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>orderym</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1405,7 +1419,27 @@
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2379,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -4235,11 +4269,11 @@
         <v>138</v>
       </c>
       <c r="I82" s="40" t="str">
-        <f t="shared" ref="I82:I94" si="16">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <f t="shared" ref="I82:I95" si="16">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
         <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
       </c>
       <c r="J82" s="41" t="str">
-        <f t="shared" ref="J82:J94" si="17">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <f t="shared" ref="J82:J95" si="17">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
         <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
       </c>
     </row>
@@ -4322,36 +4356,36 @@
     <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="34"/>
       <c r="B86" s="39" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="D86" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="36">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="37"/>
       <c r="H86" s="38"/>
       <c r="I86" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <f t="shared" ref="I86" si="18">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
       </c>
       <c r="J86" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <f t="shared" ref="J86" si="19">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
       </c>
     </row>
     <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="34"/>
       <c r="B87" s="39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D87" s="35" t="s">
         <v>7</v>
@@ -4364,20 +4398,20 @@
       <c r="H87" s="38"/>
       <c r="I87" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
       <c r="J87" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D88" s="35" t="s">
         <v>7</v>
@@ -4387,49 +4421,51 @@
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="37"/>
-      <c r="H88" s="38" t="s">
-        <v>134</v>
-      </c>
+      <c r="H88" s="38"/>
       <c r="I88" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
       <c r="J88" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="34"/>
       <c r="B89" s="39" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E89" s="36">
+        <v>20</v>
+      </c>
       <c r="F89" s="35"/>
       <c r="G89" s="37"/>
-      <c r="H89" s="38"/>
+      <c r="H89" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="I89" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
       <c r="J89" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="34"/>
       <c r="B90" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90" s="35" t="s">
         <v>9</v>
@@ -4440,148 +4476,148 @@
       <c r="H90" s="38"/>
       <c r="I90" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
       <c r="J90" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
     </row>
     <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="36">
-        <v>64</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E91" s="36"/>
       <c r="F91" s="35"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
       <c r="J91" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
     </row>
     <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="34"/>
       <c r="B92" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D92" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="36">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="37"/>
       <c r="H92" s="38"/>
       <c r="I92" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
       <c r="J92" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
     </row>
     <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="34"/>
       <c r="B93" s="39" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D93" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="37"/>
       <c r="H93" s="38"/>
       <c r="I93" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
       <c r="J93" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
     </row>
     <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="34"/>
       <c r="B94" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D94" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="37"/>
       <c r="H94" s="38"/>
       <c r="I94" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
       <c r="J94" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="95" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="34"/>
       <c r="B95" s="39" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E95" s="36">
+        <v>256</v>
+      </c>
       <c r="F95" s="35"/>
       <c r="G95" s="37"/>
       <c r="H95" s="38"/>
       <c r="I95" s="40" t="str">
-        <f t="shared" ref="I95:I96" si="18">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J95" s="41" t="str">
-        <f t="shared" ref="J95:J96" si="19">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="96" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="34"/>
       <c r="B96" s="39" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="D96" s="35" t="s">
         <v>5</v>
@@ -4591,100 +4627,100 @@
       <c r="G96" s="37"/>
       <c r="H96" s="38"/>
       <c r="I96" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="I96:I97" si="20">"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+      <c r="J96" s="41" t="str">
+        <f t="shared" ref="J96:J97" si="21">"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="34"/>
+      <c r="B97" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="40" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">,`price` INT </v>
       </c>
-      <c r="J96" s="41" t="str">
-        <f t="shared" si="19"/>
+      <c r="J97" s="41" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">,`price` INT </v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A97" s="2"/>
-      <c r="B97" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="7">
-        <v>256</v>
-      </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="27" t="str">
-        <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-      <c r="J97" s="29" t="str">
-        <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="20" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="7">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
       <c r="I98" s="27" t="str">
         <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J98" s="29" t="str">
         <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A99" s="2"/>
+      <c r="B99" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="7">
+        <v>128</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="27" t="str">
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
         <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
-    </row>
-    <row r="99" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="34"/>
-      <c r="B99" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="36"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="40" t="str">
+      <c r="J99" s="29" t="str">
         <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
-      </c>
-      <c r="J99" s="41" t="str">
-        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="34"/>
       <c r="B100" s="39" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E100" s="36"/>
       <c r="F100" s="35"/>
@@ -4692,46 +4728,44 @@
       <c r="H100" s="38"/>
       <c r="I100" s="40" t="str">
         <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
       </c>
       <c r="J100" s="41" t="str">
         <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="34"/>
+      <c r="B101" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="40" t="str">
+        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
         <v xml:space="preserve">,`status_id` INT </v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A101" s="2"/>
-      <c r="B101" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="7">
-        <v>256</v>
-      </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="27" t="str">
-        <f t="shared" ref="I101:I107" si="20">"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J101" s="29" t="str">
-        <f t="shared" ref="J101:J107" si="21">"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      <c r="J101" s="41" t="str">
+        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="43" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>7</v>
@@ -4743,119 +4777,121 @@
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
       <c r="I102" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="I102:I108" si="22">"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J102" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="J102:J108" si="23">"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E103" s="7">
+        <v>256</v>
+      </c>
       <c r="F103" s="6"/>
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
       <c r="I103" s="27" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J103" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="7">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E104" s="7"/>
       <c r="F104" s="6"/>
       <c r="G104" s="8"/>
       <c r="H104" s="9"/>
       <c r="I104" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J104" s="29" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A105" s="2"/>
+      <c r="B105" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="7">
+        <v>64</v>
+      </c>
+      <c r="F105" s="6"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="27" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-      <c r="J104" s="29" t="str">
-        <f t="shared" si="21"/>
+      <c r="J105" s="29" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="34"/>
-      <c r="B105" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D105" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E105" s="36"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J105" s="41" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="34"/>
       <c r="B106" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E106" s="36"/>
       <c r="F106" s="35"/>
       <c r="G106" s="37"/>
       <c r="H106" s="38"/>
       <c r="I106" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J106" s="41" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="107" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="34"/>
       <c r="B107" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D107" s="35" t="s">
         <v>8</v>
@@ -4865,144 +4901,144 @@
       <c r="G107" s="37"/>
       <c r="H107" s="38"/>
       <c r="I107" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J107" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="34"/>
+      <c r="B108" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="40" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-      <c r="J107" s="41" t="str">
-        <f t="shared" si="21"/>
+      <c r="J108" s="41" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A108" s="2"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J108" s="29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
-      <c r="B110" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H110" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I110" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C110 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-      <c r="J110" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C110 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+      <c r="J111" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A112" s="2"/>
+      <c r="B112" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="6" t="s">
+      <c r="E112" s="7"/>
+      <c r="F112" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="28" t="s">
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J111" s="30" t="s">
+      <c r="J112" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="34"/>
-      <c r="B112" s="39" t="s">
+    <row r="113" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="34"/>
+      <c r="B113" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C113" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="35" t="s">
+      <c r="D113" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="36"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="40" t="str">
-        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+      <c r="E113" s="36"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="40" t="str">
+        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT </v>
       </c>
-      <c r="J112" s="41" t="str">
-        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+      <c r="J113" s="41" t="str">
+        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A113" s="2"/>
-      <c r="B113" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="27" t="str">
-        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J113" s="29" t="str">
-        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>5</v>
@@ -5013,20 +5049,20 @@
       <c r="H114" s="9"/>
       <c r="I114" s="27" t="str">
         <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J114" s="29" t="str">
         <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>5</v>
@@ -5037,220 +5073,220 @@
       <c r="H115" s="9"/>
       <c r="I115" s="27" t="str">
         <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J115" s="29" t="str">
         <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="20" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="6"/>
       <c r="G116" s="8"/>
       <c r="H116" s="9"/>
       <c r="I116" s="27" t="str">
-        <f t="shared" ref="I116:I122" si="22">"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J116" s="29" t="str">
-        <f t="shared" ref="J116:J122" si="23">"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="20" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="7">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E117" s="7"/>
       <c r="F117" s="6"/>
       <c r="G117" s="8"/>
       <c r="H117" s="9"/>
       <c r="I117" s="27" t="str">
-        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <f t="shared" ref="I117:I123" si="24">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J117" s="29" t="str">
+        <f t="shared" ref="J117:J123" si="25">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" s="2"/>
+      <c r="B118" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="7">
+        <v>20</v>
+      </c>
+      <c r="F118" s="6"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="27" t="str">
+        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
-      <c r="J117" s="29" t="str">
-        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+      <c r="J118" s="29" t="str">
+        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="34"/>
-      <c r="B118" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="36">
-        <v>20</v>
-      </c>
-      <c r="F118" s="35"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="40" t="str">
-        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
-      </c>
-      <c r="J118" s="41" t="str">
-        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="119" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="34"/>
       <c r="B119" s="39" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D119" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="37"/>
       <c r="H119" s="38"/>
       <c r="I119" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f>"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J119" s="41" t="str">
+        <f>"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="34"/>
+      <c r="B120" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="36">
+        <v>256</v>
+      </c>
+      <c r="F120" s="35"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="40" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
-      <c r="J119" s="41" t="str">
-        <f t="shared" si="23"/>
+      <c r="J120" s="41" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A120" s="2"/>
-      <c r="B120" s="20" t="s">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A121" s="2"/>
+      <c r="B121" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E121" s="7">
         <v>256</v>
       </c>
-      <c r="F120" s="6"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="27" t="str">
-        <f t="shared" si="22"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="27" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
-      <c r="J120" s="29" t="str">
-        <f t="shared" si="23"/>
+      <c r="J121" s="29" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="34"/>
-      <c r="B121" s="39" t="s">
+    <row r="122" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="34"/>
+      <c r="B122" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C122" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D122" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="36"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="40" t="str">
-        <f t="shared" ref="I121" si="24">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+      <c r="E122" s="36"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="40" t="str">
+        <f t="shared" ref="I122" si="26">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
         <v xml:space="preserve">,`language_id` INT </v>
       </c>
-      <c r="J121" s="41" t="str">
-        <f t="shared" ref="J121" si="25">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+      <c r="J122" s="41" t="str">
+        <f t="shared" ref="J122" si="27">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
         <v xml:space="preserve">,`language_id` INT </v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A122" s="2"/>
-      <c r="B122" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-      <c r="J122" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="20" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="6"/>
       <c r="G123" s="8"/>
       <c r="H123" s="9"/>
       <c r="I123" s="27" t="str">
-        <f t="shared" ref="I123" si="26">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J123" s="29" t="str">
-        <f t="shared" ref="J123" si="27">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>9</v>
@@ -5260,97 +5296,95 @@
       <c r="G124" s="8"/>
       <c r="H124" s="9"/>
       <c r="I124" s="27" t="str">
-        <f>"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+        <f t="shared" ref="I124" si="28">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J124" s="29" t="str">
+        <f t="shared" ref="J124" si="29">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A125" s="2"/>
+      <c r="B125" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="27" t="str">
+        <f>"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
-      <c r="J124" s="29" t="str">
-        <f>"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+      <c r="J125" s="29" t="str">
+        <f>"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="34"/>
-      <c r="B125" s="39" t="s">
+    <row r="126" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="34"/>
+      <c r="B126" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C126" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D125" s="35" t="s">
+      <c r="D126" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="36">
+      <c r="E126" s="36">
         <v>256</v>
       </c>
-      <c r="F125" s="35"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="40" t="str">
-        <f t="shared" ref="I125" si="28">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
+      <c r="F126" s="35"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="40" t="str">
+        <f t="shared" ref="I126" si="30">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
         <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
-      <c r="J125" s="41" t="str">
-        <f t="shared" ref="J125" si="29">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
+      <c r="J126" s="41" t="str">
+        <f t="shared" ref="J126" si="31">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
         <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A126" s="2"/>
-      <c r="B126" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="27" t="str">
-        <f t="shared" ref="I126:I133" si="30">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J126" s="29" t="str">
-        <f t="shared" ref="J126:J133" si="31">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
-      <c r="B127" s="43" t="s">
-        <v>87</v>
+      <c r="B127" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="7">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E127" s="7"/>
       <c r="F127" s="6"/>
       <c r="G127" s="8"/>
       <c r="H127" s="9"/>
       <c r="I127" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="I127:I134" si="32">"," &amp; IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; IF(A127="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J127" s="29" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="J127:J134" si="33">"," &amp; IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; IF(A127="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="43" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>7</v>
@@ -5362,119 +5396,121 @@
       <c r="G128" s="8"/>
       <c r="H128" s="9"/>
       <c r="I128" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J128" s="29" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E129" s="7">
+        <v>256</v>
+      </c>
       <c r="F129" s="6"/>
       <c r="G129" s="8"/>
       <c r="H129" s="9"/>
       <c r="I129" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J129" s="29" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="7">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E130" s="7"/>
       <c r="F130" s="6"/>
       <c r="G130" s="8"/>
       <c r="H130" s="9"/>
       <c r="I130" s="27" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J130" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A131" s="2"/>
+      <c r="B131" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="7">
+        <v>64</v>
+      </c>
+      <c r="F131" s="6"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="27" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-      <c r="J130" s="29" t="str">
-        <f t="shared" si="31"/>
+      <c r="J131" s="29" t="str">
+        <f t="shared" si="33"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="34"/>
-      <c r="B131" s="43" t="s">
+    <row r="132" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="34"/>
+      <c r="B132" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C132" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D131" s="35" t="s">
+      <c r="D132" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E131" s="36"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="40" t="str">
-        <f t="shared" si="30"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="40" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">,`user_id` INT </v>
       </c>
-      <c r="J131" s="41" t="str">
-        <f t="shared" si="31"/>
+      <c r="J132" s="41" t="str">
+        <f t="shared" si="33"/>
         <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A132" s="2"/>
-      <c r="B132" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="7"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-      <c r="J132" s="29" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>8</v>
@@ -5484,120 +5520,120 @@
       <c r="G133" s="8"/>
       <c r="H133" s="9"/>
       <c r="I133" s="27" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J133" s="29" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J134" s="29" t="s">
-        <v>33</v>
+      <c r="B134" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J134" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
-      <c r="B136" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C136" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F136" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I136" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C136 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
-      <c r="J136" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C136 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I137" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C137 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J137" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C137 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A138" s="2"/>
+      <c r="B138" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C138" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D138" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="6" t="s">
+      <c r="E138" s="7"/>
+      <c r="F138" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="28" t="s">
+      <c r="G138" s="8"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J137" s="30" t="s">
+      <c r="J138" s="30" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="34"/>
-      <c r="B138" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C138" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D138" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="36"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="38"/>
-      <c r="I138" s="40" t="str">
-        <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-      <c r="J138" s="41" t="str">
-        <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="34"/>
       <c r="B139" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D139" s="35" t="s">
         <v>5</v>
@@ -5608,20 +5644,20 @@
       <c r="H139" s="38"/>
       <c r="I139" s="40" t="str">
         <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J139" s="41" t="str">
         <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="34"/>
       <c r="B140" s="39" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D140" s="35" t="s">
         <v>5</v>
@@ -5632,20 +5668,20 @@
       <c r="H140" s="38"/>
       <c r="I140" s="40" t="str">
         <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J140" s="41" t="str">
         <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="34"/>
       <c r="B141" s="39" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D141" s="35" t="s">
         <v>5</v>
@@ -5656,70 +5692,68 @@
       <c r="H141" s="38"/>
       <c r="I141" s="40" t="str">
         <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J141" s="41" t="str">
         <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="34"/>
       <c r="B142" s="39" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E142" s="36"/>
       <c r="F142" s="35"/>
       <c r="G142" s="37"/>
       <c r="H142" s="38"/>
       <c r="I142" s="40" t="str">
-        <f t="shared" ref="I142" si="32">"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J142" s="41" t="str">
-        <f t="shared" ref="J142" si="33">"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="34"/>
       <c r="B143" s="39" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="36">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E143" s="36"/>
       <c r="F143" s="35"/>
       <c r="G143" s="37"/>
       <c r="H143" s="38"/>
       <c r="I143" s="40" t="str">
-        <f>"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" ref="I143" si="34">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
       <c r="J143" s="41" t="str">
-        <f>"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" ref="J143" si="35">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="34"/>
       <c r="B144" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="D144" s="35" t="s">
         <v>7</v>
@@ -5732,46 +5766,46 @@
       <c r="H144" s="38"/>
       <c r="I144" s="40" t="str">
         <f>"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J144" s="41" t="str">
         <f>"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="34"/>
       <c r="B145" s="39" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D145" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E145" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="37"/>
       <c r="H145" s="38"/>
       <c r="I145" s="40" t="str">
-        <f t="shared" ref="I145:I149" si="34">"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
       <c r="J145" s="41" t="str">
-        <f t="shared" ref="J145:J149" si="35">"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="34"/>
       <c r="B146" s="39" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D146" s="35" t="s">
         <v>7</v>
@@ -5783,93 +5817,95 @@
       <c r="G146" s="37"/>
       <c r="H146" s="38"/>
       <c r="I146" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="I146:I150" si="36">"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J146" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="J146:J150" si="37">"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="34"/>
       <c r="B147" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E147" s="36">
+        <v>256</v>
+      </c>
       <c r="F147" s="35"/>
       <c r="G147" s="37"/>
       <c r="H147" s="38"/>
       <c r="I147" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J147" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="34"/>
       <c r="B148" s="39" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E148" s="36"/>
       <c r="F148" s="35"/>
       <c r="G148" s="37"/>
       <c r="H148" s="38"/>
       <c r="I148" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
       <c r="J148" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
     </row>
     <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="34"/>
       <c r="B149" s="39" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="35"/>
       <c r="G149" s="37"/>
       <c r="H149" s="38"/>
       <c r="I149" s="40" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J149" s="41" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="34"/>
       <c r="B150" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D150" s="35" t="s">
         <v>9</v>
@@ -5879,97 +5915,95 @@
       <c r="G150" s="37"/>
       <c r="H150" s="38"/>
       <c r="I150" s="40" t="str">
-        <f>"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J150" s="41" t="str">
-        <f>"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
     <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="34"/>
       <c r="B151" s="39" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="36">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E151" s="36"/>
       <c r="F151" s="35"/>
       <c r="G151" s="37"/>
       <c r="H151" s="38"/>
       <c r="I151" s="40" t="str">
-        <f t="shared" ref="I151:I159" si="36">"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J151" s="41" t="str">
-        <f t="shared" ref="J151:J159" si="37">"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
     <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="34"/>
       <c r="B152" s="39" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E152" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E152" s="36">
+        <v>256</v>
+      </c>
       <c r="F152" s="35"/>
       <c r="G152" s="37"/>
       <c r="H152" s="38"/>
       <c r="I152" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" ref="I152:I160" si="38">"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
       <c r="J152" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" ref="J152:J160" si="39">"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
     </row>
     <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="34"/>
-      <c r="B153" s="43" t="s">
-        <v>87</v>
+      <c r="B153" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="36">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E153" s="36"/>
       <c r="F153" s="35"/>
       <c r="G153" s="37"/>
       <c r="H153" s="38"/>
       <c r="I153" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J153" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="34"/>
       <c r="B154" s="43" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D154" s="35" t="s">
         <v>7</v>
@@ -5981,119 +6015,121 @@
       <c r="G154" s="37"/>
       <c r="H154" s="38"/>
       <c r="I154" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J154" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="34"/>
       <c r="B155" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E155" s="36">
+        <v>256</v>
+      </c>
       <c r="F155" s="35"/>
       <c r="G155" s="37"/>
       <c r="H155" s="38"/>
       <c r="I155" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J155" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="156" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="34"/>
       <c r="B156" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="36">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E156" s="36"/>
       <c r="F156" s="35"/>
       <c r="G156" s="37"/>
       <c r="H156" s="38"/>
       <c r="I156" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J156" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="157" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A157" s="34"/>
       <c r="B157" s="43" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E157" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E157" s="36">
+        <v>64</v>
+      </c>
       <c r="F157" s="35"/>
       <c r="G157" s="37"/>
       <c r="H157" s="38"/>
       <c r="I157" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J157" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="158" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="34"/>
       <c r="B158" s="43" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E158" s="36"/>
       <c r="F158" s="35"/>
       <c r="G158" s="37"/>
       <c r="H158" s="38"/>
       <c r="I158" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J158" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="159" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A159" s="34"/>
       <c r="B159" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D159" s="35" t="s">
         <v>8</v>
@@ -6103,414 +6139,443 @@
       <c r="G159" s="37"/>
       <c r="H159" s="38"/>
       <c r="I159" s="40" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J159" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="34"/>
+      <c r="B160" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="36"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="38"/>
+      <c r="I160" s="40" t="str">
+        <f t="shared" si="38"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-      <c r="J159" s="41" t="str">
-        <f t="shared" si="37"/>
+      <c r="J160" s="41" t="str">
+        <f t="shared" si="39"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A160" s="2"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="28" t="s">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A161" s="2"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J160" s="29" t="s">
+      <c r="J161" s="29" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="expression" dxfId="75" priority="188">
+    <cfRule type="expression" dxfId="77" priority="189">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7 A42:A43 A134:A135 A80:A82 A123:A124 A13:A14 A84:A94 A98:A99 A31:A33 A35 A108:A111 A117:A118">
-    <cfRule type="cellIs" dxfId="74" priority="187" operator="greaterThan">
+  <conditionalFormatting sqref="A5:A7 A42:A43 A135:A136 A80:A82 A124:A125 A13:A14 A84:A85 A99:A100 A31:A33 A35 A109:A112 A118:A119 A87:A95">
+    <cfRule type="cellIs" dxfId="76" priority="188" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9 A11:A12">
-    <cfRule type="cellIs" dxfId="73" priority="186" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="187" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="72" priority="185" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="186" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="71" priority="184" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="185" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="cellIs" dxfId="70" priority="180" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:A104">
-    <cfRule type="cellIs" dxfId="69" priority="178" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="181" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A105">
+    <cfRule type="cellIs" dxfId="71" priority="179" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="cellIs" dxfId="70" priority="178" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="cellIs" dxfId="69" priority="172" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" dxfId="68" priority="170" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A63 A44:A45 A47">
+    <cfRule type="cellIs" dxfId="67" priority="171" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53 A55">
+    <cfRule type="cellIs" dxfId="66" priority="165" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56 A58">
+    <cfRule type="cellIs" dxfId="65" priority="164" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="64" priority="163" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="63" priority="162" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="62" priority="161" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" dxfId="61" priority="160" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="cellIs" dxfId="60" priority="157" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="cellIs" dxfId="59" priority="156" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:A131">
+    <cfRule type="cellIs" dxfId="58" priority="155" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:A134">
+    <cfRule type="cellIs" dxfId="57" priority="154" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161 A137">
+    <cfRule type="cellIs" dxfId="56" priority="153" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="cellIs" dxfId="55" priority="147" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="cellIs" dxfId="54" priority="139" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="53" priority="138" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="52" priority="137" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" dxfId="51" priority="136" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A15:A17">
+    <cfRule type="cellIs" dxfId="50" priority="125" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="49" priority="121" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="48" priority="99" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="cellIs" dxfId="47" priority="120" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="cellIs" dxfId="46" priority="109" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="45" priority="91" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="cellIs" dxfId="44" priority="98" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="cellIs" dxfId="43" priority="97" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" dxfId="42" priority="96" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="41" priority="95" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="cellIs" dxfId="40" priority="94" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="cellIs" dxfId="39" priority="93" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="cellIs" dxfId="68" priority="177" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="cellIs" dxfId="67" priority="171" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="66" priority="169" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:A63 A44:A45 A47">
-    <cfRule type="cellIs" dxfId="65" priority="170" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53 A55">
-    <cfRule type="cellIs" dxfId="64" priority="164" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56 A58">
-    <cfRule type="cellIs" dxfId="63" priority="163" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="62" priority="162" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="61" priority="161" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="60" priority="160" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="59" priority="159" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="cellIs" dxfId="58" priority="156" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="cellIs" dxfId="57" priority="155" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127:A130">
-    <cfRule type="cellIs" dxfId="56" priority="154" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132:A133">
-    <cfRule type="cellIs" dxfId="55" priority="153" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160 A136">
-    <cfRule type="cellIs" dxfId="54" priority="152" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="cellIs" dxfId="53" priority="146" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="cellIs" dxfId="52" priority="138" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="51" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="92" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="50" priority="136" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="cellIs" dxfId="49" priority="135" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 A15:A17">
-    <cfRule type="cellIs" dxfId="48" priority="124" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="47" priority="120" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="46" priority="98" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="cellIs" dxfId="45" priority="119" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="cellIs" dxfId="44" priority="108" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="43" priority="90" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="42" priority="97" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="cellIs" dxfId="41" priority="96" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="cellIs" dxfId="40" priority="95" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="39" priority="94" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="cellIs" dxfId="38" priority="93" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="cellIs" dxfId="37" priority="92" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="cellIs" dxfId="36" priority="91" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" dxfId="35" priority="76" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:A150 A143:A144">
-    <cfRule type="cellIs" dxfId="33" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="77" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:A151 A144:A145">
+    <cfRule type="cellIs" dxfId="35" priority="60" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="cellIs" dxfId="34" priority="59" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="cellIs" dxfId="33" priority="58" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="cellIs" dxfId="32" priority="57" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:A157">
+    <cfRule type="cellIs" dxfId="31" priority="56" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:A160">
+    <cfRule type="cellIs" dxfId="30" priority="55" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="cellIs" dxfId="29" priority="54" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="cellIs" dxfId="28" priority="53" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="cellIs" dxfId="27" priority="52" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="cellIs" dxfId="26" priority="51" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="cellIs" dxfId="25" priority="50" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148">
+    <cfRule type="cellIs" dxfId="24" priority="49" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A148">
-    <cfRule type="cellIs" dxfId="31" priority="57" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="cellIs" dxfId="30" priority="56" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153:A156">
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:A159">
-    <cfRule type="cellIs" dxfId="28" priority="54" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
-    <cfRule type="cellIs" dxfId="27" priority="53" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="cellIs" dxfId="26" priority="52" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
-    <cfRule type="cellIs" dxfId="24" priority="50" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147">
-    <cfRule type="cellIs" dxfId="22" priority="48" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="48" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A79 A64:A65 A69">
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="46" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A25 A21:A22">
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="18" priority="38" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A74">
     <cfRule type="cellIs" dxfId="17" priority="23" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="16" priority="37" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A74">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" dxfId="13" priority="34" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:A107">
-    <cfRule type="cellIs" dxfId="12" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="35" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107:A108">
+    <cfRule type="cellIs" dxfId="14" priority="34" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A77">
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A61">
-    <cfRule type="cellIs" dxfId="10" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A41">
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="31" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="30" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157">
-    <cfRule type="cellIs" dxfId="6" priority="25" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="cellIs" dxfId="5" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="29" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158">
+    <cfRule type="cellIs" dxfId="8" priority="26" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="cellIs" dxfId="7" priority="27" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30 A26:A27">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D65:D77 D45:D61 D137:D159 D111:D133 D22:D23 D81:D107 D27:D28 D32:D35 D36:D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D65:D77 D45:D61 D138:D160 D112:D134 D22:D23 D27:D28 D32:D41 D81:D108">
       <formula1>TYPE</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -1,3 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="8610"/>
+  </bookViews>
+  <sheets>
+    <sheet name="generator" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <definedNames>
+    <definedName name="TYPE">Data!$A$1:$A$11</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="210">
@@ -408,9 +431,6 @@
   </si>
   <si>
     <t>sales_staff</t>
-  </si>
-  <si>
-    <t>sales_staff</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1097,5 +1117,6679 @@
     <t>eu_company_code</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>sales_staff</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="12">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="4">
+    <cellStyle name="20% - アクセント 3" xfId="3" builtinId="38"/>
+    <cellStyle name="アクセント 1" xfId="2" builtinId="29"/>
+    <cellStyle name="メモ" xfId="1" builtinId="10"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="91">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="meieg">
+      <a:majorFont>
+        <a:latin typeface="Segoe UI Black"/>
+        <a:ea typeface="メイリオ"/>
+        <a:cs typeface=""/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Segoe UI"/>
+        <a:ea typeface="メイリオ"/>
+        <a:cs typeface=""/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J196"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="4.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.33203125" style="25" customWidth="1"/>
+    <col min="11" max="13" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="str">
+        <f>"CREATE DATABASE `" &amp; C1 &amp; "` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;"</f>
+        <v>CREATE DATABASE `cake3_myapp` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C5 &amp; "` ("</f>
+        <v>CREATE TABLE `users` (</v>
+      </c>
+      <c r="J5" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C5 &amp; "` ("</f>
+        <v>CREATE TABLE `users` (</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7">
+        <v>64</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="27" t="str">
+        <f>"," &amp; IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; IF(A7="",""," */")</f>
+        <v xml:space="preserve">,`username` VARCHAR(64) </v>
+      </c>
+      <c r="J7" s="29" t="str">
+        <f>"," &amp; IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; IF(A7="",""," */")</f>
+        <v xml:space="preserve">,`username` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="27" t="str">
+        <f>"," &amp; IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; IF(A8="",""," */")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
+      </c>
+      <c r="J8" s="29" t="str">
+        <f>"," &amp; IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; IF(A8="",""," */")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>255</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="27" t="str">
+        <f t="shared" ref="I9:I12" si="0">"," &amp; IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; IF(A9="",""," */")</f>
+        <v xml:space="preserve">,`password` VARCHAR(255) </v>
+      </c>
+      <c r="J9" s="29" t="str">
+        <f t="shared" ref="J9:J12" si="1">"," &amp; IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; IF(A9="",""," */")</f>
+        <v xml:space="preserve">,`password` VARCHAR(255) </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>255</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="27" t="str">
+        <f>"," &amp; IF(A10="","","/* ") &amp; "`" &amp; C10 &amp; "` " &amp; D10 &amp; IF(E10&gt;0,"(" &amp; E10 &amp; ") "," ") &amp; IF(F10&lt;&gt;"","NOT NULL ","") &amp; IF(G10="","","DEFAULT '" &amp; G10 &amp; "' ") &amp; IF(A10="",""," */")</f>
+        <v xml:space="preserve">,`email` VARCHAR(255) </v>
+      </c>
+      <c r="J10" s="29" t="str">
+        <f>"," &amp; IF(A10="","","/* ") &amp; "`" &amp; C10 &amp; "` " &amp; D10 &amp; IF(E10&gt;0,"(" &amp; E10 &amp; ") "," ") &amp; IF(F10&lt;&gt;"","NOT NULL ","") &amp; IF(G10="","","DEFAULT '" &amp; G10 &amp; "' ") &amp; IF(A10="",""," */")</f>
+        <v xml:space="preserve">,`email` VARCHAR(255) </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J11" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J12" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
+        <v>CREATE TABLE `statuses` (</v>
+      </c>
+      <c r="J15" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
+        <v>CREATE TABLE `statuses` (</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7">
+        <v>64</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="27" t="str">
+        <f>"," &amp; IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; IF(A17="",""," */")</f>
+        <v xml:space="preserve">,`code` VARCHAR(64) </v>
+      </c>
+      <c r="J17" s="29" t="str">
+        <f>"," &amp; IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; IF(A17="",""," */")</f>
+        <v xml:space="preserve">,`code` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7">
+        <v>64</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="27" t="str">
+        <f>"," &amp; IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; IF(A18="",""," */")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
+      </c>
+      <c r="J18" s="29" t="str">
+        <f>"," &amp; IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; IF(A18="",""," */")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="34"/>
+      <c r="B21" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C21 &amp; "` ("</f>
+        <v>CREATE TABLE `contractnames` (</v>
+      </c>
+      <c r="J21" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C21 &amp; "` ("</f>
+        <v>CREATE TABLE `contractnames` (</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="34"/>
+      <c r="B22" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="34"/>
+      <c r="B23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="36">
+        <v>256</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40" t="str">
+        <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
+        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
+      </c>
+      <c r="J23" s="41" t="str">
+        <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
+        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="34"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="34"/>
+      <c r="B26" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
+        <v>CREATE TABLE `languages` (</v>
+      </c>
+      <c r="J26" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
+        <v>CREATE TABLE `languages` (</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="34"/>
+      <c r="B27" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="34"/>
+      <c r="B28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="36">
+        <v>256</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="40" t="str">
+        <f>"," &amp; IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; IF(A28="",""," */")</f>
+        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
+      </c>
+      <c r="J28" s="41" t="str">
+        <f>"," &amp; IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; IF(A28="",""," */")</f>
+        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="34"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
+        <v>CREATE TABLE `clients` (</v>
+      </c>
+      <c r="J31" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
+        <v>CREATE TABLE `clients` (</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="7">
+        <v>128</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="27" t="str">
+        <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
+      </c>
+      <c r="J33" s="29" t="str">
+        <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="34"/>
+      <c r="B34" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="36">
+        <v>20</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="40" t="str">
+        <f>"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+      <c r="J34" s="41" t="str">
+        <f>"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="34"/>
+      <c r="B35" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="36">
+        <v>4</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="40" t="str">
+        <f>"," &amp; IF(A35="","","/* ") &amp; "`" &amp; C35 &amp; "` " &amp; D35 &amp; IF(E35&gt;0,"(" &amp; E35 &amp; ") "," ") &amp; IF(F35&lt;&gt;"","NOT NULL ","") &amp; IF(G35="","","DEFAULT '" &amp; G35 &amp; "' ") &amp; IF(A35="",""," */")</f>
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+      <c r="J35" s="41" t="str">
+        <f>"," &amp; IF(A35="","","/* ") &amp; "`" &amp; C35 &amp; "` " &amp; D35 &amp; IF(E35&gt;0,"(" &amp; E35 &amp; ") "," ") &amp; IF(F35&lt;&gt;"","NOT NULL ","") &amp; IF(G35="","","DEFAULT '" &amp; G35 &amp; "' ") &amp; IF(A35="",""," */")</f>
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="34"/>
+      <c r="B36" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="37">
+        <v>0</v>
+      </c>
+      <c r="H36" s="38"/>
+      <c r="I36" s="40" t="str">
+        <f>"," &amp; IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; IF(A36="",""," */")</f>
+        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
+      </c>
+      <c r="J36" s="41" t="str">
+        <f>"," &amp; IF(A36="","","/* ") &amp; "`" &amp; C36 &amp; "` " &amp; D36 &amp; IF(E36&gt;0,"(" &amp; E36 &amp; ") "," ") &amp; IF(F36&lt;&gt;"","NOT NULL ","") &amp; IF(G36="","","DEFAULT '" &amp; G36 &amp; "' ") &amp; IF(A36="",""," */")</f>
+        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="34"/>
+      <c r="B37" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="40" t="str">
+        <f>"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+        <v xml:space="preserve">,`partner_id` INT </v>
+      </c>
+      <c r="J37" s="41" t="str">
+        <f>"," &amp; IF(A37="","","/* ") &amp; "`" &amp; C37 &amp; "` " &amp; D37 &amp; IF(E37&gt;0,"(" &amp; E37 &amp; ") "," ") &amp; IF(F37&lt;&gt;"","NOT NULL ","") &amp; IF(G37="","","DEFAULT '" &amp; G37 &amp; "' ") &amp; IF(A37="",""," */")</f>
+        <v xml:space="preserve">,`partner_id` INT </v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="27" t="str">
+        <f t="shared" ref="I38:I41" si="2">"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J38" s="29" t="str">
+        <f t="shared" ref="J38:J41" si="3">"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="34"/>
+      <c r="B39" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J39" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="34"/>
+      <c r="B40" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J40" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="34"/>
+      <c r="B41" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J41" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C44 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
+      </c>
+      <c r="J44" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C44 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="27" t="str">
+        <f t="shared" ref="I46:I52" si="4">"," &amp; IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; IF(A46="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+      <c r="J46" s="29" t="str">
+        <f t="shared" ref="J46:J52" si="5">"," &amp; IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; IF(A46="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="7">
+        <v>128</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+      </c>
+      <c r="J47" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="34"/>
+      <c r="B48" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="36">
+        <v>512</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+      <c r="J48" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="34"/>
+      <c r="B49" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="36">
+        <v>4</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      </c>
+      <c r="J49" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="7">
+        <v>256</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+      <c r="J50" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="7">
+        <v>128</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J51" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J52" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="7">
+        <v>128</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="27" t="str">
+        <f t="shared" ref="I53:I55" si="6">"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+      </c>
+      <c r="J53" s="29" t="str">
+        <f t="shared" ref="J53:J55" si="7">"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7">
+        <v>256</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="27" t="str">
+        <f>"," &amp; IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; IF(A54="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+      <c r="J54" s="29" t="str">
+        <f>"," &amp; IF(A54="","","/* ") &amp; "`" &amp; C54 &amp; "` " &amp; D54 &amp; IF(E54&gt;0,"(" &amp; E54 &amp; ") "," ") &amp; IF(F54&lt;&gt;"","NOT NULL ","") &amp; IF(G54="","","DEFAULT '" &amp; G54 &amp; "' ") &amp; IF(A54="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="7">
+        <v>256</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+      <c r="J55" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="7">
+        <v>128</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="27" t="str">
+        <f t="shared" ref="I56:I61" si="8">"," &amp; IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; IF(A56="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+      </c>
+      <c r="J56" s="29" t="str">
+        <f t="shared" ref="J56:J61" si="9">"," &amp; IF(A56="","","/* ") &amp; "`" &amp; C56 &amp; "` " &amp; D56 &amp; IF(E56&gt;0,"(" &amp; E56 &amp; ") "," ") &amp; IF(F56&lt;&gt;"","NOT NULL ","") &amp; IF(G56="","","DEFAULT '" &amp; G56 &amp; "' ") &amp; IF(A56="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7">
+        <v>256</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="27" t="str">
+        <f>"," &amp; IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; IF(A57="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+      <c r="J57" s="29" t="str">
+        <f>"," &amp; IF(A57="","","/* ") &amp; "`" &amp; C57 &amp; "` " &amp; D57 &amp; IF(E57&gt;0,"(" &amp; E57 &amp; ") "," ") &amp; IF(F57&lt;&gt;"","NOT NULL ","") &amp; IF(G57="","","DEFAULT '" &amp; G57 &amp; "' ") &amp; IF(A57="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="7">
+        <v>256</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
+      </c>
+      <c r="J58" s="29" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="34"/>
+      <c r="B59" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J59" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="34"/>
+      <c r="B60" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J60" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="34"/>
+      <c r="B61" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J61" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="34"/>
+      <c r="B64" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
+      </c>
+      <c r="J64" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C64 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="34"/>
+      <c r="B65" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="34"/>
+      <c r="B66" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="40" t="str">
+        <f t="shared" ref="I66:I74" si="10">"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+      <c r="J66" s="41" t="str">
+        <f t="shared" ref="J66:J74" si="11">"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="34"/>
+      <c r="B67" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="40" t="str">
+        <f>"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J67" s="41" t="str">
+        <f>"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="34"/>
+      <c r="B68" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="40" t="str">
+        <f t="shared" ref="I68" si="12">"," &amp; IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; IF(A68="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
+      </c>
+      <c r="J68" s="41" t="str">
+        <f t="shared" ref="J68" si="13">"," &amp; IF(A68="","","/* ") &amp; "`" &amp; C68 &amp; "` " &amp; D68 &amp; IF(E68&gt;0,"(" &amp; E68 &amp; ") "," ") &amp; IF(F68&lt;&gt;"","NOT NULL ","") &amp; IF(G68="","","DEFAULT '" &amp; G68 &amp; "' ") &amp; IF(A68="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="34"/>
+      <c r="B69" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`contractname_id` INT </v>
+      </c>
+      <c r="J69" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`contractname_id` INT </v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="34"/>
+      <c r="B70" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J70" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="34"/>
+      <c r="B71" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="36">
+        <v>256</v>
+      </c>
+      <c r="F71" s="35"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J71" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="34"/>
+      <c r="B72" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="36">
+        <v>256</v>
+      </c>
+      <c r="F72" s="35"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J72" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="34"/>
+      <c r="B73" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J73" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="34"/>
+      <c r="B74" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="36">
+        <v>64</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J74" s="41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="34"/>
+      <c r="B75" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="40" t="str">
+        <f t="shared" ref="I75:I77" si="14">"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J75" s="41" t="str">
+        <f t="shared" ref="J75:J77" si="15">"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="34"/>
+      <c r="B76" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="36"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J76" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="34"/>
+      <c r="B77" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J77" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="34"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="G79" s="3"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" s="2"/>
+      <c r="B80" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C80 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+      <c r="J80" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C80 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="34"/>
+      <c r="B82" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="36">
+        <v>20</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="37"/>
+      <c r="H82" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I82" s="40" t="str">
+        <f t="shared" ref="I82:I95" si="16">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+      <c r="J82" s="41" t="str">
+        <f t="shared" ref="J82:J95" si="17">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A83" s="2"/>
+      <c r="B83" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="36">
+        <v>256</v>
+      </c>
+      <c r="F83" s="35"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+      </c>
+      <c r="J83" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="34"/>
+      <c r="B84" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="36">
+        <v>256</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+      <c r="J84" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="34"/>
+      <c r="B85" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="36"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+      <c r="J85" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="34"/>
+      <c r="B86" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="36">
+        <v>6</v>
+      </c>
+      <c r="F86" s="35"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="40" t="str">
+        <f t="shared" ref="I86" si="18">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
+      </c>
+      <c r="J86" s="41" t="str">
+        <f t="shared" ref="J86" si="19">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="34"/>
+      <c r="B87" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="36">
+        <v>20</v>
+      </c>
+      <c r="F87" s="35"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+      </c>
+      <c r="J87" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="34"/>
+      <c r="B88" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="36">
+        <v>20</v>
+      </c>
+      <c r="F88" s="35"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+      </c>
+      <c r="J88" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="34"/>
+      <c r="B89" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="36">
+        <v>20</v>
+      </c>
+      <c r="F89" s="35"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I89" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+      </c>
+      <c r="J89" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="34"/>
+      <c r="B90" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="36"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
+      </c>
+      <c r="J90" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="34"/>
+      <c r="B91" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="36"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
+      </c>
+      <c r="J91" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="34"/>
+      <c r="B92" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="36">
+        <v>64</v>
+      </c>
+      <c r="F92" s="35"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+      <c r="J92" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="34"/>
+      <c r="B93" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="36">
+        <v>256</v>
+      </c>
+      <c r="F93" s="35"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+      <c r="J93" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="34"/>
+      <c r="B94" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="36">
+        <v>20</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+      <c r="J94" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="34"/>
+      <c r="B95" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="36">
+        <v>256</v>
+      </c>
+      <c r="F95" s="35"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="40" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J95" s="41" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="34"/>
+      <c r="B96" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="36"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="40" t="str">
+        <f t="shared" ref="I96:I97" si="20">"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+      <c r="J96" s="41" t="str">
+        <f t="shared" ref="J96:J97" si="21">"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="34"/>
+      <c r="B97" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J97" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A98" s="2"/>
+      <c r="B98" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="7">
+        <v>256</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="27" t="str">
+        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+      <c r="J98" s="29" t="str">
+        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A99" s="2"/>
+      <c r="B99" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="7">
+        <v>128</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="27" t="str">
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J99" s="29" t="str">
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="34"/>
+      <c r="B100" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="40" t="str">
+        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+      <c r="J100" s="41" t="str">
+        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="34"/>
+      <c r="B101" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="40" t="str">
+        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J101" s="41" t="str">
+        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A102" s="2"/>
+      <c r="B102" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="7">
+        <v>256</v>
+      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="27" t="str">
+        <f t="shared" ref="I102:I108" si="22">"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J102" s="29" t="str">
+        <f t="shared" ref="J102:J108" si="23">"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A103" s="2"/>
+      <c r="B103" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="7">
+        <v>256</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="27" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J103" s="29" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A104" s="2"/>
+      <c r="B104" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="27" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J104" s="29" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A105" s="2"/>
+      <c r="B105" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="7">
+        <v>64</v>
+      </c>
+      <c r="F105" s="6"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="27" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J105" s="29" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="34"/>
+      <c r="B106" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E106" s="36"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J106" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="34"/>
+      <c r="B107" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="36"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J107" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="34"/>
+      <c r="B108" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J108" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A109" s="2"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A111" s="2"/>
+      <c r="B111" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+      <c r="J111" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A112" s="2"/>
+      <c r="B112" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="34"/>
+      <c r="B113" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="36"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="40" t="str">
+        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J113" s="41" t="str">
+        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A114" s="2"/>
+      <c r="B114" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="27" t="str">
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J114" s="29" t="str">
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A115" s="2"/>
+      <c r="B115" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="27" t="str">
+        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J115" s="29" t="str">
+        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A116" s="2"/>
+      <c r="B116" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="27" t="str">
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J116" s="29" t="str">
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A117" s="2"/>
+      <c r="B117" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="27" t="str">
+        <f t="shared" ref="I117:I123" si="24">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J117" s="29" t="str">
+        <f t="shared" ref="J117:J123" si="25">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" s="2"/>
+      <c r="B118" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="7">
+        <v>20</v>
+      </c>
+      <c r="F118" s="6"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="27" t="str">
+        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J118" s="29" t="str">
+        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="34"/>
+      <c r="B119" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="36">
+        <v>20</v>
+      </c>
+      <c r="F119" s="35"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="40" t="str">
+        <f>"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J119" s="41" t="str">
+        <f>"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="34"/>
+      <c r="B120" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="36">
+        <v>256</v>
+      </c>
+      <c r="F120" s="35"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="40" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J120" s="41" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A121" s="2"/>
+      <c r="B121" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="7">
+        <v>256</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="27" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J121" s="29" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="34"/>
+      <c r="B122" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="36"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="40" t="str">
+        <f t="shared" ref="I122" si="26">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J122" s="41" t="str">
+        <f t="shared" ref="J122" si="27">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A123" s="2"/>
+      <c r="B123" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="27" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J123" s="29" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A124" s="2"/>
+      <c r="B124" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="27" t="str">
+        <f t="shared" ref="I124" si="28">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J124" s="29" t="str">
+        <f t="shared" ref="J124" si="29">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A125" s="2"/>
+      <c r="B125" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="27" t="str">
+        <f>"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J125" s="29" t="str">
+        <f>"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="34"/>
+      <c r="B126" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D126" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="36">
+        <v>256</v>
+      </c>
+      <c r="F126" s="35"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="40" t="str">
+        <f t="shared" ref="I126" si="30">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J126" s="41" t="str">
+        <f t="shared" ref="J126" si="31">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A127" s="2"/>
+      <c r="B127" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="27" t="str">
+        <f t="shared" ref="I127:I134" si="32">"," &amp; IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; IF(A127="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J127" s="29" t="str">
+        <f t="shared" ref="J127:J134" si="33">"," &amp; IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; IF(A127="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A128" s="2"/>
+      <c r="B128" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="7">
+        <v>256</v>
+      </c>
+      <c r="F128" s="6"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J128" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A129" s="2"/>
+      <c r="B129" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="7">
+        <v>256</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J129" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A130" s="2"/>
+      <c r="B130" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J130" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A131" s="2"/>
+      <c r="B131" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="7">
+        <v>64</v>
+      </c>
+      <c r="F131" s="6"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J131" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="34"/>
+      <c r="B132" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E132" s="36"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J132" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A133" s="2"/>
+      <c r="B133" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J133" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A134" s="2"/>
+      <c r="B134" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J134" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A135" s="2"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A137" s="2"/>
+      <c r="B137" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I137" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C137 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J137" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C137 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A138" s="2"/>
+      <c r="B138" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="7"/>
+      <c r="F138" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="8"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="34"/>
+      <c r="B139" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="36"/>
+      <c r="F139" s="35"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="40" t="str">
+        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J139" s="41" t="str">
+        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="34"/>
+      <c r="B140" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="36"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="40" t="str">
+        <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J140" s="41" t="str">
+        <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="34"/>
+      <c r="B141" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="36"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="40" t="str">
+        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J141" s="41" t="str">
+        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="34"/>
+      <c r="B142" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="36"/>
+      <c r="F142" s="35"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="40" t="str">
+        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J142" s="41" t="str">
+        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="34"/>
+      <c r="B143" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="36"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="40" t="str">
+        <f t="shared" ref="I143" si="34">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J143" s="41" t="str">
+        <f t="shared" ref="J143" si="35">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="34"/>
+      <c r="B144" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="36">
+        <v>20</v>
+      </c>
+      <c r="F144" s="35"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="40" t="str">
+        <f>"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J144" s="41" t="str">
+        <f>"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="34"/>
+      <c r="B145" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="36">
+        <v>20</v>
+      </c>
+      <c r="F145" s="35"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="40" t="str">
+        <f>"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J145" s="41" t="str">
+        <f>"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="34"/>
+      <c r="B146" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="36">
+        <v>256</v>
+      </c>
+      <c r="F146" s="35"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="40" t="str">
+        <f t="shared" ref="I146:I150" si="36">"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J146" s="41" t="str">
+        <f t="shared" ref="J146:J150" si="37">"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="34"/>
+      <c r="B147" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="36">
+        <v>256</v>
+      </c>
+      <c r="F147" s="35"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="40" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J147" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="34"/>
+      <c r="B148" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D148" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="36"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="40" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J148" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="34"/>
+      <c r="B149" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D149" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="36"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="40" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J149" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="34"/>
+      <c r="B150" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="36"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="40" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J150" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="34"/>
+      <c r="B151" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="36"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="40" t="str">
+        <f>"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J151" s="41" t="str">
+        <f>"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="34"/>
+      <c r="B152" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="36">
+        <v>256</v>
+      </c>
+      <c r="F152" s="35"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="40" t="str">
+        <f t="shared" ref="I152:I160" si="38">"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J152" s="41" t="str">
+        <f t="shared" ref="J152:J160" si="39">"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="34"/>
+      <c r="B153" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="36"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J153" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="34"/>
+      <c r="B154" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="36">
+        <v>256</v>
+      </c>
+      <c r="F154" s="35"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J154" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="34"/>
+      <c r="B155" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="36">
+        <v>256</v>
+      </c>
+      <c r="F155" s="35"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J155" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="34"/>
+      <c r="B156" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="36"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J156" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="34"/>
+      <c r="B157" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="36">
+        <v>64</v>
+      </c>
+      <c r="F157" s="35"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J157" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="34"/>
+      <c r="B158" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E158" s="36"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J158" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="34"/>
+      <c r="B159" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D159" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="36"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J159" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="34"/>
+      <c r="B160" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="36"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="38"/>
+      <c r="I160" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J160" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A161" s="2"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J161" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="34"/>
+      <c r="B163" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I163" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C163 &amp; "` ("</f>
+        <v>CREATE TABLE `productinfos` (</v>
+      </c>
+      <c r="J163" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C163 &amp; "` ("</f>
+        <v>CREATE TABLE `productinfos` (</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A164" s="34"/>
+      <c r="B164" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="36"/>
+      <c r="F164" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="37"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J164" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="34"/>
+      <c r="B165" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D165" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="36">
+        <v>128</v>
+      </c>
+      <c r="F165" s="35"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="40" t="str">
+        <f>"," &amp; IF(A165="","","/* ") &amp; "`" &amp; C165 &amp; "` " &amp; D165 &amp; IF(E165&gt;0,"(" &amp; E165 &amp; ") "," ") &amp; IF(F165&lt;&gt;"","NOT NULL ","") &amp; IF(G165="","","DEFAULT '" &amp; G165 &amp; "' ") &amp; IF(A165="",""," */")</f>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      </c>
+      <c r="J165" s="41" t="str">
+        <f>"," &amp; IF(A165="","","/* ") &amp; "`" &amp; C165 &amp; "` " &amp; D165 &amp; IF(E165&gt;0,"(" &amp; E165 &amp; ") "," ") &amp; IF(F165&lt;&gt;"","NOT NULL ","") &amp; IF(G165="","","DEFAULT '" &amp; G165 &amp; "' ") &amp; IF(A165="",""," */")</f>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A166" s="34"/>
+      <c r="B166" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" s="36"/>
+      <c r="F166" s="35"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="40" t="str">
+        <f>"," &amp; IF(A166="","","/* ") &amp; "`" &amp; C166 &amp; "` " &amp; D166 &amp; IF(E166&gt;0,"(" &amp; E166 &amp; ") "," ") &amp; IF(F166&lt;&gt;"","NOT NULL ","") &amp; IF(G166="","","DEFAULT '" &amp; G166 &amp; "' ") &amp; IF(A166="",""," */")</f>
+        <v xml:space="preserve">,`use_support` INT </v>
+      </c>
+      <c r="J166" s="41" t="str">
+        <f>"," &amp; IF(A166="","","/* ") &amp; "`" &amp; C166 &amp; "` " &amp; D166 &amp; IF(E166&gt;0,"(" &amp; E166 &amp; ") "," ") &amp; IF(F166&lt;&gt;"","NOT NULL ","") &amp; IF(G166="","","DEFAULT '" &amp; G166 &amp; "' ") &amp; IF(A166="",""," */")</f>
+        <v xml:space="preserve">,`use_support` INT </v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A167" s="34"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="36">
+        <v>20</v>
+      </c>
+      <c r="F167" s="35"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="38"/>
+      <c r="I167" s="40" t="str">
+        <f>"," &amp; IF(A167="","","/* ") &amp; "`" &amp; C167 &amp; "` " &amp; D167 &amp; IF(E167&gt;0,"(" &amp; E167 &amp; ") "," ") &amp; IF(F167&lt;&gt;"","NOT NULL ","") &amp; IF(G167="","","DEFAULT '" &amp; G167 &amp; "' ") &amp; IF(A167="",""," */")</f>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+      <c r="J167" s="41" t="str">
+        <f>"," &amp; IF(A167="","","/* ") &amp; "`" &amp; C167 &amp; "` " &amp; D167 &amp; IF(E167&gt;0,"(" &amp; E167 &amp; ") "," ") &amp; IF(F167&lt;&gt;"","NOT NULL ","") &amp; IF(G167="","","DEFAULT '" &amp; G167 &amp; "' ") &amp; IF(A167="",""," */")</f>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A168" s="34"/>
+      <c r="B168" s="39"/>
+      <c r="C168" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D168" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="36">
+        <v>512</v>
+      </c>
+      <c r="F168" s="35"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="40" t="str">
+        <f>"," &amp; IF(A168="","","/* ") &amp; "`" &amp; C168 &amp; "` " &amp; D168 &amp; IF(E168&gt;0,"(" &amp; E168 &amp; ") "," ") &amp; IF(F168&lt;&gt;"","NOT NULL ","") &amp; IF(G168="","","DEFAULT '" &amp; G168 &amp; "' ") &amp; IF(A168="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+      </c>
+      <c r="J168" s="41" t="str">
+        <f>"," &amp; IF(A168="","","/* ") &amp; "`" &amp; C168 &amp; "` " &amp; D168 &amp; IF(E168&gt;0,"(" &amp; E168 &amp; ") "," ") &amp; IF(F168&lt;&gt;"","NOT NULL ","") &amp; IF(G168="","","DEFAULT '" &amp; G168 &amp; "' ") &amp; IF(A168="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A169" s="34"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D169" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="36">
+        <v>20</v>
+      </c>
+      <c r="F169" s="35"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="40" t="str">
+        <f t="shared" ref="I169" si="40">"," &amp; IF(A169="","","/* ") &amp; "`" &amp; C169 &amp; "` " &amp; D169 &amp; IF(E169&gt;0,"(" &amp; E169 &amp; ") "," ") &amp; IF(F169&lt;&gt;"","NOT NULL ","") &amp; IF(G169="","","DEFAULT '" &amp; G169 &amp; "' ") &amp; IF(A169="",""," */")</f>
+        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
+      </c>
+      <c r="J169" s="41" t="str">
+        <f t="shared" ref="J169" si="41">"," &amp; IF(A169="","","/* ") &amp; "`" &amp; C169 &amp; "` " &amp; D169 &amp; IF(E169&gt;0,"(" &amp; E169 &amp; ") "," ") &amp; IF(F169&lt;&gt;"","NOT NULL ","") &amp; IF(G169="","","DEFAULT '" &amp; G169 &amp; "' ") &amp; IF(A169="",""," */")</f>
+        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A170" s="34"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E170" s="36"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="38"/>
+      <c r="I170" s="40" t="str">
+        <f>"," &amp; IF(A170="","","/* ") &amp; "`" &amp; C170 &amp; "` " &amp; D170 &amp; IF(E170&gt;0,"(" &amp; E170 &amp; ") "," ") &amp; IF(F170&lt;&gt;"","NOT NULL ","") &amp; IF(G170="","","DEFAULT '" &amp; G170 &amp; "' ") &amp; IF(A170="",""," */")</f>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J170" s="41" t="str">
+        <f>"," &amp; IF(A170="","","/* ") &amp; "`" &amp; C170 &amp; "` " &amp; D170 &amp; IF(E170&gt;0,"(" &amp; E170 &amp; ") "," ") &amp; IF(F170&lt;&gt;"","NOT NULL ","") &amp; IF(G170="","","DEFAULT '" &amp; G170 &amp; "' ") &amp; IF(A170="",""," */")</f>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A171" s="34"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E171" s="36"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="38"/>
+      <c r="I171" s="40" t="str">
+        <f>"," &amp; IF(A171="","","/* ") &amp; "`" &amp; C171 &amp; "` " &amp; D171 &amp; IF(E171&gt;0,"(" &amp; E171 &amp; ") "," ") &amp; IF(F171&lt;&gt;"","NOT NULL ","") &amp; IF(G171="","","DEFAULT '" &amp; G171 &amp; "' ") &amp; IF(A171="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J171" s="41" t="str">
+        <f>"," &amp; IF(A171="","","/* ") &amp; "`" &amp; C171 &amp; "` " &amp; D171 &amp; IF(E171&gt;0,"(" &amp; E171 &amp; ") "," ") &amp; IF(F171&lt;&gt;"","NOT NULL ","") &amp; IF(G171="","","DEFAULT '" &amp; G171 &amp; "' ") &amp; IF(A171="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A172" s="34"/>
+      <c r="B172" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="36"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="38"/>
+      <c r="I172" s="40" t="str">
+        <f t="shared" ref="I172:I173" si="42">"," &amp; IF(A172="","","/* ") &amp; "`" &amp; C172 &amp; "` " &amp; D172 &amp; IF(E172&gt;0,"(" &amp; E172 &amp; ") "," ") &amp; IF(F172&lt;&gt;"","NOT NULL ","") &amp; IF(G172="","","DEFAULT '" &amp; G172 &amp; "' ") &amp; IF(A172="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J172" s="41" t="str">
+        <f t="shared" ref="J172:J173" si="43">"," &amp; IF(A172="","","/* ") &amp; "`" &amp; C172 &amp; "` " &amp; D172 &amp; IF(E172&gt;0,"(" &amp; E172 &amp; ") "," ") &amp; IF(F172&lt;&gt;"","NOT NULL ","") &amp; IF(G172="","","DEFAULT '" &amp; G172 &amp; "' ") &amp; IF(A172="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A173" s="34"/>
+      <c r="B173" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C173" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="36"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="38"/>
+      <c r="I173" s="40" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J173" s="41" t="str">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A174" s="34"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J174" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A175" s="34"/>
+      <c r="E175" s="34"/>
+      <c r="G175" s="3"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="25"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B176" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I176" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C176 &amp; "` ("</f>
+        <v>CREATE TABLE `supportcontracts` (</v>
+      </c>
+      <c r="J176" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C176 &amp; "` ("</f>
+        <v>CREATE TABLE `supportcontracts` (</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B177" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="36"/>
+      <c r="F177" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="37"/>
+      <c r="H177" s="38"/>
+      <c r="I177" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B178" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D178" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="36">
+        <v>20</v>
+      </c>
+      <c r="F178" s="35"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="38"/>
+      <c r="I178" s="40" t="str">
+        <f t="shared" ref="I178:I183" si="44">"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+      <c r="J178" s="41" t="str">
+        <f t="shared" ref="J178:J183" si="45">"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B179" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C179" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D179" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="36">
+        <v>256</v>
+      </c>
+      <c r="F179" s="35"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="38"/>
+      <c r="I179" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">,`contractor` VARCHAR(256) </v>
+      </c>
+      <c r="J179" s="41" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">,`contractor` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B180" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C180" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D180" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="36">
+        <v>20</v>
+      </c>
+      <c r="F180" s="35"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">,`eu_company_code` VARCHAR(20) </v>
+      </c>
+      <c r="J180" s="41" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">,`eu_company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B181" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D181" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="36">
+        <v>256</v>
+      </c>
+      <c r="F181" s="35"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="38"/>
+      <c r="I181" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">,`eu_name` VARCHAR(256) </v>
+      </c>
+      <c r="J181" s="41" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">,`eu_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="34"/>
+      <c r="B182" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D182" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="36">
+        <v>128</v>
+      </c>
+      <c r="F182" s="35"/>
+      <c r="G182" s="37"/>
+      <c r="H182" s="38"/>
+      <c r="I182" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      </c>
+      <c r="J182" s="41" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B183" s="39"/>
+      <c r="C183" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D183" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="36">
+        <v>20</v>
+      </c>
+      <c r="F183" s="35"/>
+      <c r="G183" s="37"/>
+      <c r="H183" s="38"/>
+      <c r="I183" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">,`contract_no` VARCHAR(20) </v>
+      </c>
+      <c r="J183" s="41" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">,`contract_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B184" s="39"/>
+      <c r="C184" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D184" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="36">
+        <v>20</v>
+      </c>
+      <c r="F184" s="35"/>
+      <c r="G184" s="37"/>
+      <c r="H184" s="38"/>
+      <c r="I184" s="40" t="str">
+        <f t="shared" ref="I184" si="46">"," &amp; IF(A184="","","/* ") &amp; "`" &amp; C184 &amp; "` " &amp; D184 &amp; IF(E184&gt;0,"(" &amp; E184 &amp; ") "," ") &amp; IF(F184&lt;&gt;"","NOT NULL ","") &amp; IF(G184="","","DEFAULT '" &amp; G184 &amp; "' ") &amp; IF(A184="",""," */")</f>
+        <v xml:space="preserve">,`contract_no2` VARCHAR(20) </v>
+      </c>
+      <c r="J184" s="41" t="str">
+        <f t="shared" ref="J184" si="47">"," &amp; IF(A184="","","/* ") &amp; "`" &amp; C184 &amp; "` " &amp; D184 &amp; IF(E184&gt;0,"(" &amp; E184 &amp; ") "," ") &amp; IF(F184&lt;&gt;"","NOT NULL ","") &amp; IF(G184="","","DEFAULT '" &amp; G184 &amp; "' ") &amp; IF(A184="",""," */")</f>
+        <v xml:space="preserve">,`contract_no2` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="34"/>
+      <c r="B185" s="39"/>
+      <c r="C185" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D185" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="36">
+        <v>512</v>
+      </c>
+      <c r="F185" s="35"/>
+      <c r="G185" s="37"/>
+      <c r="H185" s="38"/>
+      <c r="I185" s="40" t="str">
+        <f>"," &amp; IF(A185="","","/* ") &amp; "`" &amp; C185 &amp; "` " &amp; D185 &amp; IF(E185&gt;0,"(" &amp; E185 &amp; ") "," ") &amp; IF(F185&lt;&gt;"","NOT NULL ","") &amp; IF(G185="","","DEFAULT '" &amp; G185 &amp; "' ") &amp; IF(A185="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+      </c>
+      <c r="J185" s="41" t="str">
+        <f>"," &amp; IF(A185="","","/* ") &amp; "`" &amp; C185 &amp; "` " &amp; D185 &amp; IF(E185&gt;0,"(" &amp; E185 &amp; ") "," ") &amp; IF(F185&lt;&gt;"","NOT NULL ","") &amp; IF(G185="","","DEFAULT '" &amp; G185 &amp; "' ") &amp; IF(A185="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="34"/>
+      <c r="B186" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C186" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D186" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="36"/>
+      <c r="F186" s="35"/>
+      <c r="G186" s="37"/>
+      <c r="H186" s="38"/>
+      <c r="I186" s="40" t="str">
+        <f t="shared" ref="I186" si="48">"," &amp; IF(A186="","","/* ") &amp; "`" &amp; C186 &amp; "` " &amp; D186 &amp; IF(E186&gt;0,"(" &amp; E186 &amp; ") "," ") &amp; IF(F186&lt;&gt;"","NOT NULL ","") &amp; IF(G186="","","DEFAULT '" &amp; G186 &amp; "' ") &amp; IF(A186="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
+      </c>
+      <c r="J186" s="41" t="str">
+        <f t="shared" ref="J186" si="49">"," &amp; IF(A186="","","/* ") &amp; "`" &amp; C186 &amp; "` " &amp; D186 &amp; IF(E186&gt;0,"(" &amp; E186 &amp; ") "," ") &amp; IF(F186&lt;&gt;"","NOT NULL ","") &amp; IF(G186="","","DEFAULT '" &amp; G186 &amp; "' ") &amp; IF(A186="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="34"/>
+      <c r="B187" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="36"/>
+      <c r="F187" s="35"/>
+      <c r="G187" s="37"/>
+      <c r="H187" s="38"/>
+      <c r="I187" s="40" t="str">
+        <f t="shared" ref="I187" si="50">"," &amp; IF(A187="","","/* ") &amp; "`" &amp; C187 &amp; "` " &amp; D187 &amp; IF(E187&gt;0,"(" &amp; E187 &amp; ") "," ") &amp; IF(F187&lt;&gt;"","NOT NULL ","") &amp; IF(G187="","","DEFAULT '" &amp; G187 &amp; "' ") &amp; IF(A187="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J187" s="41" t="str">
+        <f t="shared" ref="J187" si="51">"," &amp; IF(A187="","","/* ") &amp; "`" &amp; C187 &amp; "` " &amp; D187 &amp; IF(E187&gt;0,"(" &amp; E187 &amp; ") "," ") &amp; IF(F187&lt;&gt;"","NOT NULL ","") &amp; IF(G187="","","DEFAULT '" &amp; G187 &amp; "' ") &amp; IF(A187="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A188" s="34"/>
+      <c r="B188" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D188" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="36"/>
+      <c r="F188" s="35"/>
+      <c r="G188" s="37"/>
+      <c r="H188" s="38"/>
+      <c r="I188" s="40" t="str">
+        <f t="shared" ref="I188:I193" si="52">"," &amp; IF(A188="","","/* ") &amp; "`" &amp; C188 &amp; "` " &amp; D188 &amp; IF(E188&gt;0,"(" &amp; E188 &amp; ") "," ") &amp; IF(F188&lt;&gt;"","NOT NULL ","") &amp; IF(G188="","","DEFAULT '" &amp; G188 &amp; "' ") &amp; IF(A188="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J188" s="41" t="str">
+        <f t="shared" ref="J188:J193" si="53">"," &amp; IF(A188="","","/* ") &amp; "`" &amp; C188 &amp; "` " &amp; D188 &amp; IF(E188&gt;0,"(" &amp; E188 &amp; ") "," ") &amp; IF(F188&lt;&gt;"","NOT NULL ","") &amp; IF(G188="","","DEFAULT '" &amp; G188 &amp; "' ") &amp; IF(A188="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B189" s="39"/>
+      <c r="C189" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D189" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E189" s="36"/>
+      <c r="F189" s="35"/>
+      <c r="G189" s="37"/>
+      <c r="H189" s="38"/>
+      <c r="I189" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`term` INT </v>
+      </c>
+      <c r="J189" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`term` INT </v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="34"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D190" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E190" s="36"/>
+      <c r="F190" s="35"/>
+      <c r="G190" s="37"/>
+      <c r="H190" s="38"/>
+      <c r="I190" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J190" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="34"/>
+      <c r="B191" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C191" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D191" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="36">
+        <v>256</v>
+      </c>
+      <c r="F191" s="35"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="38"/>
+      <c r="I191" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+      <c r="J191" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="34"/>
+      <c r="B192" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D192" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="36">
+        <v>128</v>
+      </c>
+      <c r="F192" s="35"/>
+      <c r="G192" s="37"/>
+      <c r="H192" s="38"/>
+      <c r="I192" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J192" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B193" s="39"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E193" s="36"/>
+      <c r="F193" s="35"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="38"/>
+      <c r="I193" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`` TEXT </v>
+      </c>
+      <c r="J193" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`` TEXT </v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B194" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C194" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D194" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="36"/>
+      <c r="F194" s="35"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="38"/>
+      <c r="I194" s="40" t="str">
+        <f t="shared" ref="I194:I195" si="54">"," &amp; IF(A194="","","/* ") &amp; "`" &amp; C194 &amp; "` " &amp; D194 &amp; IF(E194&gt;0,"(" &amp; E194 &amp; ") "," ") &amp; IF(F194&lt;&gt;"","NOT NULL ","") &amp; IF(G194="","","DEFAULT '" &amp; G194 &amp; "' ") &amp; IF(A194="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J194" s="41" t="str">
+        <f t="shared" ref="J194:J195" si="55">"," &amp; IF(A194="","","/* ") &amp; "`" &amp; C194 &amp; "` " &amp; D194 &amp; IF(E194&gt;0,"(" &amp; E194 &amp; ") "," ") &amp; IF(F194&lt;&gt;"","NOT NULL ","") &amp; IF(G194="","","DEFAULT '" &amp; G194 &amp; "' ") &amp; IF(A194="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B195" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C195" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="36"/>
+      <c r="F195" s="35"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="38"/>
+      <c r="I195" s="40" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J195" s="41" t="str">
+        <f t="shared" si="55"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="22"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="23"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J196" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="expression" dxfId="90" priority="211">
+      <formula>A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A7 A42:A43 A135:A136 A80:A82 A124:A125 A13:A14 A84:A85 A99:A100 A31:A33 A35 A109:A112 A118:A119 A87:A95">
+    <cfRule type="cellIs" dxfId="89" priority="210" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9 A11:A12">
+    <cfRule type="cellIs" dxfId="88" priority="209" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="87" priority="208" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="86" priority="207" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:A39">
+    <cfRule type="cellIs" dxfId="85" priority="203" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A105">
+    <cfRule type="cellIs" dxfId="84" priority="201" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="cellIs" dxfId="83" priority="200" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="cellIs" dxfId="82" priority="194" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="cellIs" dxfId="81" priority="192" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A63 A44:A45 A47">
+    <cfRule type="cellIs" dxfId="80" priority="193" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53 A55">
+    <cfRule type="cellIs" dxfId="79" priority="187" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56 A58">
+    <cfRule type="cellIs" dxfId="78" priority="186" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="77" priority="185" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="76" priority="184" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="75" priority="183" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" dxfId="74" priority="182" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="cellIs" dxfId="73" priority="179" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="cellIs" dxfId="72" priority="178" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:A131">
+    <cfRule type="cellIs" dxfId="71" priority="177" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:A134">
+    <cfRule type="cellIs" dxfId="70" priority="176" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161 A137">
+    <cfRule type="cellIs" dxfId="69" priority="175" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="cellIs" dxfId="68" priority="169" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="cellIs" dxfId="67" priority="161" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="66" priority="160" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="cellIs" dxfId="65" priority="159" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" dxfId="64" priority="158" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A15:A17">
+    <cfRule type="cellIs" dxfId="63" priority="147" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="62" priority="143" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="61" priority="121" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="cellIs" dxfId="60" priority="142" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="cellIs" dxfId="59" priority="131" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="58" priority="113" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="cellIs" dxfId="57" priority="120" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="cellIs" dxfId="56" priority="119" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" dxfId="55" priority="118" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="54" priority="117" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="cellIs" dxfId="53" priority="116" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="cellIs" dxfId="52" priority="115" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="cellIs" dxfId="51" priority="114" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="50" priority="99" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="cellIs" dxfId="49" priority="69" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:A151 A144:A145">
+    <cfRule type="cellIs" dxfId="48" priority="82" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="cellIs" dxfId="47" priority="81" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="cellIs" dxfId="46" priority="80" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="cellIs" dxfId="45" priority="79" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:A157">
+    <cfRule type="cellIs" dxfId="44" priority="78" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:A160">
+    <cfRule type="cellIs" dxfId="43" priority="77" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="cellIs" dxfId="42" priority="76" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="cellIs" dxfId="41" priority="75" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="cellIs" dxfId="40" priority="74" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="cellIs" dxfId="39" priority="73" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="cellIs" dxfId="38" priority="72" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148">
+    <cfRule type="cellIs" dxfId="37" priority="71" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="cellIs" dxfId="36" priority="70" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A79 A64:A65 A69">
+    <cfRule type="cellIs" dxfId="34" priority="68" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A25 A21:A22">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="31" priority="60" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A74">
+    <cfRule type="cellIs" dxfId="30" priority="45" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" dxfId="29" priority="44" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" dxfId="28" priority="57" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107:A108">
+    <cfRule type="cellIs" dxfId="27" priority="56" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A77">
+    <cfRule type="cellIs" dxfId="26" priority="55" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A61">
+    <cfRule type="cellIs" dxfId="25" priority="54" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A41">
+    <cfRule type="cellIs" dxfId="24" priority="53" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="23" priority="52" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" dxfId="22" priority="51" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158">
+    <cfRule type="cellIs" dxfId="21" priority="48" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="cellIs" dxfId="20" priority="49" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A30 A26:A27">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:A175 A163:A164 A170:A171">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:A173">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A165">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:A188">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A192">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D65:D77 D45:D61 D138:D160 D112:D134 D22:D23 D27:D28 D32:D41 D81:D108 D164:D173 D177:D195">
+      <formula1>TYPE</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -1232,7 +1232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1294,6 +1294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1555,6 +1561,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -4469,10 +4478,10 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="13" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>0</v>
@@ -4491,11 +4500,11 @@
       </c>
       <c r="I80" s="27" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C80 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
+        <v>CREATE TABLE `licenses` (</v>
       </c>
       <c r="J80" s="29" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C80 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
+        <v>CREATE TABLE `licenses` (</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
@@ -4524,169 +4533,157 @@
     </row>
     <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="34"/>
-      <c r="B82" s="32" t="s">
-        <v>113</v>
+      <c r="B82" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="36">
-        <v>20</v>
-      </c>
-      <c r="F82" s="35" t="s">
-        <v>18</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E82" s="36"/>
+      <c r="F82" s="35"/>
       <c r="G82" s="37"/>
-      <c r="H82" s="38" t="s">
-        <v>137</v>
-      </c>
+      <c r="H82" s="38"/>
       <c r="I82" s="40" t="str">
-        <f t="shared" ref="I82:I95" si="16">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+        <f>"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J82" s="41" t="str">
-        <f t="shared" ref="J82:J95" si="17">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+        <f>"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="27" t="str">
+        <f>"," &amp; IF(A83="","","/* ") &amp; "`" &amp; C83 &amp; "` " &amp; D83 &amp; IF(E83&gt;0,"(" &amp; E83 &amp; ") "," ") &amp; IF(F83&lt;&gt;"","NOT NULL ","") &amp; IF(G83="","","DEFAULT '" &amp; G83 &amp; "' ") &amp; IF(A83="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J83" s="29" t="str">
+        <f>"," &amp; IF(A83="","","/* ") &amp; "`" &amp; C83 &amp; "` " &amp; D83 &amp; IF(E83&gt;0,"(" &amp; E83 &amp; ") "," ") &amp; IF(F83&lt;&gt;"","NOT NULL ","") &amp; IF(G83="","","DEFAULT '" &amp; G83 &amp; "' ") &amp; IF(A83="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A84" s="2"/>
+      <c r="B84" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="27" t="str">
+        <f>"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J84" s="29" t="str">
+        <f>"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A85" s="2"/>
+      <c r="B85" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="27" t="str">
+        <f>"," &amp; IF(A85="","","/* ") &amp; "`" &amp; C85 &amp; "` " &amp; D85 &amp; IF(E85&gt;0,"(" &amp; E85 &amp; ") "," ") &amp; IF(F85&lt;&gt;"","NOT NULL ","") &amp; IF(G85="","","DEFAULT '" &amp; G85 &amp; "' ") &amp; IF(A85="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J85" s="29" t="str">
+        <f>"," &amp; IF(A85="","","/* ") &amp; "`" &amp; C85 &amp; "` " &amp; D85 &amp; IF(E85&gt;0,"(" &amp; E85 &amp; ") "," ") &amp; IF(F85&lt;&gt;"","NOT NULL ","") &amp; IF(G85="","","DEFAULT '" &amp; G85 &amp; "' ") &amp; IF(A85="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" s="2"/>
+      <c r="B86" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="27" t="str">
+        <f t="shared" ref="I86:I92" si="16">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J86" s="29" t="str">
+        <f t="shared" ref="J86:J92" si="17">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" s="2"/>
+      <c r="B87" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="36">
-        <v>256</v>
-      </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-      <c r="J83" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="34"/>
-      <c r="B84" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="36">
-        <v>256</v>
-      </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
-      </c>
-      <c r="J84" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="34"/>
-      <c r="B85" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
-      </c>
-      <c r="J85" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="34"/>
-      <c r="B86" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="36">
-        <v>6</v>
-      </c>
-      <c r="F86" s="35"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="40" t="str">
-        <f t="shared" ref="I86" si="18">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
-        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
-      </c>
-      <c r="J86" s="41" t="str">
-        <f t="shared" ref="J86" si="19">"," &amp; IF(A86="","","/* ") &amp; "`" &amp; C86 &amp; "` " &amp; D86 &amp; IF(E86&gt;0,"(" &amp; E86 &amp; ") "," ") &amp; IF(F86&lt;&gt;"","NOT NULL ","") &amp; IF(G86="","","DEFAULT '" &amp; G86 &amp; "' ") &amp; IF(A86="",""," */")</f>
-        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="34"/>
-      <c r="B87" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="36">
+      <c r="E87" s="7">
         <v>20</v>
       </c>
-      <c r="F87" s="35"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
-      </c>
-      <c r="J87" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+      <c r="F87" s="6"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="27" t="str">
+        <f>"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J87" s="29" t="str">
+        <f>"," &amp; IF(A87="","","/* ") &amp; "`" &amp; C87 &amp; "` " &amp; D87 &amp; IF(E87&gt;0,"(" &amp; E87 &amp; ") "," ") &amp; IF(F87&lt;&gt;"","NOT NULL ","") &amp; IF(G87="","","DEFAULT '" &amp; G87 &amp; "' ") &amp; IF(A87="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D88" s="35" t="s">
         <v>7</v>
@@ -4698,175 +4695,169 @@
       <c r="G88" s="37"/>
       <c r="H88" s="38"/>
       <c r="I88" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <f>"," &amp; IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; IF(A88="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
       <c r="J88" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <f>"," &amp; IF(A88="","","/* ") &amp; "`" &amp; C88 &amp; "` " &amp; D88 &amp; IF(E88&gt;0,"(" &amp; E88 &amp; ") "," ") &amp; IF(F88&lt;&gt;"","NOT NULL ","") &amp; IF(G88="","","DEFAULT '" &amp; G88 &amp; "' ") &amp; IF(A88="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="34"/>
       <c r="B89" s="39" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D89" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E89" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="37"/>
-      <c r="H89" s="38" t="s">
-        <v>133</v>
-      </c>
+      <c r="H89" s="38"/>
       <c r="I89" s="40" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J89" s="41" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="34"/>
-      <c r="B90" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="40" t="str">
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" s="2"/>
+      <c r="B90" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="7">
+        <v>256</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="27" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
-      </c>
-      <c r="J90" s="41" t="str">
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J90" s="29" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E91" s="36"/>
       <c r="F91" s="35"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="40" t="str">
+        <f t="shared" ref="I91" si="18">"," &amp; IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; IF(A91="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J91" s="41" t="str">
+        <f t="shared" ref="J91" si="19">"," &amp; IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; IF(A91="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A92" s="2"/>
+      <c r="B92" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="27" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
-      </c>
-      <c r="J91" s="41" t="str">
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J92" s="29" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="34"/>
-      <c r="B92" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="36">
-        <v>64</v>
-      </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
-      </c>
-      <c r="J92" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="34"/>
-      <c r="B93" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="36">
-        <v>256</v>
-      </c>
-      <c r="F93" s="35"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
-      </c>
-      <c r="J93" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="34"/>
-      <c r="B94" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="36">
-        <v>20</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
-      </c>
-      <c r="J94" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A93" s="2"/>
+      <c r="B93" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="27" t="str">
+        <f t="shared" ref="I93" si="20">"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J93" s="29" t="str">
+        <f t="shared" ref="J93" si="21">"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A94" s="2"/>
+      <c r="B94" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="27" t="str">
+        <f>"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J94" s="29" t="str">
+        <f>"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
     <row r="95" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="34"/>
       <c r="B95" s="39" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D95" s="35" t="s">
         <v>7</v>
@@ -4878,69 +4869,71 @@
       <c r="G95" s="37"/>
       <c r="H95" s="38"/>
       <c r="I95" s="40" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f t="shared" ref="I95" si="22">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
       <c r="J95" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="34"/>
-      <c r="B96" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D96" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="40" t="str">
-        <f t="shared" ref="I96:I97" si="20">"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
-      </c>
-      <c r="J96" s="41" t="str">
-        <f t="shared" ref="J96:J97" si="21">"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="34"/>
-      <c r="B97" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D97" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`price` INT </v>
-      </c>
-      <c r="J97" s="41" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`price` INT </v>
+        <f t="shared" ref="J95" si="23">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A96" s="2"/>
+      <c r="B96" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="27" t="str">
+        <f t="shared" ref="I96:I103" si="24">"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J96" s="29" t="str">
+        <f t="shared" ref="J96:J103" si="25">"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A97" s="2"/>
+      <c r="B97" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="7">
+        <v>256</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="27" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J97" s="29" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
-      <c r="B98" s="20" t="s">
-        <v>78</v>
+      <c r="B98" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>7</v>
@@ -4952,1059 +4945,1070 @@
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
       <c r="I98" s="27" t="str">
-        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J98" s="29" t="str">
-        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
-      <c r="B99" s="20" t="s">
-        <v>31</v>
+      <c r="B99" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="7">
-        <v>128</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E99" s="7"/>
       <c r="F99" s="6"/>
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
       <c r="I99" s="27" t="str">
-        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J99" s="29" t="str">
-        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="34"/>
-      <c r="B100" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="40" t="str">
-        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
-      </c>
-      <c r="J100" s="41" t="str">
-        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A100" s="2"/>
+      <c r="B100" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="7">
+        <v>64</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="27" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J100" s="29" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="101" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="34"/>
-      <c r="B101" s="39" t="s">
-        <v>97</v>
+      <c r="B101" s="43" t="s">
+        <v>160</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="E101" s="36"/>
       <c r="F101" s="35"/>
       <c r="G101" s="37"/>
       <c r="H101" s="38"/>
       <c r="I101" s="40" t="str">
-        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J101" s="41" t="str">
-        <f>"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="43" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="7">
-        <v>256</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E102" s="7"/>
       <c r="F102" s="6"/>
       <c r="G102" s="8"/>
       <c r="H102" s="9"/>
       <c r="I102" s="27" t="str">
-        <f t="shared" ref="I102:I108" si="22">"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J102" s="29" t="str">
-        <f t="shared" ref="J102:J108" si="23">"," &amp; IF(A102="","","/* ") &amp; "`" &amp; C102 &amp; "` " &amp; D102 &amp; IF(E102&gt;0,"(" &amp; E102 &amp; ") "," ") &amp; IF(F102&lt;&gt;"","NOT NULL ","") &amp; IF(G102="","","DEFAULT '" &amp; G102 &amp; "' ") &amp; IF(A102="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="7">
-        <v>256</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E103" s="7"/>
       <c r="F103" s="6"/>
       <c r="G103" s="8"/>
       <c r="H103" s="9"/>
       <c r="I103" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J103" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
-      <c r="B104" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-      <c r="J104" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`size` INT </v>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
-      <c r="B105" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="7">
-        <v>64</v>
-      </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="27" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-      <c r="J105" s="29" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="34"/>
-      <c r="B106" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C106" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D106" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E106" s="36"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J106" s="41" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="34"/>
-      <c r="B107" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="36"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-      <c r="J107" s="41" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A106" s="2"/>
+      <c r="B106" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C106 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J106" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C106 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A107" s="2"/>
+      <c r="B107" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="34"/>
-      <c r="B108" s="43" t="s">
-        <v>47</v>
+      <c r="B108" s="39" t="s">
+        <v>62</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E108" s="36"/>
       <c r="F108" s="35"/>
       <c r="G108" s="37"/>
       <c r="H108" s="38"/>
       <c r="I108" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f>"," &amp; IF(A108="","","/* ") &amp; "`" &amp; C108 &amp; "` " &amp; D108 &amp; IF(E108&gt;0,"(" &amp; E108 &amp; ") "," ") &amp; IF(F108&lt;&gt;"","NOT NULL ","") &amp; IF(G108="","","DEFAULT '" &amp; G108 &amp; "' ") &amp; IF(A108="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J108" s="41" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A109" s="2"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J109" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A111" s="2"/>
-      <c r="B111" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H111" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I111" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-      <c r="J111" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C111 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A112" s="2"/>
-      <c r="B112" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="6" t="s">
+        <f>"," &amp; IF(A108="","","/* ") &amp; "`" &amp; C108 &amp; "` " &amp; D108 &amp; IF(E108&gt;0,"(" &amp; E108 &amp; ") "," ") &amp; IF(F108&lt;&gt;"","NOT NULL ","") &amp; IF(G108="","","DEFAULT '" &amp; G108 &amp; "' ") &amp; IF(A108="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="34"/>
+      <c r="B109" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J112" s="30" t="s">
-        <v>20</v>
+      <c r="E109" s="36"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="40" t="str">
+        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J109" s="41" t="str">
+        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="34"/>
+      <c r="B110" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="36"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="40" t="str">
+        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J110" s="41" t="str">
+        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="34"/>
+      <c r="B111" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="36"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="40" t="str">
+        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J111" s="41" t="str">
+        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="34"/>
+      <c r="B112" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="36"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="40" t="str">
+        <f t="shared" ref="I112" si="26">"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J112" s="41" t="str">
+        <f t="shared" ref="J112" si="27">"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="113" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="34"/>
       <c r="B113" s="39" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E113" s="36">
+        <v>20</v>
+      </c>
       <c r="F113" s="35"/>
       <c r="G113" s="37"/>
       <c r="H113" s="38"/>
       <c r="I113" s="40" t="str">
         <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J113" s="41" t="str">
         <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A114" s="2"/>
-      <c r="B114" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D114" s="6" t="s">
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="34"/>
+      <c r="B114" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="36">
+        <v>20</v>
+      </c>
+      <c r="F114" s="35"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="40" t="str">
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J114" s="41" t="str">
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="34"/>
+      <c r="B115" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="36">
+        <v>256</v>
+      </c>
+      <c r="F115" s="35"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="40" t="str">
+        <f t="shared" ref="I115:I119" si="28">"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J115" s="41" t="str">
+        <f t="shared" ref="J115:J119" si="29">"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="34"/>
+      <c r="B116" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="36">
+        <v>256</v>
+      </c>
+      <c r="F116" s="35"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J116" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="34"/>
+      <c r="B117" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="27" t="str">
-        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J114" s="29" t="str">
-        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A115" s="2"/>
-      <c r="B115" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="27" t="str">
-        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-      <c r="J115" s="29" t="str">
-        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A116" s="2"/>
-      <c r="B116" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="27" t="str">
-        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
-      </c>
-      <c r="J116" s="29" t="str">
-        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A117" s="2"/>
-      <c r="B117" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="27" t="str">
-        <f t="shared" ref="I117:I123" si="24">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-      <c r="J117" s="29" t="str">
-        <f t="shared" ref="J117:J123" si="25">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A118" s="2"/>
-      <c r="B118" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="7">
-        <v>20</v>
-      </c>
-      <c r="F118" s="6"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="27" t="str">
-        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-      <c r="J118" s="29" t="str">
-        <f>"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      <c r="E117" s="36"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J117" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="34"/>
+      <c r="B118" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="36"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="40" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J118" s="41" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="119" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="34"/>
       <c r="B119" s="39" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="36">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E119" s="36"/>
       <c r="F119" s="35"/>
       <c r="G119" s="37"/>
       <c r="H119" s="38"/>
       <c r="I119" s="40" t="str">
-        <f>"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J119" s="41" t="str">
-        <f>"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
     <row r="120" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="34"/>
       <c r="B120" s="39" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="36">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E120" s="36"/>
       <c r="F120" s="35"/>
       <c r="G120" s="37"/>
       <c r="H120" s="38"/>
       <c r="I120" s="40" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J120" s="41" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A121" s="2"/>
-      <c r="B121" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D121" s="6" t="s">
+        <f>"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="34"/>
+      <c r="B121" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D121" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="36">
         <v>256</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="27" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
-      </c>
-      <c r="J121" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      <c r="F121" s="35"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="40" t="str">
+        <f t="shared" ref="I121:I129" si="30">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J121" s="41" t="str">
+        <f t="shared" ref="J121:J129" si="31">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
     </row>
     <row r="122" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="34"/>
       <c r="B122" s="39" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E122" s="36"/>
       <c r="F122" s="35"/>
       <c r="G122" s="37"/>
       <c r="H122" s="38"/>
       <c r="I122" s="40" t="str">
-        <f t="shared" ref="I122" si="26">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J122" s="41" t="str">
-        <f t="shared" ref="J122" si="27">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
-        <v xml:space="preserve">,`language_id` INT </v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A123" s="2"/>
-      <c r="B123" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="27" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-      <c r="J123" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A124" s="2"/>
-      <c r="B124" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="27" t="str">
-        <f t="shared" ref="I124" si="28">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-      <c r="J124" s="29" t="str">
-        <f t="shared" ref="J124" si="29">"," &amp; IF(A124="","","/* ") &amp; "`" &amp; C124 &amp; "` " &amp; D124 &amp; IF(E124&gt;0,"(" &amp; E124 &amp; ") "," ") &amp; IF(F124&lt;&gt;"","NOT NULL ","") &amp; IF(G124="","","DEFAULT '" &amp; G124 &amp; "' ") &amp; IF(A124="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A125" s="2"/>
-      <c r="B125" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="27" t="str">
-        <f>"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
-      </c>
-      <c r="J125" s="29" t="str">
-        <f>"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="34"/>
+      <c r="B123" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="36">
+        <v>256</v>
+      </c>
+      <c r="F123" s="35"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="40" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J123" s="41" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="34"/>
+      <c r="B124" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="36">
+        <v>256</v>
+      </c>
+      <c r="F124" s="35"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="40" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J124" s="41" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="34"/>
+      <c r="B125" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="36"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="40" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J125" s="41" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="126" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126" s="34"/>
-      <c r="B126" s="39" t="s">
-        <v>152</v>
+      <c r="B126" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="D126" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="36">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="37"/>
       <c r="H126" s="38"/>
       <c r="I126" s="40" t="str">
-        <f t="shared" ref="I126" si="30">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J126" s="41" t="str">
-        <f t="shared" ref="J126" si="31">"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A127" s="2"/>
-      <c r="B127" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="27" t="str">
-        <f t="shared" ref="I127:I134" si="32">"," &amp; IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; IF(A127="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J127" s="29" t="str">
-        <f t="shared" ref="J127:J134" si="33">"," &amp; IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; IF(A127="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A128" s="2"/>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="34"/>
+      <c r="B127" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" s="36"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="40" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J127" s="41" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="34"/>
       <c r="B128" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="7">
-        <v>256</v>
-      </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J128" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A129" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="36"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="40" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J128" s="41" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="34"/>
       <c r="B129" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="7">
-        <v>256</v>
-      </c>
-      <c r="F129" s="6"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
-      </c>
-      <c r="J129" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v>47</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="36"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="40" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J129" s="41" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
-      <c r="B130" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-      <c r="J130" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A131" s="2"/>
-      <c r="B131" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="7">
-        <v>64</v>
-      </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-      <c r="J131" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="34"/>
-      <c r="B132" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C132" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D132" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E132" s="36"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="40" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J132" s="41" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A132" s="2"/>
+      <c r="B132" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I132" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C132 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+      <c r="J132" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C132 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
-      <c r="B133" s="43" t="s">
-        <v>46</v>
+      <c r="B133" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E133" s="7"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G133" s="8"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-      <c r="J133" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A134" s="2"/>
-      <c r="B134" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-      <c r="J134" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+      <c r="I133" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="34"/>
+      <c r="B134" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="36">
+        <v>20</v>
+      </c>
+      <c r="F134" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="37"/>
+      <c r="H134" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I134" s="40" t="str">
+        <f t="shared" ref="I134:I147" si="32">"," &amp; IF(A134="","","/* ") &amp; "`" &amp; C134 &amp; "` " &amp; D134 &amp; IF(E134&gt;0,"(" &amp; E134 &amp; ") "," ") &amp; IF(F134&lt;&gt;"","NOT NULL ","") &amp; IF(G134="","","DEFAULT '" &amp; G134 &amp; "' ") &amp; IF(A134="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+      <c r="J134" s="41" t="str">
+        <f t="shared" ref="J134:J147" si="33">"," &amp; IF(A134="","","/* ") &amp; "`" &amp; C134 &amp; "` " &amp; D134 &amp; IF(E134&gt;0,"(" &amp; E134 &amp; ") "," ") &amp; IF(F134&lt;&gt;"","NOT NULL ","") &amp; IF(G134="","","DEFAULT '" &amp; G134 &amp; "' ") &amp; IF(A134="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="21"/>
-      <c r="I135" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J135" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A137" s="2"/>
-      <c r="B137" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C137" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I137" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C137 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
-      <c r="J137" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C137 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A138" s="2"/>
-      <c r="B138" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" s="8"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J138" s="30" t="s">
-        <v>20</v>
+      <c r="B135" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="36">
+        <v>256</v>
+      </c>
+      <c r="F135" s="35"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+      </c>
+      <c r="J135" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="34"/>
+      <c r="B136" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="36">
+        <v>256</v>
+      </c>
+      <c r="F136" s="35"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+      <c r="J136" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="34"/>
+      <c r="B137" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="36"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+      <c r="J137" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="34"/>
+      <c r="B138" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="36">
+        <v>6</v>
+      </c>
+      <c r="F138" s="35"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="40" t="str">
+        <f t="shared" ref="I138" si="34">"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
+      </c>
+      <c r="J138" s="41" t="str">
+        <f t="shared" ref="J138" si="35">"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
       </c>
     </row>
     <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="34"/>
       <c r="B139" s="39" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E139" s="36">
+        <v>20</v>
+      </c>
       <c r="F139" s="35"/>
       <c r="G139" s="37"/>
       <c r="H139" s="38"/>
       <c r="I139" s="40" t="str">
-        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
       <c r="J139" s="41" t="str">
-        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="34"/>
       <c r="B140" s="39" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E140" s="36">
+        <v>20</v>
+      </c>
       <c r="F140" s="35"/>
       <c r="G140" s="37"/>
       <c r="H140" s="38"/>
       <c r="I140" s="40" t="str">
-        <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
       <c r="J140" s="41" t="str">
-        <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="34"/>
       <c r="B141" s="39" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E141" s="36">
+        <v>20</v>
+      </c>
       <c r="F141" s="35"/>
       <c r="G141" s="37"/>
-      <c r="H141" s="38"/>
+      <c r="H141" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="I141" s="40" t="str">
-        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
       <c r="J141" s="41" t="str">
-        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="34"/>
       <c r="B142" s="39" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E142" s="36"/>
       <c r="F142" s="35"/>
       <c r="G142" s="37"/>
       <c r="H142" s="38"/>
       <c r="I142" s="40" t="str">
-        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
       <c r="J142" s="41" t="str">
-        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
     </row>
     <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="34"/>
       <c r="B143" s="39" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D143" s="35" t="s">
         <v>9</v>
@@ -6014,99 +6018,99 @@
       <c r="G143" s="37"/>
       <c r="H143" s="38"/>
       <c r="I143" s="40" t="str">
-        <f t="shared" ref="I143" si="34">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
       <c r="J143" s="41" t="str">
-        <f t="shared" ref="J143" si="35">"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
     </row>
     <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="34"/>
       <c r="B144" s="39" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="D144" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E144" s="36">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="37"/>
       <c r="H144" s="38"/>
       <c r="I144" s="40" t="str">
-        <f>"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
       <c r="J144" s="41" t="str">
-        <f>"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
     </row>
     <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="34"/>
       <c r="B145" s="39" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D145" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E145" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="37"/>
       <c r="H145" s="38"/>
       <c r="I145" s="40" t="str">
-        <f>"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
       <c r="J145" s="41" t="str">
-        <f>"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
     </row>
     <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="34"/>
       <c r="B146" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="D146" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E146" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="37"/>
       <c r="H146" s="38"/>
       <c r="I146" s="40" t="str">
-        <f t="shared" ref="I146:I150" si="36">"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
       <c r="J146" s="41" t="str">
-        <f t="shared" ref="J146:J150" si="37">"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="34"/>
       <c r="B147" s="39" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D147" s="35" t="s">
         <v>7</v>
@@ -6118,21 +6122,21 @@
       <c r="G147" s="37"/>
       <c r="H147" s="38"/>
       <c r="I147" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J147" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="34"/>
       <c r="B148" s="39" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="D148" s="35" t="s">
         <v>5</v>
@@ -6142,24 +6146,24 @@
       <c r="G148" s="37"/>
       <c r="H148" s="38"/>
       <c r="I148" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" ref="I148:I149" si="36">"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
       </c>
       <c r="J148" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" ref="J148:J149" si="37">"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
       </c>
     </row>
     <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="34"/>
       <c r="B149" s="39" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="35"/>
@@ -6167,209 +6171,211 @@
       <c r="H149" s="38"/>
       <c r="I149" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <v xml:space="preserve">,`price` INT </v>
       </c>
       <c r="J149" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="34"/>
-      <c r="B150" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C150" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="36"/>
-      <c r="F150" s="35"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="38"/>
-      <c r="I150" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-      <c r="J150" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="34"/>
-      <c r="B151" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" s="36"/>
-      <c r="F151" s="35"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="38"/>
-      <c r="I151" s="40" t="str">
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A150" s="2"/>
+      <c r="B150" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="7">
+        <v>256</v>
+      </c>
+      <c r="F150" s="6"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="27" t="str">
+        <f>"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+      <c r="J150" s="29" t="str">
+        <f>"," &amp; IF(A150="","","/* ") &amp; "`" &amp; C150 &amp; "` " &amp; D150 &amp; IF(E150&gt;0,"(" &amp; E150 &amp; ") "," ") &amp; IF(F150&lt;&gt;"","NOT NULL ","") &amp; IF(G150="","","DEFAULT '" &amp; G150 &amp; "' ") &amp; IF(A150="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A151" s="2"/>
+      <c r="B151" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="7">
+        <v>128</v>
+      </c>
+      <c r="F151" s="6"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="27" t="str">
         <f>"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
-      </c>
-      <c r="J151" s="41" t="str">
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J151" s="29" t="str">
         <f>"," &amp; IF(A151="","","/* ") &amp; "`" &amp; C151 &amp; "` " &amp; D151 &amp; IF(E151&gt;0,"(" &amp; E151 &amp; ") "," ") &amp; IF(F151&lt;&gt;"","NOT NULL ","") &amp; IF(G151="","","DEFAULT '" &amp; G151 &amp; "' ") &amp; IF(A151="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="34"/>
       <c r="B152" s="39" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="36">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E152" s="36"/>
       <c r="F152" s="35"/>
       <c r="G152" s="37"/>
       <c r="H152" s="38"/>
       <c r="I152" s="40" t="str">
-        <f t="shared" ref="I152:I160" si="38">"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
       </c>
       <c r="J152" s="41" t="str">
-        <f t="shared" ref="J152:J160" si="39">"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
       </c>
     </row>
     <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="34"/>
       <c r="B153" s="39" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E153" s="36"/>
       <c r="F153" s="35"/>
       <c r="G153" s="37"/>
       <c r="H153" s="38"/>
       <c r="I153" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f>"," &amp; IF(A153="","","/* ") &amp; "`" &amp; C153 &amp; "` " &amp; D153 &amp; IF(E153&gt;0,"(" &amp; E153 &amp; ") "," ") &amp; IF(F153&lt;&gt;"","NOT NULL ","") &amp; IF(G153="","","DEFAULT '" &amp; G153 &amp; "' ") &amp; IF(A153="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J153" s="41" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="34"/>
+        <f>"," &amp; IF(A153="","","/* ") &amp; "`" &amp; C153 &amp; "` " &amp; D153 &amp; IF(E153&gt;0,"(" &amp; E153 &amp; ") "," ") &amp; IF(F153&lt;&gt;"","NOT NULL ","") &amp; IF(G153="","","DEFAULT '" &amp; G153 &amp; "' ") &amp; IF(A153="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A154" s="2"/>
       <c r="B154" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C154" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D154" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E154" s="36">
+      <c r="E154" s="7">
         <v>256</v>
       </c>
-      <c r="F154" s="35"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="38"/>
-      <c r="I154" s="40" t="str">
-        <f t="shared" si="38"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="27" t="str">
+        <f t="shared" ref="I154:I160" si="38">"," &amp; IF(A154="","","/* ") &amp; "`" &amp; C154 &amp; "` " &amp; D154 &amp; IF(E154&gt;0,"(" &amp; E154 &amp; ") "," ") &amp; IF(F154&lt;&gt;"","NOT NULL ","") &amp; IF(G154="","","DEFAULT '" &amp; G154 &amp; "' ") &amp; IF(A154="",""," */")</f>
         <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
-      <c r="J154" s="41" t="str">
-        <f t="shared" si="39"/>
+      <c r="J154" s="29" t="str">
+        <f t="shared" ref="J154:J160" si="39">"," &amp; IF(A154="","","/* ") &amp; "`" &amp; C154 &amp; "` " &amp; D154 &amp; IF(E154&gt;0,"(" &amp; E154 &amp; ") "," ") &amp; IF(F154&lt;&gt;"","NOT NULL ","") &amp; IF(G154="","","DEFAULT '" &amp; G154 &amp; "' ") &amp; IF(A154="",""," */")</f>
         <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="34"/>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A155" s="2"/>
       <c r="B155" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C155" s="35" t="s">
+      <c r="C155" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D155" s="35" t="s">
+      <c r="D155" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="36">
+      <c r="E155" s="7">
         <v>256</v>
       </c>
-      <c r="F155" s="35"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="38"/>
-      <c r="I155" s="40" t="str">
+      <c r="F155" s="6"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="27" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
-      <c r="J155" s="41" t="str">
+      <c r="J155" s="29" t="str">
         <f t="shared" si="39"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="34"/>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A156" s="2"/>
       <c r="B156" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C156" s="35" t="s">
+      <c r="C156" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D156" s="35" t="s">
+      <c r="D156" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E156" s="36"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="38"/>
-      <c r="I156" s="40" t="str">
+      <c r="E156" s="7"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="27" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve">,`size` INT </v>
       </c>
-      <c r="J156" s="41" t="str">
+      <c r="J156" s="29" t="str">
         <f t="shared" si="39"/>
         <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A157" s="34"/>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A157" s="2"/>
       <c r="B157" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C157" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D157" s="35" t="s">
+      <c r="C157" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="36">
+      <c r="E157" s="7">
         <v>64</v>
       </c>
-      <c r="F157" s="35"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="38"/>
-      <c r="I157" s="40" t="str">
+      <c r="F157" s="6"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="27" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-      <c r="J157" s="41" t="str">
+      <c r="J157" s="29" t="str">
         <f t="shared" si="39"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
@@ -6462,9 +6468,12 @@
         <v>33</v>
       </c>
     </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A162" s="2"/>
+    </row>
     <row r="163" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A163" s="34"/>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="45" t="s">
         <v>179</v>
       </c>
       <c r="C163" s="24" t="s">
@@ -6756,7 +6765,7 @@
       <c r="J175" s="25"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="45" t="s">
         <v>187</v>
       </c>
       <c r="C176" s="24" t="s">
@@ -7259,7 +7268,7 @@
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7 A42:A43 A135:A136 A80:A82 A124:A125 A13:A14 A84:A85 A99:A100 A31:A33 A35 A109:A112 A118:A119 A87:A95">
+  <conditionalFormatting sqref="A5:A7 A42:A43 A104:A105 A132:A134 A93:A94 A13:A14 A136:A137 A151:A152 A31:A33 A35 A87:A88 A139:A147 A80:A81 A161:A162">
     <cfRule type="cellIs" dxfId="89" priority="210" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7284,17 +7293,17 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A105">
+  <conditionalFormatting sqref="A154:A157">
     <cfRule type="cellIs" dxfId="84" priority="201" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
+  <conditionalFormatting sqref="A96">
     <cfRule type="cellIs" dxfId="83" priority="200" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A150">
     <cfRule type="cellIs" dxfId="82" priority="194" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7339,32 +7348,32 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
+  <conditionalFormatting sqref="A92">
     <cfRule type="cellIs" dxfId="73" priority="179" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+  <conditionalFormatting sqref="A90">
     <cfRule type="cellIs" dxfId="72" priority="178" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A131">
+  <conditionalFormatting sqref="A97:A100">
     <cfRule type="cellIs" dxfId="71" priority="177" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A133:A134">
+  <conditionalFormatting sqref="A102:A103">
     <cfRule type="cellIs" dxfId="70" priority="176" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A161 A137">
+  <conditionalFormatting sqref="A130 A106">
     <cfRule type="cellIs" dxfId="69" priority="175" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
+  <conditionalFormatting sqref="A86">
     <cfRule type="cellIs" dxfId="68" priority="169" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7374,17 +7383,17 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="cellIs" dxfId="66" priority="160" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="66" priority="160" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
     <cfRule type="cellIs" dxfId="65" priority="159" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+  <conditionalFormatting sqref="A84">
     <cfRule type="cellIs" dxfId="64" priority="158" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7404,12 +7413,12 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
+  <conditionalFormatting sqref="A85">
     <cfRule type="cellIs" dxfId="60" priority="142" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
+  <conditionalFormatting sqref="A107">
     <cfRule type="cellIs" dxfId="59" priority="131" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7424,12 +7433,12 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
+  <conditionalFormatting sqref="A149">
     <cfRule type="cellIs" dxfId="56" priority="119" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="A148">
     <cfRule type="cellIs" dxfId="55" priority="118" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7439,97 +7448,97 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
+  <conditionalFormatting sqref="A89">
     <cfRule type="cellIs" dxfId="53" priority="116" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="cellIs" dxfId="52" priority="115" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="cellIs" dxfId="51" priority="114" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="50" priority="99" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="cellIs" dxfId="49" priority="69" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:A120 A113:A114">
+    <cfRule type="cellIs" dxfId="48" priority="82" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="cellIs" dxfId="52" priority="115" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="cellIs" dxfId="51" priority="114" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="50" priority="99" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="cellIs" dxfId="49" priority="69" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:A151 A144:A145">
-    <cfRule type="cellIs" dxfId="48" priority="82" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
     <cfRule type="cellIs" dxfId="47" priority="81" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" dxfId="46" priority="80" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147">
+  <conditionalFormatting sqref="A116">
     <cfRule type="cellIs" dxfId="45" priority="79" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A154:A157">
+  <conditionalFormatting sqref="A123:A126">
     <cfRule type="cellIs" dxfId="44" priority="78" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A159:A160">
+  <conditionalFormatting sqref="A128:A129">
     <cfRule type="cellIs" dxfId="43" priority="77" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A143">
+  <conditionalFormatting sqref="A112">
     <cfRule type="cellIs" dxfId="42" priority="76" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
+  <conditionalFormatting sqref="A109">
     <cfRule type="cellIs" dxfId="41" priority="75" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
+  <conditionalFormatting sqref="A110">
     <cfRule type="cellIs" dxfId="40" priority="74" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
+  <conditionalFormatting sqref="A111">
     <cfRule type="cellIs" dxfId="39" priority="73" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
+  <conditionalFormatting sqref="A115">
     <cfRule type="cellIs" dxfId="38" priority="72" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A148">
+  <conditionalFormatting sqref="A117">
     <cfRule type="cellIs" dxfId="37" priority="71" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A152">
+  <conditionalFormatting sqref="A121">
     <cfRule type="cellIs" dxfId="36" priority="70" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A158">
     <cfRule type="cellIs" dxfId="35" priority="50" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7569,7 +7578,7 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:A108">
+  <conditionalFormatting sqref="A159:A160">
     <cfRule type="cellIs" dxfId="27" priority="56" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7599,12 +7608,12 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A158">
+  <conditionalFormatting sqref="A127">
     <cfRule type="cellIs" dxfId="21" priority="48" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
+  <conditionalFormatting sqref="A101">
     <cfRule type="cellIs" dxfId="20" priority="49" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7619,7 +7628,7 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A153">
     <cfRule type="cellIs" dxfId="17" priority="26" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7634,7 +7643,7 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
+  <conditionalFormatting sqref="A138">
     <cfRule type="cellIs" dxfId="14" priority="23" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -7710,7 +7719,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D65:D77 D45:D61 D138:D160 D112:D134 D22:D23 D27:D28 D32:D41 D81:D108 D164:D173 D177:D195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D65:D77 D45:D61 D107:D129 D81:D103 D22:D23 D27:D28 D32:D41 D133:D160 D164:D173 D177:D195">
       <formula1>TYPE</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -1,6 +1,29 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="8610"/>
+  </bookViews>
+  <sheets>
+    <sheet name="generator" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <definedNames>
+    <definedName name="TYPE">Data!$A$1:$A$11</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="223">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -1160,5 +1183,7546 @@
     <t>appform_id</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>プロダクト名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>division</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="13">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="4">
+    <cellStyle name="20% - アクセント 3" xfId="3" builtinId="38"/>
+    <cellStyle name="アクセント 1" xfId="2" builtinId="29"/>
+    <cellStyle name="メモ" xfId="1" builtinId="10"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="meieg">
+      <a:majorFont>
+        <a:latin typeface="Segoe UI Black"/>
+        <a:ea typeface="メイリオ"/>
+        <a:cs typeface=""/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Segoe UI"/>
+        <a:ea typeface="メイリオ"/>
+        <a:cs typeface=""/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J222"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="4.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.33203125" style="25" customWidth="1"/>
+    <col min="11" max="13" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="str">
+        <f>"CREATE DATABASE `" &amp; C1 &amp; "` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;"</f>
+        <v>CREATE DATABASE `cake3_myapp` DEFAULT CHARACTER SET utf8 COLLATE utf8_general_ci;</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C5 &amp; "` ("</f>
+        <v>CREATE TABLE `users` (</v>
+      </c>
+      <c r="J5" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C5 &amp; "` ("</f>
+        <v>CREATE TABLE `users` (</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7">
+        <v>64</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="27" t="str">
+        <f>"," &amp; IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; IF(A7="",""," */")</f>
+        <v xml:space="preserve">,`username` VARCHAR(64) </v>
+      </c>
+      <c r="J7" s="29" t="str">
+        <f>"," &amp; IF(A7="","","/* ") &amp; "`" &amp; C7 &amp; "` " &amp; D7 &amp; IF(E7&gt;0,"(" &amp; E7 &amp; ") "," ") &amp; IF(F7&lt;&gt;"","NOT NULL ","") &amp; IF(G7="","","DEFAULT '" &amp; G7 &amp; "' ") &amp; IF(A7="",""," */")</f>
+        <v xml:space="preserve">,`username` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>64</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="27" t="str">
+        <f>"," &amp; IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; IF(A8="",""," */")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
+      </c>
+      <c r="J8" s="29" t="str">
+        <f>"," &amp; IF(A8="","","/* ") &amp; "`" &amp; C8 &amp; "` " &amp; D8 &amp; IF(E8&gt;0,"(" &amp; E8 &amp; ") "," ") &amp; IF(F8&lt;&gt;"","NOT NULL ","") &amp; IF(G8="","","DEFAULT '" &amp; G8 &amp; "' ") &amp; IF(A8="",""," */")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>255</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="27" t="str">
+        <f t="shared" ref="I9:I12" si="0">"," &amp; IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; IF(A9="",""," */")</f>
+        <v xml:space="preserve">,`password` VARCHAR(255) </v>
+      </c>
+      <c r="J9" s="29" t="str">
+        <f t="shared" ref="J9:J12" si="1">"," &amp; IF(A9="","","/* ") &amp; "`" &amp; C9 &amp; "` " &amp; D9 &amp; IF(E9&gt;0,"(" &amp; E9 &amp; ") "," ") &amp; IF(F9&lt;&gt;"","NOT NULL ","") &amp; IF(G9="","","DEFAULT '" &amp; G9 &amp; "' ") &amp; IF(A9="",""," */")</f>
+        <v xml:space="preserve">,`password` VARCHAR(255) </v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>255</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="27" t="str">
+        <f>"," &amp; IF(A10="","","/* ") &amp; "`" &amp; C10 &amp; "` " &amp; D10 &amp; IF(E10&gt;0,"(" &amp; E10 &amp; ") "," ") &amp; IF(F10&lt;&gt;"","NOT NULL ","") &amp; IF(G10="","","DEFAULT '" &amp; G10 &amp; "' ") &amp; IF(A10="",""," */")</f>
+        <v xml:space="preserve">,`email` VARCHAR(255) </v>
+      </c>
+      <c r="J10" s="29" t="str">
+        <f>"," &amp; IF(A10="","","/* ") &amp; "`" &amp; C10 &amp; "` " &amp; D10 &amp; IF(E10&gt;0,"(" &amp; E10 &amp; ") "," ") &amp; IF(F10&lt;&gt;"","NOT NULL ","") &amp; IF(G10="","","DEFAULT '" &amp; G10 &amp; "' ") &amp; IF(A10="",""," */")</f>
+        <v xml:space="preserve">,`email` VARCHAR(255) </v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J11" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J12" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
+        <v>CREATE TABLE `statuses` (</v>
+      </c>
+      <c r="J15" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C15 &amp; "` ("</f>
+        <v>CREATE TABLE `statuses` (</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7">
+        <v>64</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="27" t="str">
+        <f>"," &amp; IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; IF(A17="",""," */")</f>
+        <v xml:space="preserve">,`code` VARCHAR(64) </v>
+      </c>
+      <c r="J17" s="29" t="str">
+        <f>"," &amp; IF(A17="","","/* ") &amp; "`" &amp; C17 &amp; "` " &amp; D17 &amp; IF(E17&gt;0,"(" &amp; E17 &amp; ") "," ") &amp; IF(F17&lt;&gt;"","NOT NULL ","") &amp; IF(G17="","","DEFAULT '" &amp; G17 &amp; "' ") &amp; IF(A17="",""," */")</f>
+        <v xml:space="preserve">,`code` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7">
+        <v>64</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="27" t="str">
+        <f>"," &amp; IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; IF(A18="",""," */")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
+      </c>
+      <c r="J18" s="29" t="str">
+        <f>"," &amp; IF(A18="","","/* ") &amp; "`" &amp; C18 &amp; "` " &amp; D18 &amp; IF(E18&gt;0,"(" &amp; E18 &amp; ") "," ") &amp; IF(F18&lt;&gt;"","NOT NULL ","") &amp; IF(G18="","","DEFAULT '" &amp; G18 &amp; "' ") &amp; IF(A18="",""," */")</f>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="34"/>
+      <c r="B21" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C21 &amp; "` ("</f>
+        <v>CREATE TABLE `contractnames` (</v>
+      </c>
+      <c r="J21" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C21 &amp; "` ("</f>
+        <v>CREATE TABLE `contractnames` (</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="34"/>
+      <c r="B22" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="34"/>
+      <c r="B23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="36">
+        <v>256</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40" t="str">
+        <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
+        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
+      </c>
+      <c r="J23" s="41" t="str">
+        <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
+        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="34"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="34"/>
+      <c r="B26" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
+        <v>CREATE TABLE `languages` (</v>
+      </c>
+      <c r="J26" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
+        <v>CREATE TABLE `languages` (</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="34"/>
+      <c r="B27" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="34"/>
+      <c r="B28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="36">
+        <v>256</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="40" t="str">
+        <f>"," &amp; IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; IF(A28="",""," */")</f>
+        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
+      </c>
+      <c r="J28" s="41" t="str">
+        <f>"," &amp; IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; IF(A28="",""," */")</f>
+        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="34"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="34"/>
+      <c r="B31" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
+        <v>CREATE TABLE `appforms` (</v>
+      </c>
+      <c r="J31" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
+        <v>CREATE TABLE `appforms` (</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="34"/>
+      <c r="B32" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="34"/>
+      <c r="B33" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="36">
+        <v>256</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="40" t="str">
+        <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
+        <v xml:space="preserve">,`form_name` VARCHAR(256) </v>
+      </c>
+      <c r="J33" s="41" t="str">
+        <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
+        <v xml:space="preserve">,`form_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="34"/>
+      <c r="B34" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="36">
+        <v>256</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="40" t="str">
+        <f t="shared" ref="I34:I35" si="2">"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J34" s="41" t="str">
+        <f t="shared" ref="J34:J35" si="3">"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="34"/>
+      <c r="B35" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="36">
+        <v>256</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J35" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="34"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="3"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C38 &amp; "` ("</f>
+        <v>CREATE TABLE `clients` (</v>
+      </c>
+      <c r="J38" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C38 &amp; "` ("</f>
+        <v>CREATE TABLE `clients` (</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="2"/>
+      <c r="B39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="2"/>
+      <c r="B40" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="7">
+        <v>128</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="27" t="str">
+        <f>"," &amp; IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; IF(A40="",""," */")</f>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
+      </c>
+      <c r="J40" s="29" t="str">
+        <f>"," &amp; IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; IF(A40="",""," */")</f>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="34"/>
+      <c r="B41" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="36">
+        <v>20</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="40" t="str">
+        <f>"," &amp; IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; IF(A41="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+      <c r="J41" s="41" t="str">
+        <f>"," &amp; IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; IF(A41="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="34"/>
+      <c r="B42" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="36">
+        <v>4</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="40" t="str">
+        <f>"," &amp; IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; IF(A42="",""," */")</f>
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+      <c r="J42" s="41" t="str">
+        <f>"," &amp; IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; IF(A42="",""," */")</f>
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="34"/>
+      <c r="B43" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="37">
+        <v>0</v>
+      </c>
+      <c r="H43" s="38"/>
+      <c r="I43" s="40" t="str">
+        <f>"," &amp; IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; IF(A43="",""," */")</f>
+        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
+      </c>
+      <c r="J43" s="41" t="str">
+        <f>"," &amp; IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; IF(A43="",""," */")</f>
+        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="34"/>
+      <c r="B44" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="40" t="str">
+        <f>"," &amp; IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; IF(A44="",""," */")</f>
+        <v xml:space="preserve">,`partner_id` INT </v>
+      </c>
+      <c r="J44" s="41" t="str">
+        <f>"," &amp; IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; IF(A44="",""," */")</f>
+        <v xml:space="preserve">,`partner_id` INT </v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="27" t="str">
+        <f t="shared" ref="I45:I48" si="4">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J45" s="29" t="str">
+        <f t="shared" ref="J45:J48" si="5">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="34"/>
+      <c r="B46" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J46" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="34"/>
+      <c r="B47" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="36"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J47" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="34"/>
+      <c r="B48" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J48" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C51 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
+      </c>
+      <c r="J51" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C51 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="27" t="str">
+        <f t="shared" ref="I53:I60" si="6">"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+      <c r="J53" s="29" t="str">
+        <f t="shared" ref="J53:J60" si="7">"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7">
+        <v>128</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+      </c>
+      <c r="J54" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="34"/>
+      <c r="B55" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="36">
+        <v>256</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="37"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="40" t="str">
+        <f t="shared" ref="I55" si="8">"," &amp; IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; IF(A55="",""," */")</f>
+        <v xml:space="preserve">,`division` VARCHAR(256) NOT NULL </v>
+      </c>
+      <c r="J55" s="41" t="str">
+        <f t="shared" ref="J55" si="9">"," &amp; IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; IF(A55="",""," */")</f>
+        <v xml:space="preserve">,`division` VARCHAR(256) NOT NULL </v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="34"/>
+      <c r="B56" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="36">
+        <v>512</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+      <c r="J56" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="34"/>
+      <c r="B57" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="36">
+        <v>4</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      </c>
+      <c r="J57" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="7">
+        <v>256</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+      <c r="J58" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="B59" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="7">
+        <v>128</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J59" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" s="2"/>
+      <c r="B60" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="27" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J60" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="7">
+        <v>128</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="27" t="str">
+        <f t="shared" ref="I61:I63" si="10">"," &amp; IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; IF(A61="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+      </c>
+      <c r="J61" s="29" t="str">
+        <f t="shared" ref="J61:J63" si="11">"," &amp; IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; IF(A61="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="7">
+        <v>256</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="27" t="str">
+        <f>"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+      <c r="J62" s="29" t="str">
+        <f>"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="B63" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="7">
+        <v>256</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+      <c r="J63" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+      <c r="B64" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="7">
+        <v>128</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="27" t="str">
+        <f t="shared" ref="I64:I69" si="12">"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+      </c>
+      <c r="J64" s="29" t="str">
+        <f t="shared" ref="J64:J69" si="13">"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="2"/>
+      <c r="B65" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="7">
+        <v>256</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="27" t="str">
+        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+      <c r="J65" s="29" t="str">
+        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="2"/>
+      <c r="B66" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="7">
+        <v>256</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="27" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
+      </c>
+      <c r="J66" s="29" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="34"/>
+      <c r="B67" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="40" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J67" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="34"/>
+      <c r="B68" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="40" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J68" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="34"/>
+      <c r="B69" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="40" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J69" s="41" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="2"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="34"/>
+      <c r="B72" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
+      </c>
+      <c r="J72" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="34"/>
+      <c r="B73" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="34"/>
+      <c r="B74" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="37"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="40" t="str">
+        <f t="shared" ref="I74:I82" si="14">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+      <c r="J74" s="41" t="str">
+        <f t="shared" ref="J74:J82" si="15">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="34"/>
+      <c r="B75" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="40" t="str">
+        <f>"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J75" s="41" t="str">
+        <f>"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="34"/>
+      <c r="B76" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="36"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="40" t="str">
+        <f t="shared" ref="I76" si="16">"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
+      </c>
+      <c r="J76" s="41" t="str">
+        <f t="shared" ref="J76" si="17">"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="34"/>
+      <c r="B77" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`contractname_id` INT </v>
+      </c>
+      <c r="J77" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`contractname_id` INT </v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="34"/>
+      <c r="B78" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J78" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="34"/>
+      <c r="B79" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="36">
+        <v>256</v>
+      </c>
+      <c r="F79" s="35"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J79" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="34"/>
+      <c r="B80" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="36">
+        <v>256</v>
+      </c>
+      <c r="F80" s="35"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J80" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="34"/>
+      <c r="B81" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="36"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J81" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="34"/>
+      <c r="B82" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="36">
+        <v>64</v>
+      </c>
+      <c r="F82" s="35"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J82" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="34"/>
+      <c r="B83" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="36"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="40" t="str">
+        <f t="shared" ref="I83:I85" si="18">"," &amp; IF(A83="","","/* ") &amp; "`" &amp; C83 &amp; "` " &amp; D83 &amp; IF(E83&gt;0,"(" &amp; E83 &amp; ") "," ") &amp; IF(F83&lt;&gt;"","NOT NULL ","") &amp; IF(G83="","","DEFAULT '" &amp; G83 &amp; "' ") &amp; IF(A83="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J83" s="41" t="str">
+        <f t="shared" ref="J83:J85" si="19">"," &amp; IF(A83="","","/* ") &amp; "`" &amp; C83 &amp; "` " &amp; D83 &amp; IF(E83&gt;0,"(" &amp; E83 &amp; ") "," ") &amp; IF(F83&lt;&gt;"","NOT NULL ","") &amp; IF(G83="","","DEFAULT '" &amp; G83 &amp; "' ") &amp; IF(A83="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="34"/>
+      <c r="B84" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="36"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="40" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J84" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="34"/>
+      <c r="B85" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="36"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="40" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J85" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="34"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="G87" s="3"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+    </row>
+    <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="34"/>
+      <c r="B88" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I88" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C88 &amp; "` ("</f>
+        <v>CREATE TABLE `requests` (</v>
+      </c>
+      <c r="J88" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C88 &amp; "` ("</f>
+        <v>CREATE TABLE `requests` (</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="34"/>
+      <c r="B89" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="36"/>
+      <c r="F89" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="37"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="34"/>
+      <c r="B90" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="36"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="40" t="str">
+        <f>"," &amp; IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; IF(A90="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J90" s="41" t="str">
+        <f>"," &amp; IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; IF(A90="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="34"/>
+      <c r="B91" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="36"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="40" t="str">
+        <f>"," &amp; IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; IF(A91="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J91" s="41" t="str">
+        <f>"," &amp; IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; IF(A91="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="34"/>
+      <c r="B92" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="36"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="40" t="str">
+        <f>"," &amp; IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; IF(A92="",""," */")</f>
+        <v xml:space="preserve">,`appform_id` INT </v>
+      </c>
+      <c r="J92" s="41" t="str">
+        <f>"," &amp; IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; IF(A92="",""," */")</f>
+        <v xml:space="preserve">,`appform_id` INT </v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="34"/>
+      <c r="B93" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="36"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="40" t="str">
+        <f>"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J93" s="41" t="str">
+        <f>"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="34"/>
+      <c r="B94" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="36">
+        <v>256</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="40" t="str">
+        <f t="shared" ref="I94:I98" si="20">"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J94" s="41" t="str">
+        <f t="shared" ref="J94:J98" si="21">"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="34"/>
+      <c r="B95" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="36">
+        <v>256</v>
+      </c>
+      <c r="F95" s="35"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J95" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="34"/>
+      <c r="B96" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="36"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J96" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="34"/>
+      <c r="B97" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J97" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="34"/>
+      <c r="B98" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="36"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_date` DATE </v>
+      </c>
+      <c r="J98" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_date` DATE </v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="34"/>
+      <c r="B99" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="36"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="40" t="str">
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`startsupp_date` DATE </v>
+      </c>
+      <c r="J99" s="41" t="str">
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`startsupp_date` DATE </v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="34"/>
+      <c r="B100" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="40" t="str">
+        <f t="shared" ref="I100:I103" si="22">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J100" s="41" t="str">
+        <f t="shared" ref="J100:J103" si="23">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="34"/>
+      <c r="B101" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E101" s="36"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J101" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="34"/>
+      <c r="B102" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J102" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="34"/>
+      <c r="B103" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="36"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J103" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="34"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="G105" s="3"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A106" s="2"/>
+      <c r="B106" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C106 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+      <c r="J106" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C106 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A107" s="2"/>
+      <c r="B107" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="34"/>
+      <c r="B108" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="40" t="str">
+        <f>"," &amp; IF(A108="","","/* ") &amp; "`" &amp; C108 &amp; "` " &amp; D108 &amp; IF(E108&gt;0,"(" &amp; E108 &amp; ") "," ") &amp; IF(F108&lt;&gt;"","NOT NULL ","") &amp; IF(G108="","","DEFAULT '" &amp; G108 &amp; "' ") &amp; IF(A108="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J108" s="41" t="str">
+        <f>"," &amp; IF(A108="","","/* ") &amp; "`" &amp; C108 &amp; "` " &amp; D108 &amp; IF(E108&gt;0,"(" &amp; E108 &amp; ") "," ") &amp; IF(F108&lt;&gt;"","NOT NULL ","") &amp; IF(G108="","","DEFAULT '" &amp; G108 &amp; "' ") &amp; IF(A108="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A109" s="2"/>
+      <c r="B109" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="27" t="str">
+        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J109" s="29" t="str">
+        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A110" s="2"/>
+      <c r="B110" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="27" t="str">
+        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J110" s="29" t="str">
+        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A111" s="2"/>
+      <c r="B111" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="27" t="str">
+        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J111" s="29" t="str">
+        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A112" s="2"/>
+      <c r="B112" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="27" t="str">
+        <f t="shared" ref="I112:I118" si="24">"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J112" s="29" t="str">
+        <f t="shared" ref="J112:J118" si="25">"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A113" s="2"/>
+      <c r="B113" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="7">
+        <v>20</v>
+      </c>
+      <c r="F113" s="6"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="27" t="str">
+        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J113" s="29" t="str">
+        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="34"/>
+      <c r="B114" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="36">
+        <v>20</v>
+      </c>
+      <c r="F114" s="35"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="40" t="str">
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J114" s="41" t="str">
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="34"/>
+      <c r="B115" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="36">
+        <v>256</v>
+      </c>
+      <c r="F115" s="35"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="40" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J115" s="41" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A116" s="2"/>
+      <c r="B116" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="7">
+        <v>256</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="27" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J116" s="29" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="34"/>
+      <c r="B117" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="36"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="40" t="str">
+        <f t="shared" ref="I117" si="26">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J117" s="41" t="str">
+        <f t="shared" ref="J117" si="27">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" s="2"/>
+      <c r="B118" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="27" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J118" s="29" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A119" s="2"/>
+      <c r="B119" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="27" t="str">
+        <f t="shared" ref="I119" si="28">"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J119" s="29" t="str">
+        <f t="shared" ref="J119" si="29">"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A120" s="2"/>
+      <c r="B120" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="27" t="str">
+        <f>"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J120" s="29" t="str">
+        <f>"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="34"/>
+      <c r="B121" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="36">
+        <v>256</v>
+      </c>
+      <c r="F121" s="35"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="40" t="str">
+        <f t="shared" ref="I121" si="30">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J121" s="41" t="str">
+        <f t="shared" ref="J121" si="31">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A122" s="2"/>
+      <c r="B122" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="27" t="str">
+        <f t="shared" ref="I122:I129" si="32">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J122" s="29" t="str">
+        <f t="shared" ref="J122:J129" si="33">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A123" s="2"/>
+      <c r="B123" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="7">
+        <v>256</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J123" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A124" s="2"/>
+      <c r="B124" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="7">
+        <v>256</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J124" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A125" s="2"/>
+      <c r="B125" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J125" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A126" s="2"/>
+      <c r="B126" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="7">
+        <v>64</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J126" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="34"/>
+      <c r="B127" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" s="36"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J127" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A128" s="2"/>
+      <c r="B128" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J128" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A129" s="2"/>
+      <c r="B129" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J129" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A130" s="2"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A132" s="2"/>
+      <c r="B132" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I132" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C132 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J132" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C132 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A133" s="2"/>
+      <c r="B133" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="8"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="34"/>
+      <c r="B134" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="36"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="40" t="str">
+        <f>"," &amp; IF(A134="","","/* ") &amp; "`" &amp; C134 &amp; "` " &amp; D134 &amp; IF(E134&gt;0,"(" &amp; E134 &amp; ") "," ") &amp; IF(F134&lt;&gt;"","NOT NULL ","") &amp; IF(G134="","","DEFAULT '" &amp; G134 &amp; "' ") &amp; IF(A134="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J134" s="41" t="str">
+        <f>"," &amp; IF(A134="","","/* ") &amp; "`" &amp; C134 &amp; "` " &amp; D134 &amp; IF(E134&gt;0,"(" &amp; E134 &amp; ") "," ") &amp; IF(F134&lt;&gt;"","NOT NULL ","") &amp; IF(G134="","","DEFAULT '" &amp; G134 &amp; "' ") &amp; IF(A134="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="34"/>
+      <c r="B135" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="36"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="40" t="str">
+        <f>"," &amp; IF(A135="","","/* ") &amp; "`" &amp; C135 &amp; "` " &amp; D135 &amp; IF(E135&gt;0,"(" &amp; E135 &amp; ") "," ") &amp; IF(F135&lt;&gt;"","NOT NULL ","") &amp; IF(G135="","","DEFAULT '" &amp; G135 &amp; "' ") &amp; IF(A135="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J135" s="41" t="str">
+        <f>"," &amp; IF(A135="","","/* ") &amp; "`" &amp; C135 &amp; "` " &amp; D135 &amp; IF(E135&gt;0,"(" &amp; E135 &amp; ") "," ") &amp; IF(F135&lt;&gt;"","NOT NULL ","") &amp; IF(G135="","","DEFAULT '" &amp; G135 &amp; "' ") &amp; IF(A135="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="34"/>
+      <c r="B136" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="36"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="40" t="str">
+        <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J136" s="41" t="str">
+        <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="34"/>
+      <c r="B137" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="36"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="40" t="str">
+        <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J137" s="41" t="str">
+        <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="34"/>
+      <c r="B138" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="36"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="40" t="str">
+        <f t="shared" ref="I138" si="34">"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J138" s="41" t="str">
+        <f t="shared" ref="J138" si="35">"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="34"/>
+      <c r="B139" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="36">
+        <v>20</v>
+      </c>
+      <c r="F139" s="35"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="40" t="str">
+        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J139" s="41" t="str">
+        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="34"/>
+      <c r="B140" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="36">
+        <v>20</v>
+      </c>
+      <c r="F140" s="35"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="40" t="str">
+        <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J140" s="41" t="str">
+        <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="34"/>
+      <c r="B141" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D141" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="36">
+        <v>256</v>
+      </c>
+      <c r="F141" s="35"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="40" t="str">
+        <f t="shared" ref="I141:I145" si="36">"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J141" s="41" t="str">
+        <f t="shared" ref="J141:J145" si="37">"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="34"/>
+      <c r="B142" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="36">
+        <v>256</v>
+      </c>
+      <c r="F142" s="35"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="40" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J142" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="34"/>
+      <c r="B143" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="36"/>
+      <c r="F143" s="35"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="40" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J143" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="34"/>
+      <c r="B144" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="36"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="40" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+      <c r="J144" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="34"/>
+      <c r="B145" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="36"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="40" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J145" s="41" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="34"/>
+      <c r="B146" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="36"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="40" t="str">
+        <f>"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J146" s="41" t="str">
+        <f>"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="34"/>
+      <c r="B147" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="36">
+        <v>256</v>
+      </c>
+      <c r="F147" s="35"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="40" t="str">
+        <f t="shared" ref="I147:I155" si="38">"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J147" s="41" t="str">
+        <f t="shared" ref="J147:J155" si="39">"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="34"/>
+      <c r="B148" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="36"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J148" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="34"/>
+      <c r="B149" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="36">
+        <v>256</v>
+      </c>
+      <c r="F149" s="35"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J149" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="34"/>
+      <c r="B150" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="36">
+        <v>256</v>
+      </c>
+      <c r="F150" s="35"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J150" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="34"/>
+      <c r="B151" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="36"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J151" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="34"/>
+      <c r="B152" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="36">
+        <v>64</v>
+      </c>
+      <c r="F152" s="35"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J152" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="34"/>
+      <c r="B153" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E153" s="36"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J153" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="34"/>
+      <c r="B154" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="36"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J154" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="34"/>
+      <c r="B155" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="36"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J155" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A156" s="2"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J156" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A158" s="2"/>
+      <c r="B158" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C158" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I158" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C158 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+      <c r="J158" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C158 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A159" s="2"/>
+      <c r="B159" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="8"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="34"/>
+      <c r="B160" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="36">
+        <v>20</v>
+      </c>
+      <c r="F160" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="37"/>
+      <c r="H160" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I160" s="40" t="str">
+        <f t="shared" ref="I160:I173" si="40">"," &amp; IF(A160="","","/* ") &amp; "`" &amp; C160 &amp; "` " &amp; D160 &amp; IF(E160&gt;0,"(" &amp; E160 &amp; ") "," ") &amp; IF(F160&lt;&gt;"","NOT NULL ","") &amp; IF(G160="","","DEFAULT '" &amp; G160 &amp; "' ") &amp; IF(A160="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+      <c r="J160" s="41" t="str">
+        <f t="shared" ref="J160:J173" si="41">"," &amp; IF(A160="","","/* ") &amp; "`" &amp; C160 &amp; "` " &amp; D160 &amp; IF(E160&gt;0,"(" &amp; E160 &amp; ") "," ") &amp; IF(F160&lt;&gt;"","NOT NULL ","") &amp; IF(G160="","","DEFAULT '" &amp; G160 &amp; "' ") &amp; IF(A160="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A161" s="2"/>
+      <c r="B161" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D161" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="36">
+        <v>256</v>
+      </c>
+      <c r="F161" s="35"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="38"/>
+      <c r="I161" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+      </c>
+      <c r="J161" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="34"/>
+      <c r="B162" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D162" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="36">
+        <v>256</v>
+      </c>
+      <c r="F162" s="35"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="38"/>
+      <c r="I162" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+      <c r="J162" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="34"/>
+      <c r="B163" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D163" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="36"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="37"/>
+      <c r="H163" s="38"/>
+      <c r="I163" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+      <c r="J163" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A164" s="34"/>
+      <c r="B164" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D164" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="36">
+        <v>6</v>
+      </c>
+      <c r="F164" s="35"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="40" t="str">
+        <f t="shared" ref="I164" si="42">"," &amp; IF(A164="","","/* ") &amp; "`" &amp; C164 &amp; "` " &amp; D164 &amp; IF(E164&gt;0,"(" &amp; E164 &amp; ") "," ") &amp; IF(F164&lt;&gt;"","NOT NULL ","") &amp; IF(G164="","","DEFAULT '" &amp; G164 &amp; "' ") &amp; IF(A164="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
+      </c>
+      <c r="J164" s="41" t="str">
+        <f t="shared" ref="J164" si="43">"," &amp; IF(A164="","","/* ") &amp; "`" &amp; C164 &amp; "` " &amp; D164 &amp; IF(E164&gt;0,"(" &amp; E164 &amp; ") "," ") &amp; IF(F164&lt;&gt;"","NOT NULL ","") &amp; IF(G164="","","DEFAULT '" &amp; G164 &amp; "' ") &amp; IF(A164="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="34"/>
+      <c r="B165" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D165" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="36">
+        <v>20</v>
+      </c>
+      <c r="F165" s="35"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+      </c>
+      <c r="J165" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A166" s="34"/>
+      <c r="B166" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D166" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="36">
+        <v>20</v>
+      </c>
+      <c r="F166" s="35"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+      </c>
+      <c r="J166" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A167" s="34"/>
+      <c r="B167" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="36">
+        <v>20</v>
+      </c>
+      <c r="F167" s="35"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I167" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+      </c>
+      <c r="J167" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A168" s="34"/>
+      <c r="B168" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D168" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="36"/>
+      <c r="F168" s="35"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
+      </c>
+      <c r="J168" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A169" s="34"/>
+      <c r="B169" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C169" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D169" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="36"/>
+      <c r="F169" s="35"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
+      </c>
+      <c r="J169" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A170" s="34"/>
+      <c r="B170" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C170" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="36">
+        <v>64</v>
+      </c>
+      <c r="F170" s="35"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="38"/>
+      <c r="I170" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+      <c r="J170" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A171" s="34"/>
+      <c r="B171" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="36">
+        <v>256</v>
+      </c>
+      <c r="F171" s="35"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="38"/>
+      <c r="I171" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+      <c r="J171" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A172" s="34"/>
+      <c r="B172" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D172" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="36">
+        <v>20</v>
+      </c>
+      <c r="F172" s="35"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="38"/>
+      <c r="I172" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+      <c r="J172" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A173" s="34"/>
+      <c r="B173" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D173" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="36">
+        <v>256</v>
+      </c>
+      <c r="F173" s="35"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="38"/>
+      <c r="I173" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J173" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A174" s="34"/>
+      <c r="B174" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D174" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="36"/>
+      <c r="F174" s="35"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="38"/>
+      <c r="I174" s="40" t="str">
+        <f t="shared" ref="I174:I175" si="44">"," &amp; IF(A174="","","/* ") &amp; "`" &amp; C174 &amp; "` " &amp; D174 &amp; IF(E174&gt;0,"(" &amp; E174 &amp; ") "," ") &amp; IF(F174&lt;&gt;"","NOT NULL ","") &amp; IF(G174="","","DEFAULT '" &amp; G174 &amp; "' ") &amp; IF(A174="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+      <c r="J174" s="41" t="str">
+        <f t="shared" ref="J174:J175" si="45">"," &amp; IF(A174="","","/* ") &amp; "`" &amp; C174 &amp; "` " &amp; D174 &amp; IF(E174&gt;0,"(" &amp; E174 &amp; ") "," ") &amp; IF(F174&lt;&gt;"","NOT NULL ","") &amp; IF(G174="","","DEFAULT '" &amp; G174 &amp; "' ") &amp; IF(A174="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A175" s="34"/>
+      <c r="B175" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D175" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="36"/>
+      <c r="F175" s="35"/>
+      <c r="G175" s="37"/>
+      <c r="H175" s="38"/>
+      <c r="I175" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J175" s="41" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A176" s="2"/>
+      <c r="B176" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="7">
+        <v>256</v>
+      </c>
+      <c r="F176" s="6"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="27" t="str">
+        <f>"," &amp; IF(A176="","","/* ") &amp; "`" &amp; C176 &amp; "` " &amp; D176 &amp; IF(E176&gt;0,"(" &amp; E176 &amp; ") "," ") &amp; IF(F176&lt;&gt;"","NOT NULL ","") &amp; IF(G176="","","DEFAULT '" &amp; G176 &amp; "' ") &amp; IF(A176="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+      <c r="J176" s="29" t="str">
+        <f>"," &amp; IF(A176="","","/* ") &amp; "`" &amp; C176 &amp; "` " &amp; D176 &amp; IF(E176&gt;0,"(" &amp; E176 &amp; ") "," ") &amp; IF(F176&lt;&gt;"","NOT NULL ","") &amp; IF(G176="","","DEFAULT '" &amp; G176 &amp; "' ") &amp; IF(A176="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A177" s="2"/>
+      <c r="B177" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="7">
+        <v>128</v>
+      </c>
+      <c r="F177" s="6"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="27" t="str">
+        <f>"," &amp; IF(A177="","","/* ") &amp; "`" &amp; C177 &amp; "` " &amp; D177 &amp; IF(E177&gt;0,"(" &amp; E177 &amp; ") "," ") &amp; IF(F177&lt;&gt;"","NOT NULL ","") &amp; IF(G177="","","DEFAULT '" &amp; G177 &amp; "' ") &amp; IF(A177="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J177" s="29" t="str">
+        <f>"," &amp; IF(A177="","","/* ") &amp; "`" &amp; C177 &amp; "` " &amp; D177 &amp; IF(E177&gt;0,"(" &amp; E177 &amp; ") "," ") &amp; IF(F177&lt;&gt;"","NOT NULL ","") &amp; IF(G177="","","DEFAULT '" &amp; G177 &amp; "' ") &amp; IF(A177="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A178" s="34"/>
+      <c r="B178" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D178" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="36"/>
+      <c r="F178" s="35"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="38"/>
+      <c r="I178" s="40" t="str">
+        <f>"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+      <c r="J178" s="41" t="str">
+        <f>"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="34"/>
+      <c r="B179" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C179" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D179" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="36"/>
+      <c r="F179" s="35"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="38"/>
+      <c r="I179" s="40" t="str">
+        <f>"," &amp; IF(A179="","","/* ") &amp; "`" &amp; C179 &amp; "` " &amp; D179 &amp; IF(E179&gt;0,"(" &amp; E179 &amp; ") "," ") &amp; IF(F179&lt;&gt;"","NOT NULL ","") &amp; IF(G179="","","DEFAULT '" &amp; G179 &amp; "' ") &amp; IF(A179="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J179" s="41" t="str">
+        <f>"," &amp; IF(A179="","","/* ") &amp; "`" &amp; C179 &amp; "` " &amp; D179 &amp; IF(E179&gt;0,"(" &amp; E179 &amp; ") "," ") &amp; IF(F179&lt;&gt;"","NOT NULL ","") &amp; IF(G179="","","DEFAULT '" &amp; G179 &amp; "' ") &amp; IF(A179="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A180" s="2"/>
+      <c r="B180" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="7">
+        <v>256</v>
+      </c>
+      <c r="F180" s="6"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="27" t="str">
+        <f t="shared" ref="I180:I186" si="46">"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J180" s="29" t="str">
+        <f t="shared" ref="J180:J186" si="47">"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A181" s="2"/>
+      <c r="B181" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="7">
+        <v>256</v>
+      </c>
+      <c r="F181" s="6"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="27" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J181" s="29" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A182" s="2"/>
+      <c r="B182" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="27" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J182" s="29" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A183" s="2"/>
+      <c r="B183" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="7">
+        <v>64</v>
+      </c>
+      <c r="F183" s="6"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="27" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J183" s="29" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="34"/>
+      <c r="B184" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C184" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D184" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E184" s="36"/>
+      <c r="F184" s="35"/>
+      <c r="G184" s="37"/>
+      <c r="H184" s="38"/>
+      <c r="I184" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J184" s="41" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="34"/>
+      <c r="B185" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C185" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="36"/>
+      <c r="F185" s="35"/>
+      <c r="G185" s="37"/>
+      <c r="H185" s="38"/>
+      <c r="I185" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J185" s="41" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="34"/>
+      <c r="B186" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="36"/>
+      <c r="F186" s="35"/>
+      <c r="G186" s="37"/>
+      <c r="H186" s="38"/>
+      <c r="I186" s="40" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J186" s="41" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A187" s="2"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="22"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J187" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="34"/>
+      <c r="B189" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F189" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H189" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I189" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C189 &amp; "` ("</f>
+        <v>CREATE TABLE `productinfos` (</v>
+      </c>
+      <c r="J189" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C189 &amp; "` ("</f>
+        <v>CREATE TABLE `productinfos` (</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="34"/>
+      <c r="B190" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="36"/>
+      <c r="F190" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="37"/>
+      <c r="H190" s="38"/>
+      <c r="I190" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="34"/>
+      <c r="B191" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D191" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="36">
+        <v>128</v>
+      </c>
+      <c r="F191" s="35"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="38"/>
+      <c r="I191" s="40" t="str">
+        <f>"," &amp; IF(A191="","","/* ") &amp; "`" &amp; C191 &amp; "` " &amp; D191 &amp; IF(E191&gt;0,"(" &amp; E191 &amp; ") "," ") &amp; IF(F191&lt;&gt;"","NOT NULL ","") &amp; IF(G191="","","DEFAULT '" &amp; G191 &amp; "' ") &amp; IF(A191="",""," */")</f>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      </c>
+      <c r="J191" s="41" t="str">
+        <f>"," &amp; IF(A191="","","/* ") &amp; "`" &amp; C191 &amp; "` " &amp; D191 &amp; IF(E191&gt;0,"(" &amp; E191 &amp; ") "," ") &amp; IF(F191&lt;&gt;"","NOT NULL ","") &amp; IF(G191="","","DEFAULT '" &amp; G191 &amp; "' ") &amp; IF(A191="",""," */")</f>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="34"/>
+      <c r="B192" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C192" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D192" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="36"/>
+      <c r="F192" s="35"/>
+      <c r="G192" s="37"/>
+      <c r="H192" s="38"/>
+      <c r="I192" s="40" t="str">
+        <f>"," &amp; IF(A192="","","/* ") &amp; "`" &amp; C192 &amp; "` " &amp; D192 &amp; IF(E192&gt;0,"(" &amp; E192 &amp; ") "," ") &amp; IF(F192&lt;&gt;"","NOT NULL ","") &amp; IF(G192="","","DEFAULT '" &amp; G192 &amp; "' ") &amp; IF(A192="",""," */")</f>
+        <v xml:space="preserve">,`use_support` INT </v>
+      </c>
+      <c r="J192" s="41" t="str">
+        <f>"," &amp; IF(A192="","","/* ") &amp; "`" &amp; C192 &amp; "` " &amp; D192 &amp; IF(E192&gt;0,"(" &amp; E192 &amp; ") "," ") &amp; IF(F192&lt;&gt;"","NOT NULL ","") &amp; IF(G192="","","DEFAULT '" &amp; G192 &amp; "' ") &amp; IF(A192="",""," */")</f>
+        <v xml:space="preserve">,`use_support` INT </v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="34"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="36">
+        <v>20</v>
+      </c>
+      <c r="F193" s="35"/>
+      <c r="G193" s="37"/>
+      <c r="H193" s="38"/>
+      <c r="I193" s="40" t="str">
+        <f>"," &amp; IF(A193="","","/* ") &amp; "`" &amp; C193 &amp; "` " &amp; D193 &amp; IF(E193&gt;0,"(" &amp; E193 &amp; ") "," ") &amp; IF(F193&lt;&gt;"","NOT NULL ","") &amp; IF(G193="","","DEFAULT '" &amp; G193 &amp; "' ") &amp; IF(A193="",""," */")</f>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+      <c r="J193" s="41" t="str">
+        <f>"," &amp; IF(A193="","","/* ") &amp; "`" &amp; C193 &amp; "` " &amp; D193 &amp; IF(E193&gt;0,"(" &amp; E193 &amp; ") "," ") &amp; IF(F193&lt;&gt;"","NOT NULL ","") &amp; IF(G193="","","DEFAULT '" &amp; G193 &amp; "' ") &amp; IF(A193="",""," */")</f>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A194" s="34"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D194" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="36">
+        <v>512</v>
+      </c>
+      <c r="F194" s="35"/>
+      <c r="G194" s="37"/>
+      <c r="H194" s="38"/>
+      <c r="I194" s="40" t="str">
+        <f>"," &amp; IF(A194="","","/* ") &amp; "`" &amp; C194 &amp; "` " &amp; D194 &amp; IF(E194&gt;0,"(" &amp; E194 &amp; ") "," ") &amp; IF(F194&lt;&gt;"","NOT NULL ","") &amp; IF(G194="","","DEFAULT '" &amp; G194 &amp; "' ") &amp; IF(A194="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+      </c>
+      <c r="J194" s="41" t="str">
+        <f>"," &amp; IF(A194="","","/* ") &amp; "`" &amp; C194 &amp; "` " &amp; D194 &amp; IF(E194&gt;0,"(" &amp; E194 &amp; ") "," ") &amp; IF(F194&lt;&gt;"","NOT NULL ","") &amp; IF(G194="","","DEFAULT '" &amp; G194 &amp; "' ") &amp; IF(A194="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A195" s="34"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D195" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="36">
+        <v>20</v>
+      </c>
+      <c r="F195" s="35"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="38"/>
+      <c r="I195" s="40" t="str">
+        <f t="shared" ref="I195" si="48">"," &amp; IF(A195="","","/* ") &amp; "`" &amp; C195 &amp; "` " &amp; D195 &amp; IF(E195&gt;0,"(" &amp; E195 &amp; ") "," ") &amp; IF(F195&lt;&gt;"","NOT NULL ","") &amp; IF(G195="","","DEFAULT '" &amp; G195 &amp; "' ") &amp; IF(A195="",""," */")</f>
+        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
+      </c>
+      <c r="J195" s="41" t="str">
+        <f t="shared" ref="J195" si="49">"," &amp; IF(A195="","","/* ") &amp; "`" &amp; C195 &amp; "` " &amp; D195 &amp; IF(E195&gt;0,"(" &amp; E195 &amp; ") "," ") &amp; IF(F195&lt;&gt;"","NOT NULL ","") &amp; IF(G195="","","DEFAULT '" &amp; G195 &amp; "' ") &amp; IF(A195="",""," */")</f>
+        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A196" s="34"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D196" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E196" s="36"/>
+      <c r="F196" s="35"/>
+      <c r="G196" s="37"/>
+      <c r="H196" s="38"/>
+      <c r="I196" s="40" t="str">
+        <f>"," &amp; IF(A196="","","/* ") &amp; "`" &amp; C196 &amp; "` " &amp; D196 &amp; IF(E196&gt;0,"(" &amp; E196 &amp; ") "," ") &amp; IF(F196&lt;&gt;"","NOT NULL ","") &amp; IF(G196="","","DEFAULT '" &amp; G196 &amp; "' ") &amp; IF(A196="",""," */")</f>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J196" s="41" t="str">
+        <f>"," &amp; IF(A196="","","/* ") &amp; "`" &amp; C196 &amp; "` " &amp; D196 &amp; IF(E196&gt;0,"(" &amp; E196 &amp; ") "," ") &amp; IF(F196&lt;&gt;"","NOT NULL ","") &amp; IF(G196="","","DEFAULT '" &amp; G196 &amp; "' ") &amp; IF(A196="",""," */")</f>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A197" s="34"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D197" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E197" s="36"/>
+      <c r="F197" s="35"/>
+      <c r="G197" s="37"/>
+      <c r="H197" s="38"/>
+      <c r="I197" s="40" t="str">
+        <f>"," &amp; IF(A197="","","/* ") &amp; "`" &amp; C197 &amp; "` " &amp; D197 &amp; IF(E197&gt;0,"(" &amp; E197 &amp; ") "," ") &amp; IF(F197&lt;&gt;"","NOT NULL ","") &amp; IF(G197="","","DEFAULT '" &amp; G197 &amp; "' ") &amp; IF(A197="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J197" s="41" t="str">
+        <f>"," &amp; IF(A197="","","/* ") &amp; "`" &amp; C197 &amp; "` " &amp; D197 &amp; IF(E197&gt;0,"(" &amp; E197 &amp; ") "," ") &amp; IF(F197&lt;&gt;"","NOT NULL ","") &amp; IF(G197="","","DEFAULT '" &amp; G197 &amp; "' ") &amp; IF(A197="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="34"/>
+      <c r="B198" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="36"/>
+      <c r="F198" s="35"/>
+      <c r="G198" s="37"/>
+      <c r="H198" s="38"/>
+      <c r="I198" s="40" t="str">
+        <f t="shared" ref="I198:I199" si="50">"," &amp; IF(A198="","","/* ") &amp; "`" &amp; C198 &amp; "` " &amp; D198 &amp; IF(E198&gt;0,"(" &amp; E198 &amp; ") "," ") &amp; IF(F198&lt;&gt;"","NOT NULL ","") &amp; IF(G198="","","DEFAULT '" &amp; G198 &amp; "' ") &amp; IF(A198="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J198" s="41" t="str">
+        <f t="shared" ref="J198:J199" si="51">"," &amp; IF(A198="","","/* ") &amp; "`" &amp; C198 &amp; "` " &amp; D198 &amp; IF(E198&gt;0,"(" &amp; E198 &amp; ") "," ") &amp; IF(F198&lt;&gt;"","NOT NULL ","") &amp; IF(G198="","","DEFAULT '" &amp; G198 &amp; "' ") &amp; IF(A198="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A199" s="34"/>
+      <c r="B199" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="36"/>
+      <c r="F199" s="35"/>
+      <c r="G199" s="37"/>
+      <c r="H199" s="38"/>
+      <c r="I199" s="40" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J199" s="41" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A200" s="34"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J200" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A201" s="34"/>
+      <c r="E201" s="34"/>
+      <c r="G201" s="3"/>
+      <c r="I201" s="25"/>
+      <c r="J201" s="25"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B202" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F202" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H202" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I202" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C202 &amp; "` ("</f>
+        <v>CREATE TABLE `supportcontracts` (</v>
+      </c>
+      <c r="J202" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C202 &amp; "` ("</f>
+        <v>CREATE TABLE `supportcontracts` (</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B203" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" s="36"/>
+      <c r="F203" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="37"/>
+      <c r="H203" s="38"/>
+      <c r="I203" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B204" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C204" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D204" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="36">
+        <v>20</v>
+      </c>
+      <c r="F204" s="35"/>
+      <c r="G204" s="37"/>
+      <c r="H204" s="38"/>
+      <c r="I204" s="40" t="str">
+        <f t="shared" ref="I204:I209" si="52">"," &amp; IF(A204="","","/* ") &amp; "`" &amp; C204 &amp; "` " &amp; D204 &amp; IF(E204&gt;0,"(" &amp; E204 &amp; ") "," ") &amp; IF(F204&lt;&gt;"","NOT NULL ","") &amp; IF(G204="","","DEFAULT '" &amp; G204 &amp; "' ") &amp; IF(A204="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+      <c r="J204" s="41" t="str">
+        <f t="shared" ref="J204:J209" si="53">"," &amp; IF(A204="","","/* ") &amp; "`" &amp; C204 &amp; "` " &amp; D204 &amp; IF(E204&gt;0,"(" &amp; E204 &amp; ") "," ") &amp; IF(F204&lt;&gt;"","NOT NULL ","") &amp; IF(G204="","","DEFAULT '" &amp; G204 &amp; "' ") &amp; IF(A204="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B205" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C205" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D205" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" s="36">
+        <v>256</v>
+      </c>
+      <c r="F205" s="35"/>
+      <c r="G205" s="37"/>
+      <c r="H205" s="38"/>
+      <c r="I205" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`contractor` VARCHAR(256) </v>
+      </c>
+      <c r="J205" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`contractor` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B206" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C206" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="D206" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="36">
+        <v>20</v>
+      </c>
+      <c r="F206" s="35"/>
+      <c r="G206" s="37"/>
+      <c r="H206" s="38"/>
+      <c r="I206" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`eu_company_code` VARCHAR(20) </v>
+      </c>
+      <c r="J206" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`eu_company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B207" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C207" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D207" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="36">
+        <v>256</v>
+      </c>
+      <c r="F207" s="35"/>
+      <c r="G207" s="37"/>
+      <c r="H207" s="38"/>
+      <c r="I207" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`eu_name` VARCHAR(256) </v>
+      </c>
+      <c r="J207" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`eu_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A208" s="34"/>
+      <c r="B208" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C208" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D208" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="36">
+        <v>128</v>
+      </c>
+      <c r="F208" s="35"/>
+      <c r="G208" s="37"/>
+      <c r="H208" s="38"/>
+      <c r="I208" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      </c>
+      <c r="J208" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B209" s="39"/>
+      <c r="C209" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D209" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="36">
+        <v>20</v>
+      </c>
+      <c r="F209" s="35"/>
+      <c r="G209" s="37"/>
+      <c r="H209" s="38"/>
+      <c r="I209" s="40" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`contract_no` VARCHAR(20) </v>
+      </c>
+      <c r="J209" s="41" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`contract_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B210" s="39"/>
+      <c r="C210" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D210" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="36">
+        <v>20</v>
+      </c>
+      <c r="F210" s="35"/>
+      <c r="G210" s="37"/>
+      <c r="H210" s="38"/>
+      <c r="I210" s="40" t="str">
+        <f t="shared" ref="I210" si="54">"," &amp; IF(A210="","","/* ") &amp; "`" &amp; C210 &amp; "` " &amp; D210 &amp; IF(E210&gt;0,"(" &amp; E210 &amp; ") "," ") &amp; IF(F210&lt;&gt;"","NOT NULL ","") &amp; IF(G210="","","DEFAULT '" &amp; G210 &amp; "' ") &amp; IF(A210="",""," */")</f>
+        <v xml:space="preserve">,`contract_no2` VARCHAR(20) </v>
+      </c>
+      <c r="J210" s="41" t="str">
+        <f t="shared" ref="J210" si="55">"," &amp; IF(A210="","","/* ") &amp; "`" &amp; C210 &amp; "` " &amp; D210 &amp; IF(E210&gt;0,"(" &amp; E210 &amp; ") "," ") &amp; IF(F210&lt;&gt;"","NOT NULL ","") &amp; IF(G210="","","DEFAULT '" &amp; G210 &amp; "' ") &amp; IF(A210="",""," */")</f>
+        <v xml:space="preserve">,`contract_no2` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A211" s="34"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D211" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="36">
+        <v>512</v>
+      </c>
+      <c r="F211" s="35"/>
+      <c r="G211" s="37"/>
+      <c r="H211" s="38"/>
+      <c r="I211" s="40" t="str">
+        <f>"," &amp; IF(A211="","","/* ") &amp; "`" &amp; C211 &amp; "` " &amp; D211 &amp; IF(E211&gt;0,"(" &amp; E211 &amp; ") "," ") &amp; IF(F211&lt;&gt;"","NOT NULL ","") &amp; IF(G211="","","DEFAULT '" &amp; G211 &amp; "' ") &amp; IF(A211="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+      </c>
+      <c r="J211" s="41" t="str">
+        <f>"," &amp; IF(A211="","","/* ") &amp; "`" &amp; C211 &amp; "` " &amp; D211 &amp; IF(E211&gt;0,"(" &amp; E211 &amp; ") "," ") &amp; IF(F211&lt;&gt;"","NOT NULL ","") &amp; IF(G211="","","DEFAULT '" &amp; G211 &amp; "' ") &amp; IF(A211="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A212" s="34"/>
+      <c r="B212" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C212" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D212" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="36"/>
+      <c r="F212" s="35"/>
+      <c r="G212" s="37"/>
+      <c r="H212" s="38"/>
+      <c r="I212" s="40" t="str">
+        <f t="shared" ref="I212" si="56">"," &amp; IF(A212="","","/* ") &amp; "`" &amp; C212 &amp; "` " &amp; D212 &amp; IF(E212&gt;0,"(" &amp; E212 &amp; ") "," ") &amp; IF(F212&lt;&gt;"","NOT NULL ","") &amp; IF(G212="","","DEFAULT '" &amp; G212 &amp; "' ") &amp; IF(A212="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
+      </c>
+      <c r="J212" s="41" t="str">
+        <f t="shared" ref="J212" si="57">"," &amp; IF(A212="","","/* ") &amp; "`" &amp; C212 &amp; "` " &amp; D212 &amp; IF(E212&gt;0,"(" &amp; E212 &amp; ") "," ") &amp; IF(F212&lt;&gt;"","NOT NULL ","") &amp; IF(G212="","","DEFAULT '" &amp; G212 &amp; "' ") &amp; IF(A212="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A213" s="34"/>
+      <c r="B213" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D213" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="36"/>
+      <c r="F213" s="35"/>
+      <c r="G213" s="37"/>
+      <c r="H213" s="38"/>
+      <c r="I213" s="40" t="str">
+        <f t="shared" ref="I213" si="58">"," &amp; IF(A213="","","/* ") &amp; "`" &amp; C213 &amp; "` " &amp; D213 &amp; IF(E213&gt;0,"(" &amp; E213 &amp; ") "," ") &amp; IF(F213&lt;&gt;"","NOT NULL ","") &amp; IF(G213="","","DEFAULT '" &amp; G213 &amp; "' ") &amp; IF(A213="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J213" s="41" t="str">
+        <f t="shared" ref="J213" si="59">"," &amp; IF(A213="","","/* ") &amp; "`" &amp; C213 &amp; "` " &amp; D213 &amp; IF(E213&gt;0,"(" &amp; E213 &amp; ") "," ") &amp; IF(F213&lt;&gt;"","NOT NULL ","") &amp; IF(G213="","","DEFAULT '" &amp; G213 &amp; "' ") &amp; IF(A213="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A214" s="34"/>
+      <c r="B214" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D214" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="36"/>
+      <c r="F214" s="35"/>
+      <c r="G214" s="37"/>
+      <c r="H214" s="38"/>
+      <c r="I214" s="40" t="str">
+        <f t="shared" ref="I214:I219" si="60">"," &amp; IF(A214="","","/* ") &amp; "`" &amp; C214 &amp; "` " &amp; D214 &amp; IF(E214&gt;0,"(" &amp; E214 &amp; ") "," ") &amp; IF(F214&lt;&gt;"","NOT NULL ","") &amp; IF(G214="","","DEFAULT '" &amp; G214 &amp; "' ") &amp; IF(A214="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+      <c r="J214" s="41" t="str">
+        <f t="shared" ref="J214:J219" si="61">"," &amp; IF(A214="","","/* ") &amp; "`" &amp; C214 &amp; "` " &amp; D214 &amp; IF(E214&gt;0,"(" &amp; E214 &amp; ") "," ") &amp; IF(F214&lt;&gt;"","NOT NULL ","") &amp; IF(G214="","","DEFAULT '" &amp; G214 &amp; "' ") &amp; IF(A214="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B215" s="39"/>
+      <c r="C215" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D215" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E215" s="36"/>
+      <c r="F215" s="35"/>
+      <c r="G215" s="37"/>
+      <c r="H215" s="38"/>
+      <c r="I215" s="40" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">,`term` INT </v>
+      </c>
+      <c r="J215" s="41" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">,`term` INT </v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A216" s="34"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D216" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E216" s="36"/>
+      <c r="F216" s="35"/>
+      <c r="G216" s="37"/>
+      <c r="H216" s="38"/>
+      <c r="I216" s="40" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J216" s="41" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A217" s="34"/>
+      <c r="B217" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C217" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D217" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="36">
+        <v>256</v>
+      </c>
+      <c r="F217" s="35"/>
+      <c r="G217" s="37"/>
+      <c r="H217" s="38"/>
+      <c r="I217" s="40" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+      <c r="J217" s="41" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A218" s="34"/>
+      <c r="B218" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C218" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D218" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="36">
+        <v>128</v>
+      </c>
+      <c r="F218" s="35"/>
+      <c r="G218" s="37"/>
+      <c r="H218" s="38"/>
+      <c r="I218" s="40" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+      <c r="J218" s="41" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B219" s="39"/>
+      <c r="C219" s="35"/>
+      <c r="D219" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E219" s="36"/>
+      <c r="F219" s="35"/>
+      <c r="G219" s="37"/>
+      <c r="H219" s="38"/>
+      <c r="I219" s="40" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">,`` TEXT </v>
+      </c>
+      <c r="J219" s="41" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">,`` TEXT </v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B220" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C220" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D220" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="36"/>
+      <c r="F220" s="35"/>
+      <c r="G220" s="37"/>
+      <c r="H220" s="38"/>
+      <c r="I220" s="40" t="str">
+        <f t="shared" ref="I220:I221" si="62">"," &amp; IF(A220="","","/* ") &amp; "`" &amp; C220 &amp; "` " &amp; D220 &amp; IF(E220&gt;0,"(" &amp; E220 &amp; ") "," ") &amp; IF(F220&lt;&gt;"","NOT NULL ","") &amp; IF(G220="","","DEFAULT '" &amp; G220 &amp; "' ") &amp; IF(A220="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J220" s="41" t="str">
+        <f t="shared" ref="J220:J221" si="63">"," &amp; IF(A220="","","/* ") &amp; "`" &amp; C220 &amp; "` " &amp; D220 &amp; IF(E220&gt;0,"(" &amp; E220 &amp; ") "," ") &amp; IF(F220&lt;&gt;"","NOT NULL ","") &amp; IF(G220="","","DEFAULT '" &amp; G220 &amp; "' ") &amp; IF(A220="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B221" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="36"/>
+      <c r="F221" s="35"/>
+      <c r="G221" s="37"/>
+      <c r="H221" s="38"/>
+      <c r="I221" s="40" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J221" s="41" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B222" s="21"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="23"/>
+      <c r="H222" s="21"/>
+      <c r="I222" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J222" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="expression" dxfId="106" priority="231">
+      <formula>A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A7 A49:A50 A130:A131 A158:A160 A119:A120 A13:A14 A162:A163 A177:A178 A38:A40 A42 A113:A114 A165:A173 A106:A107 A187:A188">
+    <cfRule type="cellIs" dxfId="105" priority="230" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9 A11:A12">
+    <cfRule type="cellIs" dxfId="104" priority="229" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="103" priority="228" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="102" priority="227" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:A46">
+    <cfRule type="cellIs" dxfId="101" priority="223" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:A183">
+    <cfRule type="cellIs" dxfId="100" priority="221" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="cellIs" dxfId="99" priority="220" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A176">
+    <cfRule type="cellIs" dxfId="98" priority="214" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" dxfId="97" priority="212" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:A71 A51:A52 A54">
+    <cfRule type="cellIs" dxfId="96" priority="213" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61 A63">
+    <cfRule type="cellIs" dxfId="95" priority="207" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64 A66">
+    <cfRule type="cellIs" dxfId="94" priority="206" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="93" priority="205" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" dxfId="92" priority="204" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" dxfId="91" priority="203" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="90" priority="202" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="cellIs" dxfId="89" priority="199" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="cellIs" dxfId="88" priority="198" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:A126">
+    <cfRule type="cellIs" dxfId="87" priority="197" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:A129">
+    <cfRule type="cellIs" dxfId="86" priority="196" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156 A132">
+    <cfRule type="cellIs" dxfId="85" priority="195" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="cellIs" dxfId="84" priority="189" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="83" priority="181" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161">
+    <cfRule type="cellIs" dxfId="82" priority="180" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="cellIs" dxfId="81" priority="179" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="cellIs" dxfId="80" priority="178" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A15:A17">
+    <cfRule type="cellIs" dxfId="79" priority="167" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="78" priority="163" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="77" priority="141" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="cellIs" dxfId="76" priority="162" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="cellIs" dxfId="75" priority="151" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="cellIs" dxfId="74" priority="133" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="cellIs" dxfId="73" priority="140" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175">
+    <cfRule type="cellIs" dxfId="72" priority="139" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174">
+    <cfRule type="cellIs" dxfId="71" priority="138" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="cellIs" dxfId="70" priority="137" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="cellIs" dxfId="69" priority="136" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="cellIs" dxfId="68" priority="135" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="cellIs" dxfId="67" priority="134" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="cellIs" dxfId="66" priority="119" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="cellIs" dxfId="65" priority="89" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145:A146 A139:A140">
+    <cfRule type="cellIs" dxfId="64" priority="102" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148">
+    <cfRule type="cellIs" dxfId="63" priority="101" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="cellIs" dxfId="62" priority="100" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="cellIs" dxfId="61" priority="99" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:A152">
+    <cfRule type="cellIs" dxfId="60" priority="98" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:A155">
+    <cfRule type="cellIs" dxfId="59" priority="97" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="cellIs" dxfId="58" priority="96" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="cellIs" dxfId="57" priority="95" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="cellIs" dxfId="56" priority="94" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="cellIs" dxfId="55" priority="93" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A141">
+    <cfRule type="cellIs" dxfId="54" priority="92" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="cellIs" dxfId="53" priority="91" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147">
+    <cfRule type="cellIs" dxfId="52" priority="90" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184">
+    <cfRule type="cellIs" dxfId="51" priority="70" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86:A87 A72:A73 A77">
+    <cfRule type="cellIs" dxfId="50" priority="88" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A25 A21:A22">
+    <cfRule type="cellIs" dxfId="49" priority="67" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="48" priority="66" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="cellIs" dxfId="47" priority="80" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A82">
+    <cfRule type="cellIs" dxfId="46" priority="65" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" dxfId="44" priority="77" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:A186">
+    <cfRule type="cellIs" dxfId="43" priority="76" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:A85">
+    <cfRule type="cellIs" dxfId="42" priority="75" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A69">
+    <cfRule type="cellIs" dxfId="41" priority="74" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A48">
+    <cfRule type="cellIs" dxfId="40" priority="73" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" dxfId="39" priority="72" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="38" priority="71" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="cellIs" dxfId="37" priority="68" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="cellIs" dxfId="36" priority="69" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A30 A26:A27">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
+    <cfRule type="cellIs" dxfId="33" priority="46" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:A201 A189:A190 A196:A197">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:A199">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A192">
+    <cfRule type="cellIs" dxfId="26" priority="35" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A193">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A211">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:A214">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A216">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A212">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A105 A98:A99 A88:A89">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A103">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:A92">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:A37 A31:A32">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A35">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D73:D85 D89:D103 D133:D155 D107:D129 D22:D23 D27:D28 D39:D48 D159:D186 D190:D199 D203:D221 D32:D35 D52:D69">
+      <formula1>TYPE</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="223">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -1658,7 +1658,17 @@
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="107">
+  <dxfs count="108">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2942,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -4604,11 +4614,11 @@
       <c r="G74" s="37"/>
       <c r="H74" s="38"/>
       <c r="I74" s="40" t="str">
-        <f t="shared" ref="I74:I82" si="14">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
+        <f t="shared" ref="I74:I83" si="14">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
       <c r="J74" s="41" t="str">
-        <f t="shared" ref="J74:J82" si="15">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
+        <f t="shared" ref="J74:J83" si="15">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
     </row>
@@ -4639,61 +4649,61 @@
     <row r="76" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="34"/>
       <c r="B76" s="39" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E76" s="36"/>
       <c r="F76" s="35"/>
       <c r="G76" s="37"/>
       <c r="H76" s="38"/>
       <c r="I76" s="40" t="str">
-        <f t="shared" ref="I76" si="16">"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
-        <v xml:space="preserve">,`contract_date` DATE </v>
+        <f>"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J76" s="41" t="str">
-        <f t="shared" ref="J76" si="17">"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
-        <v xml:space="preserve">,`contract_date` DATE </v>
+        <f>"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="77" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="34"/>
       <c r="B77" s="39" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E77" s="36"/>
       <c r="F77" s="35"/>
       <c r="G77" s="37"/>
       <c r="H77" s="38"/>
       <c r="I77" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`contractname_id` INT </v>
+        <f t="shared" ref="I77" si="16">"," &amp; IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; IF(A77="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
       <c r="J77" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`contractname_id` INT </v>
+        <f t="shared" ref="J77" si="17">"," &amp; IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; IF(A77="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
     </row>
     <row r="78" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="34"/>
       <c r="B78" s="39" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E78" s="36"/>
       <c r="F78" s="35"/>
@@ -4701,46 +4711,44 @@
       <c r="H78" s="38"/>
       <c r="I78" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`contractname_id` INT </v>
       </c>
       <c r="J78" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`contractname_id` INT </v>
       </c>
     </row>
     <row r="79" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="34"/>
-      <c r="B79" s="43" t="s">
-        <v>134</v>
+      <c r="B79" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="36">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E79" s="36"/>
       <c r="F79" s="35"/>
       <c r="G79" s="37"/>
       <c r="H79" s="38"/>
       <c r="I79" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J79" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="80" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="34"/>
       <c r="B80" s="43" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D80" s="35" t="s">
         <v>7</v>
@@ -4753,118 +4761,120 @@
       <c r="H80" s="38"/>
       <c r="I80" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J80" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="81" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="34"/>
       <c r="B81" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E81" s="36">
+        <v>256</v>
+      </c>
       <c r="F81" s="35"/>
       <c r="G81" s="37"/>
       <c r="H81" s="38"/>
       <c r="I81" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J81" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="34"/>
       <c r="B82" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="36">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E82" s="36"/>
       <c r="F82" s="35"/>
       <c r="G82" s="37"/>
       <c r="H82" s="38"/>
       <c r="I82" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J82" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="83" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="34"/>
       <c r="B83" s="43" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E83" s="36">
+        <v>64</v>
+      </c>
       <c r="F83" s="35"/>
       <c r="G83" s="37"/>
       <c r="H83" s="38"/>
       <c r="I83" s="40" t="str">
-        <f t="shared" ref="I83:I85" si="18">"," &amp; IF(A83="","","/* ") &amp; "`" &amp; C83 &amp; "` " &amp; D83 &amp; IF(E83&gt;0,"(" &amp; E83 &amp; ") "," ") &amp; IF(F83&lt;&gt;"","NOT NULL ","") &amp; IF(G83="","","DEFAULT '" &amp; G83 &amp; "' ") &amp; IF(A83="",""," */")</f>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J83" s="41" t="str">
-        <f t="shared" ref="J83:J85" si="19">"," &amp; IF(A83="","","/* ") &amp; "`" &amp; C83 &amp; "` " &amp; D83 &amp; IF(E83&gt;0,"(" &amp; E83 &amp; ") "," ") &amp; IF(F83&lt;&gt;"","NOT NULL ","") &amp; IF(G83="","","DEFAULT '" &amp; G83 &amp; "' ") &amp; IF(A83="",""," */")</f>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="34"/>
       <c r="B84" s="43" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="E84" s="36"/>
       <c r="F84" s="35"/>
       <c r="G84" s="37"/>
       <c r="H84" s="38"/>
       <c r="I84" s="40" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" ref="I84:I86" si="18">"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J84" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" ref="J84:J86" si="19">"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="34"/>
       <c r="B85" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D85" s="35" t="s">
         <v>8</v>
@@ -4875,123 +4885,123 @@
       <c r="H85" s="38"/>
       <c r="I85" s="40" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J85" s="41" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="34"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" s="41" t="s">
-        <v>33</v>
+      <c r="B86" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="36"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="40" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J86" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="G87" s="3"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" s="41" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="34"/>
-      <c r="B88" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I88" s="40" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C88 &amp; "` ("</f>
-        <v>CREATE TABLE `requests` (</v>
-      </c>
-      <c r="J88" s="41" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C88 &amp; "` ("</f>
-        <v>CREATE TABLE `requests` (</v>
-      </c>
+      <c r="E88" s="34"/>
+      <c r="G88" s="3"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
     </row>
     <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="34"/>
-      <c r="B89" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="36"/>
-      <c r="F89" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J89" s="30" t="s">
-        <v>20</v>
+      <c r="B89" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I89" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C89 &amp; "` ("</f>
+        <v>CREATE TABLE `requests` (</v>
+      </c>
+      <c r="J89" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C89 &amp; "` ("</f>
+        <v>CREATE TABLE `requests` (</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="34"/>
       <c r="B90" s="39" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D90" s="35" t="s">
         <v>5</v>
       </c>
       <c r="E90" s="36"/>
-      <c r="F90" s="35"/>
+      <c r="F90" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G90" s="37"/>
       <c r="H90" s="38"/>
-      <c r="I90" s="40" t="str">
-        <f>"," &amp; IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; IF(A90="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-      <c r="J90" s="41" t="str">
-        <f>"," &amp; IF(A90="","","/* ") &amp; "`" &amp; C90 &amp; "` " &amp; D90 &amp; IF(E90&gt;0,"(" &amp; E90 &amp; ") "," ") &amp; IF(F90&lt;&gt;"","NOT NULL ","") &amp; IF(G90="","","DEFAULT '" &amp; G90 &amp; "' ") &amp; IF(A90="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+      <c r="I90" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" s="35" t="s">
         <v>5</v>
@@ -5002,20 +5012,20 @@
       <c r="H91" s="38"/>
       <c r="I91" s="40" t="str">
         <f>"," &amp; IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; IF(A91="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J91" s="41" t="str">
         <f>"," &amp; IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; IF(A91="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="34"/>
       <c r="B92" s="39" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="D92" s="35" t="s">
         <v>5</v>
@@ -5026,20 +5036,20 @@
       <c r="H92" s="38"/>
       <c r="I92" s="40" t="str">
         <f>"," &amp; IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; IF(A92="",""," */")</f>
-        <v xml:space="preserve">,`appform_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J92" s="41" t="str">
         <f>"," &amp; IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; IF(A92="",""," */")</f>
-        <v xml:space="preserve">,`appform_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="34"/>
       <c r="B93" s="39" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="D93" s="35" t="s">
         <v>5</v>
@@ -5050,46 +5060,44 @@
       <c r="H93" s="38"/>
       <c r="I93" s="40" t="str">
         <f>"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`appform_id` INT </v>
       </c>
       <c r="J93" s="41" t="str">
         <f>"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`appform_id` INT </v>
       </c>
     </row>
     <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="34"/>
       <c r="B94" s="39" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="36">
-        <v>256</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E94" s="36"/>
       <c r="F94" s="35"/>
       <c r="G94" s="37"/>
       <c r="H94" s="38"/>
       <c r="I94" s="40" t="str">
-        <f t="shared" ref="I94:I98" si="20">"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J94" s="41" t="str">
-        <f t="shared" ref="J94:J98" si="21">"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="95" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="34"/>
       <c r="B95" s="39" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D95" s="35" t="s">
         <v>7</v>
@@ -5101,48 +5109,50 @@
       <c r="G95" s="37"/>
       <c r="H95" s="38"/>
       <c r="I95" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="I95:I99" si="20">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J95" s="41" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="J95:J99" si="21">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="96" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="34"/>
       <c r="B96" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E96" s="36">
+        <v>256</v>
+      </c>
       <c r="F96" s="35"/>
       <c r="G96" s="37"/>
       <c r="H96" s="38"/>
       <c r="I96" s="40" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J96" s="41" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="97" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="34"/>
       <c r="B97" s="39" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" s="36"/>
       <c r="F97" s="35"/>
@@ -5150,23 +5160,23 @@
       <c r="H97" s="38"/>
       <c r="I97" s="40" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
       <c r="J97" s="41" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
     </row>
     <row r="98" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="34"/>
       <c r="B98" s="39" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E98" s="36"/>
       <c r="F98" s="35"/>
@@ -5174,20 +5184,20 @@
       <c r="H98" s="38"/>
       <c r="I98" s="40" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">,`license_date` DATE </v>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J98" s="41" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">,`license_date` DATE </v>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="99" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="34"/>
       <c r="B99" s="39" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D99" s="35" t="s">
         <v>9</v>
@@ -5197,72 +5207,72 @@
       <c r="G99" s="37"/>
       <c r="H99" s="38"/>
       <c r="I99" s="40" t="str">
-        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`startsupp_date` DATE </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_date` DATE </v>
       </c>
       <c r="J99" s="41" t="str">
-        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
-        <v xml:space="preserve">,`startsupp_date` DATE </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_date` DATE </v>
       </c>
     </row>
     <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="34"/>
       <c r="B100" s="39" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E100" s="36"/>
       <c r="F100" s="35"/>
       <c r="G100" s="37"/>
       <c r="H100" s="38"/>
       <c r="I100" s="40" t="str">
-        <f t="shared" ref="I100:I103" si="22">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`startsupp_date` DATE </v>
       </c>
       <c r="J100" s="41" t="str">
-        <f t="shared" ref="J100:J103" si="23">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`startsupp_date` DATE </v>
       </c>
     </row>
     <row r="101" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="34"/>
-      <c r="B101" s="43" t="s">
-        <v>160</v>
+      <c r="B101" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E101" s="36"/>
       <c r="F101" s="35"/>
       <c r="G101" s="37"/>
       <c r="H101" s="38"/>
       <c r="I101" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" ref="I101:I104" si="22">"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J101" s="41" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" ref="J101:J104" si="23">"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="102" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="34"/>
       <c r="B102" s="43" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="E102" s="36"/>
       <c r="F102" s="35"/>
@@ -5270,20 +5280,20 @@
       <c r="H102" s="38"/>
       <c r="I102" s="40" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J102" s="41" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="103" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="34"/>
       <c r="B103" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D103" s="35" t="s">
         <v>8</v>
@@ -5294,147 +5304,147 @@
       <c r="H103" s="38"/>
       <c r="I103" s="40" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J103" s="41" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="104" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="34"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J104" s="41" t="s">
-        <v>33</v>
+      <c r="B104" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="36"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J104" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="105" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="G105" s="3"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A106" s="2"/>
-      <c r="B106" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I106" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C106 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-      <c r="J106" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C106 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="G106" s="3"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I107" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C107 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+      <c r="J107" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C107 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A108" s="2"/>
+      <c r="B108" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C108" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="6" t="s">
+      <c r="E108" s="7"/>
+      <c r="F108" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="8"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="28" t="s">
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J107" s="30" t="s">
+      <c r="J108" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="34"/>
-      <c r="B108" s="39" t="s">
+    <row r="109" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="34"/>
+      <c r="B109" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C109" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D108" s="35" t="s">
+      <c r="D109" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E108" s="36"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="40" t="str">
-        <f>"," &amp; IF(A108="","","/* ") &amp; "`" &amp; C108 &amp; "` " &amp; D108 &amp; IF(E108&gt;0,"(" &amp; E108 &amp; ") "," ") &amp; IF(F108&lt;&gt;"","NOT NULL ","") &amp; IF(G108="","","DEFAULT '" &amp; G108 &amp; "' ") &amp; IF(A108="",""," */")</f>
+      <c r="E109" s="36"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="40" t="str">
+        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT </v>
       </c>
-      <c r="J108" s="41" t="str">
-        <f>"," &amp; IF(A108="","","/* ") &amp; "`" &amp; C108 &amp; "` " &amp; D108 &amp; IF(E108&gt;0,"(" &amp; E108 &amp; ") "," ") &amp; IF(F108&lt;&gt;"","NOT NULL ","") &amp; IF(G108="","","DEFAULT '" &amp; G108 &amp; "' ") &amp; IF(A108="",""," */")</f>
+      <c r="J109" s="41" t="str">
+        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
         <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A109" s="2"/>
-      <c r="B109" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="27" t="str">
-        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J109" s="29" t="str">
-        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="20" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>5</v>
@@ -5445,20 +5455,20 @@
       <c r="H110" s="9"/>
       <c r="I110" s="27" t="str">
         <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J110" s="29" t="str">
         <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>5</v>
@@ -5469,220 +5479,220 @@
       <c r="H111" s="9"/>
       <c r="I111" s="27" t="str">
         <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J111" s="29" t="str">
         <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="6"/>
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
       <c r="I112" s="27" t="str">
-        <f t="shared" ref="I112:I118" si="24">"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J112" s="29" t="str">
-        <f t="shared" ref="J112:J118" si="25">"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="20" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="7">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E113" s="7"/>
       <c r="F113" s="6"/>
       <c r="G113" s="8"/>
       <c r="H113" s="9"/>
       <c r="I113" s="27" t="str">
-        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <f t="shared" ref="I113:I119" si="24">"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J113" s="29" t="str">
+        <f t="shared" ref="J113:J119" si="25">"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A114" s="2"/>
+      <c r="B114" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="7">
+        <v>20</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="27" t="str">
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
-      <c r="J113" s="29" t="str">
-        <f>"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
+      <c r="J114" s="29" t="str">
+        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
         <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="34"/>
-      <c r="B114" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="36">
-        <v>20</v>
-      </c>
-      <c r="F114" s="35"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="40" t="str">
-        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
-      </c>
-      <c r="J114" s="41" t="str">
-        <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="115" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="34"/>
       <c r="B115" s="39" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D115" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E115" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="37"/>
       <c r="H115" s="38"/>
       <c r="I115" s="40" t="str">
+        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J115" s="41" t="str">
+        <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="34"/>
+      <c r="B116" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="36">
+        <v>256</v>
+      </c>
+      <c r="F116" s="35"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="40" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
-      <c r="J115" s="41" t="str">
+      <c r="J116" s="41" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A116" s="2"/>
-      <c r="B116" s="20" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A117" s="2"/>
+      <c r="B117" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D117" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E117" s="7">
         <v>256</v>
       </c>
-      <c r="F116" s="6"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="27" t="str">
+      <c r="F117" s="6"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="27" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
-      <c r="J116" s="29" t="str">
+      <c r="J117" s="29" t="str">
         <f t="shared" si="25"/>
         <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="34"/>
-      <c r="B117" s="39" t="s">
+    <row r="118" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="34"/>
+      <c r="B118" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C118" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D118" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="36"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="40" t="str">
-        <f t="shared" ref="I117" si="26">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+      <c r="E118" s="36"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="40" t="str">
+        <f t="shared" ref="I118" si="26">"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
         <v xml:space="preserve">,`language_id` INT </v>
       </c>
-      <c r="J117" s="41" t="str">
-        <f t="shared" ref="J117" si="27">"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+      <c r="J118" s="41" t="str">
+        <f t="shared" ref="J118" si="27">"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
         <v xml:space="preserve">,`language_id` INT </v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A118" s="2"/>
-      <c r="B118" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="27" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-      <c r="J118" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="20" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="6"/>
       <c r="G119" s="8"/>
       <c r="H119" s="9"/>
       <c r="I119" s="27" t="str">
-        <f t="shared" ref="I119" si="28">"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J119" s="29" t="str">
-        <f t="shared" ref="J119" si="29">"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>9</v>
@@ -5692,97 +5702,95 @@
       <c r="G120" s="8"/>
       <c r="H120" s="9"/>
       <c r="I120" s="27" t="str">
-        <f>"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <f t="shared" ref="I120" si="28">"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+      <c r="J120" s="29" t="str">
+        <f t="shared" ref="J120" si="29">"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A121" s="2"/>
+      <c r="B121" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="27" t="str">
+        <f>"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
-      <c r="J120" s="29" t="str">
-        <f>"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+      <c r="J121" s="29" t="str">
+        <f>"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
         <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="34"/>
-      <c r="B121" s="39" t="s">
+    <row r="122" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="34"/>
+      <c r="B122" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C122" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D122" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="36">
+      <c r="E122" s="36">
         <v>256</v>
       </c>
-      <c r="F121" s="35"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="40" t="str">
-        <f t="shared" ref="I121" si="30">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+      <c r="F122" s="35"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="40" t="str">
+        <f t="shared" ref="I122" si="30">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
         <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
-      <c r="J121" s="41" t="str">
-        <f t="shared" ref="J121" si="31">"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
+      <c r="J122" s="41" t="str">
+        <f t="shared" ref="J122" si="31">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
         <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A122" s="2"/>
-      <c r="B122" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="27" t="str">
-        <f t="shared" ref="I122:I129" si="32">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J122" s="29" t="str">
-        <f t="shared" ref="J122:J129" si="33">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
-      <c r="B123" s="43" t="s">
-        <v>86</v>
+      <c r="B123" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="7">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E123" s="7"/>
       <c r="F123" s="6"/>
       <c r="G123" s="8"/>
       <c r="H123" s="9"/>
       <c r="I123" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="I123:I130" si="32">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J123" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="J123:J130" si="33">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="43" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>7</v>
@@ -5795,118 +5803,120 @@
       <c r="H124" s="9"/>
       <c r="I124" s="27" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J124" s="29" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E125" s="7">
+        <v>256</v>
+      </c>
       <c r="F125" s="6"/>
       <c r="G125" s="8"/>
       <c r="H125" s="9"/>
       <c r="I125" s="27" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J125" s="29" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="7">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E126" s="7"/>
       <c r="F126" s="6"/>
       <c r="G126" s="8"/>
       <c r="H126" s="9"/>
       <c r="I126" s="27" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J126" s="29" t="str">
         <f t="shared" si="33"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A127" s="2"/>
+      <c r="B127" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="7">
+        <v>64</v>
+      </c>
+      <c r="F127" s="6"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="27" t="str">
+        <f t="shared" si="32"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-    </row>
-    <row r="127" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="34"/>
-      <c r="B127" s="43" t="s">
+      <c r="J127" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="34"/>
+      <c r="B128" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C127" s="35" t="s">
+      <c r="C128" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D127" s="35" t="s">
+      <c r="D128" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E127" s="36"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="40" t="str">
+      <c r="E128" s="36"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="40" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">,`user_id` INT </v>
       </c>
-      <c r="J127" s="41" t="str">
+      <c r="J128" s="41" t="str">
         <f t="shared" si="33"/>
         <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A128" s="2"/>
-      <c r="B128" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
-      </c>
-      <c r="J128" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>8</v>
@@ -5917,119 +5927,119 @@
       <c r="H129" s="9"/>
       <c r="I129" s="27" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J129" s="29" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J130" s="29" t="s">
-        <v>33</v>
+      <c r="B130" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J130" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
-      <c r="B132" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H132" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I132" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C132 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
-      <c r="J132" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C132 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I133" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C133 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J133" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C133 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A134" s="2"/>
+      <c r="B134" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C134" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="6" t="s">
+      <c r="E134" s="7"/>
+      <c r="F134" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G133" s="8"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="28" t="s">
+      <c r="G134" s="8"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J133" s="30" t="s">
+      <c r="J134" s="30" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="34"/>
-      <c r="B134" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C134" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D134" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="36"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="40" t="str">
-        <f>"," &amp; IF(A134="","","/* ") &amp; "`" &amp; C134 &amp; "` " &amp; D134 &amp; IF(E134&gt;0,"(" &amp; E134 &amp; ") "," ") &amp; IF(F134&lt;&gt;"","NOT NULL ","") &amp; IF(G134="","","DEFAULT '" &amp; G134 &amp; "' ") &amp; IF(A134="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-      <c r="J134" s="41" t="str">
-        <f>"," &amp; IF(A134="","","/* ") &amp; "`" &amp; C134 &amp; "` " &amp; D134 &amp; IF(E134&gt;0,"(" &amp; E134 &amp; ") "," ") &amp; IF(F134&lt;&gt;"","NOT NULL ","") &amp; IF(G134="","","DEFAULT '" &amp; G134 &amp; "' ") &amp; IF(A134="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="135" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A135" s="34"/>
       <c r="B135" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D135" s="35" t="s">
         <v>5</v>
@@ -6040,20 +6050,20 @@
       <c r="H135" s="38"/>
       <c r="I135" s="40" t="str">
         <f>"," &amp; IF(A135="","","/* ") &amp; "`" &amp; C135 &amp; "` " &amp; D135 &amp; IF(E135&gt;0,"(" &amp; E135 &amp; ") "," ") &amp; IF(F135&lt;&gt;"","NOT NULL ","") &amp; IF(G135="","","DEFAULT '" &amp; G135 &amp; "' ") &amp; IF(A135="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J135" s="41" t="str">
         <f>"," &amp; IF(A135="","","/* ") &amp; "`" &amp; C135 &amp; "` " &amp; D135 &amp; IF(E135&gt;0,"(" &amp; E135 &amp; ") "," ") &amp; IF(F135&lt;&gt;"","NOT NULL ","") &amp; IF(G135="","","DEFAULT '" &amp; G135 &amp; "' ") &amp; IF(A135="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="136" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="34"/>
       <c r="B136" s="39" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D136" s="35" t="s">
         <v>5</v>
@@ -6064,20 +6074,20 @@
       <c r="H136" s="38"/>
       <c r="I136" s="40" t="str">
         <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J136" s="41" t="str">
         <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="137" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="34"/>
       <c r="B137" s="39" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D137" s="35" t="s">
         <v>5</v>
@@ -6088,70 +6098,68 @@
       <c r="H137" s="38"/>
       <c r="I137" s="40" t="str">
         <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J137" s="41" t="str">
         <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="138" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="34"/>
       <c r="B138" s="39" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E138" s="36"/>
       <c r="F138" s="35"/>
       <c r="G138" s="37"/>
       <c r="H138" s="38"/>
       <c r="I138" s="40" t="str">
-        <f t="shared" ref="I138" si="34">"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J138" s="41" t="str">
-        <f t="shared" ref="J138" si="35">"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
+        <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="34"/>
       <c r="B139" s="39" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="36">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E139" s="36"/>
       <c r="F139" s="35"/>
       <c r="G139" s="37"/>
       <c r="H139" s="38"/>
       <c r="I139" s="40" t="str">
-        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" ref="I139" si="34">"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
       <c r="J139" s="41" t="str">
-        <f>"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <f t="shared" ref="J139" si="35">"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="34"/>
       <c r="B140" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="D140" s="35" t="s">
         <v>7</v>
@@ -6164,46 +6172,46 @@
       <c r="H140" s="38"/>
       <c r="I140" s="40" t="str">
         <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J140" s="41" t="str">
         <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="34"/>
       <c r="B141" s="39" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D141" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E141" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="37"/>
       <c r="H141" s="38"/>
       <c r="I141" s="40" t="str">
-        <f t="shared" ref="I141:I145" si="36">"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
       <c r="J141" s="41" t="str">
-        <f t="shared" ref="J141:J145" si="37">"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="34"/>
       <c r="B142" s="39" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D142" s="35" t="s">
         <v>7</v>
@@ -6215,48 +6223,50 @@
       <c r="G142" s="37"/>
       <c r="H142" s="38"/>
       <c r="I142" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="I142:I146" si="36">"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J142" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f t="shared" ref="J142:J146" si="37">"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="34"/>
       <c r="B143" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E143" s="36">
+        <v>256</v>
+      </c>
       <c r="F143" s="35"/>
       <c r="G143" s="37"/>
       <c r="H143" s="38"/>
       <c r="I143" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J143" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="34"/>
       <c r="B144" s="39" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="35"/>
@@ -6264,23 +6274,23 @@
       <c r="H144" s="38"/>
       <c r="I144" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
       <c r="J144" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
     </row>
     <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="34"/>
       <c r="B145" s="39" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E145" s="36"/>
       <c r="F145" s="35"/>
@@ -6288,20 +6298,20 @@
       <c r="H145" s="38"/>
       <c r="I145" s="40" t="str">
         <f t="shared" si="36"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J145" s="41" t="str">
         <f t="shared" si="37"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="34"/>
       <c r="B146" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D146" s="35" t="s">
         <v>9</v>
@@ -6311,97 +6321,95 @@
       <c r="G146" s="37"/>
       <c r="H146" s="38"/>
       <c r="I146" s="40" t="str">
-        <f>"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J146" s="41" t="str">
-        <f>"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
     <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="34"/>
       <c r="B147" s="39" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="36">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E147" s="36"/>
       <c r="F147" s="35"/>
       <c r="G147" s="37"/>
       <c r="H147" s="38"/>
       <c r="I147" s="40" t="str">
-        <f t="shared" ref="I147:I155" si="38">"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J147" s="41" t="str">
-        <f t="shared" ref="J147:J155" si="39">"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f>"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
     <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="34"/>
       <c r="B148" s="39" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E148" s="36">
+        <v>256</v>
+      </c>
       <c r="F148" s="35"/>
       <c r="G148" s="37"/>
       <c r="H148" s="38"/>
       <c r="I148" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" ref="I148:I156" si="38">"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
       <c r="J148" s="41" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" ref="J148:J156" si="39">"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
     </row>
     <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="34"/>
-      <c r="B149" s="43" t="s">
-        <v>86</v>
+      <c r="B149" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="36">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E149" s="36"/>
       <c r="F149" s="35"/>
       <c r="G149" s="37"/>
       <c r="H149" s="38"/>
       <c r="I149" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J149" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="34"/>
       <c r="B150" s="43" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="D150" s="35" t="s">
         <v>7</v>
@@ -6414,97 +6422,99 @@
       <c r="H150" s="38"/>
       <c r="I150" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J150" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="34"/>
       <c r="B151" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E151" s="36">
+        <v>256</v>
+      </c>
       <c r="F151" s="35"/>
       <c r="G151" s="37"/>
       <c r="H151" s="38"/>
       <c r="I151" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J151" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="34"/>
       <c r="B152" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="36">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E152" s="36"/>
       <c r="F152" s="35"/>
       <c r="G152" s="37"/>
       <c r="H152" s="38"/>
       <c r="I152" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J152" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="34"/>
       <c r="B153" s="43" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E153" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E153" s="36">
+        <v>64</v>
+      </c>
       <c r="F153" s="35"/>
       <c r="G153" s="37"/>
       <c r="H153" s="38"/>
       <c r="I153" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
       <c r="J153" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="34"/>
       <c r="B154" s="43" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="35"/>
@@ -6512,20 +6522,20 @@
       <c r="H154" s="38"/>
       <c r="I154" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J154" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="34"/>
       <c r="B155" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D155" s="35" t="s">
         <v>8</v>
@@ -6536,148 +6546,146 @@
       <c r="H155" s="38"/>
       <c r="I155" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J155" s="41" t="str">
         <f t="shared" si="39"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="34"/>
+      <c r="B156" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="36"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="40" t="str">
+        <f t="shared" si="38"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A156" s="2"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="28" t="s">
+      <c r="J156" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A157" s="2"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J156" s="29" t="s">
+      <c r="J157" s="29" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A158" s="2"/>
-      <c r="B158" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C158" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F158" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H158" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I158" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C158 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
-      <c r="J158" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C158 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I159" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C159 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+      <c r="J159" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C159 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A160" s="2"/>
+      <c r="B160" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E159" s="7"/>
-      <c r="F159" s="6" t="s">
+      <c r="E160" s="7"/>
+      <c r="F160" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G159" s="8"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="28" t="s">
+      <c r="G160" s="8"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J159" s="30" t="s">
+      <c r="J160" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A160" s="34"/>
-      <c r="B160" s="32" t="s">
+    <row r="161" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="34"/>
+      <c r="B161" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C161" s="35" t="s">
         <v>130</v>
-      </c>
-      <c r="D160" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" s="36">
-        <v>20</v>
-      </c>
-      <c r="F160" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" s="37"/>
-      <c r="H160" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="I160" s="40" t="str">
-        <f t="shared" ref="I160:I173" si="40">"," &amp; IF(A160="","","/* ") &amp; "`" &amp; C160 &amp; "` " &amp; D160 &amp; IF(E160&gt;0,"(" &amp; E160 &amp; ") "," ") &amp; IF(F160&lt;&gt;"","NOT NULL ","") &amp; IF(G160="","","DEFAULT '" &amp; G160 &amp; "' ") &amp; IF(A160="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
-      </c>
-      <c r="J160" s="41" t="str">
-        <f t="shared" ref="J160:J173" si="41">"," &amp; IF(A160="","","/* ") &amp; "`" &amp; C160 &amp; "` " &amp; D160 &amp; IF(E160&gt;0,"(" &amp; E160 &amp; ") "," ") &amp; IF(F160&lt;&gt;"","NOT NULL ","") &amp; IF(G160="","","DEFAULT '" &amp; G160 &amp; "' ") &amp; IF(A160="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A161" s="2"/>
-      <c r="B161" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>131</v>
       </c>
       <c r="D161" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E161" s="36">
-        <v>256</v>
-      </c>
-      <c r="F161" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="F161" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G161" s="37"/>
-      <c r="H161" s="38"/>
+      <c r="H161" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="I161" s="40" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
+        <f t="shared" ref="I161:I174" si="40">"," &amp; IF(A161="","","/* ") &amp; "`" &amp; C161 &amp; "` " &amp; D161 &amp; IF(E161&gt;0,"(" &amp; E161 &amp; ") "," ") &amp; IF(F161&lt;&gt;"","NOT NULL ","") &amp; IF(G161="","","DEFAULT '" &amp; G161 &amp; "' ") &amp; IF(A161="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
       </c>
       <c r="J161" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="34"/>
-      <c r="B162" s="39" t="s">
-        <v>112</v>
+        <f t="shared" ref="J161:J174" si="41">"," &amp; IF(A161="","","/* ") &amp; "`" &amp; C161 &amp; "` " &amp; D161 &amp; IF(E161&gt;0,"(" &amp; E161 &amp; ") "," ") &amp; IF(F161&lt;&gt;"","NOT NULL ","") &amp; IF(G161="","","DEFAULT '" &amp; G161 &amp; "' ") &amp; IF(A161="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A162" s="2"/>
+      <c r="B162" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D162" s="35" t="s">
         <v>7</v>
@@ -6690,96 +6698,96 @@
       <c r="H162" s="38"/>
       <c r="I162" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
       <c r="J162" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
     </row>
     <row r="163" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A163" s="34"/>
       <c r="B163" s="39" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E163" s="36">
+        <v>256</v>
+      </c>
       <c r="F163" s="35"/>
       <c r="G163" s="37"/>
       <c r="H163" s="38"/>
       <c r="I163" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
       <c r="J163" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
     </row>
     <row r="164" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A164" s="34"/>
       <c r="B164" s="39" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="36">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E164" s="36"/>
       <c r="F164" s="35"/>
       <c r="G164" s="37"/>
       <c r="H164" s="38"/>
       <c r="I164" s="40" t="str">
-        <f t="shared" ref="I164" si="42">"," &amp; IF(A164="","","/* ") &amp; "`" &amp; C164 &amp; "` " &amp; D164 &amp; IF(E164&gt;0,"(" &amp; E164 &amp; ") "," ") &amp; IF(F164&lt;&gt;"","NOT NULL ","") &amp; IF(G164="","","DEFAULT '" &amp; G164 &amp; "' ") &amp; IF(A164="",""," */")</f>
-        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
       <c r="J164" s="41" t="str">
-        <f t="shared" ref="J164" si="43">"," &amp; IF(A164="","","/* ") &amp; "`" &amp; C164 &amp; "` " &amp; D164 &amp; IF(E164&gt;0,"(" &amp; E164 &amp; ") "," ") &amp; IF(F164&lt;&gt;"","NOT NULL ","") &amp; IF(G164="","","DEFAULT '" &amp; G164 &amp; "' ") &amp; IF(A164="",""," */")</f>
-        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
     </row>
     <row r="165" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A165" s="34"/>
       <c r="B165" s="39" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="D165" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E165" s="36">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="37"/>
       <c r="H165" s="38"/>
       <c r="I165" s="40" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <f t="shared" ref="I165" si="42">"," &amp; IF(A165="","","/* ") &amp; "`" &amp; C165 &amp; "` " &amp; D165 &amp; IF(E165&gt;0,"(" &amp; E165 &amp; ") "," ") &amp; IF(F165&lt;&gt;"","NOT NULL ","") &amp; IF(G165="","","DEFAULT '" &amp; G165 &amp; "' ") &amp; IF(A165="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
       </c>
       <c r="J165" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <f t="shared" ref="J165" si="43">"," &amp; IF(A165="","","/* ") &amp; "`" &amp; C165 &amp; "` " &amp; D165 &amp; IF(E165&gt;0,"(" &amp; E165 &amp; ") "," ") &amp; IF(F165&lt;&gt;"","NOT NULL ","") &amp; IF(G165="","","DEFAULT '" &amp; G165 &amp; "' ") &amp; IF(A165="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
       </c>
     </row>
     <row r="166" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A166" s="34"/>
       <c r="B166" s="39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D166" s="35" t="s">
         <v>7</v>
@@ -6792,20 +6800,20 @@
       <c r="H166" s="38"/>
       <c r="I166" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
       <c r="J166" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="167" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A167" s="34"/>
       <c r="B167" s="39" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D167" s="35" t="s">
         <v>7</v>
@@ -6815,49 +6823,51 @@
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="37"/>
-      <c r="H167" s="38" t="s">
-        <v>133</v>
-      </c>
+      <c r="H167" s="38"/>
       <c r="I167" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
       <c r="J167" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="168" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A168" s="34"/>
       <c r="B168" s="39" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E168" s="36">
+        <v>20</v>
+      </c>
       <c r="F168" s="35"/>
       <c r="G168" s="37"/>
-      <c r="H168" s="38"/>
+      <c r="H168" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="I168" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
       <c r="J168" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="169" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A169" s="34"/>
       <c r="B169" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D169" s="35" t="s">
         <v>9</v>
@@ -6868,148 +6878,148 @@
       <c r="H169" s="38"/>
       <c r="I169" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
       <c r="J169" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
     </row>
     <row r="170" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A170" s="34"/>
       <c r="B170" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="36">
-        <v>64</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E170" s="36"/>
       <c r="F170" s="35"/>
       <c r="G170" s="37"/>
       <c r="H170" s="38"/>
       <c r="I170" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
       <c r="J170" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
     </row>
     <row r="171" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A171" s="34"/>
       <c r="B171" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D171" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E171" s="36">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="37"/>
       <c r="H171" s="38"/>
       <c r="I171" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
       <c r="J171" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
     </row>
     <row r="172" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A172" s="34"/>
       <c r="B172" s="39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D172" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F172" s="35"/>
       <c r="G172" s="37"/>
       <c r="H172" s="38"/>
       <c r="I172" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
       <c r="J172" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
       </c>
     </row>
     <row r="173" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A173" s="34"/>
       <c r="B173" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="D173" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E173" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="37"/>
       <c r="H173" s="38"/>
       <c r="I173" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
       <c r="J173" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="174" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A174" s="34"/>
       <c r="B174" s="39" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E174" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E174" s="36">
+        <v>256</v>
+      </c>
       <c r="F174" s="35"/>
       <c r="G174" s="37"/>
       <c r="H174" s="38"/>
       <c r="I174" s="40" t="str">
-        <f t="shared" ref="I174:I175" si="44">"," &amp; IF(A174="","","/* ") &amp; "`" &amp; C174 &amp; "` " &amp; D174 &amp; IF(E174&gt;0,"(" &amp; E174 &amp; ") "," ") &amp; IF(F174&lt;&gt;"","NOT NULL ","") &amp; IF(G174="","","DEFAULT '" &amp; G174 &amp; "' ") &amp; IF(A174="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J174" s="41" t="str">
-        <f t="shared" ref="J174:J175" si="45">"," &amp; IF(A174="","","/* ") &amp; "`" &amp; C174 &amp; "` " &amp; D174 &amp; IF(E174&gt;0,"(" &amp; E174 &amp; ") "," ") &amp; IF(F174&lt;&gt;"","NOT NULL ","") &amp; IF(G174="","","DEFAULT '" &amp; G174 &amp; "' ") &amp; IF(A174="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="175" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A175" s="34"/>
       <c r="B175" s="39" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="D175" s="35" t="s">
         <v>5</v>
@@ -7019,100 +7029,100 @@
       <c r="G175" s="37"/>
       <c r="H175" s="38"/>
       <c r="I175" s="40" t="str">
+        <f t="shared" ref="I175:I176" si="44">"," &amp; IF(A175="","","/* ") &amp; "`" &amp; C175 &amp; "` " &amp; D175 &amp; IF(E175&gt;0,"(" &amp; E175 &amp; ") "," ") &amp; IF(F175&lt;&gt;"","NOT NULL ","") &amp; IF(G175="","","DEFAULT '" &amp; G175 &amp; "' ") &amp; IF(A175="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+      <c r="J175" s="41" t="str">
+        <f t="shared" ref="J175:J176" si="45">"," &amp; IF(A175="","","/* ") &amp; "`" &amp; C175 &amp; "` " &amp; D175 &amp; IF(E175&gt;0,"(" &amp; E175 &amp; ") "," ") &amp; IF(F175&lt;&gt;"","NOT NULL ","") &amp; IF(G175="","","DEFAULT '" &amp; G175 &amp; "' ") &amp; IF(A175="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="34"/>
+      <c r="B176" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="36"/>
+      <c r="F176" s="35"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="38"/>
+      <c r="I176" s="40" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve">,`price` INT </v>
       </c>
-      <c r="J175" s="41" t="str">
+      <c r="J176" s="41" t="str">
         <f t="shared" si="45"/>
         <v xml:space="preserve">,`price` INT </v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A176" s="2"/>
-      <c r="B176" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="7">
-        <v>256</v>
-      </c>
-      <c r="F176" s="6"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="27" t="str">
-        <f>"," &amp; IF(A176="","","/* ") &amp; "`" &amp; C176 &amp; "` " &amp; D176 &amp; IF(E176&gt;0,"(" &amp; E176 &amp; ") "," ") &amp; IF(F176&lt;&gt;"","NOT NULL ","") &amp; IF(G176="","","DEFAULT '" &amp; G176 &amp; "' ") &amp; IF(A176="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-      <c r="J176" s="29" t="str">
-        <f>"," &amp; IF(A176="","","/* ") &amp; "`" &amp; C176 &amp; "` " &amp; D176 &amp; IF(E176&gt;0,"(" &amp; E176 &amp; ") "," ") &amp; IF(F176&lt;&gt;"","NOT NULL ","") &amp; IF(G176="","","DEFAULT '" &amp; G176 &amp; "' ") &amp; IF(A176="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="20" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E177" s="7">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="8"/>
       <c r="H177" s="9"/>
       <c r="I177" s="27" t="str">
         <f>"," &amp; IF(A177="","","/* ") &amp; "`" &amp; C177 &amp; "` " &amp; D177 &amp; IF(E177&gt;0,"(" &amp; E177 &amp; ") "," ") &amp; IF(F177&lt;&gt;"","NOT NULL ","") &amp; IF(G177="","","DEFAULT '" &amp; G177 &amp; "' ") &amp; IF(A177="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J177" s="29" t="str">
         <f>"," &amp; IF(A177="","","/* ") &amp; "`" &amp; C177 &amp; "` " &amp; D177 &amp; IF(E177&gt;0,"(" &amp; E177 &amp; ") "," ") &amp; IF(F177&lt;&gt;"","NOT NULL ","") &amp; IF(G177="","","DEFAULT '" &amp; G177 &amp; "' ") &amp; IF(A177="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A178" s="2"/>
+      <c r="B178" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="7">
+        <v>128</v>
+      </c>
+      <c r="F178" s="6"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="27" t="str">
+        <f>"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
         <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
-    </row>
-    <row r="178" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A178" s="34"/>
-      <c r="B178" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C178" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D178" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="36"/>
-      <c r="F178" s="35"/>
-      <c r="G178" s="37"/>
-      <c r="H178" s="38"/>
-      <c r="I178" s="40" t="str">
+      <c r="J178" s="29" t="str">
         <f>"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
-      </c>
-      <c r="J178" s="41" t="str">
-        <f>"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="179" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A179" s="34"/>
       <c r="B179" s="39" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E179" s="36"/>
       <c r="F179" s="35"/>
@@ -7120,46 +7130,44 @@
       <c r="H179" s="38"/>
       <c r="I179" s="40" t="str">
         <f>"," &amp; IF(A179="","","/* ") &amp; "`" &amp; C179 &amp; "` " &amp; D179 &amp; IF(E179&gt;0,"(" &amp; E179 &amp; ") "," ") &amp; IF(F179&lt;&gt;"","NOT NULL ","") &amp; IF(G179="","","DEFAULT '" &amp; G179 &amp; "' ") &amp; IF(A179="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
       </c>
       <c r="J179" s="41" t="str">
         <f>"," &amp; IF(A179="","","/* ") &amp; "`" &amp; C179 &amp; "` " &amp; D179 &amp; IF(E179&gt;0,"(" &amp; E179 &amp; ") "," ") &amp; IF(F179&lt;&gt;"","NOT NULL ","") &amp; IF(G179="","","DEFAULT '" &amp; G179 &amp; "' ") &amp; IF(A179="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A180" s="34"/>
+      <c r="B180" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D180" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="36"/>
+      <c r="F180" s="35"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="40" t="str">
+        <f>"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
         <v xml:space="preserve">,`status_id` INT </v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A180" s="2"/>
-      <c r="B180" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="7">
-        <v>256</v>
-      </c>
-      <c r="F180" s="6"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="27" t="str">
-        <f t="shared" ref="I180:I186" si="46">"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J180" s="29" t="str">
-        <f t="shared" ref="J180:J186" si="47">"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      <c r="J180" s="41" t="str">
+        <f>"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="43" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>7</v>
@@ -7171,98 +7179,100 @@
       <c r="G181" s="8"/>
       <c r="H181" s="9"/>
       <c r="I181" s="27" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="I181:I187" si="46">"," &amp; IF(A181="","","/* ") &amp; "`" &amp; C181 &amp; "` " &amp; D181 &amp; IF(E181&gt;0,"(" &amp; E181 &amp; ") "," ") &amp; IF(F181&lt;&gt;"","NOT NULL ","") &amp; IF(G181="","","DEFAULT '" &amp; G181 &amp; "' ") &amp; IF(A181="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J181" s="29" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="J181:J187" si="47">"," &amp; IF(A181="","","/* ") &amp; "`" &amp; C181 &amp; "` " &amp; D181 &amp; IF(E181&gt;0,"(" &amp; E181 &amp; ") "," ") &amp; IF(F181&lt;&gt;"","NOT NULL ","") &amp; IF(G181="","","DEFAULT '" &amp; G181 &amp; "' ") &amp; IF(A181="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E182" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E182" s="7">
+        <v>256</v>
+      </c>
       <c r="F182" s="6"/>
       <c r="G182" s="8"/>
       <c r="H182" s="9"/>
       <c r="I182" s="27" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J182" s="29" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="7">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E183" s="7"/>
       <c r="F183" s="6"/>
       <c r="G183" s="8"/>
       <c r="H183" s="9"/>
       <c r="I183" s="27" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
       <c r="J183" s="29" t="str">
         <f t="shared" si="47"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A184" s="2"/>
+      <c r="B184" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="7">
+        <v>64</v>
+      </c>
+      <c r="F184" s="6"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="27" t="str">
+        <f t="shared" si="46"/>
         <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
-    </row>
-    <row r="184" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="34"/>
-      <c r="B184" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C184" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D184" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E184" s="36"/>
-      <c r="F184" s="35"/>
-      <c r="G184" s="37"/>
-      <c r="H184" s="38"/>
-      <c r="I184" s="40" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J184" s="41" t="str">
+      <c r="J184" s="29" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
       </c>
     </row>
     <row r="185" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A185" s="34"/>
       <c r="B185" s="43" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="E185" s="36"/>
       <c r="F185" s="35"/>
@@ -7270,20 +7280,20 @@
       <c r="H185" s="38"/>
       <c r="I185" s="40" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J185" s="41" t="str">
         <f t="shared" si="47"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="186" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A186" s="34"/>
       <c r="B186" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C186" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D186" s="35" t="s">
         <v>8</v>
@@ -7294,240 +7304,242 @@
       <c r="H186" s="38"/>
       <c r="I186" s="40" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
       <c r="J186" s="41" t="str">
         <f t="shared" si="47"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="34"/>
+      <c r="B187" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C187" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="36"/>
+      <c r="F187" s="35"/>
+      <c r="G187" s="37"/>
+      <c r="H187" s="38"/>
+      <c r="I187" s="40" t="str">
+        <f t="shared" si="46"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A187" s="2"/>
-      <c r="B187" s="21"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="22"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="23"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J187" s="29" t="s">
-        <v>33</v>
+      <c r="J187" s="41" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A189" s="34"/>
-      <c r="B189" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C189" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F189" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G189" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H189" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I189" s="40" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C189 &amp; "` ("</f>
-        <v>CREATE TABLE `productinfos` (</v>
-      </c>
-      <c r="J189" s="41" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C189 &amp; "` ("</f>
-        <v>CREATE TABLE `productinfos` (</v>
-      </c>
+      <c r="B188" s="21"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="22"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J188" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A189" s="2"/>
     </row>
     <row r="190" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A190" s="34"/>
-      <c r="B190" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D190" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E190" s="36"/>
-      <c r="F190" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" s="37"/>
-      <c r="H190" s="38"/>
-      <c r="I190" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J190" s="30" t="s">
-        <v>20</v>
+      <c r="B190" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I190" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C190 &amp; "` ("</f>
+        <v>CREATE TABLE `productinfos` (</v>
+      </c>
+      <c r="J190" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C190 &amp; "` ("</f>
+        <v>CREATE TABLE `productinfos` (</v>
       </c>
     </row>
     <row r="191" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A191" s="34"/>
       <c r="B191" s="39" t="s">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="36">
-        <v>128</v>
-      </c>
-      <c r="F191" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="E191" s="36"/>
+      <c r="F191" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G191" s="37"/>
       <c r="H191" s="38"/>
-      <c r="I191" s="40" t="str">
-        <f>"," &amp; IF(A191="","","/* ") &amp; "`" &amp; C191 &amp; "` " &amp; D191 &amp; IF(E191&gt;0,"(" &amp; E191 &amp; ") "," ") &amp; IF(F191&lt;&gt;"","NOT NULL ","") &amp; IF(G191="","","DEFAULT '" &amp; G191 &amp; "' ") &amp; IF(A191="",""," */")</f>
-        <v xml:space="preserve">,`category` VARCHAR(128) </v>
-      </c>
-      <c r="J191" s="41" t="str">
-        <f>"," &amp; IF(A191="","","/* ") &amp; "`" &amp; C191 &amp; "` " &amp; D191 &amp; IF(E191&gt;0,"(" &amp; E191 &amp; ") "," ") &amp; IF(F191&lt;&gt;"","NOT NULL ","") &amp; IF(G191="","","DEFAULT '" &amp; G191 &amp; "' ") &amp; IF(A191="",""," */")</f>
-        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+      <c r="I191" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A192" s="34"/>
       <c r="B192" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E192" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E192" s="36">
+        <v>128</v>
+      </c>
       <c r="F192" s="35"/>
       <c r="G192" s="37"/>
       <c r="H192" s="38"/>
       <c r="I192" s="40" t="str">
         <f>"," &amp; IF(A192="","","/* ") &amp; "`" &amp; C192 &amp; "` " &amp; D192 &amp; IF(E192&gt;0,"(" &amp; E192 &amp; ") "," ") &amp; IF(F192&lt;&gt;"","NOT NULL ","") &amp; IF(G192="","","DEFAULT '" &amp; G192 &amp; "' ") &amp; IF(A192="",""," */")</f>
-        <v xml:space="preserve">,`use_support` INT </v>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
       </c>
       <c r="J192" s="41" t="str">
         <f>"," &amp; IF(A192="","","/* ") &amp; "`" &amp; C192 &amp; "` " &amp; D192 &amp; IF(E192&gt;0,"(" &amp; E192 &amp; ") "," ") &amp; IF(F192&lt;&gt;"","NOT NULL ","") &amp; IF(G192="","","DEFAULT '" &amp; G192 &amp; "' ") &amp; IF(A192="",""," */")</f>
-        <v xml:space="preserve">,`use_support` INT </v>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
       </c>
     </row>
     <row r="193" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A193" s="34"/>
-      <c r="B193" s="39"/>
+      <c r="B193" s="39" t="s">
+        <v>182</v>
+      </c>
       <c r="C193" s="35" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D193" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="36">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E193" s="36"/>
       <c r="F193" s="35"/>
       <c r="G193" s="37"/>
       <c r="H193" s="38"/>
       <c r="I193" s="40" t="str">
         <f>"," &amp; IF(A193="","","/* ") &amp; "`" &amp; C193 &amp; "` " &amp; D193 &amp; IF(E193&gt;0,"(" &amp; E193 &amp; ") "," ") &amp; IF(F193&lt;&gt;"","NOT NULL ","") &amp; IF(G193="","","DEFAULT '" &amp; G193 &amp; "' ") &amp; IF(A193="",""," */")</f>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`use_support` INT </v>
       </c>
       <c r="J193" s="41" t="str">
         <f>"," &amp; IF(A193="","","/* ") &amp; "`" &amp; C193 &amp; "` " &amp; D193 &amp; IF(E193&gt;0,"(" &amp; E193 &amp; ") "," ") &amp; IF(F193&lt;&gt;"","NOT NULL ","") &amp; IF(G193="","","DEFAULT '" &amp; G193 &amp; "' ") &amp; IF(A193="",""," */")</f>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`use_support` INT </v>
       </c>
     </row>
     <row r="194" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A194" s="34"/>
       <c r="B194" s="39"/>
       <c r="C194" s="35" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D194" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E194" s="36">
-        <v>512</v>
+        <v>20</v>
       </c>
       <c r="F194" s="35"/>
       <c r="G194" s="37"/>
       <c r="H194" s="38"/>
       <c r="I194" s="40" t="str">
         <f>"," &amp; IF(A194="","","/* ") &amp; "`" &amp; C194 &amp; "` " &amp; D194 &amp; IF(E194&gt;0,"(" &amp; E194 &amp; ") "," ") &amp; IF(F194&lt;&gt;"","NOT NULL ","") &amp; IF(G194="","","DEFAULT '" &amp; G194 &amp; "' ") &amp; IF(A194="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
       <c r="J194" s="41" t="str">
         <f>"," &amp; IF(A194="","","/* ") &amp; "`" &amp; C194 &amp; "` " &amp; D194 &amp; IF(E194&gt;0,"(" &amp; E194 &amp; ") "," ") &amp; IF(F194&lt;&gt;"","NOT NULL ","") &amp; IF(G194="","","DEFAULT '" &amp; G194 &amp; "' ") &amp; IF(A194="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="195" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A195" s="34"/>
       <c r="B195" s="39"/>
       <c r="C195" s="35" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D195" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="36">
-        <v>20</v>
+        <v>512</v>
       </c>
       <c r="F195" s="35"/>
       <c r="G195" s="37"/>
       <c r="H195" s="38"/>
       <c r="I195" s="40" t="str">
-        <f t="shared" ref="I195" si="48">"," &amp; IF(A195="","","/* ") &amp; "`" &amp; C195 &amp; "` " &amp; D195 &amp; IF(E195&gt;0,"(" &amp; E195 &amp; ") "," ") &amp; IF(F195&lt;&gt;"","NOT NULL ","") &amp; IF(G195="","","DEFAULT '" &amp; G195 &amp; "' ") &amp; IF(A195="",""," */")</f>
-        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
+        <f>"," &amp; IF(A195="","","/* ") &amp; "`" &amp; C195 &amp; "` " &amp; D195 &amp; IF(E195&gt;0,"(" &amp; E195 &amp; ") "," ") &amp; IF(F195&lt;&gt;"","NOT NULL ","") &amp; IF(G195="","","DEFAULT '" &amp; G195 &amp; "' ") &amp; IF(A195="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
       </c>
       <c r="J195" s="41" t="str">
-        <f t="shared" ref="J195" si="49">"," &amp; IF(A195="","","/* ") &amp; "`" &amp; C195 &amp; "` " &amp; D195 &amp; IF(E195&gt;0,"(" &amp; E195 &amp; ") "," ") &amp; IF(F195&lt;&gt;"","NOT NULL ","") &amp; IF(G195="","","DEFAULT '" &amp; G195 &amp; "' ") &amp; IF(A195="",""," */")</f>
-        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
+        <f>"," &amp; IF(A195="","","/* ") &amp; "`" &amp; C195 &amp; "` " &amp; D195 &amp; IF(E195&gt;0,"(" &amp; E195 &amp; ") "," ") &amp; IF(F195&lt;&gt;"","NOT NULL ","") &amp; IF(G195="","","DEFAULT '" &amp; G195 &amp; "' ") &amp; IF(A195="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
       </c>
     </row>
     <row r="196" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A196" s="34"/>
       <c r="B196" s="39"/>
       <c r="C196" s="35" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="D196" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="E196" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E196" s="36">
+        <v>20</v>
+      </c>
       <c r="F196" s="35"/>
       <c r="G196" s="37"/>
       <c r="H196" s="38"/>
       <c r="I196" s="40" t="str">
-        <f>"," &amp; IF(A196="","","/* ") &amp; "`" &amp; C196 &amp; "` " &amp; D196 &amp; IF(E196&gt;0,"(" &amp; E196 &amp; ") "," ") &amp; IF(F196&lt;&gt;"","NOT NULL ","") &amp; IF(G196="","","DEFAULT '" &amp; G196 &amp; "' ") &amp; IF(A196="",""," */")</f>
-        <v xml:space="preserve">,`price` INT </v>
+        <f t="shared" ref="I196" si="48">"," &amp; IF(A196="","","/* ") &amp; "`" &amp; C196 &amp; "` " &amp; D196 &amp; IF(E196&gt;0,"(" &amp; E196 &amp; ") "," ") &amp; IF(F196&lt;&gt;"","NOT NULL ","") &amp; IF(G196="","","DEFAULT '" &amp; G196 &amp; "' ") &amp; IF(A196="",""," */")</f>
+        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
       </c>
       <c r="J196" s="41" t="str">
-        <f>"," &amp; IF(A196="","","/* ") &amp; "`" &amp; C196 &amp; "` " &amp; D196 &amp; IF(E196&gt;0,"(" &amp; E196 &amp; ") "," ") &amp; IF(F196&lt;&gt;"","NOT NULL ","") &amp; IF(G196="","","DEFAULT '" &amp; G196 &amp; "' ") &amp; IF(A196="",""," */")</f>
-        <v xml:space="preserve">,`price` INT </v>
+        <f t="shared" ref="J196" si="49">"," &amp; IF(A196="","","/* ") &amp; "`" &amp; C196 &amp; "` " &amp; D196 &amp; IF(E196&gt;0,"(" &amp; E196 &amp; ") "," ") &amp; IF(F196&lt;&gt;"","NOT NULL ","") &amp; IF(G196="","","DEFAULT '" &amp; G196 &amp; "' ") &amp; IF(A196="",""," */")</f>
+        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
       </c>
     </row>
     <row r="197" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A197" s="34"/>
       <c r="B197" s="39"/>
       <c r="C197" s="35" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="D197" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E197" s="36"/>
       <c r="F197" s="35"/>
@@ -7535,44 +7547,42 @@
       <c r="H197" s="38"/>
       <c r="I197" s="40" t="str">
         <f>"," &amp; IF(A197="","","/* ") &amp; "`" &amp; C197 &amp; "` " &amp; D197 &amp; IF(E197&gt;0,"(" &amp; E197 &amp; ") "," ") &amp; IF(F197&lt;&gt;"","NOT NULL ","") &amp; IF(G197="","","DEFAULT '" &amp; G197 &amp; "' ") &amp; IF(A197="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`price` INT </v>
       </c>
       <c r="J197" s="41" t="str">
         <f>"," &amp; IF(A197="","","/* ") &amp; "`" &amp; C197 &amp; "` " &amp; D197 &amp; IF(E197&gt;0,"(" &amp; E197 &amp; ") "," ") &amp; IF(F197&lt;&gt;"","NOT NULL ","") &amp; IF(G197="","","DEFAULT '" &amp; G197 &amp; "' ") &amp; IF(A197="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`price` INT </v>
       </c>
     </row>
     <row r="198" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="34"/>
-      <c r="B198" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="B198" s="39"/>
       <c r="C198" s="35" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="D198" s="35" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="E198" s="36"/>
       <c r="F198" s="35"/>
       <c r="G198" s="37"/>
       <c r="H198" s="38"/>
       <c r="I198" s="40" t="str">
-        <f t="shared" ref="I198:I199" si="50">"," &amp; IF(A198="","","/* ") &amp; "`" &amp; C198 &amp; "` " &amp; D198 &amp; IF(E198&gt;0,"(" &amp; E198 &amp; ") "," ") &amp; IF(F198&lt;&gt;"","NOT NULL ","") &amp; IF(G198="","","DEFAULT '" &amp; G198 &amp; "' ") &amp; IF(A198="",""," */")</f>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f>"," &amp; IF(A198="","","/* ") &amp; "`" &amp; C198 &amp; "` " &amp; D198 &amp; IF(E198&gt;0,"(" &amp; E198 &amp; ") "," ") &amp; IF(F198&lt;&gt;"","NOT NULL ","") &amp; IF(G198="","","DEFAULT '" &amp; G198 &amp; "' ") &amp; IF(A198="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J198" s="41" t="str">
-        <f t="shared" ref="J198:J199" si="51">"," &amp; IF(A198="","","/* ") &amp; "`" &amp; C198 &amp; "` " &amp; D198 &amp; IF(E198&gt;0,"(" &amp; E198 &amp; ") "," ") &amp; IF(F198&lt;&gt;"","NOT NULL ","") &amp; IF(G198="","","DEFAULT '" &amp; G198 &amp; "' ") &amp; IF(A198="",""," */")</f>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f>"," &amp; IF(A198="","","/* ") &amp; "`" &amp; C198 &amp; "` " &amp; D198 &amp; IF(E198&gt;0,"(" &amp; E198 &amp; ") "," ") &amp; IF(F198&lt;&gt;"","NOT NULL ","") &amp; IF(G198="","","DEFAULT '" &amp; G198 &amp; "' ") &amp; IF(A198="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="199" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="34"/>
       <c r="B199" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C199" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D199" s="35" t="s">
         <v>8</v>
@@ -7582,244 +7592,245 @@
       <c r="G199" s="37"/>
       <c r="H199" s="38"/>
       <c r="I199" s="40" t="str">
+        <f t="shared" ref="I199:I200" si="50">"," &amp; IF(A199="","","/* ") &amp; "`" &amp; C199 &amp; "` " &amp; D199 &amp; IF(E199&gt;0,"(" &amp; E199 &amp; ") "," ") &amp; IF(F199&lt;&gt;"","NOT NULL ","") &amp; IF(G199="","","DEFAULT '" &amp; G199 &amp; "' ") &amp; IF(A199="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J199" s="41" t="str">
+        <f t="shared" ref="J199:J200" si="51">"," &amp; IF(A199="","","/* ") &amp; "`" &amp; C199 &amp; "` " &amp; D199 &amp; IF(E199&gt;0,"(" &amp; E199 &amp; ") "," ") &amp; IF(F199&lt;&gt;"","NOT NULL ","") &amp; IF(G199="","","DEFAULT '" &amp; G199 &amp; "' ") &amp; IF(A199="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A200" s="34"/>
+      <c r="B200" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="36"/>
+      <c r="F200" s="35"/>
+      <c r="G200" s="37"/>
+      <c r="H200" s="38"/>
+      <c r="I200" s="40" t="str">
         <f t="shared" si="50"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-      <c r="J199" s="41" t="str">
+      <c r="J200" s="41" t="str">
         <f t="shared" si="51"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
-    <row r="200" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A200" s="34"/>
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="21"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="23"/>
-      <c r="H200" s="21"/>
-      <c r="I200" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J200" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="201" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A201" s="34"/>
-      <c r="E201" s="34"/>
-      <c r="G201" s="3"/>
-      <c r="I201" s="25"/>
-      <c r="J201" s="25"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B202" s="45" t="s">
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="22"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J201" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="34"/>
+      <c r="E202" s="34"/>
+      <c r="G202" s="3"/>
+      <c r="I202" s="25"/>
+      <c r="J202" s="25"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B203" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C202" s="24" t="s">
+      <c r="C203" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D202" s="15" t="s">
+      <c r="D203" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E203" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F202" s="19" t="s">
+      <c r="F203" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G202" s="17" t="s">
+      <c r="G203" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H202" s="18" t="s">
+      <c r="H203" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I202" s="40" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C202 &amp; "` ("</f>
+      <c r="I203" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C203 &amp; "` ("</f>
         <v>CREATE TABLE `supportcontracts` (</v>
       </c>
-      <c r="J202" s="41" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C202 &amp; "` ("</f>
+      <c r="J203" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C203 &amp; "` ("</f>
         <v>CREATE TABLE `supportcontracts` (</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B203" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D203" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E203" s="36"/>
-      <c r="F203" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" s="37"/>
-      <c r="H203" s="38"/>
-      <c r="I203" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J203" s="30" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B204" s="39" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="C204" s="35" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="D204" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="36">
-        <v>20</v>
-      </c>
-      <c r="F204" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="E204" s="36"/>
+      <c r="F204" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G204" s="37"/>
       <c r="H204" s="38"/>
-      <c r="I204" s="40" t="str">
-        <f t="shared" ref="I204:I209" si="52">"," &amp; IF(A204="","","/* ") &amp; "`" &amp; C204 &amp; "` " &amp; D204 &amp; IF(E204&gt;0,"(" &amp; E204 &amp; ") "," ") &amp; IF(F204&lt;&gt;"","NOT NULL ","") &amp; IF(G204="","","DEFAULT '" &amp; G204 &amp; "' ") &amp; IF(A204="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
-      </c>
-      <c r="J204" s="41" t="str">
-        <f t="shared" ref="J204:J209" si="53">"," &amp; IF(A204="","","/* ") &amp; "`" &amp; C204 &amp; "` " &amp; D204 &amp; IF(E204&gt;0,"(" &amp; E204 &amp; ") "," ") &amp; IF(F204&lt;&gt;"","NOT NULL ","") &amp; IF(G204="","","DEFAULT '" &amp; G204 &amp; "' ") &amp; IF(A204="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      <c r="I204" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J204" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B205" s="39" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="C205" s="35" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D205" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E205" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F205" s="35"/>
       <c r="G205" s="37"/>
       <c r="H205" s="38"/>
       <c r="I205" s="40" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve">,`contractor` VARCHAR(256) </v>
+        <f t="shared" ref="I205:I210" si="52">"," &amp; IF(A205="","","/* ") &amp; "`" &amp; C205 &amp; "` " &amp; D205 &amp; IF(E205&gt;0,"(" &amp; E205 &amp; ") "," ") &amp; IF(F205&lt;&gt;"","NOT NULL ","") &amp; IF(G205="","","DEFAULT '" &amp; G205 &amp; "' ") &amp; IF(A205="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
       </c>
       <c r="J205" s="41" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve">,`contractor` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+        <f t="shared" ref="J205:J210" si="53">"," &amp; IF(A205="","","/* ") &amp; "`" &amp; C205 &amp; "` " &amp; D205 &amp; IF(E205&gt;0,"(" &amp; E205 &amp; ") "," ") &amp; IF(F205&lt;&gt;"","NOT NULL ","") &amp; IF(G205="","","DEFAULT '" &amp; G205 &amp; "' ") &amp; IF(A205="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B206" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C206" s="35" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D206" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E206" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F206" s="35"/>
       <c r="G206" s="37"/>
       <c r="H206" s="38"/>
       <c r="I206" s="40" t="str">
         <f t="shared" si="52"/>
-        <v xml:space="preserve">,`eu_company_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`contractor` VARCHAR(256) </v>
       </c>
       <c r="J206" s="41" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">,`eu_company_code` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">,`contractor` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B207" s="39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C207" s="35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D207" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E207" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F207" s="35"/>
       <c r="G207" s="37"/>
       <c r="H207" s="38"/>
       <c r="I207" s="40" t="str">
         <f t="shared" si="52"/>
-        <v xml:space="preserve">,`eu_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`eu_company_code` VARCHAR(20) </v>
       </c>
       <c r="J207" s="41" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">,`eu_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A208" s="34"/>
+        <v xml:space="preserve">,`eu_company_code` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B208" s="39" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C208" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D208" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E208" s="36">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F208" s="35"/>
       <c r="G208" s="37"/>
       <c r="H208" s="38"/>
       <c r="I208" s="40" t="str">
         <f t="shared" si="52"/>
-        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+        <v xml:space="preserve">,`eu_name` VARCHAR(256) </v>
       </c>
       <c r="J208" s="41" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">,`category` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B209" s="39"/>
+        <v xml:space="preserve">,`eu_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A209" s="34"/>
+      <c r="B209" s="39" t="s">
+        <v>181</v>
+      </c>
       <c r="C209" s="35" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D209" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E209" s="36">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F209" s="35"/>
       <c r="G209" s="37"/>
       <c r="H209" s="38"/>
       <c r="I209" s="40" t="str">
         <f t="shared" si="52"/>
-        <v xml:space="preserve">,`contract_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
       </c>
       <c r="J209" s="41" t="str">
         <f t="shared" si="53"/>
-        <v xml:space="preserve">,`contract_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B210" s="39"/>
       <c r="C210" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D210" s="35" t="s">
         <v>7</v>
@@ -7831,69 +7842,68 @@
       <c r="G210" s="37"/>
       <c r="H210" s="38"/>
       <c r="I210" s="40" t="str">
-        <f t="shared" ref="I210" si="54">"," &amp; IF(A210="","","/* ") &amp; "`" &amp; C210 &amp; "` " &amp; D210 &amp; IF(E210&gt;0,"(" &amp; E210 &amp; ") "," ") &amp; IF(F210&lt;&gt;"","NOT NULL ","") &amp; IF(G210="","","DEFAULT '" &amp; G210 &amp; "' ") &amp; IF(A210="",""," */")</f>
-        <v xml:space="preserve">,`contract_no2` VARCHAR(20) </v>
+        <f t="shared" si="52"/>
+        <v xml:space="preserve">,`contract_no` VARCHAR(20) </v>
       </c>
       <c r="J210" s="41" t="str">
-        <f t="shared" ref="J210" si="55">"," &amp; IF(A210="","","/* ") &amp; "`" &amp; C210 &amp; "` " &amp; D210 &amp; IF(E210&gt;0,"(" &amp; E210 &amp; ") "," ") &amp; IF(F210&lt;&gt;"","NOT NULL ","") &amp; IF(G210="","","DEFAULT '" &amp; G210 &amp; "' ") &amp; IF(A210="",""," */")</f>
-        <v xml:space="preserve">,`contract_no2` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A211" s="34"/>
+        <f t="shared" si="53"/>
+        <v xml:space="preserve">,`contract_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B211" s="39"/>
       <c r="C211" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D211" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E211" s="36">
-        <v>512</v>
+        <v>20</v>
       </c>
       <c r="F211" s="35"/>
       <c r="G211" s="37"/>
       <c r="H211" s="38"/>
       <c r="I211" s="40" t="str">
-        <f>"," &amp; IF(A211="","","/* ") &amp; "`" &amp; C211 &amp; "` " &amp; D211 &amp; IF(E211&gt;0,"(" &amp; E211 &amp; ") "," ") &amp; IF(F211&lt;&gt;"","NOT NULL ","") &amp; IF(G211="","","DEFAULT '" &amp; G211 &amp; "' ") &amp; IF(A211="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+        <f t="shared" ref="I211" si="54">"," &amp; IF(A211="","","/* ") &amp; "`" &amp; C211 &amp; "` " &amp; D211 &amp; IF(E211&gt;0,"(" &amp; E211 &amp; ") "," ") &amp; IF(F211&lt;&gt;"","NOT NULL ","") &amp; IF(G211="","","DEFAULT '" &amp; G211 &amp; "' ") &amp; IF(A211="",""," */")</f>
+        <v xml:space="preserve">,`contract_no2` VARCHAR(20) </v>
       </c>
       <c r="J211" s="41" t="str">
-        <f>"," &amp; IF(A211="","","/* ") &amp; "`" &amp; C211 &amp; "` " &amp; D211 &amp; IF(E211&gt;0,"(" &amp; E211 &amp; ") "," ") &amp; IF(F211&lt;&gt;"","NOT NULL ","") &amp; IF(G211="","","DEFAULT '" &amp; G211 &amp; "' ") &amp; IF(A211="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+        <f t="shared" ref="J211" si="55">"," &amp; IF(A211="","","/* ") &amp; "`" &amp; C211 &amp; "` " &amp; D211 &amp; IF(E211&gt;0,"(" &amp; E211 &amp; ") "," ") &amp; IF(F211&lt;&gt;"","NOT NULL ","") &amp; IF(G211="","","DEFAULT '" &amp; G211 &amp; "' ") &amp; IF(A211="",""," */")</f>
+        <v xml:space="preserve">,`contract_no2` VARCHAR(20) </v>
       </c>
     </row>
     <row r="212" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A212" s="34"/>
-      <c r="B212" s="39" t="s">
-        <v>173</v>
-      </c>
+      <c r="B212" s="39"/>
       <c r="C212" s="35" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D212" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E212" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E212" s="36">
+        <v>512</v>
+      </c>
       <c r="F212" s="35"/>
       <c r="G212" s="37"/>
       <c r="H212" s="38"/>
       <c r="I212" s="40" t="str">
-        <f t="shared" ref="I212" si="56">"," &amp; IF(A212="","","/* ") &amp; "`" &amp; C212 &amp; "` " &amp; D212 &amp; IF(E212&gt;0,"(" &amp; E212 &amp; ") "," ") &amp; IF(F212&lt;&gt;"","NOT NULL ","") &amp; IF(G212="","","DEFAULT '" &amp; G212 &amp; "' ") &amp; IF(A212="",""," */")</f>
-        <v xml:space="preserve">,`contract_date` DATE </v>
+        <f>"," &amp; IF(A212="","","/* ") &amp; "`" &amp; C212 &amp; "` " &amp; D212 &amp; IF(E212&gt;0,"(" &amp; E212 &amp; ") "," ") &amp; IF(F212&lt;&gt;"","NOT NULL ","") &amp; IF(G212="","","DEFAULT '" &amp; G212 &amp; "' ") &amp; IF(A212="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
       </c>
       <c r="J212" s="41" t="str">
-        <f t="shared" ref="J212" si="57">"," &amp; IF(A212="","","/* ") &amp; "`" &amp; C212 &amp; "` " &amp; D212 &amp; IF(E212&gt;0,"(" &amp; E212 &amp; ") "," ") &amp; IF(F212&lt;&gt;"","NOT NULL ","") &amp; IF(G212="","","DEFAULT '" &amp; G212 &amp; "' ") &amp; IF(A212="",""," */")</f>
-        <v xml:space="preserve">,`contract_date` DATE </v>
+        <f>"," &amp; IF(A212="","","/* ") &amp; "`" &amp; C212 &amp; "` " &amp; D212 &amp; IF(E212&gt;0,"(" &amp; E212 &amp; ") "," ") &amp; IF(F212&lt;&gt;"","NOT NULL ","") &amp; IF(G212="","","DEFAULT '" &amp; G212 &amp; "' ") &amp; IF(A212="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
       </c>
     </row>
     <row r="213" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A213" s="34"/>
       <c r="B213" s="39" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D213" s="35" t="s">
         <v>9</v>
@@ -7903,21 +7913,21 @@
       <c r="G213" s="37"/>
       <c r="H213" s="38"/>
       <c r="I213" s="40" t="str">
-        <f t="shared" ref="I213" si="58">"," &amp; IF(A213="","","/* ") &amp; "`" &amp; C213 &amp; "` " &amp; D213 &amp; IF(E213&gt;0,"(" &amp; E213 &amp; ") "," ") &amp; IF(F213&lt;&gt;"","NOT NULL ","") &amp; IF(G213="","","DEFAULT '" &amp; G213 &amp; "' ") &amp; IF(A213="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" ref="I213" si="56">"," &amp; IF(A213="","","/* ") &amp; "`" &amp; C213 &amp; "` " &amp; D213 &amp; IF(E213&gt;0,"(" &amp; E213 &amp; ") "," ") &amp; IF(F213&lt;&gt;"","NOT NULL ","") &amp; IF(G213="","","DEFAULT '" &amp; G213 &amp; "' ") &amp; IF(A213="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
       <c r="J213" s="41" t="str">
-        <f t="shared" ref="J213" si="59">"," &amp; IF(A213="","","/* ") &amp; "`" &amp; C213 &amp; "` " &amp; D213 &amp; IF(E213&gt;0,"(" &amp; E213 &amp; ") "," ") &amp; IF(F213&lt;&gt;"","NOT NULL ","") &amp; IF(G213="","","DEFAULT '" &amp; G213 &amp; "' ") &amp; IF(A213="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f t="shared" ref="J213" si="57">"," &amp; IF(A213="","","/* ") &amp; "`" &amp; C213 &amp; "` " &amp; D213 &amp; IF(E213&gt;0,"(" &amp; E213 &amp; ") "," ") &amp; IF(F213&lt;&gt;"","NOT NULL ","") &amp; IF(G213="","","DEFAULT '" &amp; G213 &amp; "' ") &amp; IF(A213="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
     </row>
     <row r="214" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A214" s="34"/>
       <c r="B214" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C214" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D214" s="35" t="s">
         <v>9</v>
@@ -7927,40 +7937,42 @@
       <c r="G214" s="37"/>
       <c r="H214" s="38"/>
       <c r="I214" s="40" t="str">
-        <f t="shared" ref="I214:I219" si="60">"," &amp; IF(A214="","","/* ") &amp; "`" &amp; C214 &amp; "` " &amp; D214 &amp; IF(E214&gt;0,"(" &amp; E214 &amp; ") "," ") &amp; IF(F214&lt;&gt;"","NOT NULL ","") &amp; IF(G214="","","DEFAULT '" &amp; G214 &amp; "' ") &amp; IF(A214="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" ref="I214" si="58">"," &amp; IF(A214="","","/* ") &amp; "`" &amp; C214 &amp; "` " &amp; D214 &amp; IF(E214&gt;0,"(" &amp; E214 &amp; ") "," ") &amp; IF(F214&lt;&gt;"","NOT NULL ","") &amp; IF(G214="","","DEFAULT '" &amp; G214 &amp; "' ") &amp; IF(A214="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J214" s="41" t="str">
-        <f t="shared" ref="J214:J219" si="61">"," &amp; IF(A214="","","/* ") &amp; "`" &amp; C214 &amp; "` " &amp; D214 &amp; IF(E214&gt;0,"(" &amp; E214 &amp; ") "," ") &amp; IF(F214&lt;&gt;"","NOT NULL ","") &amp; IF(G214="","","DEFAULT '" &amp; G214 &amp; "' ") &amp; IF(A214="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B215" s="39"/>
+        <f t="shared" ref="J214" si="59">"," &amp; IF(A214="","","/* ") &amp; "`" &amp; C214 &amp; "` " &amp; D214 &amp; IF(E214&gt;0,"(" &amp; E214 &amp; ") "," ") &amp; IF(F214&lt;&gt;"","NOT NULL ","") &amp; IF(G214="","","DEFAULT '" &amp; G214 &amp; "' ") &amp; IF(A214="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A215" s="34"/>
+      <c r="B215" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="C215" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D215" s="35" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="E215" s="36"/>
       <c r="F215" s="35"/>
       <c r="G215" s="37"/>
       <c r="H215" s="38"/>
       <c r="I215" s="40" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve">,`term` INT </v>
+        <f t="shared" ref="I215:I220" si="60">"," &amp; IF(A215="","","/* ") &amp; "`" &amp; C215 &amp; "` " &amp; D215 &amp; IF(E215&gt;0,"(" &amp; E215 &amp; ") "," ") &amp; IF(F215&lt;&gt;"","NOT NULL ","") &amp; IF(G215="","","DEFAULT '" &amp; G215 &amp; "' ") &amp; IF(A215="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J215" s="41" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve">,`term` INT </v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A216" s="34"/>
+        <f t="shared" ref="J215:J220" si="61">"," &amp; IF(A215="","","/* ") &amp; "`" &amp; C215 &amp; "` " &amp; D215 &amp; IF(E215&gt;0,"(" &amp; E215 &amp; ") "," ") &amp; IF(F215&lt;&gt;"","NOT NULL ","") &amp; IF(G215="","","DEFAULT '" &amp; G215 &amp; "' ") &amp; IF(A215="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B216" s="39"/>
       <c r="C216" s="35" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="D216" s="35" t="s">
         <v>184</v>
@@ -7971,113 +7983,112 @@
       <c r="H216" s="38"/>
       <c r="I216" s="40" t="str">
         <f t="shared" si="60"/>
-        <v xml:space="preserve">,`price` INT </v>
+        <v xml:space="preserve">,`term` INT </v>
       </c>
       <c r="J216" s="41" t="str">
         <f t="shared" si="61"/>
-        <v xml:space="preserve">,`price` INT </v>
+        <v xml:space="preserve">,`term` INT </v>
       </c>
     </row>
     <row r="217" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A217" s="34"/>
-      <c r="B217" s="39" t="s">
-        <v>78</v>
-      </c>
+      <c r="B217" s="39"/>
       <c r="C217" s="35" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="D217" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217" s="36">
-        <v>256</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E217" s="36"/>
       <c r="F217" s="35"/>
       <c r="G217" s="37"/>
       <c r="H217" s="38"/>
       <c r="I217" s="40" t="str">
         <f t="shared" si="60"/>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+        <v xml:space="preserve">,`price` INT </v>
       </c>
       <c r="J217" s="41" t="str">
         <f t="shared" si="61"/>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+        <v xml:space="preserve">,`price` INT </v>
       </c>
     </row>
     <row r="218" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A218" s="34"/>
       <c r="B218" s="39" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D218" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E218" s="36">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F218" s="35"/>
       <c r="G218" s="37"/>
       <c r="H218" s="38"/>
       <c r="I218" s="40" t="str">
         <f t="shared" si="60"/>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J218" s="41" t="str">
         <f t="shared" si="61"/>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B219" s="39"/>
-      <c r="C219" s="35"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A219" s="34"/>
+      <c r="B219" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219" s="35" t="s">
+        <v>202</v>
+      </c>
       <c r="D219" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E219" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E219" s="36">
+        <v>128</v>
+      </c>
       <c r="F219" s="35"/>
       <c r="G219" s="37"/>
       <c r="H219" s="38"/>
       <c r="I219" s="40" t="str">
         <f t="shared" si="60"/>
-        <v xml:space="preserve">,`` TEXT </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
       <c r="J219" s="41" t="str">
         <f t="shared" si="61"/>
-        <v xml:space="preserve">,`` TEXT </v>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B220" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C220" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="B220" s="39"/>
+      <c r="C220" s="35"/>
       <c r="D220" s="35" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="E220" s="36"/>
       <c r="F220" s="35"/>
       <c r="G220" s="37"/>
       <c r="H220" s="38"/>
       <c r="I220" s="40" t="str">
-        <f t="shared" ref="I220:I221" si="62">"," &amp; IF(A220="","","/* ") &amp; "`" &amp; C220 &amp; "` " &amp; D220 &amp; IF(E220&gt;0,"(" &amp; E220 &amp; ") "," ") &amp; IF(F220&lt;&gt;"","NOT NULL ","") &amp; IF(G220="","","DEFAULT '" &amp; G220 &amp; "' ") &amp; IF(A220="",""," */")</f>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">,`` TEXT </v>
       </c>
       <c r="J220" s="41" t="str">
-        <f t="shared" ref="J220:J221" si="63">"," &amp; IF(A220="","","/* ") &amp; "`" &amp; C220 &amp; "` " &amp; D220 &amp; IF(E220&gt;0,"(" &amp; E220 &amp; ") "," ") &amp; IF(F220&lt;&gt;"","NOT NULL ","") &amp; IF(G220="","","DEFAULT '" &amp; G220 &amp; "' ") &amp; IF(A220="",""," */")</f>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">,`` TEXT </v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B221" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D221" s="35" t="s">
         <v>8</v>
@@ -8087,197 +8098,225 @@
       <c r="G221" s="37"/>
       <c r="H221" s="38"/>
       <c r="I221" s="40" t="str">
+        <f t="shared" ref="I221:I222" si="62">"," &amp; IF(A221="","","/* ") &amp; "`" &amp; C221 &amp; "` " &amp; D221 &amp; IF(E221&gt;0,"(" &amp; E221 &amp; ") "," ") &amp; IF(F221&lt;&gt;"","NOT NULL ","") &amp; IF(G221="","","DEFAULT '" &amp; G221 &amp; "' ") &amp; IF(A221="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J221" s="41" t="str">
+        <f t="shared" ref="J221:J222" si="63">"," &amp; IF(A221="","","/* ") &amp; "`" &amp; C221 &amp; "` " &amp; D221 &amp; IF(E221&gt;0,"(" &amp; E221 &amp; ") "," ") &amp; IF(F221&lt;&gt;"","NOT NULL ","") &amp; IF(G221="","","DEFAULT '" &amp; G221 &amp; "' ") &amp; IF(A221="",""," */")</f>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B222" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D222" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="36"/>
+      <c r="F222" s="35"/>
+      <c r="G222" s="37"/>
+      <c r="H222" s="38"/>
+      <c r="I222" s="40" t="str">
         <f t="shared" si="62"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-      <c r="J221" s="41" t="str">
+      <c r="J222" s="41" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B222" s="21"/>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="22"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="23"/>
-      <c r="H222" s="21"/>
-      <c r="I222" s="28" t="s">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="22"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="21"/>
+      <c r="I223" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J222" s="41" t="s">
+      <c r="J223" s="41" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="expression" dxfId="106" priority="231">
+    <cfRule type="expression" dxfId="107" priority="232">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A7 A49:A50 A130:A131 A158:A160 A119:A120 A13:A14 A162:A163 A177:A178 A38:A40 A42 A113:A114 A165:A173 A106:A107 A187:A188">
+  <conditionalFormatting sqref="A5:A7 A49:A50 A131:A132 A159:A161 A120:A121 A13:A14 A163:A164 A178:A179 A38:A40 A42 A114:A115 A166:A174 A107:A108 A188:A189">
+    <cfRule type="cellIs" dxfId="106" priority="231" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9 A11:A12">
     <cfRule type="cellIs" dxfId="105" priority="230" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9 A11:A12">
+  <conditionalFormatting sqref="A10">
     <cfRule type="cellIs" dxfId="104" priority="229" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A8">
     <cfRule type="cellIs" dxfId="103" priority="228" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="102" priority="227" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="cellIs" dxfId="101" priority="223" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:A183">
+    <cfRule type="cellIs" dxfId="102" priority="224" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181:A184">
+    <cfRule type="cellIs" dxfId="101" priority="222" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
     <cfRule type="cellIs" dxfId="100" priority="221" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="cellIs" dxfId="99" priority="220" operator="greaterThan">
+  <conditionalFormatting sqref="A177">
+    <cfRule type="cellIs" dxfId="99" priority="215" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" dxfId="98" priority="213" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:A71 A51:A52 A54">
+    <cfRule type="cellIs" dxfId="97" priority="214" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61 A63">
+    <cfRule type="cellIs" dxfId="96" priority="208" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64 A66">
+    <cfRule type="cellIs" dxfId="95" priority="207" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="cellIs" dxfId="94" priority="206" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="cellIs" dxfId="93" priority="205" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" dxfId="92" priority="204" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="91" priority="203" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="cellIs" dxfId="90" priority="200" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="cellIs" dxfId="89" priority="199" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124:A127">
+    <cfRule type="cellIs" dxfId="88" priority="198" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:A130">
+    <cfRule type="cellIs" dxfId="87" priority="197" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157 A133">
+    <cfRule type="cellIs" dxfId="86" priority="196" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="cellIs" dxfId="85" priority="190" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="84" priority="182" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162">
+    <cfRule type="cellIs" dxfId="83" priority="181" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="cellIs" dxfId="82" priority="180" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="cellIs" dxfId="81" priority="179" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A15:A17">
+    <cfRule type="cellIs" dxfId="80" priority="168" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="79" priority="164" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="78" priority="142" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="cellIs" dxfId="77" priority="163" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="cellIs" dxfId="76" priority="152" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="cellIs" dxfId="75" priority="134" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="cellIs" dxfId="74" priority="141" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176">
-    <cfRule type="cellIs" dxfId="98" priority="214" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="97" priority="212" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71 A51:A52 A54">
-    <cfRule type="cellIs" dxfId="96" priority="213" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61 A63">
-    <cfRule type="cellIs" dxfId="95" priority="207" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64 A66">
-    <cfRule type="cellIs" dxfId="94" priority="206" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="93" priority="205" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="cellIs" dxfId="92" priority="204" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="91" priority="203" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="90" priority="202" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="89" priority="199" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="cellIs" dxfId="88" priority="198" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123:A126">
-    <cfRule type="cellIs" dxfId="87" priority="197" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A129">
-    <cfRule type="cellIs" dxfId="86" priority="196" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A156 A132">
-    <cfRule type="cellIs" dxfId="85" priority="195" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="cellIs" dxfId="84" priority="189" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="83" priority="181" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161">
-    <cfRule type="cellIs" dxfId="82" priority="180" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="cellIs" dxfId="81" priority="179" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="cellIs" dxfId="80" priority="178" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 A15:A17">
-    <cfRule type="cellIs" dxfId="79" priority="167" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="78" priority="163" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="77" priority="141" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="cellIs" dxfId="76" priority="162" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="cellIs" dxfId="75" priority="151" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="cellIs" dxfId="74" priority="133" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
     <cfRule type="cellIs" dxfId="73" priority="140" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -8287,262 +8326,262 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A174">
+  <conditionalFormatting sqref="A56">
     <cfRule type="cellIs" dxfId="71" priority="138" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A116">
     <cfRule type="cellIs" dxfId="70" priority="137" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+  <conditionalFormatting sqref="A118">
     <cfRule type="cellIs" dxfId="69" priority="136" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
+  <conditionalFormatting sqref="A122">
     <cfRule type="cellIs" dxfId="68" priority="135" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="cellIs" dxfId="67" priority="134" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="cellIs" dxfId="66" priority="119" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
-    <cfRule type="cellIs" dxfId="65" priority="89" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145:A146 A139:A140">
+  <conditionalFormatting sqref="A109">
+    <cfRule type="cellIs" dxfId="67" priority="120" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="cellIs" dxfId="66" priority="90" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146:A147 A140:A141">
+    <cfRule type="cellIs" dxfId="65" priority="103" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
     <cfRule type="cellIs" dxfId="64" priority="102" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A145">
+    <cfRule type="cellIs" dxfId="63" priority="101" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="cellIs" dxfId="62" priority="100" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:A153">
+    <cfRule type="cellIs" dxfId="61" priority="99" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:A156">
+    <cfRule type="cellIs" dxfId="60" priority="98" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="cellIs" dxfId="59" priority="97" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="cellIs" dxfId="58" priority="96" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="cellIs" dxfId="57" priority="95" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="cellIs" dxfId="56" priority="94" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="cellIs" dxfId="55" priority="93" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="cellIs" dxfId="54" priority="92" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="cellIs" dxfId="63" priority="101" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
-    <cfRule type="cellIs" dxfId="62" priority="100" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
-    <cfRule type="cellIs" dxfId="61" priority="99" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:A152">
-    <cfRule type="cellIs" dxfId="60" priority="98" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:A155">
-    <cfRule type="cellIs" dxfId="59" priority="97" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="58" priority="96" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
-    <cfRule type="cellIs" dxfId="57" priority="95" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
-    <cfRule type="cellIs" dxfId="56" priority="94" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="cellIs" dxfId="55" priority="93" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
-    <cfRule type="cellIs" dxfId="54" priority="92" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A143">
     <cfRule type="cellIs" dxfId="53" priority="91" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147">
-    <cfRule type="cellIs" dxfId="52" priority="90" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184">
-    <cfRule type="cellIs" dxfId="51" priority="70" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86:A87 A72:A73 A77">
-    <cfRule type="cellIs" dxfId="50" priority="88" operator="greaterThan">
+  <conditionalFormatting sqref="A185">
+    <cfRule type="cellIs" dxfId="52" priority="71" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:A88 A72:A73 A78">
+    <cfRule type="cellIs" dxfId="51" priority="89" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A25 A21:A22">
+    <cfRule type="cellIs" dxfId="50" priority="68" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
     <cfRule type="cellIs" dxfId="49" priority="67" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="48" priority="66" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="47" priority="80" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A82">
+    <cfRule type="cellIs" dxfId="48" priority="81" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:A83">
+    <cfRule type="cellIs" dxfId="47" priority="66" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
     <cfRule type="cellIs" dxfId="46" priority="65" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A75">
+    <cfRule type="cellIs" dxfId="45" priority="78" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:A187">
     <cfRule type="cellIs" dxfId="44" priority="77" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A185:A186">
+  <conditionalFormatting sqref="A85:A86">
     <cfRule type="cellIs" dxfId="43" priority="76" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:A85">
+  <conditionalFormatting sqref="A68:A69">
     <cfRule type="cellIs" dxfId="42" priority="75" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A69">
+  <conditionalFormatting sqref="A47:A48">
     <cfRule type="cellIs" dxfId="41" priority="74" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A48">
+  <conditionalFormatting sqref="A67">
     <cfRule type="cellIs" dxfId="40" priority="73" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+  <conditionalFormatting sqref="A84">
     <cfRule type="cellIs" dxfId="39" priority="72" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="38" priority="71" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="cellIs" dxfId="37" priority="68" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="cellIs" dxfId="36" priority="69" operator="greaterThan">
+  <conditionalFormatting sqref="A154">
+    <cfRule type="cellIs" dxfId="38" priority="69" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="cellIs" dxfId="37" priority="70" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30 A26:A27">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
     <cfRule type="cellIs" dxfId="35" priority="48" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A180">
     <cfRule type="cellIs" dxfId="34" priority="47" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="A77">
     <cfRule type="cellIs" dxfId="33" priority="46" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A43">
     <cfRule type="cellIs" dxfId="32" priority="45" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A165">
     <cfRule type="cellIs" dxfId="31" priority="44" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A164">
+  <conditionalFormatting sqref="A201:A202 A190:A191 A197:A198">
     <cfRule type="cellIs" dxfId="30" priority="43" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A200:A201 A189:A190 A196:A197">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:A199">
+  <conditionalFormatting sqref="A199:A200">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="cellIs" dxfId="28" priority="37" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A193">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
+    <cfRule type="cellIs" dxfId="26" priority="35" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A195">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192">
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A193">
-    <cfRule type="cellIs" dxfId="25" priority="34" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A211">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A212">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:A215">
     <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A213:A214">
+  <conditionalFormatting sqref="A217">
     <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A216">
+  <conditionalFormatting sqref="A219">
     <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
@@ -8552,98 +8591,98 @@
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A217">
+  <conditionalFormatting sqref="A213">
     <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A212">
+  <conditionalFormatting sqref="A209">
     <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A208">
+  <conditionalFormatting sqref="A105:A106 A99:A100 A89:A90">
     <cfRule type="cellIs" dxfId="16" priority="21" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A105 A98:A99 A88:A89">
+  <conditionalFormatting sqref="A101">
     <cfRule type="cellIs" dxfId="15" priority="20" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A98">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103:A104">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A93">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A103">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:A92">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A37 A31:A32">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
+  <conditionalFormatting sqref="A76">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D73:D85 D89:D103 D133:D155 D107:D129 D22:D23 D27:D28 D39:D48 D159:D186 D190:D199 D203:D221 D32:D35 D52:D69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12 D16:D18 D52:D69 D90:D104 D134:D156 D108:D130 D22:D23 D27:D28 D39:D48 D160:D187 D191:D200 D204:D222 D32:D35 D73:D86">
       <formula1>TYPE</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/sql_creator.xlsx
+++ b/document/sql_creator.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="228">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -542,10 +542,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>customer_name</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>受注日</t>
     <rPh sb="0" eb="3">
       <t>ジュチュウビ</t>
@@ -1192,6 +1188,39 @@
   </si>
   <si>
     <t>division</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>issued</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>relate_no</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>処理ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>契約状態</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>conditions</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1658,7 +1687,17 @@
     <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="111">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2733,6 +2772,26 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2952,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -3233,7 +3292,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="42" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>98</v>
@@ -3360,10 +3419,10 @@
     <row r="21" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="34"/>
       <c r="B21" s="42" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>0</v>
@@ -3382,11 +3441,11 @@
       </c>
       <c r="I21" s="40" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C21 &amp; "` ("</f>
-        <v>CREATE TABLE `contractnames` (</v>
+        <v>CREATE TABLE `conditions` (</v>
       </c>
       <c r="J21" s="41" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C21 &amp; "` ("</f>
-        <v>CREATE TABLE `contractnames` (</v>
+        <v>CREATE TABLE `conditions` (</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3419,24 +3478,24 @@
         <v>38</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="36">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="37"/>
       <c r="H23" s="38"/>
       <c r="I23" s="40" t="str">
         <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
-        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
       </c>
       <c r="J23" s="41" t="str">
         <f>"," &amp; IF(A23="","","/* ") &amp; "`" &amp; C23 &amp; "` " &amp; D23 &amp; IF(E23&gt;0,"(" &amp; E23 &amp; ") "," ") &amp; IF(F23&lt;&gt;"","NOT NULL ","") &amp; IF(G23="","","DEFAULT '" &amp; G23 &amp; "' ") &amp; IF(A23="",""," */")</f>
-        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`name` VARCHAR(64) </v>
       </c>
     </row>
     <row r="24" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3465,10 +3524,10 @@
     <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="34"/>
       <c r="B26" s="42" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>0</v>
@@ -3487,11 +3546,11 @@
       </c>
       <c r="I26" s="40" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
-        <v>CREATE TABLE `languages` (</v>
+        <v>CREATE TABLE `contractnames` (</v>
       </c>
       <c r="J26" s="41" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C26 &amp; "` ("</f>
-        <v>CREATE TABLE `languages` (</v>
+        <v>CREATE TABLE `contractnames` (</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3524,7 +3583,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>7</v>
@@ -3537,11 +3596,11 @@
       <c r="H28" s="38"/>
       <c r="I28" s="40" t="str">
         <f>"," &amp; IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; IF(A28="",""," */")</f>
-        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
       </c>
       <c r="J28" s="41" t="str">
         <f>"," &amp; IF(A28="","","/* ") &amp; "`" &amp; C28 &amp; "` " &amp; D28 &amp; IF(E28&gt;0,"(" &amp; E28 &amp; ") "," ") &amp; IF(F28&lt;&gt;"","NOT NULL ","") &amp; IF(G28="","","DEFAULT '" &amp; G28 &amp; "' ") &amp; IF(A28="",""," */")</f>
-        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`contract_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="29" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3570,10 +3629,10 @@
     <row r="31" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="34"/>
       <c r="B31" s="42" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>0</v>
@@ -3592,11 +3651,11 @@
       </c>
       <c r="I31" s="40" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
-        <v>CREATE TABLE `appforms` (</v>
+        <v>CREATE TABLE `languages` (</v>
       </c>
       <c r="J31" s="41" t="str">
         <f xml:space="preserve"> "CREATE TABLE `" &amp; C31 &amp; "` ("</f>
-        <v>CREATE TABLE `appforms` (</v>
+        <v>CREATE TABLE `languages` (</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -3629,7 +3688,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>7</v>
@@ -3642,614 +3701,585 @@
       <c r="H33" s="38"/>
       <c r="I33" s="40" t="str">
         <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
-        <v xml:space="preserve">,`form_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
       </c>
       <c r="J33" s="41" t="str">
         <f>"," &amp; IF(A33="","","/* ") &amp; "`" &amp; C33 &amp; "` " &amp; D33 &amp; IF(E33&gt;0,"(" &amp; E33 &amp; ") "," ") &amp; IF(F33&lt;&gt;"","NOT NULL ","") &amp; IF(G33="","","DEFAULT '" &amp; G33 &amp; "' ") &amp; IF(A33="",""," */")</f>
-        <v xml:space="preserve">,`form_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`language_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="34" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="34"/>
-      <c r="B34" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="36">
-        <v>256</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="40" t="str">
-        <f t="shared" ref="I34:I35" si="2">"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J34" s="41" t="str">
-        <f t="shared" ref="J34:J35" si="3">"," &amp; IF(A34="","","/* ") &amp; "`" &amp; C34 &amp; "` " &amp; D34 &amp; IF(E34&gt;0,"(" &amp; E34 &amp; ") "," ") &amp; IF(F34&lt;&gt;"","NOT NULL ","") &amp; IF(G34="","","DEFAULT '" &amp; G34 &amp; "' ") &amp; IF(A34="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="34"/>
-      <c r="B35" s="43" t="s">
+      <c r="E35" s="34"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="34"/>
+      <c r="B36" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="40" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C36 &amp; "` ("</f>
+        <v>CREATE TABLE `appforms` (</v>
+      </c>
+      <c r="J36" s="41" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C36 &amp; "` ("</f>
+        <v>CREATE TABLE `appforms` (</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="34"/>
+      <c r="B37" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="34"/>
+      <c r="B38" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="36">
+        <v>256</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="40" t="str">
+        <f>"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
+        <v xml:space="preserve">,`form_name` VARCHAR(256) </v>
+      </c>
+      <c r="J38" s="41" t="str">
+        <f>"," &amp; IF(A38="","","/* ") &amp; "`" &amp; C38 &amp; "` " &amp; D38 &amp; IF(E38&gt;0,"(" &amp; E38 &amp; ") "," ") &amp; IF(F38&lt;&gt;"","NOT NULL ","") &amp; IF(G38="","","DEFAULT '" &amp; G38 &amp; "' ") &amp; IF(A38="",""," */")</f>
+        <v xml:space="preserve">,`form_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="34"/>
+      <c r="B39" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="36">
+        <v>256</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="40" t="str">
+        <f t="shared" ref="I39:I40" si="2">"," &amp; IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; IF(A39="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J39" s="41" t="str">
+        <f t="shared" ref="J39:J40" si="3">"," &amp; IF(A39="","","/* ") &amp; "`" &amp; C39 &amp; "` " &amp; D39 &amp; IF(E39&gt;0,"(" &amp; E39 &amp; ") "," ") &amp; IF(F39&lt;&gt;"","NOT NULL ","") &amp; IF(G39="","","DEFAULT '" &amp; G39 &amp; "' ") &amp; IF(A39="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="34"/>
+      <c r="B40" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C40" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D40" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E40" s="36">
         <v>256</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="40" t="str">
+      <c r="F40" s="35"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="40" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
-      <c r="J35" s="41" t="str">
+      <c r="J40" s="41" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="34"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="3"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="2"/>
-      <c r="B38" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C38 &amp; "` ("</f>
-        <v>CREATE TABLE `clients` (</v>
-      </c>
-      <c r="J38" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C38 &amp; "` ("</f>
-        <v>CREATE TABLE `clients` (</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="2"/>
-      <c r="B39" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="2"/>
-      <c r="B40" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="7">
-        <v>128</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="27" t="str">
-        <f>"," &amp; IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; IF(A40="",""," */")</f>
-        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
-      </c>
-      <c r="J40" s="29" t="str">
-        <f>"," &amp; IF(A40="","","/* ") &amp; "`" &amp; C40 &amp; "` " &amp; D40 &amp; IF(E40&gt;0,"(" &amp; E40 &amp; ") "," ") &amp; IF(F40&lt;&gt;"","NOT NULL ","") &amp; IF(G40="","","DEFAULT '" &amp; G40 &amp; "' ") &amp; IF(A40="",""," */")</f>
-        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
-      </c>
-    </row>
     <row r="41" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="34"/>
-      <c r="B41" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="36">
-        <v>20</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="40" t="str">
-        <f>"," &amp; IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; IF(A41="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
-      </c>
-      <c r="J41" s="41" t="str">
-        <f>"," &amp; IF(A41="","","/* ") &amp; "`" &amp; C41 &amp; "` " &amp; D41 &amp; IF(E41&gt;0,"(" &amp; E41 &amp; ") "," ") &amp; IF(F41&lt;&gt;"","NOT NULL ","") &amp; IF(G41="","","DEFAULT '" &amp; G41 &amp; "' ") &amp; IF(A41="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="34"/>
-      <c r="B42" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="36">
+      <c r="E42" s="34"/>
+      <c r="G42" s="3"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
+        <v>CREATE TABLE `clients` (</v>
+      </c>
+      <c r="J43" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C43 &amp; "` ("</f>
+        <v>CREATE TABLE `clients` (</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="40" t="str">
-        <f>"," &amp; IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; IF(A42="",""," */")</f>
-        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
-      </c>
-      <c r="J42" s="41" t="str">
-        <f>"," &amp; IF(A42="","","/* ") &amp; "`" &amp; C42 &amp; "` " &amp; D42 &amp; IF(E42&gt;0,"(" &amp; E42 &amp; ") "," ") &amp; IF(F42&lt;&gt;"","NOT NULL ","") &amp; IF(G42="","","DEFAULT '" &amp; G42 &amp; "' ") &amp; IF(A42="",""," */")</f>
-        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="34"/>
-      <c r="B43" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="35" t="s">
+      <c r="D44" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="37">
-        <v>0</v>
-      </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="40" t="str">
-        <f>"," &amp; IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; IF(A43="",""," */")</f>
-        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
-      </c>
-      <c r="J43" s="41" t="str">
-        <f>"," &amp; IF(A43="","","/* ") &amp; "`" &amp; C43 &amp; "` " &amp; D43 &amp; IF(E43&gt;0,"(" &amp; E43 &amp; ") "," ") &amp; IF(F43&lt;&gt;"","NOT NULL ","") &amp; IF(G43="","","DEFAULT '" &amp; G43 &amp; "' ") &amp; IF(A43="",""," */")</f>
-        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="34"/>
-      <c r="B44" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="40" t="str">
-        <f>"," &amp; IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; IF(A44="",""," */")</f>
-        <v xml:space="preserve">,`partner_id` INT </v>
-      </c>
-      <c r="J44" s="41" t="str">
-        <f>"," &amp; IF(A44="","","/* ") &amp; "`" &amp; C44 &amp; "` " &amp; D44 &amp; IF(E44&gt;0,"(" &amp; E44 &amp; ") "," ") &amp; IF(F44&lt;&gt;"","NOT NULL ","") &amp; IF(G44="","","DEFAULT '" &amp; G44 &amp; "' ") &amp; IF(A44="",""," */")</f>
-        <v xml:space="preserve">,`partner_id` INT </v>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="20" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E45" s="7">
+        <v>128</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
       <c r="I45" s="27" t="str">
-        <f t="shared" ref="I45:I48" si="4">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <f>"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
       </c>
       <c r="J45" s="29" t="str">
-        <f t="shared" ref="J45:J48" si="5">"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <f>"," &amp; IF(A45="","","/* ") &amp; "`" &amp; C45 &amp; "` " &amp; D45 &amp; IF(E45&gt;0,"(" &amp; E45 &amp; ") "," ") &amp; IF(F45&lt;&gt;"","NOT NULL ","") &amp; IF(G45="","","DEFAULT '" &amp; G45 &amp; "' ") &amp; IF(A45="",""," */")</f>
+        <v xml:space="preserve">,`client_name` VARCHAR(128) NOT NULL </v>
       </c>
     </row>
     <row r="46" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="34"/>
-      <c r="B46" s="43" t="s">
-        <v>160</v>
+      <c r="B46" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E46" s="36">
+        <v>20</v>
+      </c>
       <c r="F46" s="35"/>
       <c r="G46" s="37"/>
-      <c r="H46" s="38"/>
+      <c r="H46" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="I46" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f>"," &amp; IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; IF(A46="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
       </c>
       <c r="J46" s="41" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f>"," &amp; IF(A46="","","/* ") &amp; "`" &amp; C46 &amp; "` " &amp; D46 &amp; IF(E46&gt;0,"(" &amp; E46 &amp; ") "," ") &amp; IF(F46&lt;&gt;"","NOT NULL ","") &amp; IF(G46="","","DEFAULT '" &amp; G46 &amp; "' ") &amp; IF(A46="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="47" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="34"/>
-      <c r="B47" s="43" t="s">
-        <v>46</v>
+      <c r="B47" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E47" s="36">
+        <v>4</v>
+      </c>
       <c r="F47" s="35"/>
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
       <c r="I47" s="40" t="str">
+        <f>"," &amp; IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; IF(A47="",""," */")</f>
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+      <c r="J47" s="41" t="str">
+        <f>"," &amp; IF(A47="","","/* ") &amp; "`" &amp; C47 &amp; "` " &amp; D47 &amp; IF(E47&gt;0,"(" &amp; E47 &amp; ") "," ") &amp; IF(F47&lt;&gt;"","NOT NULL ","") &amp; IF(G47="","","DEFAULT '" &amp; G47 &amp; "' ") &amp; IF(A47="",""," */")</f>
+        <v xml:space="preserve">,`identity1` VARCHAR(4) </v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="34"/>
+      <c r="B48" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="37">
+        <v>0</v>
+      </c>
+      <c r="H48" s="38"/>
+      <c r="I48" s="40" t="str">
+        <f>"," &amp; IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; IF(A48="",""," */")</f>
+        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
+      </c>
+      <c r="J48" s="41" t="str">
+        <f>"," &amp; IF(A48="","","/* ") &amp; "`" &amp; C48 &amp; "` " &amp; D48 &amp; IF(E48&gt;0,"(" &amp; E48 &amp; ") "," ") &amp; IF(F48&lt;&gt;"","NOT NULL ","") &amp; IF(G48="","","DEFAULT '" &amp; G48 &amp; "' ") &amp; IF(A48="",""," */")</f>
+        <v xml:space="preserve">,`partner_flag` INT DEFAULT '0' </v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="34"/>
+      <c r="B49" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="40" t="str">
+        <f>"," &amp; IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; IF(A49="",""," */")</f>
+        <v xml:space="preserve">,`partner_id` INT </v>
+      </c>
+      <c r="J49" s="41" t="str">
+        <f>"," &amp; IF(A49="","","/* ") &amp; "`" &amp; C49 &amp; "` " &amp; D49 &amp; IF(E49&gt;0,"(" &amp; E49 &amp; ") "," ") &amp; IF(F49&lt;&gt;"","NOT NULL ","") &amp; IF(G49="","","DEFAULT '" &amp; G49 &amp; "' ") &amp; IF(A49="",""," */")</f>
+        <v xml:space="preserve">,`partner_id` INT </v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="27" t="str">
+        <f t="shared" ref="I50:I53" si="4">"," &amp; IF(A50="","","/* ") &amp; "`" &amp; C50 &amp; "` " &amp; D50 &amp; IF(E50&gt;0,"(" &amp; E50 &amp; ") "," ") &amp; IF(F50&lt;&gt;"","NOT NULL ","") &amp; IF(G50="","","DEFAULT '" &amp; G50 &amp; "' ") &amp; IF(A50="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+      <c r="J50" s="29" t="str">
+        <f t="shared" ref="J50:J53" si="5">"," &amp; IF(A50="","","/* ") &amp; "`" &amp; C50 &amp; "` " &amp; D50 &amp; IF(E50&gt;0,"(" &amp; E50 &amp; ") "," ") &amp; IF(F50&lt;&gt;"","NOT NULL ","") &amp; IF(G50="","","DEFAULT '" &amp; G50 &amp; "' ") &amp; IF(A50="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="34"/>
+      <c r="B51" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J51" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="34"/>
+      <c r="B52" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="40" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
-      <c r="J47" s="41" t="str">
+      <c r="J52" s="41" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="34"/>
-      <c r="B48" s="43" t="s">
+    <row r="53" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="34"/>
+      <c r="B53" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C53" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D53" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="40" t="str">
+      <c r="E53" s="36"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="40" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
-      <c r="J48" s="41" t="str">
+      <c r="J53" s="41" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I51" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C51 &amp; "` ("</f>
-        <v>CREATE TABLE `customers` (</v>
-      </c>
-      <c r="J51" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C51 &amp; "` ("</f>
-        <v>CREATE TABLE `customers` (</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
-      <c r="B52" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="27" t="str">
-        <f t="shared" ref="I53:I60" si="6">"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
-      </c>
-      <c r="J53" s="29" t="str">
-        <f t="shared" ref="J53:J60" si="7">"," &amp; IF(A53="","","/* ") &amp; "`" &amp; C53 &amp; "` " &amp; D53 &amp; IF(E53&gt;0,"(" &amp; E53 &amp; ") "," ") &amp; IF(F53&lt;&gt;"","NOT NULL ","") &amp; IF(G53="","","DEFAULT '" &amp; G53 &amp; "' ") &amp; IF(A53="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
-      </c>
-    </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
-      <c r="B54" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="7">
-        <v>128</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
-      </c>
-      <c r="J54" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="34"/>
-      <c r="B55" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="36">
-        <v>256</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="40" t="str">
-        <f t="shared" ref="I55" si="8">"," &amp; IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; IF(A55="",""," */")</f>
-        <v xml:space="preserve">,`division` VARCHAR(256) NOT NULL </v>
-      </c>
-      <c r="J55" s="41" t="str">
-        <f t="shared" ref="J55" si="9">"," &amp; IF(A55="","","/* ") &amp; "`" &amp; C55 &amp; "` " &amp; D55 &amp; IF(E55&gt;0,"(" &amp; E55 &amp; ") "," ") &amp; IF(F55&lt;&gt;"","NOT NULL ","") &amp; IF(G55="","","DEFAULT '" &amp; G55 &amp; "' ") &amp; IF(A55="",""," */")</f>
-        <v xml:space="preserve">,`division` VARCHAR(256) NOT NULL </v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="34"/>
-      <c r="B56" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="36">
-        <v>512</v>
-      </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,`address` VARCHAR(512) </v>
-      </c>
-      <c r="J56" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">,`address` VARCHAR(512) </v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="34"/>
-      <c r="B57" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="36">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C56 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
+      </c>
+      <c r="J56" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C56 &amp; "` ("</f>
+        <v>CREATE TABLE `customers` (</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="40" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
-      </c>
-      <c r="J57" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      <c r="D57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="20" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="7">
-        <v>256</v>
-      </c>
-      <c r="F58" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
       <c r="I58" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+        <f t="shared" ref="I58:I65" si="6">"," &amp; IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; IF(A58="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
       <c r="J58" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
+        <f t="shared" ref="J58:J65" si="7">"," &amp; IF(A58="","","/* ") &amp; "`" &amp; C58 &amp; "` " &amp; D58 &amp; IF(E58&gt;0,"(" &amp; E58 &amp; ") "," ") &amp; IF(F58&lt;&gt;"","NOT NULL ","") &amp; IF(G58="","","DEFAULT '" &amp; G58 &amp; "' ") &amp; IF(A58="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="20" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>7</v>
@@ -4257,101 +4287,107 @@
       <c r="E59" s="7">
         <v>128</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="G59" s="8"/>
       <c r="H59" s="9"/>
       <c r="I59" s="27" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
       </c>
       <c r="J59" s="29" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="2"/>
-      <c r="B60" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="27" t="str">
+        <v xml:space="preserve">,`customer_name` VARCHAR(128) NOT NULL </v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="34"/>
+      <c r="B60" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="36">
+        <v>256</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="40" t="str">
+        <f t="shared" ref="I60" si="8">"," &amp; IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; IF(A60="",""," */")</f>
+        <v xml:space="preserve">,`division` VARCHAR(256) NOT NULL </v>
+      </c>
+      <c r="J60" s="41" t="str">
+        <f t="shared" ref="J60" si="9">"," &amp; IF(A60="","","/* ") &amp; "`" &amp; C60 &amp; "` " &amp; D60 &amp; IF(E60&gt;0,"(" &amp; E60 &amp; ") "," ") &amp; IF(F60&lt;&gt;"","NOT NULL ","") &amp; IF(G60="","","DEFAULT '" &amp; G60 &amp; "' ") &amp; IF(A60="",""," */")</f>
+        <v xml:space="preserve">,`division` VARCHAR(256) NOT NULL </v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="34"/>
+      <c r="B61" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="36">
+        <v>512</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="40" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
-      </c>
-      <c r="J60" s="29" t="str">
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+      <c r="J61" s="41" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61" s="2"/>
-      <c r="B61" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="6" t="s">
+        <v xml:space="preserve">,`address` VARCHAR(512) </v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="34"/>
+      <c r="B62" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="7">
-        <v>128</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="27" t="str">
-        <f t="shared" ref="I61:I63" si="10">"," &amp; IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; IF(A61="",""," */")</f>
-        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
-      </c>
-      <c r="J61" s="29" t="str">
-        <f t="shared" ref="J61:J63" si="11">"," &amp; IF(A61="","","/* ") &amp; "`" &amp; C61 &amp; "` " &amp; D61 &amp; IF(E61&gt;0,"(" &amp; E61 &amp; ") "," ") &amp; IF(F61&lt;&gt;"","NOT NULL ","") &amp; IF(G61="","","DEFAULT '" &amp; G61 &amp; "' ") &amp; IF(A61="",""," */")</f>
-        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A62" s="2"/>
-      <c r="B62" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="7">
-        <v>256</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="27" t="str">
-        <f>"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
-        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
-      </c>
-      <c r="J62" s="29" t="str">
-        <f>"," &amp; IF(A62="","","/* ") &amp; "`" &amp; C62 &amp; "` " &amp; D62 &amp; IF(E62&gt;0,"(" &amp; E62 &amp; ") "," ") &amp; IF(F62&lt;&gt;"","NOT NULL ","") &amp; IF(G62="","","DEFAULT '" &amp; G62 &amp; "' ") &amp; IF(A62="",""," */")</f>
-        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      <c r="E62" s="36">
+        <v>4</v>
+      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
+      </c>
+      <c r="J62" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`identity2` VARCHAR(4) </v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>7</v>
@@ -4363,21 +4399,21 @@
       <c r="G63" s="8"/>
       <c r="H63" s="9"/>
       <c r="I63" s="27" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J63" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="20" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>7</v>
@@ -4389,767 +4425,771 @@
       <c r="G64" s="8"/>
       <c r="H64" s="9"/>
       <c r="I64" s="27" t="str">
-        <f t="shared" ref="I64:I69" si="12">"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
-        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
       <c r="J64" s="29" t="str">
-        <f t="shared" ref="J64:J69" si="13">"," &amp; IF(A64="","","/* ") &amp; "`" &amp; C64 &amp; "` " &amp; D64 &amp; IF(E64&gt;0,"(" &amp; E64 &amp; ") "," ") &amp; IF(F64&lt;&gt;"","NOT NULL ","") &amp; IF(G64="","","DEFAULT '" &amp; G64 &amp; "' ") &amp; IF(A64="",""," */")</f>
-        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="20" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="7">
-        <v>256</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E65" s="7"/>
       <c r="F65" s="6"/>
       <c r="G65" s="8"/>
       <c r="H65" s="9"/>
       <c r="I65" s="27" t="str">
-        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
-        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J65" s="29" t="str">
-        <f>"," &amp; IF(A65="","","/* ") &amp; "`" &amp; C65 &amp; "` " &amp; D65 &amp; IF(E65&gt;0,"(" &amp; E65 &amp; ") "," ") &amp; IF(F65&lt;&gt;"","NOT NULL ","") &amp; IF(G65="","","DEFAULT '" &amp; G65 &amp; "' ") &amp; IF(A65="",""," */")</f>
-        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="7">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="8"/>
       <c r="H66" s="9"/>
       <c r="I66" s="27" t="str">
+        <f t="shared" ref="I66:I68" si="10">"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+      </c>
+      <c r="J66" s="29" t="str">
+        <f t="shared" ref="J66:J68" si="11">"," &amp; IF(A66="","","/* ") &amp; "`" &amp; C66 &amp; "` " &amp; D66 &amp; IF(E66&gt;0,"(" &amp; E66 &amp; ") "," ") &amp; IF(F66&lt;&gt;"","NOT NULL ","") &amp; IF(G66="","","DEFAULT '" &amp; G66 &amp; "' ") &amp; IF(A66="",""," */")</f>
+        <v xml:space="preserve">,`admin_name1` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="2"/>
+      <c r="B67" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="7">
+        <v>256</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="27" t="str">
+        <f>"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+      <c r="J67" s="29" t="str">
+        <f>"," &amp; IF(A67="","","/* ") &amp; "`" &amp; C67 &amp; "` " &amp; D67 &amp; IF(E67&gt;0,"(" &amp; E67 &amp; ") "," ") &amp; IF(F67&lt;&gt;"","NOT NULL ","") &amp; IF(G67="","","DEFAULT '" &amp; G67 &amp; "' ") &amp; IF(A67="",""," */")</f>
+        <v xml:space="preserve">,`div1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" s="2"/>
+      <c r="B68" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="7">
+        <v>256</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="27" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+      <c r="J68" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">,`mail1` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="2"/>
+      <c r="B69" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="7">
+        <v>128</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="27" t="str">
+        <f t="shared" ref="I69:I74" si="12">"," &amp; IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; IF(A69="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+      </c>
+      <c r="J69" s="29" t="str">
+        <f t="shared" ref="J69:J74" si="13">"," &amp; IF(A69="","","/* ") &amp; "`" &amp; C69 &amp; "` " &amp; D69 &amp; IF(E69&gt;0,"(" &amp; E69 &amp; ") "," ") &amp; IF(F69&lt;&gt;"","NOT NULL ","") &amp; IF(G69="","","DEFAULT '" &amp; G69 &amp; "' ") &amp; IF(A69="",""," */")</f>
+        <v xml:space="preserve">,`admin_name2` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="2"/>
+      <c r="B70" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="7">
+        <v>256</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="27" t="str">
+        <f>"," &amp; IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; IF(A70="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+      <c r="J70" s="29" t="str">
+        <f>"," &amp; IF(A70="","","/* ") &amp; "`" &amp; C70 &amp; "` " &amp; D70 &amp; IF(E70&gt;0,"(" &amp; E70 &amp; ") "," ") &amp; IF(F70&lt;&gt;"","NOT NULL ","") &amp; IF(G70="","","DEFAULT '" &amp; G70 &amp; "' ") &amp; IF(A70="",""," */")</f>
+        <v xml:space="preserve">,`div2` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" s="2"/>
+      <c r="B71" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="7">
+        <v>256</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="27" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
       </c>
-      <c r="J66" s="29" t="str">
+      <c r="J71" s="29" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">,`mail2` VARCHAR(256) </v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="34"/>
-      <c r="B67" s="43" t="s">
+    <row r="72" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="34"/>
+      <c r="B72" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="D72" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="40" t="str">
+      <c r="E72" s="36"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="40" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">,`user_id` INT </v>
       </c>
-      <c r="J67" s="41" t="str">
+      <c r="J72" s="41" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="34"/>
-      <c r="B68" s="43" t="s">
+    <row r="73" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="34"/>
+      <c r="B73" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C73" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D73" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="36"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="40" t="str">
+      <c r="E73" s="36"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="40" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
-      <c r="J68" s="41" t="str">
+      <c r="J73" s="41" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="34"/>
-      <c r="B69" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="36"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="40" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-      <c r="J69" s="41" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A70" s="2"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="34"/>
-      <c r="B72" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I72" s="40" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
-        <v>CREATE TABLE `contracts` (</v>
-      </c>
-      <c r="J72" s="41" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C72 &amp; "` ("</f>
-        <v>CREATE TABLE `contracts` (</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="34"/>
-      <c r="B73" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="37"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J73" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="74" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="34"/>
-      <c r="B74" s="39" t="s">
-        <v>62</v>
+      <c r="B74" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E74" s="36"/>
-      <c r="F74" s="35" t="s">
-        <v>135</v>
-      </c>
+      <c r="F74" s="35"/>
       <c r="G74" s="37"/>
       <c r="H74" s="38"/>
       <c r="I74" s="40" t="str">
-        <f t="shared" ref="I74:I83" si="14">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J74" s="41" t="str">
-        <f t="shared" ref="J74:J83" si="15">"," &amp; IF(A74="","","/* ") &amp; "`" &amp; C74 &amp; "` " &amp; D74 &amp; IF(E74&gt;0,"(" &amp; E74 &amp; ") "," ") &amp; IF(F74&lt;&gt;"","NOT NULL ","") &amp; IF(G74="","","DEFAULT '" &amp; G74 &amp; "' ") &amp; IF(A74="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="34"/>
-      <c r="B75" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="40" t="str">
-        <f>"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J75" s="41" t="str">
-        <f>"," &amp; IF(A75="","","/* ") &amp; "`" &amp; C75 &amp; "` " &amp; D75 &amp; IF(E75&gt;0,"(" &amp; E75 &amp; ") "," ") &amp; IF(F75&lt;&gt;"","NOT NULL ","") &amp; IF(G75="","","DEFAULT '" &amp; G75 &amp; "' ") &amp; IF(A75="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="34"/>
-      <c r="B76" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="36"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="40" t="str">
-        <f>"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-      <c r="J76" s="41" t="str">
-        <f>"," &amp; IF(A76="","","/* ") &amp; "`" &amp; C76 &amp; "` " &amp; D76 &amp; IF(E76&gt;0,"(" &amp; E76 &amp; ") "," ") &amp; IF(F76&lt;&gt;"","NOT NULL ","") &amp; IF(G76="","","DEFAULT '" &amp; G76 &amp; "' ") &amp; IF(A76="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="34"/>
-      <c r="B77" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="38"/>
+      <c r="B77" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I77" s="40" t="str">
-        <f t="shared" ref="I77" si="16">"," &amp; IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; IF(A77="",""," */")</f>
-        <v xml:space="preserve">,`contract_date` DATE </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C77 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
       </c>
       <c r="J77" s="41" t="str">
-        <f t="shared" ref="J77" si="17">"," &amp; IF(A77="","","/* ") &amp; "`" &amp; C77 &amp; "` " &amp; D77 &amp; IF(E77&gt;0,"(" &amp; E77 &amp; ") "," ") &amp; IF(F77&lt;&gt;"","NOT NULL ","") &amp; IF(G77="","","DEFAULT '" &amp; G77 &amp; "' ") &amp; IF(A77="",""," */")</f>
-        <v xml:space="preserve">,`contract_date` DATE </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C77 &amp; "` ("</f>
+        <v>CREATE TABLE `contracts` (</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="34"/>
       <c r="B78" s="39" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="D78" s="35" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="36"/>
-      <c r="F78" s="35"/>
+      <c r="F78" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G78" s="37"/>
       <c r="H78" s="38"/>
-      <c r="I78" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`contractname_id` INT </v>
-      </c>
-      <c r="J78" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`contractname_id` INT </v>
+      <c r="I78" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="34"/>
       <c r="B79" s="39" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E79" s="36"/>
-      <c r="F79" s="35"/>
+      <c r="F79" s="35" t="s">
+        <v>134</v>
+      </c>
       <c r="G79" s="37"/>
       <c r="H79" s="38"/>
       <c r="I79" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <f t="shared" ref="I79:I88" si="14">"," &amp; IF(A79="","","/* ") &amp; "`" &amp; C79 &amp; "` " &amp; D79 &amp; IF(E79&gt;0,"(" &amp; E79 &amp; ") "," ") &amp; IF(F79&lt;&gt;"","NOT NULL ","") &amp; IF(G79="","","DEFAULT '" &amp; G79 &amp; "' ") &amp; IF(A79="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
       <c r="J79" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <f t="shared" ref="J79:J88" si="15">"," &amp; IF(A79="","","/* ") &amp; "`" &amp; C79 &amp; "` " &amp; D79 &amp; IF(E79&gt;0,"(" &amp; E79 &amp; ") "," ") &amp; IF(F79&lt;&gt;"","NOT NULL ","") &amp; IF(G79="","","DEFAULT '" &amp; G79 &amp; "' ") &amp; IF(A79="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT NOT NULL </v>
       </c>
     </row>
     <row r="80" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="34"/>
-      <c r="B80" s="43" t="s">
-        <v>134</v>
+      <c r="B80" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="36">
-        <v>256</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E80" s="36"/>
       <c r="F80" s="35"/>
       <c r="G80" s="37"/>
       <c r="H80" s="38"/>
       <c r="I80" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f>"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J80" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f>"," &amp; IF(A80="","","/* ") &amp; "`" &amp; C80 &amp; "` " &amp; D80 &amp; IF(E80&gt;0,"(" &amp; E80 &amp; ") "," ") &amp; IF(F80&lt;&gt;"","NOT NULL ","") &amp; IF(G80="","","DEFAULT '" &amp; G80 &amp; "' ") &amp; IF(A80="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="81" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="34"/>
-      <c r="B81" s="43" t="s">
-        <v>50</v>
+      <c r="B81" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="36">
-        <v>256</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E81" s="36"/>
       <c r="F81" s="35"/>
       <c r="G81" s="37"/>
       <c r="H81" s="38"/>
       <c r="I81" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f>"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J81" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f>"," &amp; IF(A81="","","/* ") &amp; "`" &amp; C81 &amp; "` " &amp; D81 &amp; IF(E81&gt;0,"(" &amp; E81 &amp; ") "," ") &amp; IF(F81&lt;&gt;"","NOT NULL ","") &amp; IF(G81="","","DEFAULT '" &amp; G81 &amp; "' ") &amp; IF(A81="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="82" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="34"/>
-      <c r="B82" s="43" t="s">
-        <v>51</v>
+      <c r="B82" s="39" t="s">
+        <v>172</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E82" s="36"/>
       <c r="F82" s="35"/>
       <c r="G82" s="37"/>
       <c r="H82" s="38"/>
       <c r="I82" s="40" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" ref="I82" si="16">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
       <c r="J82" s="41" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f t="shared" ref="J82" si="17">"," &amp; IF(A82="","","/* ") &amp; "`" &amp; C82 &amp; "` " &amp; D82 &amp; IF(E82&gt;0,"(" &amp; E82 &amp; ") "," ") &amp; IF(F82&lt;&gt;"","NOT NULL ","") &amp; IF(G82="","","DEFAULT '" &amp; G82 &amp; "' ") &amp; IF(A82="",""," */")</f>
+        <v xml:space="preserve">,`contract_date` DATE </v>
       </c>
     </row>
     <row r="83" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="34"/>
-      <c r="B83" s="43" t="s">
-        <v>52</v>
+      <c r="B83" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="36">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E83" s="36"/>
       <c r="F83" s="35"/>
       <c r="G83" s="37"/>
       <c r="H83" s="38"/>
       <c r="I83" s="40" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`contractname_id` INT </v>
       </c>
       <c r="J83" s="41" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <v xml:space="preserve">,`contractname_id` INT </v>
       </c>
     </row>
     <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="34"/>
-      <c r="B84" s="43" t="s">
-        <v>160</v>
+      <c r="B84" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E84" s="36"/>
       <c r="F84" s="35"/>
       <c r="G84" s="37"/>
       <c r="H84" s="38"/>
       <c r="I84" s="40" t="str">
-        <f t="shared" ref="I84:I86" si="18">"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J84" s="41" t="str">
-        <f t="shared" ref="J84:J86" si="19">"," &amp; IF(A84="","","/* ") &amp; "`" &amp; C84 &amp; "` " &amp; D84 &amp; IF(E84&gt;0,"(" &amp; E84 &amp; ") "," ") &amp; IF(F84&lt;&gt;"","NOT NULL ","") &amp; IF(G84="","","DEFAULT '" &amp; G84 &amp; "' ") &amp; IF(A84="",""," */")</f>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
     </row>
     <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="34"/>
       <c r="B85" s="43" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E85" s="36">
+        <v>256</v>
+      </c>
       <c r="F85" s="35"/>
       <c r="G85" s="37"/>
       <c r="H85" s="38"/>
       <c r="I85" s="40" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J85" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="86" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="34"/>
       <c r="B86" s="43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E86" s="36">
+        <v>256</v>
+      </c>
       <c r="F86" s="35"/>
       <c r="G86" s="37"/>
       <c r="H86" s="38"/>
       <c r="I86" s="40" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J86" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="87" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="34"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" s="41" t="s">
-        <v>33</v>
+      <c r="B87" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J87" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="88" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="G88" s="3"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
+      <c r="B88" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="36">
+        <v>64</v>
+      </c>
+      <c r="F88" s="35"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="40" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J88" s="41" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
     </row>
     <row r="89" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="34"/>
-      <c r="B89" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="B89" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="36"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="38"/>
       <c r="I89" s="40" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C89 &amp; "` ("</f>
-        <v>CREATE TABLE `requests` (</v>
+        <f t="shared" ref="I89:I91" si="18">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
       <c r="J89" s="41" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C89 &amp; "` ("</f>
-        <v>CREATE TABLE `requests` (</v>
+        <f t="shared" ref="J89:J91" si="19">"," &amp; IF(A89="","","/* ") &amp; "`" &amp; C89 &amp; "` " &amp; D89 &amp; IF(E89&gt;0,"(" &amp; E89 &amp; ") "," ") &amp; IF(F89&lt;&gt;"","NOT NULL ","") &amp; IF(G89="","","DEFAULT '" &amp; G89 &amp; "' ") &amp; IF(A89="",""," */")</f>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="90" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="34"/>
-      <c r="B90" s="39" t="s">
-        <v>3</v>
+      <c r="B90" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E90" s="36"/>
-      <c r="F90" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="F90" s="35"/>
       <c r="G90" s="37"/>
       <c r="H90" s="38"/>
-      <c r="I90" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J90" s="30" t="s">
-        <v>20</v>
+      <c r="I90" s="40" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J90" s="41" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="91" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="34"/>
-      <c r="B91" s="39" t="s">
-        <v>62</v>
+      <c r="B91" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E91" s="36"/>
       <c r="F91" s="35"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="40" t="str">
-        <f>"," &amp; IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; IF(A91="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J91" s="41" t="str">
-        <f>"," &amp; IF(A91="","","/* ") &amp; "`" &amp; C91 &amp; "` " &amp; D91 &amp; IF(E91&gt;0,"(" &amp; E91 &amp; ") "," ") &amp; IF(F91&lt;&gt;"","NOT NULL ","") &amp; IF(G91="","","DEFAULT '" &amp; G91 &amp; "' ") &amp; IF(A91="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="92" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="34"/>
-      <c r="B92" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="36"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="40" t="str">
-        <f>"," &amp; IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; IF(A92="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J92" s="41" t="str">
-        <f>"," &amp; IF(A92="","","/* ") &amp; "`" &amp; C92 &amp; "` " &amp; D92 &amp; IF(E92&gt;0,"(" &amp; E92 &amp; ") "," ") &amp; IF(F92&lt;&gt;"","NOT NULL ","") &amp; IF(G92="","","DEFAULT '" &amp; G92 &amp; "' ") &amp; IF(A92="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" s="41" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="34"/>
-      <c r="B93" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="36"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="40" t="str">
-        <f>"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
-        <v xml:space="preserve">,`appform_id` INT </v>
-      </c>
-      <c r="J93" s="41" t="str">
-        <f>"," &amp; IF(A93="","","/* ") &amp; "`" &amp; C93 &amp; "` " &amp; D93 &amp; IF(E93&gt;0,"(" &amp; E93 &amp; ") "," ") &amp; IF(F93&lt;&gt;"","NOT NULL ","") &amp; IF(G93="","","DEFAULT '" &amp; G93 &amp; "' ") &amp; IF(A93="",""," */")</f>
-        <v xml:space="preserve">,`appform_id` INT </v>
-      </c>
+      <c r="E93" s="34"/>
+      <c r="G93" s="3"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
     </row>
     <row r="94" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="34"/>
-      <c r="B94" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="38"/>
+      <c r="B94" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I94" s="40" t="str">
-        <f>"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C94 &amp; "` ("</f>
+        <v>CREATE TABLE `requests` (</v>
       </c>
       <c r="J94" s="41" t="str">
-        <f>"," &amp; IF(A94="","","/* ") &amp; "`" &amp; C94 &amp; "` " &amp; D94 &amp; IF(E94&gt;0,"(" &amp; E94 &amp; ") "," ") &amp; IF(F94&lt;&gt;"","NOT NULL ","") &amp; IF(G94="","","DEFAULT '" &amp; G94 &amp; "' ") &amp; IF(A94="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C94 &amp; "` ("</f>
+        <v>CREATE TABLE `requests` (</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="34"/>
       <c r="B95" s="39" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="36">
-        <v>256</v>
-      </c>
-      <c r="F95" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="E95" s="36"/>
+      <c r="F95" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G95" s="37"/>
       <c r="H95" s="38"/>
-      <c r="I95" s="40" t="str">
-        <f t="shared" ref="I95:I99" si="20">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-      <c r="J95" s="41" t="str">
-        <f t="shared" ref="J95:J99" si="21">"," &amp; IF(A95="","","/* ") &amp; "`" &amp; C95 &amp; "` " &amp; D95 &amp; IF(E95&gt;0,"(" &amp; E95 &amp; ") "," ") &amp; IF(F95&lt;&gt;"","NOT NULL ","") &amp; IF(G95="","","DEFAULT '" &amp; G95 &amp; "' ") &amp; IF(A95="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      <c r="I95" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="34"/>
       <c r="B96" s="39" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="36">
-        <v>256</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E96" s="36"/>
       <c r="F96" s="35"/>
       <c r="G96" s="37"/>
       <c r="H96" s="38"/>
       <c r="I96" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J96" s="41" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A96="","","/* ") &amp; "`" &amp; C96 &amp; "` " &amp; D96 &amp; IF(E96&gt;0,"(" &amp; E96 &amp; ") "," ") &amp; IF(F96&lt;&gt;"","NOT NULL ","") &amp; IF(G96="","","DEFAULT '" &amp; G96 &amp; "' ") &amp; IF(A96="",""," */")</f>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="97" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="34"/>
       <c r="B97" s="39" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="D97" s="35" t="s">
         <v>5</v>
@@ -5159,1207 +5199,1209 @@
       <c r="G97" s="37"/>
       <c r="H97" s="38"/>
       <c r="I97" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J97" s="41" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f>"," &amp; IF(A97="","","/* ") &amp; "`" &amp; C97 &amp; "` " &amp; D97 &amp; IF(E97&gt;0,"(" &amp; E97 &amp; ") "," ") &amp; IF(F97&lt;&gt;"","NOT NULL ","") &amp; IF(G97="","","DEFAULT '" &amp; G97 &amp; "' ") &amp; IF(A97="",""," */")</f>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="98" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="34"/>
       <c r="B98" s="39" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" s="36"/>
       <c r="F98" s="35"/>
       <c r="G98" s="37"/>
       <c r="H98" s="38"/>
       <c r="I98" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
+        <v xml:space="preserve">,`appform_id` INT </v>
       </c>
       <c r="J98" s="41" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f>"," &amp; IF(A98="","","/* ") &amp; "`" &amp; C98 &amp; "` " &amp; D98 &amp; IF(E98&gt;0,"(" &amp; E98 &amp; ") "," ") &amp; IF(F98&lt;&gt;"","NOT NULL ","") &amp; IF(G98="","","DEFAULT '" &amp; G98 &amp; "' ") &amp; IF(A98="",""," */")</f>
+        <v xml:space="preserve">,`appform_id` INT </v>
       </c>
     </row>
     <row r="99" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="34"/>
       <c r="B99" s="39" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E99" s="36"/>
       <c r="F99" s="35"/>
       <c r="G99" s="37"/>
       <c r="H99" s="38"/>
       <c r="I99" s="40" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">,`license_date` DATE </v>
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J99" s="41" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">,`license_date` DATE </v>
+        <f>"," &amp; IF(A99="","","/* ") &amp; "`" &amp; C99 &amp; "` " &amp; D99 &amp; IF(E99&gt;0,"(" &amp; E99 &amp; ") "," ") &amp; IF(F99&lt;&gt;"","NOT NULL ","") &amp; IF(G99="","","DEFAULT '" &amp; G99 &amp; "' ") &amp; IF(A99="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="100" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="34"/>
       <c r="B100" s="39" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E100" s="36">
+        <v>256</v>
+      </c>
       <c r="F100" s="35"/>
       <c r="G100" s="37"/>
       <c r="H100" s="38"/>
       <c r="I100" s="40" t="str">
-        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`startsupp_date` DATE </v>
+        <f t="shared" ref="I100:I104" si="20">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J100" s="41" t="str">
-        <f>"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
-        <v xml:space="preserve">,`startsupp_date` DATE </v>
+        <f t="shared" ref="J100:J104" si="21">"," &amp; IF(A100="","","/* ") &amp; "`" &amp; C100 &amp; "` " &amp; D100 &amp; IF(E100&gt;0,"(" &amp; E100 &amp; ") "," ") &amp; IF(F100&lt;&gt;"","NOT NULL ","") &amp; IF(G100="","","DEFAULT '" &amp; G100 &amp; "' ") &amp; IF(A100="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="101" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="34"/>
       <c r="B101" s="39" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E101" s="36">
+        <v>256</v>
+      </c>
       <c r="F101" s="35"/>
       <c r="G101" s="37"/>
       <c r="H101" s="38"/>
       <c r="I101" s="40" t="str">
-        <f t="shared" ref="I101:I104" si="22">"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J101" s="41" t="str">
-        <f t="shared" ref="J101:J104" si="23">"," &amp; IF(A101="","","/* ") &amp; "`" &amp; C101 &amp; "` " &amp; D101 &amp; IF(E101&gt;0,"(" &amp; E101 &amp; ") "," ") &amp; IF(F101&lt;&gt;"","NOT NULL ","") &amp; IF(G101="","","DEFAULT '" &amp; G101 &amp; "' ") &amp; IF(A101="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="102" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="34"/>
-      <c r="B102" s="43" t="s">
-        <v>160</v>
+      <c r="B102" s="39" t="s">
+        <v>150</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="E102" s="36"/>
       <c r="F102" s="35"/>
       <c r="G102" s="37"/>
       <c r="H102" s="38"/>
       <c r="I102" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
       <c r="J102" s="41" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
     </row>
     <row r="103" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="34"/>
-      <c r="B103" s="43" t="s">
-        <v>46</v>
+      <c r="B103" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E103" s="36"/>
       <c r="F103" s="35"/>
       <c r="G103" s="37"/>
       <c r="H103" s="38"/>
       <c r="I103" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J103" s="41" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="104" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="34"/>
-      <c r="B104" s="43" t="s">
-        <v>47</v>
+      <c r="B104" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E104" s="36"/>
       <c r="F104" s="35"/>
       <c r="G104" s="37"/>
       <c r="H104" s="38"/>
       <c r="I104" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">,`license_date` DATE </v>
       </c>
       <c r="J104" s="41" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">,`license_date` DATE </v>
       </c>
     </row>
     <row r="105" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="34"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J105" s="41" t="s">
-        <v>33</v>
+      <c r="B105" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="36"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="40" t="str">
+        <f>"," &amp; IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; IF(A105="",""," */")</f>
+        <v xml:space="preserve">,`startsupp_date` DATE </v>
+      </c>
+      <c r="J105" s="41" t="str">
+        <f>"," &amp; IF(A105="","","/* ") &amp; "`" &amp; C105 &amp; "` " &amp; D105 &amp; IF(E105&gt;0,"(" &amp; E105 &amp; ") "," ") &amp; IF(F105&lt;&gt;"","NOT NULL ","") &amp; IF(G105="","","DEFAULT '" &amp; G105 &amp; "' ") &amp; IF(A105="",""," */")</f>
+        <v xml:space="preserve">,`startsupp_date` DATE </v>
       </c>
     </row>
     <row r="106" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="G106" s="3"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A107" s="2"/>
-      <c r="B107" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I107" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C107 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-      <c r="J107" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C107 &amp; "` ("</f>
-        <v>CREATE TABLE `licenses` (</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A108" s="2"/>
-      <c r="B108" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J108" s="30" t="s">
-        <v>20</v>
+      <c r="B106" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="36"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="40" t="str">
+        <f t="shared" ref="I106:I109" si="22">"," &amp; IF(A106="","","/* ") &amp; "`" &amp; C106 &amp; "` " &amp; D106 &amp; IF(E106&gt;0,"(" &amp; E106 &amp; ") "," ") &amp; IF(F106&lt;&gt;"","NOT NULL ","") &amp; IF(G106="","","DEFAULT '" &amp; G106 &amp; "' ") &amp; IF(A106="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J106" s="41" t="str">
+        <f t="shared" ref="J106:J109" si="23">"," &amp; IF(A106="","","/* ") &amp; "`" &amp; C106 &amp; "` " &amp; D106 &amp; IF(E106&gt;0,"(" &amp; E106 &amp; ") "," ") &amp; IF(F106&lt;&gt;"","NOT NULL ","") &amp; IF(G106="","","DEFAULT '" &amp; G106 &amp; "' ") &amp; IF(A106="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="34"/>
+      <c r="B107" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E107" s="36"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J107" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="34"/>
+      <c r="B108" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J108" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="109" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="34"/>
-      <c r="B109" s="39" t="s">
-        <v>62</v>
+      <c r="B109" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E109" s="36"/>
       <c r="F109" s="35"/>
       <c r="G109" s="37"/>
       <c r="H109" s="38"/>
       <c r="I109" s="40" t="str">
-        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J109" s="41" t="str">
-        <f>"," &amp; IF(A109="","","/* ") &amp; "`" &amp; C109 &amp; "` " &amp; D109 &amp; IF(E109&gt;0,"(" &amp; E109 &amp; ") "," ") &amp; IF(F109&lt;&gt;"","NOT NULL ","") &amp; IF(G109="","","DEFAULT '" &amp; G109 &amp; "' ") &amp; IF(A109="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A110" s="2"/>
-      <c r="B110" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="27" t="str">
-        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J110" s="29" t="str">
-        <f>"," &amp; IF(A110="","","/* ") &amp; "`" &amp; C110 &amp; "` " &amp; D110 &amp; IF(E110&gt;0,"(" &amp; E110 &amp; ") "," ") &amp; IF(F110&lt;&gt;"","NOT NULL ","") &amp; IF(G110="","","DEFAULT '" &amp; G110 &amp; "' ") &amp; IF(A110="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A111" s="2"/>
-      <c r="B111" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="27" t="str">
-        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-      <c r="J111" s="29" t="str">
-        <f>"," &amp; IF(A111="","","/* ") &amp; "`" &amp; C111 &amp; "` " &amp; D111 &amp; IF(E111&gt;0,"(" &amp; E111 &amp; ") "," ") &amp; IF(F111&lt;&gt;"","NOT NULL ","") &amp; IF(G111="","","DEFAULT '" &amp; G111 &amp; "' ") &amp; IF(A111="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="34"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="G111" s="3"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
-      <c r="B112" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="9"/>
+      <c r="B112" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I112" s="27" t="str">
-        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C112 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
       </c>
       <c r="J112" s="29" t="str">
-        <f>"," &amp; IF(A112="","","/* ") &amp; "`" &amp; C112 &amp; "` " &amp; D112 &amp; IF(E112&gt;0,"(" &amp; E112 &amp; ") "," ") &amp; IF(F112&lt;&gt;"","NOT NULL ","") &amp; IF(G112="","","DEFAULT '" &amp; G112 &amp; "' ") &amp; IF(A112="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C112 &amp; "` ("</f>
+        <v>CREATE TABLE `licenses` (</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="20" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E113" s="7"/>
-      <c r="F113" s="6"/>
+      <c r="F113" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G113" s="8"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="27" t="str">
-        <f t="shared" ref="I113:I119" si="24">"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-      <c r="J113" s="29" t="str">
-        <f t="shared" ref="J113:J119" si="25">"," &amp; IF(A113="","","/* ") &amp; "`" &amp; C113 &amp; "` " &amp; D113 &amp; IF(E113&gt;0,"(" &amp; E113 &amp; ") "," ") &amp; IF(F113&lt;&gt;"","NOT NULL ","") &amp; IF(G113="","","DEFAULT '" &amp; G113 &amp; "' ") &amp; IF(A113="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A114" s="2"/>
-      <c r="B114" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="7">
+      <c r="I113" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="27" t="str">
+    </row>
+    <row r="114" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="34"/>
+      <c r="B114" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="36"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="40" t="str">
         <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-      <c r="J114" s="29" t="str">
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+      <c r="J114" s="41" t="str">
         <f>"," &amp; IF(A114="","","/* ") &amp; "`" &amp; C114 &amp; "` " &amp; D114 &amp; IF(E114&gt;0,"(" &amp; E114 &amp; ") "," ") &amp; IF(F114&lt;&gt;"","NOT NULL ","") &amp; IF(G114="","","DEFAULT '" &amp; G114 &amp; "' ") &amp; IF(A114="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="34"/>
-      <c r="B115" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C115" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="36">
-        <v>20</v>
-      </c>
-      <c r="F115" s="35"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="40" t="str">
+        <v xml:space="preserve">,`client_id` INT </v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A115" s="2"/>
+      <c r="B115" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="27" t="str">
         <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
-      </c>
-      <c r="J115" s="41" t="str">
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+      <c r="J115" s="29" t="str">
         <f>"," &amp; IF(A115="","","/* ") &amp; "`" &amp; C115 &amp; "` " &amp; D115 &amp; IF(E115&gt;0,"(" &amp; E115 &amp; ") "," ") &amp; IF(F115&lt;&gt;"","NOT NULL ","") &amp; IF(G115="","","DEFAULT '" &amp; G115 &amp; "' ") &amp; IF(A115="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="34"/>
-      <c r="B116" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="36">
-        <v>256</v>
-      </c>
-      <c r="F116" s="35"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="40" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
-      </c>
-      <c r="J116" s="41" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A116" s="2"/>
+      <c r="B116" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="27" t="str">
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
+      </c>
+      <c r="J116" s="29" t="str">
+        <f>"," &amp; IF(A116="","","/* ") &amp; "`" &amp; C116 &amp; "` " &amp; D116 &amp; IF(E116&gt;0,"(" &amp; E116 &amp; ") "," ") &amp; IF(F116&lt;&gt;"","NOT NULL ","") &amp; IF(G116="","","DEFAULT '" &amp; G116 &amp; "' ") &amp; IF(A116="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="20" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="7">
-        <v>256</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E117" s="7"/>
       <c r="F117" s="6"/>
       <c r="G117" s="8"/>
       <c r="H117" s="9"/>
       <c r="I117" s="27" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J117" s="29" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="34"/>
-      <c r="B118" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118" s="36"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="40" t="str">
-        <f t="shared" ref="I118" si="26">"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
-        <v xml:space="preserve">,`language_id` INT </v>
-      </c>
-      <c r="J118" s="41" t="str">
-        <f t="shared" ref="J118" si="27">"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f>"," &amp; IF(A117="","","/* ") &amp; "`" &amp; C117 &amp; "` " &amp; D117 &amp; IF(E117&gt;0,"(" &amp; E117 &amp; ") "," ") &amp; IF(F117&lt;&gt;"","NOT NULL ","") &amp; IF(G117="","","DEFAULT '" &amp; G117 &amp; "' ") &amp; IF(A117="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A118" s="2"/>
+      <c r="B118" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="27" t="str">
+        <f t="shared" ref="I118:I124" si="24">"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
+      </c>
+      <c r="J118" s="29" t="str">
+        <f t="shared" ref="J118:J124" si="25">"," &amp; IF(A118="","","/* ") &amp; "`" &amp; C118 &amp; "` " &amp; D118 &amp; IF(E118&gt;0,"(" &amp; E118 &amp; ") "," ") &amp; IF(F118&lt;&gt;"","NOT NULL ","") &amp; IF(G118="","","DEFAULT '" &amp; G118 &amp; "' ") &amp; IF(A118="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="20" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E119" s="7">
+        <v>20</v>
+      </c>
       <c r="F119" s="6"/>
       <c r="G119" s="8"/>
       <c r="H119" s="9"/>
       <c r="I119" s="27" t="str">
+        <f>"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+      <c r="J119" s="29" t="str">
+        <f>"," &amp; IF(A119="","","/* ") &amp; "`" &amp; C119 &amp; "` " &amp; D119 &amp; IF(E119&gt;0,"(" &amp; E119 &amp; ") "," ") &amp; IF(F119&lt;&gt;"","NOT NULL ","") &amp; IF(G119="","","DEFAULT '" &amp; G119 &amp; "' ") &amp; IF(A119="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="34"/>
+      <c r="B120" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="36">
+        <v>20</v>
+      </c>
+      <c r="F120" s="35"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="40" t="str">
+        <f>"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+      <c r="J120" s="41" t="str">
+        <f>"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="34"/>
+      <c r="B121" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="36">
+        <v>256</v>
+      </c>
+      <c r="F121" s="35"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="40" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-      <c r="J119" s="29" t="str">
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+      <c r="J121" s="41" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A120" s="2"/>
-      <c r="B120" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="27" t="str">
-        <f t="shared" ref="I120" si="28">"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-      <c r="J120" s="29" t="str">
-        <f t="shared" ref="J120" si="29">"," &amp; IF(A120="","","/* ") &amp; "`" &amp; C120 &amp; "` " &amp; D120 &amp; IF(E120&gt;0,"(" &amp; E120 &amp; ") "," ") &amp; IF(F120&lt;&gt;"","NOT NULL ","") &amp; IF(G120="","","DEFAULT '" &amp; G120 &amp; "' ") &amp; IF(A120="",""," */")</f>
-        <v xml:space="preserve">,`startdate` DATE </v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A121" s="2"/>
-      <c r="B121" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="27" t="str">
-        <f>"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
-      </c>
-      <c r="J121" s="29" t="str">
-        <f>"," &amp; IF(A121="","","/* ") &amp; "`" &amp; C121 &amp; "` " &amp; D121 &amp; IF(E121&gt;0,"(" &amp; E121 &amp; ") "," ") &amp; IF(F121&lt;&gt;"","NOT NULL ","") &amp; IF(G121="","","DEFAULT '" &amp; G121 &amp; "' ") &amp; IF(A121="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="34"/>
-      <c r="B122" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D122" s="35" t="s">
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A122" s="2"/>
+      <c r="B122" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="36">
+      <c r="E122" s="7">
         <v>256</v>
       </c>
-      <c r="F122" s="35"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="40" t="str">
-        <f t="shared" ref="I122" si="30">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-      <c r="J122" s="41" t="str">
-        <f t="shared" ref="J122" si="31">"," &amp; IF(A122="","","/* ") &amp; "`" &amp; C122 &amp; "` " &amp; D122 &amp; IF(E122&gt;0,"(" &amp; E122 &amp; ") "," ") &amp; IF(F122&lt;&gt;"","NOT NULL ","") &amp; IF(G122="","","DEFAULT '" &amp; G122 &amp; "' ") &amp; IF(A122="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A123" s="2"/>
-      <c r="B123" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="27" t="str">
-        <f t="shared" ref="I123:I130" si="32">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
-      </c>
-      <c r="J123" s="29" t="str">
-        <f t="shared" ref="J123:J130" si="33">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
-        <v xml:space="preserve">,`notice` TEXT </v>
+      <c r="F122" s="6"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="27" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+      <c r="J122" s="29" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="34"/>
+      <c r="B123" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="36"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="40" t="str">
+        <f t="shared" ref="I123" si="26">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
+      </c>
+      <c r="J123" s="41" t="str">
+        <f t="shared" ref="J123" si="27">"," &amp; IF(A123="","","/* ") &amp; "`" &amp; C123 &amp; "` " &amp; D123 &amp; IF(E123&gt;0,"(" &amp; E123 &amp; ") "," ") &amp; IF(F123&lt;&gt;"","NOT NULL ","") &amp; IF(G123="","","DEFAULT '" &amp; G123 &amp; "' ") &amp; IF(A123="",""," */")</f>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
-      <c r="B124" s="43" t="s">
-        <v>86</v>
+      <c r="B124" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="7">
-        <v>256</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E124" s="7"/>
       <c r="F124" s="6"/>
       <c r="G124" s="8"/>
       <c r="H124" s="9"/>
       <c r="I124" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J124" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
-      <c r="B125" s="43" t="s">
-        <v>50</v>
+      <c r="B125" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="7">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E125" s="7"/>
       <c r="F125" s="6"/>
       <c r="G125" s="8"/>
       <c r="H125" s="9"/>
       <c r="I125" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="I125" si="28">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J125" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" ref="J125" si="29">"," &amp; IF(A125="","","/* ") &amp; "`" &amp; C125 &amp; "` " &amp; D125 &amp; IF(E125&gt;0,"(" &amp; E125 &amp; ") "," ") &amp; IF(F125&lt;&gt;"","NOT NULL ","") &amp; IF(G125="","","DEFAULT '" &amp; G125 &amp; "' ") &amp; IF(A125="",""," */")</f>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
-      <c r="B126" s="43" t="s">
-        <v>51</v>
+      <c r="B126" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="6"/>
       <c r="G126" s="8"/>
       <c r="H126" s="9"/>
       <c r="I126" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f>"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J126" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A127" s="2"/>
-      <c r="B127" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D127" s="6" t="s">
+        <f>"," &amp; IF(A126="","","/* ") &amp; "`" &amp; C126 &amp; "` " &amp; D126 &amp; IF(E126&gt;0,"(" &amp; E126 &amp; ") "," ") &amp; IF(F126&lt;&gt;"","NOT NULL ","") &amp; IF(G126="","","DEFAULT '" &amp; G126 &amp; "' ") &amp; IF(A126="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="34"/>
+      <c r="B127" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="7">
-        <v>64</v>
-      </c>
-      <c r="F127" s="6"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-      <c r="J127" s="29" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="34"/>
-      <c r="B128" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E128" s="36"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="40" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">,`user_id` INT </v>
-      </c>
-      <c r="J128" s="41" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+      <c r="E127" s="36">
+        <v>256</v>
+      </c>
+      <c r="F127" s="35"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="40" t="str">
+        <f t="shared" ref="I127" si="30">"," &amp; IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; IF(A127="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+      <c r="J127" s="41" t="str">
+        <f t="shared" ref="J127" si="31">"," &amp; IF(A127="","","/* ") &amp; "`" &amp; C127 &amp; "` " &amp; D127 &amp; IF(E127&gt;0,"(" &amp; E127 &amp; ") "," ") &amp; IF(F127&lt;&gt;"","NOT NULL ","") &amp; IF(G127="","","DEFAULT '" &amp; G127 &amp; "' ") &amp; IF(A127="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A128" s="2"/>
+      <c r="B128" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="27" t="str">
+        <f t="shared" ref="I128:I135" si="32">"," &amp; IF(A128="","","/* ") &amp; "`" &amp; C128 &amp; "` " &amp; D128 &amp; IF(E128&gt;0,"(" &amp; E128 &amp; ") "," ") &amp; IF(F128&lt;&gt;"","NOT NULL ","") &amp; IF(G128="","","DEFAULT '" &amp; G128 &amp; "' ") &amp; IF(A128="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
+      </c>
+      <c r="J128" s="29" t="str">
+        <f t="shared" ref="J128:J135" si="33">"," &amp; IF(A128="","","/* ") &amp; "`" &amp; C128 &amp; "` " &amp; D128 &amp; IF(E128&gt;0,"(" &amp; E128 &amp; ") "," ") &amp; IF(F128&lt;&gt;"","NOT NULL ","") &amp; IF(G128="","","DEFAULT '" &amp; G128 &amp; "' ") &amp; IF(A128="",""," */")</f>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="43" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E129" s="7">
+        <v>256</v>
+      </c>
       <c r="F129" s="6"/>
       <c r="G129" s="8"/>
       <c r="H129" s="9"/>
       <c r="I129" s="27" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J129" s="29" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E130" s="7">
+        <v>256</v>
+      </c>
       <c r="F130" s="6"/>
       <c r="G130" s="8"/>
       <c r="H130" s="9"/>
       <c r="I130" s="27" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J130" s="29" t="str">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J131" s="29" t="s">
-        <v>33</v>
+      <c r="B131" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J131" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`size` INT </v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A133" s="2"/>
-      <c r="B133" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F133" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I133" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C133 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
-      </c>
-      <c r="J133" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C133 &amp; "` ("</f>
-        <v>CREATE TABLE `licensehistories` (</v>
+      <c r="B132" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="7">
+        <v>64</v>
+      </c>
+      <c r="F132" s="6"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J132" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="34"/>
+      <c r="B133" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="36"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J133" s="41" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
-      <c r="B134" s="20" t="s">
-        <v>3</v>
+      <c r="B134" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E134" s="7"/>
-      <c r="F134" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="F134" s="6"/>
       <c r="G134" s="8"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="28" t="s">
+      <c r="I134" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J134" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A135" s="2"/>
+      <c r="B135" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+      <c r="J135" s="29" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A136" s="2"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A138" s="2"/>
+      <c r="B138" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I138" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C138 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+      <c r="J138" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C138 &amp; "` ("</f>
+        <v>CREATE TABLE `licensehistories` (</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A139" s="2"/>
+      <c r="B139" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" s="8"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J134" s="30" t="s">
+      <c r="J139" s="30" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="34"/>
-      <c r="B135" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C135" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" s="36"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="40" t="str">
-        <f>"," &amp; IF(A135="","","/* ") &amp; "`" &amp; C135 &amp; "` " &amp; D135 &amp; IF(E135&gt;0,"(" &amp; E135 &amp; ") "," ") &amp; IF(F135&lt;&gt;"","NOT NULL ","") &amp; IF(G135="","","DEFAULT '" &amp; G135 &amp; "' ") &amp; IF(A135="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-      <c r="J135" s="41" t="str">
-        <f>"," &amp; IF(A135="","","/* ") &amp; "`" &amp; C135 &amp; "` " &amp; D135 &amp; IF(E135&gt;0,"(" &amp; E135 &amp; ") "," ") &amp; IF(F135&lt;&gt;"","NOT NULL ","") &amp; IF(G135="","","DEFAULT '" &amp; G135 &amp; "' ") &amp; IF(A135="",""," */")</f>
-        <v xml:space="preserve">,`client_id` INT </v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="34"/>
-      <c r="B136" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C136" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" s="36"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="40" t="str">
-        <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-      <c r="J136" s="41" t="str">
-        <f>"," &amp; IF(A136="","","/* ") &amp; "`" &amp; C136 &amp; "` " &amp; D136 &amp; IF(E136&gt;0,"(" &amp; E136 &amp; ") "," ") &amp; IF(F136&lt;&gt;"","NOT NULL ","") &amp; IF(G136="","","DEFAULT '" &amp; G136 &amp; "' ") &amp; IF(A136="",""," */")</f>
-        <v xml:space="preserve">,`customer_id` INT </v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A137" s="34"/>
-      <c r="B137" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C137" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="36"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="40" t="str">
-        <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-      <c r="J137" s="41" t="str">
-        <f>"," &amp; IF(A137="","","/* ") &amp; "`" &amp; C137 &amp; "` " &amp; D137 &amp; IF(E137&gt;0,"(" &amp; E137 &amp; ") "," ") &amp; IF(F137&lt;&gt;"","NOT NULL ","") &amp; IF(G137="","","DEFAULT '" &amp; G137 &amp; "' ") &amp; IF(A137="",""," */")</f>
-        <v xml:space="preserve">,`order_id` INT </v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="34"/>
-      <c r="B138" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C138" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D138" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="36"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="38"/>
-      <c r="I138" s="40" t="str">
-        <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
-      </c>
-      <c r="J138" s="41" t="str">
-        <f>"," &amp; IF(A138="","","/* ") &amp; "`" &amp; C138 &amp; "` " &amp; D138 &amp; IF(E138&gt;0,"(" &amp; E138 &amp; ") "," ") &amp; IF(F138&lt;&gt;"","NOT NULL ","") &amp; IF(G138="","","DEFAULT '" &amp; G138 &amp; "' ") &amp; IF(A138="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="34"/>
-      <c r="B139" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C139" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D139" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="36"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="40" t="str">
-        <f t="shared" ref="I139" si="34">"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
-      </c>
-      <c r="J139" s="41" t="str">
-        <f t="shared" ref="J139" si="35">"," &amp; IF(A139="","","/* ") &amp; "`" &amp; C139 &amp; "` " &amp; D139 &amp; IF(E139&gt;0,"(" &amp; E139 &amp; ") "," ") &amp; IF(F139&lt;&gt;"","NOT NULL ","") &amp; IF(G139="","","DEFAULT '" &amp; G139 &amp; "' ") &amp; IF(A139="",""," */")</f>
-        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="140" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="34"/>
       <c r="B140" s="39" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="36">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E140" s="36"/>
       <c r="F140" s="35"/>
       <c r="G140" s="37"/>
       <c r="H140" s="38"/>
       <c r="I140" s="40" t="str">
         <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
       <c r="J140" s="41" t="str">
         <f>"," &amp; IF(A140="","","/* ") &amp; "`" &amp; C140 &amp; "` " &amp; D140 &amp; IF(E140&gt;0,"(" &amp; E140 &amp; ") "," ") &amp; IF(F140&lt;&gt;"","NOT NULL ","") &amp; IF(G140="","","DEFAULT '" &amp; G140 &amp; "' ") &amp; IF(A140="",""," */")</f>
-        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`client_id` INT </v>
       </c>
     </row>
     <row r="141" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="34"/>
       <c r="B141" s="39" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="36">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E141" s="36"/>
       <c r="F141" s="35"/>
       <c r="G141" s="37"/>
       <c r="H141" s="38"/>
       <c r="I141" s="40" t="str">
         <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
       <c r="J141" s="41" t="str">
         <f>"," &amp; IF(A141="","","/* ") &amp; "`" &amp; C141 &amp; "` " &amp; D141 &amp; IF(E141&gt;0,"(" &amp; E141 &amp; ") "," ") &amp; IF(F141&lt;&gt;"","NOT NULL ","") &amp; IF(G141="","","DEFAULT '" &amp; G141 &amp; "' ") &amp; IF(A141="",""," */")</f>
-        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`customer_id` INT </v>
       </c>
     </row>
     <row r="142" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="34"/>
       <c r="B142" s="39" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="36">
-        <v>256</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E142" s="36"/>
       <c r="F142" s="35"/>
       <c r="G142" s="37"/>
       <c r="H142" s="38"/>
       <c r="I142" s="40" t="str">
-        <f t="shared" ref="I142:I146" si="36">"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
       <c r="J142" s="41" t="str">
-        <f t="shared" ref="J142:J146" si="37">"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A142="","","/* ") &amp; "`" &amp; C142 &amp; "` " &amp; D142 &amp; IF(E142&gt;0,"(" &amp; E142 &amp; ") "," ") &amp; IF(F142&lt;&gt;"","NOT NULL ","") &amp; IF(G142="","","DEFAULT '" &amp; G142 &amp; "' ") &amp; IF(A142="",""," */")</f>
+        <v xml:space="preserve">,`order_id` INT </v>
       </c>
     </row>
     <row r="143" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="34"/>
       <c r="B143" s="39" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="36">
-        <v>256</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E143" s="36"/>
       <c r="F143" s="35"/>
       <c r="G143" s="37"/>
       <c r="H143" s="38"/>
       <c r="I143" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
       <c r="J143" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
+        <f>"," &amp; IF(A143="","","/* ") &amp; "`" &amp; C143 &amp; "` " &amp; D143 &amp; IF(E143&gt;0,"(" &amp; E143 &amp; ") "," ") &amp; IF(F143&lt;&gt;"","NOT NULL ","") &amp; IF(G143="","","DEFAULT '" &amp; G143 &amp; "' ") &amp; IF(A143="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
       </c>
     </row>
     <row r="144" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="34"/>
       <c r="B144" s="39" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E144" s="36"/>
       <c r="F144" s="35"/>
       <c r="G144" s="37"/>
       <c r="H144" s="38"/>
       <c r="I144" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" ref="I144" si="34">"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
       <c r="J144" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`language_id` INT </v>
+        <f t="shared" ref="J144" si="35">"," &amp; IF(A144="","","/* ") &amp; "`" &amp; C144 &amp; "` " &amp; D144 &amp; IF(E144&gt;0,"(" &amp; E144 &amp; ") "," ") &amp; IF(F144&lt;&gt;"","NOT NULL ","") &amp; IF(G144="","","DEFAULT '" &amp; G144 &amp; "' ") &amp; IF(A144="",""," */")</f>
+        <v xml:space="preserve">,`issued` DATE </v>
       </c>
     </row>
     <row r="145" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="34"/>
       <c r="B145" s="39" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E145" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E145" s="36">
+        <v>20</v>
+      </c>
       <c r="F145" s="35"/>
       <c r="G145" s="37"/>
       <c r="H145" s="38"/>
       <c r="I145" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f>"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
       <c r="J145" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`license_qty` INT </v>
+        <f>"," &amp; IF(A145="","","/* ") &amp; "`" &amp; C145 &amp; "` " &amp; D145 &amp; IF(E145&gt;0,"(" &amp; E145 &amp; ") "," ") &amp; IF(F145&lt;&gt;"","NOT NULL ","") &amp; IF(G145="","","DEFAULT '" &amp; G145 &amp; "' ") &amp; IF(A145="",""," */")</f>
+        <v xml:space="preserve">,`license_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="146" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="34"/>
       <c r="B146" s="39" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E146" s="36">
+        <v>20</v>
+      </c>
       <c r="F146" s="35"/>
       <c r="G146" s="37"/>
       <c r="H146" s="38"/>
       <c r="I146" s="40" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f>"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
       <c r="J146" s="41" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve">,`startdate` DATE </v>
+        <f>"," &amp; IF(A146="","","/* ") &amp; "`" &amp; C146 &amp; "` " &amp; D146 &amp; IF(E146&gt;0,"(" &amp; E146 &amp; ") "," ") &amp; IF(F146&lt;&gt;"","NOT NULL ","") &amp; IF(G146="","","DEFAULT '" &amp; G146 &amp; "' ") &amp; IF(A146="",""," */")</f>
+        <v xml:space="preserve">,`relate_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="147" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="34"/>
       <c r="B147" s="39" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E147" s="36">
+        <v>256</v>
+      </c>
       <c r="F147" s="35"/>
       <c r="G147" s="37"/>
       <c r="H147" s="38"/>
       <c r="I147" s="40" t="str">
-        <f>"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" ref="I147:I151" si="36">"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J147" s="41" t="str">
-        <f>"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
-        <v xml:space="preserve">,`enddate` DATE </v>
+        <f t="shared" ref="J147:J151" si="37">"," &amp; IF(A147="","","/* ") &amp; "`" &amp; C147 &amp; "` " &amp; D147 &amp; IF(E147&gt;0,"(" &amp; E147 &amp; ") "," ") &amp; IF(F147&lt;&gt;"","NOT NULL ","") &amp; IF(G147="","","DEFAULT '" &amp; G147 &amp; "' ") &amp; IF(A147="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="148" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="34"/>
       <c r="B148" s="39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="D148" s="35" t="s">
         <v>7</v>
@@ -6371,150 +6413,146 @@
       <c r="G148" s="37"/>
       <c r="H148" s="38"/>
       <c r="I148" s="40" t="str">
-        <f t="shared" ref="I148:I156" si="38">"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
       <c r="J148" s="41" t="str">
-        <f t="shared" ref="J148:J156" si="39">"," &amp; IF(A148="","","/* ") &amp; "`" &amp; C148 &amp; "` " &amp; D148 &amp; IF(E148&gt;0,"(" &amp; E148 &amp; ") "," ") &amp; IF(F148&lt;&gt;"","NOT NULL ","") &amp; IF(G148="","","DEFAULT '" &amp; G148 &amp; "' ") &amp; IF(A148="",""," */")</f>
-        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`license_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="149" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="34"/>
       <c r="B149" s="39" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="35"/>
       <c r="G149" s="37"/>
       <c r="H149" s="38"/>
       <c r="I149" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
       <c r="J149" s="41" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">,`notice` TEXT </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`language_id` INT </v>
       </c>
     </row>
     <row r="150" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="34"/>
-      <c r="B150" s="43" t="s">
-        <v>86</v>
+      <c r="B150" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="36">
-        <v>256</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E150" s="36"/>
       <c r="F150" s="35"/>
       <c r="G150" s="37"/>
       <c r="H150" s="38"/>
       <c r="I150" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
       <c r="J150" s="41" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`license_qty` INT </v>
       </c>
     </row>
     <row r="151" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="34"/>
-      <c r="B151" s="43" t="s">
-        <v>50</v>
+      <c r="B151" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="36">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E151" s="36"/>
       <c r="F151" s="35"/>
       <c r="G151" s="37"/>
       <c r="H151" s="38"/>
       <c r="I151" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
       <c r="J151" s="41" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f t="shared" si="37"/>
+        <v xml:space="preserve">,`startdate` DATE </v>
       </c>
     </row>
     <row r="152" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="34"/>
-      <c r="B152" s="43" t="s">
-        <v>51</v>
+      <c r="B152" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E152" s="36"/>
       <c r="F152" s="35"/>
       <c r="G152" s="37"/>
       <c r="H152" s="38"/>
       <c r="I152" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f>"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
       <c r="J152" s="41" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f>"," &amp; IF(A152="","","/* ") &amp; "`" &amp; C152 &amp; "` " &amp; D152 &amp; IF(E152&gt;0,"(" &amp; E152 &amp; ") "," ") &amp; IF(F152&lt;&gt;"","NOT NULL ","") &amp; IF(G152="","","DEFAULT '" &amp; G152 &amp; "' ") &amp; IF(A152="",""," */")</f>
+        <v xml:space="preserve">,`enddate` DATE </v>
       </c>
     </row>
     <row r="153" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="34"/>
-      <c r="B153" s="43" t="s">
-        <v>52</v>
+      <c r="B153" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="D153" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E153" s="36">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F153" s="35"/>
       <c r="G153" s="37"/>
       <c r="H153" s="38"/>
       <c r="I153" s="40" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f t="shared" ref="I153:I161" si="38">"," &amp; IF(A153="","","/* ") &amp; "`" &amp; C153 &amp; "` " &amp; D153 &amp; IF(E153&gt;0,"(" &amp; E153 &amp; ") "," ") &amp; IF(F153&lt;&gt;"","NOT NULL ","") &amp; IF(G153="","","DEFAULT '" &amp; G153 &amp; "' ") &amp; IF(A153="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
       <c r="J153" s="41" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f t="shared" ref="J153:J161" si="39">"," &amp; IF(A153="","","/* ") &amp; "`" &amp; C153 &amp; "` " &amp; D153 &amp; IF(E153&gt;0,"(" &amp; E153 &amp; ") "," ") &amp; IF(F153&lt;&gt;"","NOT NULL ","") &amp; IF(G153="","","DEFAULT '" &amp; G153 &amp; "' ") &amp; IF(A153="",""," */")</f>
+        <v xml:space="preserve">,`license_key` VARCHAR(256) </v>
       </c>
     </row>
     <row r="154" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="34"/>
-      <c r="B154" s="43" t="s">
-        <v>160</v>
+      <c r="B154" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="E154" s="36"/>
       <c r="F154" s="35"/>
@@ -6522,272 +6560,266 @@
       <c r="H154" s="38"/>
       <c r="I154" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
       <c r="J154" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`user_id` INT </v>
+        <v xml:space="preserve">,`notice` TEXT </v>
       </c>
     </row>
     <row r="155" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="34"/>
       <c r="B155" s="43" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E155" s="36">
+        <v>256</v>
+      </c>
       <c r="F155" s="35"/>
       <c r="G155" s="37"/>
       <c r="H155" s="38"/>
       <c r="I155" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
       <c r="J155" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
       </c>
     </row>
     <row r="156" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="34"/>
       <c r="B156" s="43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E156" s="36">
+        <v>256</v>
+      </c>
       <c r="F156" s="35"/>
       <c r="G156" s="37"/>
       <c r="H156" s="38"/>
       <c r="I156" s="40" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
       </c>
       <c r="J156" s="41" t="str">
         <f t="shared" si="39"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A157" s="2"/>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J157" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A159" s="2"/>
-      <c r="B159" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C159" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F159" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H159" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I159" s="27" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C159 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
-      <c r="J159" s="29" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C159 &amp; "` ("</f>
-        <v>CREATE TABLE `orders` (</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A160" s="2"/>
-      <c r="B160" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="6" t="s">
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="34"/>
+      <c r="B157" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D157" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" s="8"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J160" s="30" t="s">
-        <v>20</v>
+      <c r="E157" s="36"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J157" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="34"/>
+      <c r="B158" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="36">
+        <v>64</v>
+      </c>
+      <c r="F158" s="35"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J158" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="34"/>
+      <c r="B159" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E159" s="36"/>
+      <c r="F159" s="35"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+      <c r="J159" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`user_id` INT </v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="34"/>
+      <c r="B160" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="36"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="38"/>
+      <c r="I160" s="40" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
+      </c>
+      <c r="J160" s="41" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
     <row r="161" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A161" s="34"/>
-      <c r="B161" s="32" t="s">
-        <v>113</v>
+      <c r="B161" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="36">
-        <v>20</v>
-      </c>
-      <c r="F161" s="35" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E161" s="36"/>
+      <c r="F161" s="35"/>
       <c r="G161" s="37"/>
-      <c r="H161" s="38" t="s">
-        <v>137</v>
-      </c>
+      <c r="H161" s="38"/>
       <c r="I161" s="40" t="str">
-        <f t="shared" ref="I161:I174" si="40">"," &amp; IF(A161="","","/* ") &amp; "`" &amp; C161 &amp; "` " &amp; D161 &amp; IF(E161&gt;0,"(" &amp; E161 &amp; ") "," ") &amp; IF(F161&lt;&gt;"","NOT NULL ","") &amp; IF(G161="","","DEFAULT '" &amp; G161 &amp; "' ") &amp; IF(A161="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+        <f t="shared" si="38"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J161" s="41" t="str">
-        <f t="shared" ref="J161:J174" si="41">"," &amp; IF(A161="","","/* ") &amp; "`" &amp; C161 &amp; "` " &amp; D161 &amp; IF(E161&gt;0,"(" &amp; E161 &amp; ") "," ") &amp; IF(F161&lt;&gt;"","NOT NULL ","") &amp; IF(G161="","","DEFAULT '" &amp; G161 &amp; "' ") &amp; IF(A161="",""," */")</f>
-        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+        <f t="shared" si="39"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
-      <c r="B162" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C162" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D162" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="36">
-        <v>256</v>
-      </c>
-      <c r="F162" s="35"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="38"/>
-      <c r="I162" s="40" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-      <c r="J162" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A163" s="34"/>
-      <c r="B163" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="36">
-        <v>256</v>
-      </c>
-      <c r="F163" s="35"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="38"/>
-      <c r="I163" s="40" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
-      </c>
-      <c r="J163" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A164" s="34"/>
-      <c r="B164" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C164" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="36"/>
-      <c r="F164" s="35"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="38"/>
-      <c r="I164" s="40" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
-      </c>
-      <c r="J164" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,`order_date` DATE </v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A165" s="34"/>
-      <c r="B165" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165" s="36">
-        <v>6</v>
-      </c>
-      <c r="F165" s="35"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="38"/>
-      <c r="I165" s="40" t="str">
-        <f t="shared" ref="I165" si="42">"," &amp; IF(A165="","","/* ") &amp; "`" &amp; C165 &amp; "` " &amp; D165 &amp; IF(E165&gt;0,"(" &amp; E165 &amp; ") "," ") &amp; IF(F165&lt;&gt;"","NOT NULL ","") &amp; IF(G165="","","DEFAULT '" &amp; G165 &amp; "' ") &amp; IF(A165="",""," */")</f>
-        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
-      </c>
-      <c r="J165" s="41" t="str">
-        <f t="shared" ref="J165" si="43">"," &amp; IF(A165="","","/* ") &amp; "`" &amp; C165 &amp; "` " &amp; D165 &amp; IF(E165&gt;0,"(" &amp; E165 &amp; ") "," ") &amp; IF(F165&lt;&gt;"","NOT NULL ","") &amp; IF(G165="","","DEFAULT '" &amp; G165 &amp; "' ") &amp; IF(A165="",""," */")</f>
-        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
+      <c r="B162" s="21"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J162" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A164" s="2"/>
+      <c r="B164" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I164" s="27" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C164 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+      <c r="J164" s="29" t="str">
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C164 &amp; "` ("</f>
+        <v>CREATE TABLE `orders` (</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A165" s="2"/>
+      <c r="B165" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="7"/>
+      <c r="F165" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" s="8"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J165" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A166" s="34"/>
-      <c r="B166" s="39" t="s">
-        <v>110</v>
+      <c r="B166" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D166" s="35" t="s">
         <v>7</v>
@@ -6795,79 +6827,81 @@
       <c r="E166" s="36">
         <v>20</v>
       </c>
-      <c r="F166" s="35"/>
+      <c r="F166" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G166" s="37"/>
-      <c r="H166" s="38"/>
+      <c r="H166" s="38" t="s">
+        <v>136</v>
+      </c>
       <c r="I166" s="40" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
+        <f t="shared" ref="I166:I179" si="40">"," &amp; IF(A166="","","/* ") &amp; "`" &amp; C166 &amp; "` " &amp; D166 &amp; IF(E166&gt;0,"(" &amp; E166 &amp; ") "," ") &amp; IF(F166&lt;&gt;"","NOT NULL ","") &amp; IF(G166="","","DEFAULT '" &amp; G166 &amp; "' ") &amp; IF(A166="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
       </c>
       <c r="J166" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A167" s="34"/>
-      <c r="B167" s="39" t="s">
-        <v>114</v>
+        <f t="shared" ref="J166:J179" si="41">"," &amp; IF(A166="","","/* ") &amp; "`" &amp; C166 &amp; "` " &amp; D166 &amp; IF(E166&gt;0,"(" &amp; E166 &amp; ") "," ") &amp; IF(F166&lt;&gt;"","NOT NULL ","") &amp; IF(G166="","","DEFAULT '" &amp; G166 &amp; "' ") &amp; IF(A166="",""," */")</f>
+        <v xml:space="preserve">,`company_code` VARCHAR(20) NOT NULL </v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A167" s="2"/>
+      <c r="B167" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D167" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E167" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="37"/>
       <c r="H167" s="38"/>
       <c r="I167" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
       <c r="J167" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`company_name1` VARCHAR(256) </v>
       </c>
     </row>
     <row r="168" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A168" s="34"/>
       <c r="B168" s="39" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D168" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E168" s="36">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="F168" s="35"/>
       <c r="G168" s="37"/>
-      <c r="H168" s="38" t="s">
-        <v>133</v>
-      </c>
+      <c r="H168" s="38"/>
       <c r="I168" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
       <c r="J168" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
+        <v xml:space="preserve">,`company_name2` VARCHAR(256) </v>
       </c>
     </row>
     <row r="169" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A169" s="34"/>
       <c r="B169" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D169" s="35" t="s">
         <v>9</v>
@@ -6878,96 +6912,98 @@
       <c r="H169" s="38"/>
       <c r="I169" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
       <c r="J169" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`delivery_date` DATE </v>
+        <v xml:space="preserve">,`order_date` DATE </v>
       </c>
     </row>
     <row r="170" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A170" s="34"/>
       <c r="B170" s="39" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E170" s="36">
+        <v>6</v>
+      </c>
       <c r="F170" s="35"/>
       <c r="G170" s="37"/>
       <c r="H170" s="38"/>
       <c r="I170" s="40" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <f t="shared" ref="I170" si="42">"," &amp; IF(A170="","","/* ") &amp; "`" &amp; C170 &amp; "` " &amp; D170 &amp; IF(E170&gt;0,"(" &amp; E170 &amp; ") "," ") &amp; IF(F170&lt;&gt;"","NOT NULL ","") &amp; IF(G170="","","DEFAULT '" &amp; G170 &amp; "' ") &amp; IF(A170="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
       </c>
       <c r="J170" s="41" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve">,`sales_date` DATE </v>
+        <f t="shared" ref="J170" si="43">"," &amp; IF(A170="","","/* ") &amp; "`" &amp; C170 &amp; "` " &amp; D170 &amp; IF(E170&gt;0,"(" &amp; E170 &amp; ") "," ") &amp; IF(F170&lt;&gt;"","NOT NULL ","") &amp; IF(G170="","","DEFAULT '" &amp; G170 &amp; "' ") &amp; IF(A170="",""," */")</f>
+        <v xml:space="preserve">,`orderym` VARCHAR(6) </v>
       </c>
     </row>
     <row r="171" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A171" s="34"/>
       <c r="B171" s="39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D171" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E171" s="36">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="37"/>
       <c r="H171" s="38"/>
       <c r="I171" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
       <c r="J171" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+        <v xml:space="preserve">,`order_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="172" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A172" s="34"/>
       <c r="B172" s="39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D172" s="35" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="36">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="F172" s="35"/>
       <c r="G172" s="37"/>
       <c r="H172" s="38"/>
       <c r="I172" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
       <c r="J172" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+        <v xml:space="preserve">,`order_detail_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="173" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A173" s="34"/>
       <c r="B173" s="39" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D173" s="35" t="s">
         <v>7</v>
@@ -6977,173 +7013,177 @@
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="37"/>
-      <c r="H173" s="38"/>
+      <c r="H173" s="38" t="s">
+        <v>132</v>
+      </c>
       <c r="I173" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
       <c r="J173" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+        <v xml:space="preserve">,`purchase_no` VARCHAR(20) </v>
       </c>
     </row>
     <row r="174" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A174" s="34"/>
       <c r="B174" s="39" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="36">
-        <v>256</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E174" s="36"/>
       <c r="F174" s="35"/>
       <c r="G174" s="37"/>
       <c r="H174" s="38"/>
       <c r="I174" s="40" t="str">
         <f t="shared" si="40"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
       <c r="J174" s="41" t="str">
         <f t="shared" si="41"/>
-        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
+        <v xml:space="preserve">,`delivery_date` DATE </v>
       </c>
     </row>
     <row r="175" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A175" s="34"/>
       <c r="B175" s="39" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E175" s="36"/>
       <c r="F175" s="35"/>
       <c r="G175" s="37"/>
       <c r="H175" s="38"/>
       <c r="I175" s="40" t="str">
-        <f t="shared" ref="I175:I176" si="44">"," &amp; IF(A175="","","/* ") &amp; "`" &amp; C175 &amp; "` " &amp; D175 &amp; IF(E175&gt;0,"(" &amp; E175 &amp; ") "," ") &amp; IF(F175&lt;&gt;"","NOT NULL ","") &amp; IF(G175="","","DEFAULT '" &amp; G175 &amp; "' ") &amp; IF(A175="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
       <c r="J175" s="41" t="str">
-        <f t="shared" ref="J175:J176" si="45">"," &amp; IF(A175="","","/* ") &amp; "`" &amp; C175 &amp; "` " &amp; D175 &amp; IF(E175&gt;0,"(" &amp; E175 &amp; ") "," ") &amp; IF(F175&lt;&gt;"","NOT NULL ","") &amp; IF(G175="","","DEFAULT '" &amp; G175 &amp; "' ") &amp; IF(A175="",""," */")</f>
-        <v xml:space="preserve">,`quantity` INT </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`sales_date` DATE </v>
       </c>
     </row>
     <row r="176" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A176" s="34"/>
       <c r="B176" s="39" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E176" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E176" s="36">
+        <v>64</v>
+      </c>
       <c r="F176" s="35"/>
       <c r="G176" s="37"/>
       <c r="H176" s="38"/>
       <c r="I176" s="40" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve">,`price` INT </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
       </c>
       <c r="J176" s="41" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve">,`price` INT </v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A177" s="2"/>
-      <c r="B177" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D177" s="6" t="s">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`status_msg` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A177" s="34"/>
+      <c r="B177" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D177" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="36">
         <v>256</v>
       </c>
-      <c r="F177" s="6"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="27" t="str">
-        <f>"," &amp; IF(A177="","","/* ") &amp; "`" &amp; C177 &amp; "` " &amp; D177 &amp; IF(E177&gt;0,"(" &amp; E177 &amp; ") "," ") &amp; IF(F177&lt;&gt;"","NOT NULL ","") &amp; IF(G177="","","DEFAULT '" &amp; G177 &amp; "' ") &amp; IF(A177="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-      <c r="J177" s="29" t="str">
-        <f>"," &amp; IF(A177="","","/* ") &amp; "`" &amp; C177 &amp; "` " &amp; D177 &amp; IF(E177&gt;0,"(" &amp; E177 &amp; ") "," ") &amp; IF(F177&lt;&gt;"","NOT NULL ","") &amp; IF(G177="","","DEFAULT '" &amp; G177 &amp; "' ") &amp; IF(A177="",""," */")</f>
-        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A178" s="2"/>
-      <c r="B178" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D178" s="6" t="s">
+      <c r="F177" s="35"/>
+      <c r="G177" s="37"/>
+      <c r="H177" s="38"/>
+      <c r="I177" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+      <c r="J177" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`product_category` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A178" s="34"/>
+      <c r="B178" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D178" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E178" s="7">
-        <v>128</v>
-      </c>
-      <c r="F178" s="6"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="27" t="str">
-        <f>"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
-      </c>
-      <c r="J178" s="29" t="str">
-        <f>"," &amp; IF(A178="","","/* ") &amp; "`" &amp; C178 &amp; "` " &amp; D178 &amp; IF(E178&gt;0,"(" &amp; E178 &amp; ") "," ") &amp; IF(F178&lt;&gt;"","NOT NULL ","") &amp; IF(G178="","","DEFAULT '" &amp; G178 &amp; "' ") &amp; IF(A178="",""," */")</f>
-        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      <c r="E178" s="36">
+        <v>20</v>
+      </c>
+      <c r="F178" s="35"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="38"/>
+      <c r="I178" s="40" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
+      </c>
+      <c r="J178" s="41" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="179" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A179" s="34"/>
       <c r="B179" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E179" s="36">
+        <v>256</v>
+      </c>
       <c r="F179" s="35"/>
       <c r="G179" s="37"/>
       <c r="H179" s="38"/>
       <c r="I179" s="40" t="str">
-        <f>"," &amp; IF(A179="","","/* ") &amp; "`" &amp; C179 &amp; "` " &amp; D179 &amp; IF(E179&gt;0,"(" &amp; E179 &amp; ") "," ") &amp; IF(F179&lt;&gt;"","NOT NULL ","") &amp; IF(G179="","","DEFAULT '" &amp; G179 &amp; "' ") &amp; IF(A179="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
+        <f t="shared" si="40"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
       <c r="J179" s="41" t="str">
-        <f>"," &amp; IF(A179="","","/* ") &amp; "`" &amp; C179 &amp; "` " &amp; D179 &amp; IF(E179&gt;0,"(" &amp; E179 &amp; ") "," ") &amp; IF(F179&lt;&gt;"","NOT NULL ","") &amp; IF(G179="","","DEFAULT '" &amp; G179 &amp; "' ") &amp; IF(A179="",""," */")</f>
-        <v xml:space="preserve">,`product_detail` TEXT </v>
+        <f t="shared" si="41"/>
+        <v xml:space="preserve">,`product_name` VARCHAR(256) </v>
       </c>
     </row>
     <row r="180" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A180" s="34"/>
       <c r="B180" s="39" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D180" s="35" t="s">
         <v>5</v>
@@ -7153,47 +7193,45 @@
       <c r="G180" s="37"/>
       <c r="H180" s="38"/>
       <c r="I180" s="40" t="str">
-        <f>"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
+        <f t="shared" ref="I180:I181" si="44">"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
       </c>
       <c r="J180" s="41" t="str">
-        <f>"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
-        <v xml:space="preserve">,`status_id` INT </v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A181" s="2"/>
-      <c r="B181" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181" s="7">
-        <v>256</v>
-      </c>
-      <c r="F181" s="6"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="27" t="str">
-        <f t="shared" ref="I181:I187" si="46">"," &amp; IF(A181="","","/* ") &amp; "`" &amp; C181 &amp; "` " &amp; D181 &amp; IF(E181&gt;0,"(" &amp; E181 &amp; ") "," ") &amp; IF(F181&lt;&gt;"","NOT NULL ","") &amp; IF(G181="","","DEFAULT '" &amp; G181 &amp; "' ") &amp; IF(A181="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
-      </c>
-      <c r="J181" s="29" t="str">
-        <f t="shared" ref="J181:J187" si="47">"," &amp; IF(A181="","","/* ") &amp; "`" &amp; C181 &amp; "` " &amp; D181 &amp; IF(E181&gt;0,"(" &amp; E181 &amp; ") "," ") &amp; IF(F181&lt;&gt;"","NOT NULL ","") &amp; IF(G181="","","DEFAULT '" &amp; G181 &amp; "' ") &amp; IF(A181="",""," */")</f>
-        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+        <f t="shared" ref="J180:J181" si="45">"," &amp; IF(A180="","","/* ") &amp; "`" &amp; C180 &amp; "` " &amp; D180 &amp; IF(E180&gt;0,"(" &amp; E180 &amp; ") "," ") &amp; IF(F180&lt;&gt;"","NOT NULL ","") &amp; IF(G180="","","DEFAULT '" &amp; G180 &amp; "' ") &amp; IF(A180="",""," */")</f>
+        <v xml:space="preserve">,`quantity` INT </v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A181" s="34"/>
+      <c r="B181" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D181" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="36"/>
+      <c r="F181" s="35"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="38"/>
+      <c r="I181" s="40" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J181" s="41" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve">,`price` INT </v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
-      <c r="B182" s="43" t="s">
-        <v>50</v>
+      <c r="B182" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>7</v>
@@ -7205,363 +7243,373 @@
       <c r="G182" s="8"/>
       <c r="H182" s="9"/>
       <c r="I182" s="27" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f>"," &amp; IF(A182="","","/* ") &amp; "`" &amp; C182 &amp; "` " &amp; D182 &amp; IF(E182&gt;0,"(" &amp; E182 &amp; ") "," ") &amp; IF(F182&lt;&gt;"","NOT NULL ","") &amp; IF(G182="","","DEFAULT '" &amp; G182 &amp; "' ") &amp; IF(A182="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
       <c r="J182" s="29" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+        <f>"," &amp; IF(A182="","","/* ") &amp; "`" &amp; C182 &amp; "` " &amp; D182 &amp; IF(E182&gt;0,"(" &amp; E182 &amp; ") "," ") &amp; IF(F182&lt;&gt;"","NOT NULL ","") &amp; IF(G182="","","DEFAULT '" &amp; G182 &amp; "' ") &amp; IF(A182="",""," */")</f>
+        <v xml:space="preserve">,`sales_dept` VARCHAR(256) </v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
-      <c r="B183" s="43" t="s">
-        <v>51</v>
+      <c r="B183" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E183" s="7">
+        <v>128</v>
+      </c>
       <c r="F183" s="6"/>
       <c r="G183" s="8"/>
       <c r="H183" s="9"/>
       <c r="I183" s="27" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">,`size` INT </v>
+        <f>"," &amp; IF(A183="","","/* ") &amp; "`" &amp; C183 &amp; "` " &amp; D183 &amp; IF(E183&gt;0,"(" &amp; E183 &amp; ") "," ") &amp; IF(F183&lt;&gt;"","NOT NULL ","") &amp; IF(G183="","","DEFAULT '" &amp; G183 &amp; "' ") &amp; IF(A183="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
       </c>
       <c r="J183" s="29" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,`size` INT </v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A184" s="2"/>
-      <c r="B184" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="7">
-        <v>64</v>
-      </c>
-      <c r="F184" s="6"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="27" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
-      </c>
-      <c r="J184" s="29" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+        <f>"," &amp; IF(A183="","","/* ") &amp; "`" &amp; C183 &amp; "` " &amp; D183 &amp; IF(E183&gt;0,"(" &amp; E183 &amp; ") "," ") &amp; IF(F183&lt;&gt;"","NOT NULL ","") &amp; IF(G183="","","DEFAULT '" &amp; G183 &amp; "' ") &amp; IF(A183="",""," */")</f>
+        <v xml:space="preserve">,`sales_staff` VARCHAR(128) </v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="34"/>
+      <c r="B184" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D184" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="36"/>
+      <c r="F184" s="35"/>
+      <c r="G184" s="37"/>
+      <c r="H184" s="38"/>
+      <c r="I184" s="40" t="str">
+        <f>"," &amp; IF(A184="","","/* ") &amp; "`" &amp; C184 &amp; "` " &amp; D184 &amp; IF(E184&gt;0,"(" &amp; E184 &amp; ") "," ") &amp; IF(F184&lt;&gt;"","NOT NULL ","") &amp; IF(G184="","","DEFAULT '" &amp; G184 &amp; "' ") &amp; IF(A184="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
+      </c>
+      <c r="J184" s="41" t="str">
+        <f>"," &amp; IF(A184="","","/* ") &amp; "`" &amp; C184 &amp; "` " &amp; D184 &amp; IF(E184&gt;0,"(" &amp; E184 &amp; ") "," ") &amp; IF(F184&lt;&gt;"","NOT NULL ","") &amp; IF(G184="","","DEFAULT '" &amp; G184 &amp; "' ") &amp; IF(A184="",""," */")</f>
+        <v xml:space="preserve">,`product_detail` TEXT </v>
       </c>
     </row>
     <row r="185" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A185" s="34"/>
-      <c r="B185" s="43" t="s">
-        <v>160</v>
+      <c r="B185" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="E185" s="36"/>
       <c r="F185" s="35"/>
       <c r="G185" s="37"/>
       <c r="H185" s="38"/>
       <c r="I185" s="40" t="str">
+        <f>"," &amp; IF(A185="","","/* ") &amp; "`" &amp; C185 &amp; "` " &amp; D185 &amp; IF(E185&gt;0,"(" &amp; E185 &amp; ") "," ") &amp; IF(F185&lt;&gt;"","NOT NULL ","") &amp; IF(G185="","","DEFAULT '" &amp; G185 &amp; "' ") &amp; IF(A185="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+      <c r="J185" s="41" t="str">
+        <f>"," &amp; IF(A185="","","/* ") &amp; "`" &amp; C185 &amp; "` " &amp; D185 &amp; IF(E185&gt;0,"(" &amp; E185 &amp; ") "," ") &amp; IF(F185&lt;&gt;"","NOT NULL ","") &amp; IF(G185="","","DEFAULT '" &amp; G185 &amp; "' ") &amp; IF(A185="",""," */")</f>
+        <v xml:space="preserve">,`status_id` INT </v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A186" s="2"/>
+      <c r="B186" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="7">
+        <v>256</v>
+      </c>
+      <c r="F186" s="6"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="27" t="str">
+        <f t="shared" ref="I186:I192" si="46">"," &amp; IF(A186="","","/* ") &amp; "`" &amp; C186 &amp; "` " &amp; D186 &amp; IF(E186&gt;0,"(" &amp; E186 &amp; ") "," ") &amp; IF(F186&lt;&gt;"","NOT NULL ","") &amp; IF(G186="","","DEFAULT '" &amp; G186 &amp; "' ") &amp; IF(A186="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+      <c r="J186" s="29" t="str">
+        <f t="shared" ref="J186:J192" si="47">"," &amp; IF(A186="","","/* ") &amp; "`" &amp; C186 &amp; "` " &amp; D186 &amp; IF(E186&gt;0,"(" &amp; E186 &amp; ") "," ") &amp; IF(F186&lt;&gt;"","NOT NULL ","") &amp; IF(G186="","","DEFAULT '" &amp; G186 &amp; "' ") &amp; IF(A186="",""," */")</f>
+        <v xml:space="preserve">,`file` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A187" s="2"/>
+      <c r="B187" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="7">
+        <v>256</v>
+      </c>
+      <c r="F187" s="6"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="27" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+      <c r="J187" s="29" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`dir` VARCHAR(256) </v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A188" s="2"/>
+      <c r="B188" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="7"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="27" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+      <c r="J188" s="29" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`size` INT </v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A189" s="2"/>
+      <c r="B189" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="7">
+        <v>64</v>
+      </c>
+      <c r="F189" s="6"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="27" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+      <c r="J189" s="29" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`type` VARCHAR(64) </v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="34"/>
+      <c r="B190" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C190" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D190" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E190" s="36"/>
+      <c r="F190" s="35"/>
+      <c r="G190" s="37"/>
+      <c r="H190" s="38"/>
+      <c r="I190" s="40" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">,`user_id` INT </v>
       </c>
-      <c r="J185" s="41" t="str">
+      <c r="J190" s="41" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">,`user_id` INT </v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A186" s="34"/>
-      <c r="B186" s="43" t="s">
+    <row r="191" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="34"/>
+      <c r="B191" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C186" s="35" t="s">
+      <c r="C191" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D186" s="35" t="s">
+      <c r="D191" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E186" s="36"/>
-      <c r="F186" s="35"/>
-      <c r="G186" s="37"/>
-      <c r="H186" s="38"/>
-      <c r="I186" s="40" t="str">
+      <c r="E191" s="36"/>
+      <c r="F191" s="35"/>
+      <c r="G191" s="37"/>
+      <c r="H191" s="38"/>
+      <c r="I191" s="40" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
-      <c r="J186" s="41" t="str">
+      <c r="J191" s="41" t="str">
         <f t="shared" si="47"/>
         <v xml:space="preserve">,`created` DATETIME </v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A187" s="34"/>
-      <c r="B187" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C187" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D187" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" s="36"/>
-      <c r="F187" s="35"/>
-      <c r="G187" s="37"/>
-      <c r="H187" s="38"/>
-      <c r="I187" s="40" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-      <c r="J187" s="41" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A188" s="2"/>
-      <c r="B188" s="21"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="21"/>
-      <c r="E188" s="22"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="23"/>
-      <c r="H188" s="21"/>
-      <c r="I188" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J188" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A189" s="2"/>
-    </row>
-    <row r="190" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A190" s="34"/>
-      <c r="B190" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C190" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F190" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H190" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I190" s="40" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C190 &amp; "` ("</f>
-        <v>CREATE TABLE `productinfos` (</v>
-      </c>
-      <c r="J190" s="41" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C190 &amp; "` ("</f>
-        <v>CREATE TABLE `productinfos` (</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="34"/>
-      <c r="B191" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D191" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E191" s="36"/>
-      <c r="F191" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" s="37"/>
-      <c r="H191" s="38"/>
-      <c r="I191" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J191" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="192" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A192" s="34"/>
-      <c r="B192" s="39" t="s">
-        <v>181</v>
+      <c r="B192" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="D192" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" s="36">
-        <v>128</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E192" s="36"/>
       <c r="F192" s="35"/>
       <c r="G192" s="37"/>
       <c r="H192" s="38"/>
       <c r="I192" s="40" t="str">
-        <f>"," &amp; IF(A192="","","/* ") &amp; "`" &amp; C192 &amp; "` " &amp; D192 &amp; IF(E192&gt;0,"(" &amp; E192 &amp; ") "," ") &amp; IF(F192&lt;&gt;"","NOT NULL ","") &amp; IF(G192="","","DEFAULT '" &amp; G192 &amp; "' ") &amp; IF(A192="",""," */")</f>
-        <v xml:space="preserve">,`category` VARCHAR(128) </v>
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
       </c>
       <c r="J192" s="41" t="str">
-        <f>"," &amp; IF(A192="","","/* ") &amp; "`" &amp; C192 &amp; "` " &amp; D192 &amp; IF(E192&gt;0,"(" &amp; E192 &amp; ") "," ") &amp; IF(F192&lt;&gt;"","NOT NULL ","") &amp; IF(G192="","","DEFAULT '" &amp; G192 &amp; "' ") &amp; IF(A192="",""," */")</f>
-        <v xml:space="preserve">,`category` VARCHAR(128) </v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A193" s="34"/>
-      <c r="B193" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C193" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D193" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E193" s="36"/>
-      <c r="F193" s="35"/>
-      <c r="G193" s="37"/>
-      <c r="H193" s="38"/>
-      <c r="I193" s="40" t="str">
-        <f>"," &amp; IF(A193="","","/* ") &amp; "`" &amp; C193 &amp; "` " &amp; D193 &amp; IF(E193&gt;0,"(" &amp; E193 &amp; ") "," ") &amp; IF(F193&lt;&gt;"","NOT NULL ","") &amp; IF(G193="","","DEFAULT '" &amp; G193 &amp; "' ") &amp; IF(A193="",""," */")</f>
-        <v xml:space="preserve">,`use_support` INT </v>
-      </c>
-      <c r="J193" s="41" t="str">
-        <f>"," &amp; IF(A193="","","/* ") &amp; "`" &amp; C193 &amp; "` " &amp; D193 &amp; IF(E193&gt;0,"(" &amp; E193 &amp; ") "," ") &amp; IF(F193&lt;&gt;"","NOT NULL ","") &amp; IF(G193="","","DEFAULT '" &amp; G193 &amp; "' ") &amp; IF(A193="",""," */")</f>
-        <v xml:space="preserve">,`use_support` INT </v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A194" s="34"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D194" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" s="36">
-        <v>20</v>
-      </c>
-      <c r="F194" s="35"/>
-      <c r="G194" s="37"/>
-      <c r="H194" s="38"/>
-      <c r="I194" s="40" t="str">
-        <f>"," &amp; IF(A194="","","/* ") &amp; "`" &amp; C194 &amp; "` " &amp; D194 &amp; IF(E194&gt;0,"(" &amp; E194 &amp; ") "," ") &amp; IF(F194&lt;&gt;"","NOT NULL ","") &amp; IF(G194="","","DEFAULT '" &amp; G194 &amp; "' ") &amp; IF(A194="",""," */")</f>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
-      </c>
-      <c r="J194" s="41" t="str">
-        <f>"," &amp; IF(A194="","","/* ") &amp; "`" &amp; C194 &amp; "` " &amp; D194 &amp; IF(E194&gt;0,"(" &amp; E194 &amp; ") "," ") &amp; IF(F194&lt;&gt;"","NOT NULL ","") &amp; IF(G194="","","DEFAULT '" &amp; G194 &amp; "' ") &amp; IF(A194="",""," */")</f>
-        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
-      </c>
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">,`modified` DATETIME </v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A193" s="2"/>
+      <c r="B193" s="21"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="23"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J193" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A194" s="2"/>
     </row>
     <row r="195" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A195" s="34"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D195" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E195" s="36">
-        <v>512</v>
-      </c>
-      <c r="F195" s="35"/>
-      <c r="G195" s="37"/>
-      <c r="H195" s="38"/>
+      <c r="B195" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H195" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="I195" s="40" t="str">
-        <f>"," &amp; IF(A195="","","/* ") &amp; "`" &amp; C195 &amp; "` " &amp; D195 &amp; IF(E195&gt;0,"(" &amp; E195 &amp; ") "," ") &amp; IF(F195&lt;&gt;"","NOT NULL ","") &amp; IF(G195="","","DEFAULT '" &amp; G195 &amp; "' ") &amp; IF(A195="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C195 &amp; "` ("</f>
+        <v>CREATE TABLE `productinfos` (</v>
       </c>
       <c r="J195" s="41" t="str">
-        <f>"," &amp; IF(A195="","","/* ") &amp; "`" &amp; C195 &amp; "` " &amp; D195 &amp; IF(E195&gt;0,"(" &amp; E195 &amp; ") "," ") &amp; IF(F195&lt;&gt;"","NOT NULL ","") &amp; IF(G195="","","DEFAULT '" &amp; G195 &amp; "' ") &amp; IF(A195="",""," */")</f>
-        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
+        <f xml:space="preserve"> "CREATE TABLE `" &amp; C195 &amp; "` ("</f>
+        <v>CREATE TABLE `productinfos` (</v>
       </c>
     </row>
     <row r="196" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A196" s="34"/>
-      <c r="B196" s="39"/>
+      <c r="B196" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="C196" s="35" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="D196" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" s="36">
-        <v>20</v>
-      </c>
-      <c r="F196" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="E196" s="36"/>
+      <c r="F196" s="35" t="s">
+        <v>18</v>
+      </c>
       <c r="G196" s="37"/>
       <c r="H196" s="38"/>
-      <c r="I196" s="40" t="str">
-        <f t="shared" ref="I196" si="48">"," &amp; IF(A196="","","/* ") &amp; "`" &amp; C196 &amp; "` " &amp; D196 &amp; IF(E196&gt;0,"(" &amp; E196 &amp; ") "," ") &amp; IF(F196&lt;&gt;"","NOT NULL ","") &amp; IF(G196="","","DEFAULT '" &amp; G196 &amp; "' ") &amp; IF(A196="",""," */")</f>
-        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
-      </c>
-      <c r="J196" s="41" t="str">
-        <f t="shared" ref="J196" si="49">"," &amp; IF(A196="","","/* ") &amp; "`" &amp; C196 &amp; "` " &amp; D196 &amp; IF(E196&gt;0,"(" &amp; E196 &amp; ") "," ") &amp; IF(F196&lt;&gt;"","NOT NULL ","") &amp; IF(G196="","","DEFAULT '" &amp; G196 &amp; "' ") &amp; IF(A196="",""," */")</f>
-        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
+      <c r="I196" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A197" s="34"/>
-      <c r="B197" s="39"/>
+      <c r="B197" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="C197" s="35" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="D197" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="E197" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E197" s="36">
+        <v>128</v>
+      </c>
       <c r="F197" s="35"/>
       <c r="G197" s="37"/>
       <c r="H197" s="38"/>
       <c r="I197" s="40" t="str">
         <f>"," &amp; IF(A197="","","/* ") &amp; "`" &amp; C197 &amp; "` " &amp; D197 &amp; IF(E197&gt;0,"(" &amp; E197 &amp; ") "," ") &amp; IF(F197&lt;&gt;"","NOT NULL ","") &amp; IF(G197="","","DEFAULT '" &amp; G197 &amp; "' ") &amp; IF(A197="",""," */")</f>
-        <v xml:space="preserve">,`price` INT </v>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
       </c>
       <c r="J197" s="41" t="str">
         <f>"," &amp; IF(A197="","","/* ") &amp; "`" &amp; C197 &amp; "` " &amp; D197 &amp; IF(E197&gt;0,"(" &amp; E197 &amp; ") "," ") &amp; IF(F197&lt;&gt;"","NOT NULL ","") &amp; IF(G197="","","DEFAULT '" &amp; G197 &amp; "' ") &amp; IF(A197="",""," */")</f>
-        <v xml:space="preserve">,`price` INT </v>
+        <v xml:space="preserve">,`category` VARCHAR(128) </v>
       </c>
     </row>
     <row r="198" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="34"/>
-      <c r="B198" s="39"/>
+      <c r="B198" s="39" t="s">
+        <v>181</v>
+      </c>
       <c r="C198" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D198" s="35" t="s">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="E198" s="36"/>
       <c r="F198" s="35"/>
@@ -7569,268 +7617,260 @@
       <c r="H198" s="38"/>
       <c r="I198" s="40" t="str">
         <f>"," &amp; IF(A198="","","/* ") &amp; "`" &amp; C198 &amp; "` " &amp; D198 &amp; IF(E198&gt;0,"(" &amp; E198 &amp; ") "," ") &amp; IF(F198&lt;&gt;"","NOT NULL ","") &amp; IF(G198="","","DEFAULT '" &amp; G198 &amp; "' ") &amp; IF(A198="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`use_support` INT </v>
       </c>
       <c r="J198" s="41" t="str">
         <f>"," &amp; IF(A198="","","/* ") &amp; "`" &amp; C198 &amp; "` " &amp; D198 &amp; IF(E198&gt;0,"(" &amp; E198 &amp; ") "," ") &amp; IF(F198&lt;&gt;"","NOT NULL ","") &amp; IF(G198="","","DEFAULT '" &amp; G198 &amp; "' ") &amp; IF(A198="",""," */")</f>
-        <v xml:space="preserve">,`remarks` TEXT </v>
+        <v xml:space="preserve">,`use_support` INT </v>
       </c>
     </row>
     <row r="199" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="34"/>
-      <c r="B199" s="43" t="s">
-        <v>46</v>
-      </c>
+      <c r="B199" s="39"/>
       <c r="C199" s="35" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D199" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E199" s="36">
+        <v>20</v>
+      </c>
       <c r="F199" s="35"/>
       <c r="G199" s="37"/>
       <c r="H199" s="38"/>
       <c r="I199" s="40" t="str">
-        <f t="shared" ref="I199:I200" si="50">"," &amp; IF(A199="","","/* ") &amp; "`" &amp; C199 &amp; "` " &amp; D199 &amp; IF(E199&gt;0,"(" &amp; E199 &amp; ") "," ") &amp; IF(F199&lt;&gt;"","NOT NULL ","") &amp; IF(G199="","","DEFAULT '" &amp; G199 &amp; "' ") &amp; IF(A199="",""," */")</f>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f>"," &amp; IF(A199="","","/* ") &amp; "`" &amp; C199 &amp; "` " &amp; D199 &amp; IF(E199&gt;0,"(" &amp; E199 &amp; ") "," ") &amp; IF(F199&lt;&gt;"","NOT NULL ","") &amp; IF(G199="","","DEFAULT '" &amp; G199 &amp; "' ") &amp; IF(A199="",""," */")</f>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
       <c r="J199" s="41" t="str">
-        <f t="shared" ref="J199:J200" si="51">"," &amp; IF(A199="","","/* ") &amp; "`" &amp; C199 &amp; "` " &amp; D199 &amp; IF(E199&gt;0,"(" &amp; E199 &amp; ") "," ") &amp; IF(F199&lt;&gt;"","NOT NULL ","") &amp; IF(G199="","","DEFAULT '" &amp; G199 &amp; "' ") &amp; IF(A199="",""," */")</f>
-        <v xml:space="preserve">,`created` DATETIME </v>
+        <f>"," &amp; IF(A199="","","/* ") &amp; "`" &amp; C199 &amp; "` " &amp; D199 &amp; IF(E199&gt;0,"(" &amp; E199 &amp; ") "," ") &amp; IF(F199&lt;&gt;"","NOT NULL ","") &amp; IF(G199="","","DEFAULT '" &amp; G199 &amp; "' ") &amp; IF(A199="",""," */")</f>
+        <v xml:space="preserve">,`product_code` VARCHAR(20) </v>
       </c>
     </row>
     <row r="200" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A200" s="34"/>
-      <c r="B200" s="43" t="s">
-        <v>47</v>
-      </c>
+      <c r="B200" s="39"/>
       <c r="C200" s="35" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="D200" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E200" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="E200" s="36">
+        <v>512</v>
+      </c>
       <c r="F200" s="35"/>
       <c r="G200" s="37"/>
       <c r="H200" s="38"/>
       <c r="I200" s="40" t="str">
-        <f t="shared" si="50"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f>"," &amp; IF(A200="","","/* ") &amp; "`" &amp; C200 &amp; "` " &amp; D200 &amp; IF(E200&gt;0,"(" &amp; E200 &amp; ") "," ") &amp; IF(F200&lt;&gt;"","NOT NULL ","") &amp; IF(G200="","","DEFAULT '" &amp; G200 &amp; "' ") &amp; IF(A200="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
       </c>
       <c r="J200" s="41" t="str">
-        <f t="shared" si="51"/>
-        <v xml:space="preserve">,`modified` DATETIME </v>
+        <f>"," &amp; IF(A200="","","/* ") &amp; "`" &amp; C200 &amp; "` " &amp; D200 &amp; IF(E200&gt;0,"(" &amp; E200 &amp; ") "," ") &amp; IF(F200&lt;&gt;"","NOT NULL ","") &amp; IF(G200="","","DEFAULT '" &amp; G200 &amp; "' ") &amp; IF(A200="",""," */")</f>
+        <v xml:space="preserve">,`product_name` VARCHAR(512) </v>
       </c>
     </row>
     <row r="201" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A201" s="34"/>
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="23"/>
-      <c r="H201" s="21"/>
-      <c r="I201" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J201" s="41" t="s">
-        <v>33</v>
+      <c r="B201" s="39"/>
+      <c r="C201" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D201" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="36">
+        <v>20</v>
+      </c>
+      <c r="F201" s="35"/>
+      <c r="G201" s="37"/>
+      <c r="H201" s="38"/>
+      <c r="I201" s="40" t="str">
+        <f t="shared" ref="I201" si="48">"," &amp; IF(A201="","","/* ") &amp; "`" &amp; C201 &amp; "` " &amp; D201 &amp; IF(E201&gt;0,"(" &amp; E201 &amp; ") "," ") &amp; IF(F201&lt;&gt;"","NOT NULL ","") &amp; IF(G201="","","DEFAULT '" &amp; G201 &amp; "' ") &amp; IF(A201="",""," */")</f>
+        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
+      </c>
+      <c r="J201" s="41" t="str">
+        <f t="shared" ref="J201" si="49">"," &amp; IF(A201="","","/* ") &amp; "`" &amp; C201 &amp; "` " &amp; D201 &amp; IF(E201&gt;0,"(" &amp; E201 &amp; ") "," ") &amp; IF(F201&lt;&gt;"","NOT NULL ","") &amp; IF(G201="","","DEFAULT '" &amp; G201 &amp; "' ") &amp; IF(A201="",""," */")</f>
+        <v xml:space="preserve">,`segment` VARCHAR(20) </v>
       </c>
     </row>
     <row r="202" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A202" s="34"/>
-      <c r="E202" s="34"/>
-      <c r="G202" s="3"/>
-      <c r="I202" s="25"/>
-      <c r="J202" s="25"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B203" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C203" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D203" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F203" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G203" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H203" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="B202" s="39"/>
+      <c r="C202" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D202" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E202" s="36"/>
+      <c r="F202" s="35"/>
+      <c r="G202" s="37"/>
+      <c r="H202" s="38"/>
+      <c r="I202" s="40" t="str">
+        <f>"," &amp; IF(A202="","","/* ") &amp; "`" &amp; C202 &amp; "` " &amp; D202 &amp; IF(E202&gt;0,"(" &amp; E202 &amp; ") "," ") &amp; IF(F202&lt;&gt;"","NOT NULL ","") &amp; IF(G202="","","DEFAULT '" &amp; G202 &amp; "' ") &amp; IF(A202="",""," */")</f>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+      <c r="J202" s="41" t="str">
+        <f>"," &amp; IF(A202="","","/* ") &amp; "`" &amp; C202 &amp; "` " &amp; D202 &amp; IF(E202&gt;0,"(" &amp; E202 &amp; ") "," ") &amp; IF(F202&lt;&gt;"","NOT NULL ","") &amp; IF(G202="","","DEFAULT '" &amp; G202 &amp; "' ") &amp; IF(A202="",""," */")</f>
+        <v xml:space="preserve">,`price` INT </v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="34"/>
+      <c r="B203" s="39"/>
+      <c r="C203" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D203" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E203" s="36"/>
+      <c r="F203" s="35"/>
+      <c r="G203" s="37"/>
+      <c r="H203" s="38"/>
       <c r="I203" s="40" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C203 &amp; "` ("</f>
-        <v>CREATE TABLE `supportcontracts` (</v>
+        <f>"," &amp; IF(A203="","","/* ") &amp; "`" &amp; C203 &amp; "` " &amp; D203 &amp; IF(E203&gt;0,"(" &amp; E203 &amp; ") "," ") &amp; IF(F203&lt;&gt;"","NOT NULL ","") &amp; IF(G203="","","DEFAULT '" &amp; G203 &amp; "' ") &amp; IF(A203="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
       </c>
       <c r="J203" s="41" t="str">
-        <f xml:space="preserve"> "CREATE TABLE `" &amp; C203 &amp; "` ("</f>
-        <v>CREATE TABLE `supportcontracts` (</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B204" s="39" t="s">
-        <v>3</v>
+        <f>"," &amp; IF(A203="","","/* ") &amp; "`" &amp; C203 &amp; "` " &amp; D203 &amp; IF(E203&gt;0,"(" &amp; E203 &amp; ") "," ") &amp; IF(F203&lt;&gt;"","NOT NULL ","") &amp; IF(G203="","","DEFAULT '" &amp; G203 &amp; "' ") &amp; IF(A203="",""," */")</f>
+        <v xml:space="preserve">,`remarks` TEXT </v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="34"/>
+      <c r="B204" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="C204" s="35" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D204" s="35" t="s">
-        <v>5</v>